--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document(I／F_files)_N21AA002／List_of_Projects_in_Period.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document(I／F_files)_N21AA002／List_of_Projects_in_Period.xlsx
@@ -1,40 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D3B337-F408-4291-B195-B5307C574CD5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC51F00F-C4BE-4779-8808-D5A39DA7B177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21795" windowHeight="8805" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" state="hidden" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="58" state="hidden" r:id="rId2"/>
-    <sheet name="目次" sheetId="61" r:id="rId3"/>
-    <sheet name="1. 外部インタフェース仕様" sheetId="51" r:id="rId4"/>
-    <sheet name="2. レコード構成" sheetId="52" r:id="rId5"/>
-    <sheet name="プロジェクト情報レコード" sheetId="60" r:id="rId6"/>
-    <sheet name="データ" sheetId="54" r:id="rId7"/>
+    <sheet name="Contents" sheetId="61" r:id="rId3"/>
+    <sheet name="1. External interface specifica" sheetId="51" r:id="rId4"/>
+    <sheet name="2. Record structure" sheetId="52" r:id="rId5"/>
+    <sheet name="3.1. Project information record" sheetId="60" r:id="rId6"/>
+    <sheet name="Data" sheetId="54" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 外部インタフェース仕様'!$A$1:$AI$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. レコード構成'!$A$1:$AI$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$A$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">プロジェクト情報レコード!$A$2:$AO$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. External interface specifica'!$A$1:$AI$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. Record structure'!$A$1:$AI$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1. Project information record'!$A$2:$AO$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Data!$A$1:$A$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$33</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. 外部インタフェース仕様'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. レコード構成'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">プロジェクト情報レコード!$1:$7</definedName>
-    <definedName name="データ型">データ!$A$2:$A$22</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. External interface specifica'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. Record structure'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'3.1. Project information record'!$1:$7</definedName>
+    <definedName name="データ型">Data!$A$2:$A$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -551,7 +553,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="171">
   <si>
     <t>PJ名</t>
   </si>
@@ -699,9 +701,6 @@
   </si>
   <si>
     <t>TIS</t>
-  </si>
-  <si>
-    <t>Contents</t>
   </si>
   <si>
     <t>1. External interface specifications</t>
@@ -1393,6 +1392,22 @@
   </si>
   <si>
     <t>Required</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Contents</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>1. External interface specifications</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>2. Record structure</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>3.1. Project information record</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -2614,6 +2629,174 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2631,192 +2814,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2844,15 +2877,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2880,30 +2904,111 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2913,95 +3018,170 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3054,170 +3234,38 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3231,68 +3279,35 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3443,8 +3458,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7715250" y="390525"/>
-          <a:ext cx="1609725" cy="581025"/>
+          <a:off x="7762875" y="390525"/>
+          <a:ext cx="1619250" cy="581025"/>
           <a:chOff x="809" y="41"/>
           <a:chExt cx="143" cy="61"/>
         </a:xfrm>
@@ -6990,154 +7005,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="196" t="s">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="210" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="212"/>
-      <c r="S1" s="219" t="s">
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="220"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="221"/>
-      <c r="AA1" s="207" t="s">
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="209"/>
-      <c r="AC1" s="190" t="s">
+      <c r="AB1" s="212"/>
+      <c r="AC1" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="192"/>
-      <c r="AG1" s="193">
+      <c r="AD1" s="194"/>
+      <c r="AE1" s="194"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="196">
         <f>IF(D8="","",D8)</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="194"/>
-      <c r="AI1" s="195"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="198"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="20"/>
       <c r="AM1" s="20"/>
       <c r="AN1" s="21"/>
     </row>
     <row r="2" spans="1:40" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="210" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="196" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="223"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="223"/>
-      <c r="X2" s="223"/>
-      <c r="Y2" s="223"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="207" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="217"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="210" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="209"/>
-      <c r="AC2" s="199" t="str">
+      <c r="AB2" s="212"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="193" t="str">
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="196" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="194"/>
-      <c r="AI2" s="195"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="198"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
       <c r="AM2" s="20"/>
       <c r="AN2" s="20"/>
     </row>
     <row r="3" spans="1:40" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="210" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="196" t="s">
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="198"/>
-      <c r="O3" s="216"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="218"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="226"/>
-      <c r="U3" s="226"/>
-      <c r="V3" s="226"/>
-      <c r="W3" s="226"/>
-      <c r="X3" s="226"/>
-      <c r="Y3" s="226"/>
-      <c r="Z3" s="227"/>
-      <c r="AA3" s="207"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="202"/>
-      <c r="AD3" s="191"/>
-      <c r="AE3" s="191"/>
-      <c r="AF3" s="192"/>
-      <c r="AG3" s="193"/>
-      <c r="AH3" s="194"/>
-      <c r="AI3" s="195"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="219"/>
+      <c r="P3" s="220"/>
+      <c r="Q3" s="220"/>
+      <c r="R3" s="221"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="230"/>
+      <c r="AA3" s="210"/>
+      <c r="AB3" s="212"/>
+      <c r="AC3" s="205"/>
+      <c r="AD3" s="194"/>
+      <c r="AE3" s="194"/>
+      <c r="AF3" s="195"/>
+      <c r="AG3" s="196"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="198"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
       <c r="AM3" s="20"/>
@@ -7184,116 +7199,116 @@
       <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="203" t="s">
+      <c r="B7" s="206" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="204"/>
-      <c r="D7" s="203" t="s">
+      <c r="C7" s="207"/>
+      <c r="D7" s="206" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="205"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="203" t="s">
+      <c r="E7" s="208"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="205"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="206" t="s">
+      <c r="H7" s="208"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="205"/>
-      <c r="L7" s="205"/>
-      <c r="M7" s="205"/>
-      <c r="N7" s="205"/>
-      <c r="O7" s="205"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="203" t="s">
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="208"/>
+      <c r="P7" s="207"/>
+      <c r="Q7" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="205"/>
-      <c r="S7" s="205"/>
-      <c r="T7" s="205"/>
-      <c r="U7" s="205"/>
-      <c r="V7" s="205"/>
-      <c r="W7" s="205"/>
-      <c r="X7" s="205"/>
-      <c r="Y7" s="205"/>
-      <c r="Z7" s="205"/>
-      <c r="AA7" s="205"/>
-      <c r="AB7" s="205"/>
-      <c r="AC7" s="205"/>
-      <c r="AD7" s="205"/>
-      <c r="AE7" s="204"/>
-      <c r="AF7" s="203" t="s">
+      <c r="R7" s="208"/>
+      <c r="S7" s="208"/>
+      <c r="T7" s="208"/>
+      <c r="U7" s="208"/>
+      <c r="V7" s="208"/>
+      <c r="W7" s="208"/>
+      <c r="X7" s="208"/>
+      <c r="Y7" s="208"/>
+      <c r="Z7" s="208"/>
+      <c r="AA7" s="208"/>
+      <c r="AB7" s="208"/>
+      <c r="AC7" s="208"/>
+      <c r="AD7" s="208"/>
+      <c r="AE7" s="207"/>
+      <c r="AF7" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AG7" s="205"/>
-      <c r="AH7" s="205"/>
-      <c r="AI7" s="204"/>
+      <c r="AG7" s="208"/>
+      <c r="AH7" s="208"/>
+      <c r="AI7" s="207"/>
       <c r="AJ7" s="17"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="37">
         <v>1</v>
       </c>
-      <c r="B8" s="228" t="s">
+      <c r="B8" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="229"/>
-      <c r="D8" s="230">
+      <c r="C8" s="185"/>
+      <c r="D8" s="186">
         <v>43580</v>
       </c>
-      <c r="E8" s="231"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="228" t="s">
+      <c r="E8" s="187"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="233"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="234" t="s">
+      <c r="H8" s="189"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="235"/>
-      <c r="L8" s="235"/>
-      <c r="M8" s="235"/>
-      <c r="N8" s="235"/>
-      <c r="O8" s="235"/>
-      <c r="P8" s="236"/>
-      <c r="Q8" s="234" t="s">
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="191"/>
+      <c r="O8" s="191"/>
+      <c r="P8" s="192"/>
+      <c r="Q8" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="235"/>
-      <c r="S8" s="235"/>
-      <c r="T8" s="235"/>
-      <c r="U8" s="235"/>
-      <c r="V8" s="235"/>
-      <c r="W8" s="235"/>
-      <c r="X8" s="235"/>
-      <c r="Y8" s="235"/>
-      <c r="Z8" s="235"/>
-      <c r="AA8" s="235"/>
-      <c r="AB8" s="235"/>
-      <c r="AC8" s="235"/>
-      <c r="AD8" s="235"/>
-      <c r="AE8" s="236"/>
-      <c r="AF8" s="178" t="s">
+      <c r="R8" s="191"/>
+      <c r="S8" s="191"/>
+      <c r="T8" s="191"/>
+      <c r="U8" s="191"/>
+      <c r="V8" s="191"/>
+      <c r="W8" s="191"/>
+      <c r="X8" s="191"/>
+      <c r="Y8" s="191"/>
+      <c r="Z8" s="191"/>
+      <c r="AA8" s="191"/>
+      <c r="AB8" s="191"/>
+      <c r="AC8" s="191"/>
+      <c r="AD8" s="191"/>
+      <c r="AE8" s="192"/>
+      <c r="AF8" s="234" t="s">
         <v>48</v>
       </c>
-      <c r="AG8" s="179"/>
-      <c r="AH8" s="179"/>
-      <c r="AI8" s="180"/>
+      <c r="AG8" s="235"/>
+      <c r="AH8" s="235"/>
+      <c r="AI8" s="236"/>
       <c r="AJ8" s="17"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="38"/>
-      <c r="B9" s="184"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="186"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="176"/>
       <c r="J9" s="181"/>
       <c r="K9" s="182"/>
       <c r="L9" s="182"/>
@@ -7316,22 +7331,22 @@
       <c r="AC9" s="182"/>
       <c r="AD9" s="182"/>
       <c r="AE9" s="183"/>
-      <c r="AF9" s="175"/>
-      <c r="AG9" s="176"/>
-      <c r="AH9" s="176"/>
-      <c r="AI9" s="177"/>
+      <c r="AF9" s="231"/>
+      <c r="AG9" s="232"/>
+      <c r="AH9" s="232"/>
+      <c r="AI9" s="233"/>
       <c r="AJ9" s="12"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="38"/>
-      <c r="B10" s="184"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="186"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="176"/>
       <c r="J10" s="181"/>
       <c r="K10" s="182"/>
       <c r="L10" s="182"/>
@@ -7354,21 +7369,21 @@
       <c r="AC10" s="182"/>
       <c r="AD10" s="182"/>
       <c r="AE10" s="183"/>
-      <c r="AF10" s="175"/>
-      <c r="AG10" s="176"/>
-      <c r="AH10" s="176"/>
-      <c r="AI10" s="177"/>
+      <c r="AF10" s="231"/>
+      <c r="AG10" s="232"/>
+      <c r="AH10" s="232"/>
+      <c r="AI10" s="233"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
-      <c r="B11" s="184"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="186"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="176"/>
       <c r="J11" s="181"/>
       <c r="K11" s="182"/>
       <c r="L11" s="182"/>
@@ -7391,21 +7406,21 @@
       <c r="AC11" s="182"/>
       <c r="AD11" s="182"/>
       <c r="AE11" s="183"/>
-      <c r="AF11" s="175"/>
-      <c r="AG11" s="176"/>
-      <c r="AH11" s="176"/>
-      <c r="AI11" s="177"/>
+      <c r="AF11" s="231"/>
+      <c r="AG11" s="232"/>
+      <c r="AH11" s="232"/>
+      <c r="AI11" s="233"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
-      <c r="B12" s="184"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="186"/>
+      <c r="B12" s="175"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="176"/>
       <c r="J12" s="181"/>
       <c r="K12" s="182"/>
       <c r="L12" s="182"/>
@@ -7428,21 +7443,21 @@
       <c r="AC12" s="182"/>
       <c r="AD12" s="182"/>
       <c r="AE12" s="183"/>
-      <c r="AF12" s="175"/>
-      <c r="AG12" s="176"/>
-      <c r="AH12" s="176"/>
-      <c r="AI12" s="177"/>
+      <c r="AF12" s="231"/>
+      <c r="AG12" s="232"/>
+      <c r="AH12" s="232"/>
+      <c r="AI12" s="233"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
-      <c r="B13" s="184"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="186"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="176"/>
       <c r="J13" s="181"/>
       <c r="K13" s="182"/>
       <c r="L13" s="182"/>
@@ -7465,28 +7480,28 @@
       <c r="AC13" s="182"/>
       <c r="AD13" s="182"/>
       <c r="AE13" s="183"/>
-      <c r="AF13" s="175"/>
-      <c r="AG13" s="176"/>
-      <c r="AH13" s="176"/>
-      <c r="AI13" s="177"/>
+      <c r="AF13" s="231"/>
+      <c r="AG13" s="232"/>
+      <c r="AH13" s="232"/>
+      <c r="AI13" s="233"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
-      <c r="B14" s="184"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="176"/>
-      <c r="O14" s="176"/>
-      <c r="P14" s="177"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="231"/>
+      <c r="K14" s="232"/>
+      <c r="L14" s="232"/>
+      <c r="M14" s="232"/>
+      <c r="N14" s="232"/>
+      <c r="O14" s="232"/>
+      <c r="P14" s="233"/>
       <c r="Q14" s="181"/>
       <c r="R14" s="182"/>
       <c r="S14" s="182"/>
@@ -7502,28 +7517,28 @@
       <c r="AC14" s="182"/>
       <c r="AD14" s="182"/>
       <c r="AE14" s="183"/>
-      <c r="AF14" s="175"/>
-      <c r="AG14" s="176"/>
-      <c r="AH14" s="176"/>
-      <c r="AI14" s="177"/>
+      <c r="AF14" s="231"/>
+      <c r="AG14" s="232"/>
+      <c r="AH14" s="232"/>
+      <c r="AI14" s="233"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
-      <c r="B15" s="184"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="176"/>
-      <c r="N15" s="176"/>
-      <c r="O15" s="176"/>
-      <c r="P15" s="177"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="231"/>
+      <c r="K15" s="232"/>
+      <c r="L15" s="232"/>
+      <c r="M15" s="232"/>
+      <c r="N15" s="232"/>
+      <c r="O15" s="232"/>
+      <c r="P15" s="233"/>
       <c r="Q15" s="181"/>
       <c r="R15" s="182"/>
       <c r="S15" s="182"/>
@@ -7539,28 +7554,28 @@
       <c r="AC15" s="182"/>
       <c r="AD15" s="182"/>
       <c r="AE15" s="183"/>
-      <c r="AF15" s="175"/>
-      <c r="AG15" s="176"/>
-      <c r="AH15" s="176"/>
-      <c r="AI15" s="177"/>
+      <c r="AF15" s="231"/>
+      <c r="AG15" s="232"/>
+      <c r="AH15" s="232"/>
+      <c r="AI15" s="233"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="176"/>
-      <c r="M16" s="176"/>
-      <c r="N16" s="176"/>
-      <c r="O16" s="176"/>
-      <c r="P16" s="177"/>
+      <c r="B16" s="175"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="231"/>
+      <c r="K16" s="232"/>
+      <c r="L16" s="232"/>
+      <c r="M16" s="232"/>
+      <c r="N16" s="232"/>
+      <c r="O16" s="232"/>
+      <c r="P16" s="233"/>
       <c r="Q16" s="181"/>
       <c r="R16" s="182"/>
       <c r="S16" s="182"/>
@@ -7576,28 +7591,28 @@
       <c r="AC16" s="182"/>
       <c r="AD16" s="182"/>
       <c r="AE16" s="183"/>
-      <c r="AF16" s="175"/>
-      <c r="AG16" s="176"/>
-      <c r="AH16" s="176"/>
-      <c r="AI16" s="177"/>
+      <c r="AF16" s="231"/>
+      <c r="AG16" s="232"/>
+      <c r="AH16" s="232"/>
+      <c r="AI16" s="233"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
-      <c r="B17" s="184"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="176"/>
-      <c r="M17" s="176"/>
-      <c r="N17" s="176"/>
-      <c r="O17" s="176"/>
-      <c r="P17" s="177"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="231"/>
+      <c r="K17" s="232"/>
+      <c r="L17" s="232"/>
+      <c r="M17" s="232"/>
+      <c r="N17" s="232"/>
+      <c r="O17" s="232"/>
+      <c r="P17" s="233"/>
       <c r="Q17" s="181"/>
       <c r="R17" s="182"/>
       <c r="S17" s="182"/>
@@ -7613,28 +7628,28 @@
       <c r="AC17" s="182"/>
       <c r="AD17" s="182"/>
       <c r="AE17" s="183"/>
-      <c r="AF17" s="175"/>
-      <c r="AG17" s="176"/>
-      <c r="AH17" s="176"/>
-      <c r="AI17" s="177"/>
+      <c r="AF17" s="231"/>
+      <c r="AG17" s="232"/>
+      <c r="AH17" s="232"/>
+      <c r="AI17" s="233"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
-      <c r="B18" s="184"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="176"/>
-      <c r="L18" s="176"/>
-      <c r="M18" s="176"/>
-      <c r="N18" s="176"/>
-      <c r="O18" s="176"/>
-      <c r="P18" s="177"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="231"/>
+      <c r="K18" s="232"/>
+      <c r="L18" s="232"/>
+      <c r="M18" s="232"/>
+      <c r="N18" s="232"/>
+      <c r="O18" s="232"/>
+      <c r="P18" s="233"/>
       <c r="Q18" s="181"/>
       <c r="R18" s="182"/>
       <c r="S18" s="182"/>
@@ -7650,28 +7665,28 @@
       <c r="AC18" s="182"/>
       <c r="AD18" s="182"/>
       <c r="AE18" s="183"/>
-      <c r="AF18" s="175"/>
-      <c r="AG18" s="176"/>
-      <c r="AH18" s="176"/>
-      <c r="AI18" s="177"/>
+      <c r="AF18" s="231"/>
+      <c r="AG18" s="232"/>
+      <c r="AH18" s="232"/>
+      <c r="AI18" s="233"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
-      <c r="B19" s="184"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="189"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="176"/>
-      <c r="L19" s="176"/>
-      <c r="M19" s="176"/>
-      <c r="N19" s="176"/>
-      <c r="O19" s="176"/>
-      <c r="P19" s="177"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="231"/>
+      <c r="K19" s="232"/>
+      <c r="L19" s="232"/>
+      <c r="M19" s="232"/>
+      <c r="N19" s="232"/>
+      <c r="O19" s="232"/>
+      <c r="P19" s="233"/>
       <c r="Q19" s="181"/>
       <c r="R19" s="182"/>
       <c r="S19" s="182"/>
@@ -7687,28 +7702,28 @@
       <c r="AC19" s="182"/>
       <c r="AD19" s="182"/>
       <c r="AE19" s="183"/>
-      <c r="AF19" s="175"/>
-      <c r="AG19" s="176"/>
-      <c r="AH19" s="176"/>
-      <c r="AI19" s="177"/>
+      <c r="AF19" s="231"/>
+      <c r="AG19" s="232"/>
+      <c r="AH19" s="232"/>
+      <c r="AI19" s="233"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
-      <c r="B20" s="184"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="189"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="176"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="176"/>
-      <c r="N20" s="176"/>
-      <c r="O20" s="176"/>
-      <c r="P20" s="177"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="231"/>
+      <c r="K20" s="232"/>
+      <c r="L20" s="232"/>
+      <c r="M20" s="232"/>
+      <c r="N20" s="232"/>
+      <c r="O20" s="232"/>
+      <c r="P20" s="233"/>
       <c r="Q20" s="181"/>
       <c r="R20" s="182"/>
       <c r="S20" s="182"/>
@@ -7724,28 +7739,28 @@
       <c r="AC20" s="182"/>
       <c r="AD20" s="182"/>
       <c r="AE20" s="183"/>
-      <c r="AF20" s="175"/>
-      <c r="AG20" s="176"/>
-      <c r="AH20" s="176"/>
-      <c r="AI20" s="177"/>
+      <c r="AF20" s="231"/>
+      <c r="AG20" s="232"/>
+      <c r="AH20" s="232"/>
+      <c r="AI20" s="233"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
-      <c r="B21" s="184"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="187"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="176"/>
-      <c r="L21" s="176"/>
-      <c r="M21" s="176"/>
-      <c r="N21" s="176"/>
-      <c r="O21" s="176"/>
-      <c r="P21" s="177"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="231"/>
+      <c r="K21" s="232"/>
+      <c r="L21" s="232"/>
+      <c r="M21" s="232"/>
+      <c r="N21" s="232"/>
+      <c r="O21" s="232"/>
+      <c r="P21" s="233"/>
       <c r="Q21" s="181"/>
       <c r="R21" s="182"/>
       <c r="S21" s="182"/>
@@ -7761,28 +7776,28 @@
       <c r="AC21" s="182"/>
       <c r="AD21" s="182"/>
       <c r="AE21" s="183"/>
-      <c r="AF21" s="175"/>
-      <c r="AG21" s="176"/>
-      <c r="AH21" s="176"/>
-      <c r="AI21" s="177"/>
+      <c r="AF21" s="231"/>
+      <c r="AG21" s="232"/>
+      <c r="AH21" s="232"/>
+      <c r="AI21" s="233"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
-      <c r="B22" s="184"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="176"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="176"/>
-      <c r="N22" s="176"/>
-      <c r="O22" s="176"/>
-      <c r="P22" s="177"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="231"/>
+      <c r="K22" s="232"/>
+      <c r="L22" s="232"/>
+      <c r="M22" s="232"/>
+      <c r="N22" s="232"/>
+      <c r="O22" s="232"/>
+      <c r="P22" s="233"/>
       <c r="Q22" s="181"/>
       <c r="R22" s="182"/>
       <c r="S22" s="182"/>
@@ -7798,28 +7813,28 @@
       <c r="AC22" s="182"/>
       <c r="AD22" s="182"/>
       <c r="AE22" s="183"/>
-      <c r="AF22" s="175"/>
-      <c r="AG22" s="176"/>
-      <c r="AH22" s="176"/>
-      <c r="AI22" s="177"/>
+      <c r="AF22" s="231"/>
+      <c r="AG22" s="232"/>
+      <c r="AH22" s="232"/>
+      <c r="AI22" s="233"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
-      <c r="B23" s="184"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="175"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="176"/>
-      <c r="M23" s="176"/>
-      <c r="N23" s="176"/>
-      <c r="O23" s="176"/>
-      <c r="P23" s="177"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="176"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="231"/>
+      <c r="K23" s="232"/>
+      <c r="L23" s="232"/>
+      <c r="M23" s="232"/>
+      <c r="N23" s="232"/>
+      <c r="O23" s="232"/>
+      <c r="P23" s="233"/>
       <c r="Q23" s="181"/>
       <c r="R23" s="182"/>
       <c r="S23" s="182"/>
@@ -7835,28 +7850,28 @@
       <c r="AC23" s="182"/>
       <c r="AD23" s="182"/>
       <c r="AE23" s="183"/>
-      <c r="AF23" s="175"/>
-      <c r="AG23" s="176"/>
-      <c r="AH23" s="176"/>
-      <c r="AI23" s="177"/>
+      <c r="AF23" s="231"/>
+      <c r="AG23" s="232"/>
+      <c r="AH23" s="232"/>
+      <c r="AI23" s="233"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="189"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="176"/>
-      <c r="L24" s="176"/>
-      <c r="M24" s="176"/>
-      <c r="N24" s="176"/>
-      <c r="O24" s="176"/>
-      <c r="P24" s="177"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="231"/>
+      <c r="K24" s="232"/>
+      <c r="L24" s="232"/>
+      <c r="M24" s="232"/>
+      <c r="N24" s="232"/>
+      <c r="O24" s="232"/>
+      <c r="P24" s="233"/>
       <c r="Q24" s="181"/>
       <c r="R24" s="182"/>
       <c r="S24" s="182"/>
@@ -7872,28 +7887,28 @@
       <c r="AC24" s="182"/>
       <c r="AD24" s="182"/>
       <c r="AE24" s="183"/>
-      <c r="AF24" s="175"/>
-      <c r="AG24" s="176"/>
-      <c r="AH24" s="176"/>
-      <c r="AI24" s="177"/>
+      <c r="AF24" s="231"/>
+      <c r="AG24" s="232"/>
+      <c r="AH24" s="232"/>
+      <c r="AI24" s="233"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="175"/>
-      <c r="K25" s="176"/>
-      <c r="L25" s="176"/>
-      <c r="M25" s="176"/>
-      <c r="N25" s="176"/>
-      <c r="O25" s="176"/>
-      <c r="P25" s="177"/>
+      <c r="B25" s="175"/>
+      <c r="C25" s="176"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="231"/>
+      <c r="K25" s="232"/>
+      <c r="L25" s="232"/>
+      <c r="M25" s="232"/>
+      <c r="N25" s="232"/>
+      <c r="O25" s="232"/>
+      <c r="P25" s="233"/>
       <c r="Q25" s="181"/>
       <c r="R25" s="182"/>
       <c r="S25" s="182"/>
@@ -7909,28 +7924,28 @@
       <c r="AC25" s="182"/>
       <c r="AD25" s="182"/>
       <c r="AE25" s="183"/>
-      <c r="AF25" s="175"/>
-      <c r="AG25" s="176"/>
-      <c r="AH25" s="176"/>
-      <c r="AI25" s="177"/>
+      <c r="AF25" s="231"/>
+      <c r="AG25" s="232"/>
+      <c r="AH25" s="232"/>
+      <c r="AI25" s="233"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="38"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="189"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="185"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="176"/>
-      <c r="N26" s="176"/>
-      <c r="O26" s="176"/>
-      <c r="P26" s="177"/>
+      <c r="B26" s="175"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="231"/>
+      <c r="K26" s="232"/>
+      <c r="L26" s="232"/>
+      <c r="M26" s="232"/>
+      <c r="N26" s="232"/>
+      <c r="O26" s="232"/>
+      <c r="P26" s="233"/>
       <c r="Q26" s="181"/>
       <c r="R26" s="182"/>
       <c r="S26" s="182"/>
@@ -7946,28 +7961,28 @@
       <c r="AC26" s="182"/>
       <c r="AD26" s="182"/>
       <c r="AE26" s="183"/>
-      <c r="AF26" s="175"/>
-      <c r="AG26" s="176"/>
-      <c r="AH26" s="176"/>
-      <c r="AI26" s="177"/>
+      <c r="AF26" s="231"/>
+      <c r="AG26" s="232"/>
+      <c r="AH26" s="232"/>
+      <c r="AI26" s="233"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="189"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="176"/>
-      <c r="L27" s="176"/>
-      <c r="M27" s="176"/>
-      <c r="N27" s="176"/>
-      <c r="O27" s="176"/>
-      <c r="P27" s="177"/>
+      <c r="B27" s="175"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="231"/>
+      <c r="K27" s="232"/>
+      <c r="L27" s="232"/>
+      <c r="M27" s="232"/>
+      <c r="N27" s="232"/>
+      <c r="O27" s="232"/>
+      <c r="P27" s="233"/>
       <c r="Q27" s="181"/>
       <c r="R27" s="182"/>
       <c r="S27" s="182"/>
@@ -7983,28 +7998,28 @@
       <c r="AC27" s="182"/>
       <c r="AD27" s="182"/>
       <c r="AE27" s="183"/>
-      <c r="AF27" s="175"/>
-      <c r="AG27" s="176"/>
-      <c r="AH27" s="176"/>
-      <c r="AI27" s="177"/>
+      <c r="AF27" s="231"/>
+      <c r="AG27" s="232"/>
+      <c r="AH27" s="232"/>
+      <c r="AI27" s="233"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="38"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="189"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="176"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="176"/>
-      <c r="N28" s="176"/>
-      <c r="O28" s="176"/>
-      <c r="P28" s="177"/>
+      <c r="B28" s="175"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="180"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="231"/>
+      <c r="K28" s="232"/>
+      <c r="L28" s="232"/>
+      <c r="M28" s="232"/>
+      <c r="N28" s="232"/>
+      <c r="O28" s="232"/>
+      <c r="P28" s="233"/>
       <c r="Q28" s="181"/>
       <c r="R28" s="182"/>
       <c r="S28" s="182"/>
@@ -8020,28 +8035,28 @@
       <c r="AC28" s="182"/>
       <c r="AD28" s="182"/>
       <c r="AE28" s="183"/>
-      <c r="AF28" s="175"/>
-      <c r="AG28" s="176"/>
-      <c r="AH28" s="176"/>
-      <c r="AI28" s="177"/>
+      <c r="AF28" s="231"/>
+      <c r="AG28" s="232"/>
+      <c r="AH28" s="232"/>
+      <c r="AI28" s="233"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="38"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="176"/>
-      <c r="M29" s="176"/>
-      <c r="N29" s="176"/>
-      <c r="O29" s="176"/>
-      <c r="P29" s="177"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="231"/>
+      <c r="K29" s="232"/>
+      <c r="L29" s="232"/>
+      <c r="M29" s="232"/>
+      <c r="N29" s="232"/>
+      <c r="O29" s="232"/>
+      <c r="P29" s="233"/>
       <c r="Q29" s="181"/>
       <c r="R29" s="182"/>
       <c r="S29" s="182"/>
@@ -8057,28 +8072,28 @@
       <c r="AC29" s="182"/>
       <c r="AD29" s="182"/>
       <c r="AE29" s="183"/>
-      <c r="AF29" s="175"/>
-      <c r="AG29" s="176"/>
-      <c r="AH29" s="176"/>
-      <c r="AI29" s="177"/>
+      <c r="AF29" s="231"/>
+      <c r="AG29" s="232"/>
+      <c r="AH29" s="232"/>
+      <c r="AI29" s="233"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="38"/>
-      <c r="B30" s="184"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="176"/>
-      <c r="L30" s="176"/>
-      <c r="M30" s="176"/>
-      <c r="N30" s="176"/>
-      <c r="O30" s="176"/>
-      <c r="P30" s="177"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="180"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="231"/>
+      <c r="K30" s="232"/>
+      <c r="L30" s="232"/>
+      <c r="M30" s="232"/>
+      <c r="N30" s="232"/>
+      <c r="O30" s="232"/>
+      <c r="P30" s="233"/>
       <c r="Q30" s="181"/>
       <c r="R30" s="182"/>
       <c r="S30" s="182"/>
@@ -8094,28 +8109,28 @@
       <c r="AC30" s="182"/>
       <c r="AD30" s="182"/>
       <c r="AE30" s="183"/>
-      <c r="AF30" s="175"/>
-      <c r="AG30" s="176"/>
-      <c r="AH30" s="176"/>
-      <c r="AI30" s="177"/>
+      <c r="AF30" s="231"/>
+      <c r="AG30" s="232"/>
+      <c r="AH30" s="232"/>
+      <c r="AI30" s="233"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="38"/>
-      <c r="B31" s="184"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="187"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="176"/>
-      <c r="N31" s="176"/>
-      <c r="O31" s="176"/>
-      <c r="P31" s="177"/>
+      <c r="B31" s="175"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="231"/>
+      <c r="K31" s="232"/>
+      <c r="L31" s="232"/>
+      <c r="M31" s="232"/>
+      <c r="N31" s="232"/>
+      <c r="O31" s="232"/>
+      <c r="P31" s="233"/>
       <c r="Q31" s="181"/>
       <c r="R31" s="182"/>
       <c r="S31" s="182"/>
@@ -8131,28 +8146,28 @@
       <c r="AC31" s="182"/>
       <c r="AD31" s="182"/>
       <c r="AE31" s="183"/>
-      <c r="AF31" s="175"/>
-      <c r="AG31" s="176"/>
-      <c r="AH31" s="176"/>
-      <c r="AI31" s="177"/>
+      <c r="AF31" s="231"/>
+      <c r="AG31" s="232"/>
+      <c r="AH31" s="232"/>
+      <c r="AI31" s="233"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="38"/>
-      <c r="B32" s="184"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="189"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="176"/>
-      <c r="N32" s="176"/>
-      <c r="O32" s="176"/>
-      <c r="P32" s="177"/>
+      <c r="B32" s="175"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="180"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="231"/>
+      <c r="K32" s="232"/>
+      <c r="L32" s="232"/>
+      <c r="M32" s="232"/>
+      <c r="N32" s="232"/>
+      <c r="O32" s="232"/>
+      <c r="P32" s="233"/>
       <c r="Q32" s="181"/>
       <c r="R32" s="182"/>
       <c r="S32" s="182"/>
@@ -8168,28 +8183,28 @@
       <c r="AC32" s="182"/>
       <c r="AD32" s="182"/>
       <c r="AE32" s="183"/>
-      <c r="AF32" s="175"/>
-      <c r="AG32" s="176"/>
-      <c r="AH32" s="176"/>
-      <c r="AI32" s="177"/>
+      <c r="AF32" s="231"/>
+      <c r="AG32" s="232"/>
+      <c r="AH32" s="232"/>
+      <c r="AI32" s="233"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="38"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="176"/>
-      <c r="M33" s="176"/>
-      <c r="N33" s="176"/>
-      <c r="O33" s="176"/>
-      <c r="P33" s="177"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="180"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="231"/>
+      <c r="K33" s="232"/>
+      <c r="L33" s="232"/>
+      <c r="M33" s="232"/>
+      <c r="N33" s="232"/>
+      <c r="O33" s="232"/>
+      <c r="P33" s="233"/>
       <c r="Q33" s="181"/>
       <c r="R33" s="182"/>
       <c r="S33" s="182"/>
@@ -8205,157 +8220,24 @@
       <c r="AC33" s="182"/>
       <c r="AD33" s="182"/>
       <c r="AE33" s="183"/>
-      <c r="AF33" s="175"/>
-      <c r="AG33" s="176"/>
-      <c r="AH33" s="176"/>
-      <c r="AI33" s="177"/>
+      <c r="AF33" s="231"/>
+      <c r="AG33" s="232"/>
+      <c r="AH33" s="232"/>
+      <c r="AI33" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF27:AI27"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AF9:AI9"/>
     <mergeCell ref="AF10:AI10"/>
@@ -8380,17 +8262,150 @@
     <mergeCell ref="AF15:AI15"/>
     <mergeCell ref="AF16:AI16"/>
     <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -8546,12 +8561,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="39" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="239"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="244"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -8565,49 +8580,49 @@
       <c r="L1" s="241"/>
       <c r="M1" s="241"/>
       <c r="N1" s="242"/>
-      <c r="O1" s="243" t="s">
+      <c r="O1" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="237" t="s">
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="239"/>
-      <c r="AC1" s="252" t="str">
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="253"/>
-      <c r="AE1" s="253"/>
-      <c r="AF1" s="254"/>
-      <c r="AG1" s="264">
+      <c r="AD1" s="246"/>
+      <c r="AE1" s="246"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="237">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="266"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="239"/>
     </row>
     <row r="2" spans="1:35" s="39" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="244"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -8621,43 +8636,43 @@
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
       <c r="N2" s="242"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="248"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="237" t="s">
+      <c r="O2" s="252"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="254"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="239"/>
-      <c r="AC2" s="252" t="str">
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="253"/>
-      <c r="AE2" s="253"/>
-      <c r="AF2" s="254"/>
-      <c r="AG2" s="264" t="str">
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="265"/>
-      <c r="AI2" s="266"/>
+      <c r="AH2" s="238"/>
+      <c r="AI2" s="239"/>
     </row>
     <row r="3" spans="1:35" s="39" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="239"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="244"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -8671,40 +8686,40 @@
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="242"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="237"/>
-      <c r="AB3" s="239"/>
-      <c r="AC3" s="252" t="str">
+      <c r="O3" s="255"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="253"/>
-      <c r="AF3" s="254"/>
-      <c r="AG3" s="264" t="str">
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="246"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="265"/>
-      <c r="AI3" s="266"/>
+      <c r="AH3" s="238"/>
+      <c r="AI3" s="239"/>
     </row>
     <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="41"/>
     </row>
     <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q5" s="42" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="AC5" s="41"/>
     </row>
@@ -8715,7 +8730,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="43"/>
       <c r="B7" s="44" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="45"/>
@@ -8791,7 +8806,7 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="43"/>
       <c r="B9" s="44" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="45"/>
@@ -8867,7 +8882,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="43"/>
       <c r="B11" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="43"/>
@@ -8907,7 +8922,7 @@
       <c r="A12" s="43"/>
       <c r="B12" s="45"/>
       <c r="C12" s="43" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
@@ -9952,12 +9967,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -9969,6 +9978,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -9994,12 +10009,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="81" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="243" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="239"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="244"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -10013,49 +10028,49 @@
       <c r="L1" s="241"/>
       <c r="M1" s="241"/>
       <c r="N1" s="242"/>
-      <c r="O1" s="243" t="s">
+      <c r="O1" s="249" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="237" t="s">
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="239"/>
-      <c r="AC1" s="252" t="str">
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="253"/>
-      <c r="AE1" s="253"/>
-      <c r="AF1" s="254"/>
-      <c r="AG1" s="264">
+      <c r="AD1" s="246"/>
+      <c r="AE1" s="246"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="237">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="266"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="239"/>
     </row>
     <row r="2" spans="1:35" s="81" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="244"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -10069,43 +10084,43 @@
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
       <c r="N2" s="242"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="248"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="237" t="s">
+      <c r="O2" s="252"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="254"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="243" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="239"/>
-      <c r="AC2" s="252" t="str">
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="253"/>
-      <c r="AE2" s="253"/>
-      <c r="AF2" s="254"/>
-      <c r="AG2" s="264" t="str">
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="265"/>
-      <c r="AI2" s="266"/>
+      <c r="AH2" s="238"/>
+      <c r="AI2" s="239"/>
     </row>
     <row r="3" spans="1:35" s="81" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="239"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="244"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -10119,33 +10134,33 @@
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="242"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="237"/>
-      <c r="AB3" s="239"/>
-      <c r="AC3" s="252" t="str">
+      <c r="O3" s="255"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="253"/>
-      <c r="AF3" s="254"/>
-      <c r="AG3" s="264" t="str">
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="246"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="265"/>
-      <c r="AI3" s="266"/>
+      <c r="AH3" s="238"/>
+      <c r="AI3" s="239"/>
     </row>
     <row r="4" spans="1:35" s="81" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="82"/>
@@ -10158,7 +10173,7 @@
     </row>
     <row r="5" spans="1:35" s="85" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="86"/>
     </row>
@@ -10167,12 +10182,12 @@
       <c r="C6" s="86"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="267" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="270"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="271"/>
+      <c r="A7" s="274" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="275"/>
+      <c r="C7" s="275"/>
+      <c r="D7" s="276"/>
       <c r="E7" s="87"/>
       <c r="F7" s="87"/>
       <c r="G7" s="87"/>
@@ -10185,82 +10200,82 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="275" t="s">
-        <v>159</v>
-      </c>
-      <c r="R7" s="276"/>
-      <c r="S7" s="276"/>
-      <c r="T7" s="277"/>
-      <c r="U7" s="280" t="s">
+      <c r="Q7" s="298" t="s">
+        <v>158</v>
+      </c>
+      <c r="R7" s="293"/>
+      <c r="S7" s="293"/>
+      <c r="T7" s="294"/>
+      <c r="U7" s="299" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" s="300"/>
+      <c r="W7" s="300"/>
+      <c r="X7" s="300"/>
+      <c r="Y7" s="300"/>
+      <c r="Z7" s="300"/>
+      <c r="AA7" s="300"/>
+      <c r="AB7" s="300"/>
+      <c r="AC7" s="300"/>
+      <c r="AD7" s="300"/>
+      <c r="AE7" s="300"/>
+      <c r="AF7" s="300"/>
+      <c r="AG7" s="300"/>
+      <c r="AH7" s="300"/>
+      <c r="AI7" s="301"/>
+    </row>
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="302" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="303"/>
+      <c r="C8" s="303"/>
+      <c r="D8" s="304"/>
+      <c r="E8" s="289" t="s">
         <v>54</v>
       </c>
-      <c r="V7" s="281"/>
-      <c r="W7" s="281"/>
-      <c r="X7" s="281"/>
-      <c r="Y7" s="281"/>
-      <c r="Z7" s="281"/>
-      <c r="AA7" s="281"/>
-      <c r="AB7" s="281"/>
-      <c r="AC7" s="281"/>
-      <c r="AD7" s="281"/>
-      <c r="AE7" s="281"/>
-      <c r="AF7" s="281"/>
-      <c r="AG7" s="281"/>
-      <c r="AH7" s="281"/>
-      <c r="AI7" s="282"/>
-    </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="272" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="273"/>
-      <c r="C8" s="273"/>
-      <c r="D8" s="274"/>
-      <c r="E8" s="278" t="s">
+      <c r="F8" s="290"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="290"/>
+      <c r="I8" s="290"/>
+      <c r="J8" s="290"/>
+      <c r="K8" s="290"/>
+      <c r="L8" s="290"/>
+      <c r="M8" s="290"/>
+      <c r="N8" s="290"/>
+      <c r="O8" s="290"/>
+      <c r="P8" s="290"/>
+      <c r="Q8" s="274" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="279"/>
-      <c r="I8" s="279"/>
-      <c r="J8" s="279"/>
-      <c r="K8" s="279"/>
-      <c r="L8" s="279"/>
-      <c r="M8" s="279"/>
-      <c r="N8" s="279"/>
-      <c r="O8" s="279"/>
-      <c r="P8" s="279"/>
-      <c r="Q8" s="267" t="s">
+      <c r="R8" s="275"/>
+      <c r="S8" s="275"/>
+      <c r="T8" s="276"/>
+      <c r="U8" s="289" t="s">
         <v>56</v>
       </c>
-      <c r="R8" s="270"/>
-      <c r="S8" s="270"/>
-      <c r="T8" s="271"/>
-      <c r="U8" s="278" t="s">
+      <c r="V8" s="290"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="290"/>
+      <c r="Y8" s="290"/>
+      <c r="Z8" s="290"/>
+      <c r="AA8" s="290"/>
+      <c r="AB8" s="290"/>
+      <c r="AC8" s="290"/>
+      <c r="AD8" s="290"/>
+      <c r="AE8" s="290"/>
+      <c r="AF8" s="290"/>
+      <c r="AG8" s="290"/>
+      <c r="AH8" s="290"/>
+      <c r="AI8" s="291"/>
+    </row>
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="274" t="s">
         <v>57</v>
       </c>
-      <c r="V8" s="279"/>
-      <c r="W8" s="279"/>
-      <c r="X8" s="279"/>
-      <c r="Y8" s="279"/>
-      <c r="Z8" s="279"/>
-      <c r="AA8" s="279"/>
-      <c r="AB8" s="279"/>
-      <c r="AC8" s="279"/>
-      <c r="AD8" s="279"/>
-      <c r="AE8" s="279"/>
-      <c r="AF8" s="279"/>
-      <c r="AG8" s="279"/>
-      <c r="AH8" s="279"/>
-      <c r="AI8" s="283"/>
-    </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="267" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="270"/>
-      <c r="C9" s="270"/>
-      <c r="D9" s="271"/>
+      <c r="B9" s="275"/>
+      <c r="C9" s="275"/>
+      <c r="D9" s="276"/>
       <c r="E9" s="89"/>
       <c r="F9" s="89"/>
       <c r="G9" s="89"/>
@@ -10296,7 +10311,7 @@
     <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="92"/>
       <c r="B10" s="93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="93"/>
       <c r="D10" s="93"/>
@@ -10410,7 +10425,7 @@
       <c r="A13" s="98"/>
       <c r="B13" s="99"/>
       <c r="C13" s="100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="100"/>
       <c r="E13" s="100"/>
@@ -10446,8 +10461,8 @@
       <c r="AI13" s="101"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="267" t="s">
-        <v>61</v>
+      <c r="A14" s="274" t="s">
+        <v>60</v>
       </c>
       <c r="B14" s="268"/>
       <c r="C14" s="268"/>
@@ -10487,7 +10502,7 @@
     <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="96"/>
       <c r="B15" s="94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="94"/>
@@ -10526,7 +10541,7 @@
     <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="96"/>
       <c r="B16" s="94" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="94"/>
       <c r="D16" s="94"/>
@@ -10600,12 +10615,12 @@
       <c r="AI17" s="101"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="284" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="285"/>
-      <c r="C18" s="285"/>
-      <c r="D18" s="286"/>
+      <c r="A18" s="286" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="287"/>
+      <c r="C18" s="287"/>
+      <c r="D18" s="288"/>
       <c r="E18" s="92"/>
       <c r="F18" s="103"/>
       <c r="G18" s="94"/>
@@ -10618,12 +10633,12 @@
       <c r="N18" s="94"/>
       <c r="O18" s="93"/>
       <c r="P18" s="94"/>
-      <c r="Q18" s="284" t="s">
-        <v>65</v>
-      </c>
-      <c r="R18" s="285"/>
-      <c r="S18" s="285"/>
-      <c r="T18" s="286"/>
+      <c r="Q18" s="286" t="s">
+        <v>64</v>
+      </c>
+      <c r="R18" s="287"/>
+      <c r="S18" s="287"/>
+      <c r="T18" s="288"/>
       <c r="U18" s="93"/>
       <c r="V18" s="93"/>
       <c r="W18" s="93"/>
@@ -10648,10 +10663,10 @@
       <c r="E19" s="92"/>
       <c r="F19" s="103"/>
       <c r="G19" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="94" t="s">
         <v>66</v>
-      </c>
-      <c r="H19" s="94" t="s">
-        <v>67</v>
       </c>
       <c r="I19" s="94"/>
       <c r="J19" s="93"/>
@@ -10661,7 +10676,7 @@
       <c r="N19" s="94"/>
       <c r="O19" s="94"/>
       <c r="P19" s="94" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q19" s="105"/>
       <c r="R19" s="106"/>
@@ -10677,14 +10692,14 @@
       <c r="AB19" s="94"/>
       <c r="AC19" s="94"/>
       <c r="AD19" s="103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE19" s="94"/>
       <c r="AF19" s="94"/>
       <c r="AG19" s="93"/>
       <c r="AH19" s="93"/>
       <c r="AI19" s="95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10725,14 +10740,14 @@
       <c r="AI20" s="95"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="267" t="s">
+      <c r="A21" s="274" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="275"/>
+      <c r="C21" s="275"/>
+      <c r="D21" s="276"/>
+      <c r="E21" s="111" t="s">
         <v>69</v>
-      </c>
-      <c r="B21" s="270"/>
-      <c r="C21" s="270"/>
-      <c r="D21" s="271"/>
-      <c r="E21" s="111" t="s">
-        <v>70</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="87"/>
@@ -10745,37 +10760,37 @@
       <c r="N21" s="87"/>
       <c r="O21" s="87"/>
       <c r="P21" s="87"/>
-      <c r="Q21" s="267" t="s">
+      <c r="Q21" s="274" t="s">
+        <v>70</v>
+      </c>
+      <c r="R21" s="275"/>
+      <c r="S21" s="275"/>
+      <c r="T21" s="276"/>
+      <c r="U21" s="289" t="s">
         <v>71</v>
       </c>
-      <c r="R21" s="270"/>
-      <c r="S21" s="270"/>
-      <c r="T21" s="271"/>
-      <c r="U21" s="278" t="s">
+      <c r="V21" s="290"/>
+      <c r="W21" s="290"/>
+      <c r="X21" s="290"/>
+      <c r="Y21" s="290"/>
+      <c r="Z21" s="290"/>
+      <c r="AA21" s="290"/>
+      <c r="AB21" s="290"/>
+      <c r="AC21" s="290"/>
+      <c r="AD21" s="290"/>
+      <c r="AE21" s="290"/>
+      <c r="AF21" s="290"/>
+      <c r="AG21" s="290"/>
+      <c r="AH21" s="290"/>
+      <c r="AI21" s="291"/>
+    </row>
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="292" t="s">
         <v>72</v>
       </c>
-      <c r="V21" s="279"/>
-      <c r="W21" s="279"/>
-      <c r="X21" s="279"/>
-      <c r="Y21" s="279"/>
-      <c r="Z21" s="279"/>
-      <c r="AA21" s="279"/>
-      <c r="AB21" s="279"/>
-      <c r="AC21" s="279"/>
-      <c r="AD21" s="279"/>
-      <c r="AE21" s="279"/>
-      <c r="AF21" s="279"/>
-      <c r="AG21" s="279"/>
-      <c r="AH21" s="279"/>
-      <c r="AI21" s="283"/>
-    </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="287" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="276"/>
-      <c r="C22" s="276"/>
-      <c r="D22" s="277"/>
+      <c r="B22" s="293"/>
+      <c r="C22" s="293"/>
+      <c r="D22" s="294"/>
       <c r="E22" s="112"/>
       <c r="F22" s="113"/>
       <c r="G22" s="90"/>
@@ -10788,12 +10803,12 @@
       <c r="N22" s="90"/>
       <c r="O22" s="89"/>
       <c r="P22" s="90"/>
-      <c r="Q22" s="287" t="s">
-        <v>74</v>
-      </c>
-      <c r="R22" s="276"/>
-      <c r="S22" s="276"/>
-      <c r="T22" s="277"/>
+      <c r="Q22" s="292" t="s">
+        <v>73</v>
+      </c>
+      <c r="R22" s="293"/>
+      <c r="S22" s="293"/>
+      <c r="T22" s="294"/>
       <c r="U22" s="114"/>
       <c r="V22" s="90"/>
       <c r="W22" s="89"/>
@@ -10818,7 +10833,7 @@
       <c r="E23" s="115"/>
       <c r="F23" s="116"/>
       <c r="G23" s="116" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="99"/>
       <c r="I23" s="99"/>
@@ -10829,7 +10844,7 @@
       <c r="N23" s="99"/>
       <c r="O23" s="99"/>
       <c r="P23" s="99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="108"/>
       <c r="R23" s="109"/>
@@ -10842,7 +10857,7 @@
       <c r="Y23" s="100"/>
       <c r="Z23" s="99"/>
       <c r="AA23" s="116" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB23" s="99"/>
       <c r="AC23" s="99"/>
@@ -10852,44 +10867,44 @@
       <c r="AG23" s="116"/>
       <c r="AH23" s="100"/>
       <c r="AI23" s="101" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="302" t="s">
+      <c r="A24" s="283" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="284"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="285"/>
+      <c r="E24" s="289" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="303"/>
-      <c r="C24" s="303"/>
-      <c r="D24" s="304"/>
-      <c r="E24" s="278" t="s">
+      <c r="F24" s="290"/>
+      <c r="G24" s="290"/>
+      <c r="H24" s="290"/>
+      <c r="I24" s="290"/>
+      <c r="J24" s="290"/>
+      <c r="K24" s="290"/>
+      <c r="L24" s="290"/>
+      <c r="M24" s="290"/>
+      <c r="N24" s="290"/>
+      <c r="O24" s="290"/>
+      <c r="P24" s="291"/>
+      <c r="Q24" s="295" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="279"/>
-      <c r="G24" s="279"/>
-      <c r="H24" s="279"/>
-      <c r="I24" s="279"/>
-      <c r="J24" s="279"/>
-      <c r="K24" s="279"/>
-      <c r="L24" s="279"/>
-      <c r="M24" s="279"/>
-      <c r="N24" s="279"/>
-      <c r="O24" s="279"/>
-      <c r="P24" s="283"/>
-      <c r="Q24" s="288" t="s">
+      <c r="R24" s="296"/>
+      <c r="S24" s="296"/>
+      <c r="T24" s="297"/>
+      <c r="U24" s="272">
+        <v>3588</v>
+      </c>
+      <c r="V24" s="273"/>
+      <c r="W24" s="273"/>
+      <c r="X24" s="273"/>
+      <c r="Y24" s="117" t="s">
         <v>77</v>
-      </c>
-      <c r="R24" s="289"/>
-      <c r="S24" s="289"/>
-      <c r="T24" s="290"/>
-      <c r="U24" s="294">
-        <v>3588</v>
-      </c>
-      <c r="V24" s="295"/>
-      <c r="W24" s="295"/>
-      <c r="X24" s="295"/>
-      <c r="Y24" s="117" t="s">
-        <v>78</v>
       </c>
       <c r="Z24" s="118"/>
       <c r="AA24" s="118"/>
@@ -10903,47 +10918,47 @@
       <c r="AI24" s="119"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="298" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="300"/>
+      <c r="A25" s="279" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="280"/>
+      <c r="C25" s="280"/>
+      <c r="D25" s="281"/>
       <c r="E25" s="112"/>
       <c r="F25" s="120"/>
       <c r="G25" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="292" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" s="293"/>
-      <c r="J25" s="293"/>
-      <c r="K25" s="293"/>
-      <c r="L25" s="293"/>
-      <c r="M25" s="293"/>
-      <c r="N25" s="293"/>
-      <c r="O25" s="293"/>
-      <c r="P25" s="293"/>
+        <v>65</v>
+      </c>
+      <c r="H25" s="270" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="271"/>
+      <c r="J25" s="271"/>
+      <c r="K25" s="271"/>
+      <c r="L25" s="271"/>
+      <c r="M25" s="271"/>
+      <c r="N25" s="271"/>
+      <c r="O25" s="271"/>
+      <c r="P25" s="271"/>
       <c r="Q25" s="90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R25" s="90"/>
       <c r="S25" s="113"/>
       <c r="T25" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="U25" s="301"/>
-      <c r="V25" s="301"/>
-      <c r="W25" s="301"/>
-      <c r="X25" s="301"/>
-      <c r="Y25" s="301"/>
-      <c r="Z25" s="301"/>
-      <c r="AA25" s="301"/>
-      <c r="AB25" s="301"/>
-      <c r="AC25" s="301"/>
+        <v>65</v>
+      </c>
+      <c r="U25" s="282"/>
+      <c r="V25" s="282"/>
+      <c r="W25" s="282"/>
+      <c r="X25" s="282"/>
+      <c r="Y25" s="282"/>
+      <c r="Z25" s="282"/>
+      <c r="AA25" s="282"/>
+      <c r="AB25" s="282"/>
+      <c r="AC25" s="282"/>
       <c r="AD25" s="90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE25" s="90"/>
       <c r="AF25" s="90"/>
@@ -10959,36 +10974,36 @@
       <c r="E26" s="92"/>
       <c r="F26" s="124"/>
       <c r="G26" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="297"/>
-      <c r="I26" s="297"/>
-      <c r="J26" s="297"/>
-      <c r="K26" s="297"/>
-      <c r="L26" s="297"/>
-      <c r="M26" s="297"/>
-      <c r="N26" s="297"/>
-      <c r="O26" s="297"/>
-      <c r="P26" s="297"/>
+        <v>65</v>
+      </c>
+      <c r="H26" s="278"/>
+      <c r="I26" s="278"/>
+      <c r="J26" s="278"/>
+      <c r="K26" s="278"/>
+      <c r="L26" s="278"/>
+      <c r="M26" s="278"/>
+      <c r="N26" s="278"/>
+      <c r="O26" s="278"/>
+      <c r="P26" s="278"/>
       <c r="Q26" s="94" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R26" s="94"/>
       <c r="S26" s="103"/>
       <c r="T26" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="U26" s="297"/>
-      <c r="V26" s="297"/>
-      <c r="W26" s="297"/>
-      <c r="X26" s="297"/>
-      <c r="Y26" s="297"/>
-      <c r="Z26" s="297"/>
-      <c r="AA26" s="297"/>
-      <c r="AB26" s="297"/>
-      <c r="AC26" s="297"/>
+        <v>65</v>
+      </c>
+      <c r="U26" s="278"/>
+      <c r="V26" s="278"/>
+      <c r="W26" s="278"/>
+      <c r="X26" s="278"/>
+      <c r="Y26" s="278"/>
+      <c r="Z26" s="278"/>
+      <c r="AA26" s="278"/>
+      <c r="AB26" s="278"/>
+      <c r="AC26" s="278"/>
       <c r="AD26" s="94" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE26" s="94"/>
       <c r="AF26" s="94"/>
@@ -11004,46 +11019,46 @@
       <c r="E27" s="115"/>
       <c r="F27" s="128"/>
       <c r="G27" s="116" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="296"/>
-      <c r="I27" s="296"/>
-      <c r="J27" s="296"/>
-      <c r="K27" s="296"/>
-      <c r="L27" s="296"/>
-      <c r="M27" s="296"/>
-      <c r="N27" s="296"/>
-      <c r="O27" s="296"/>
-      <c r="P27" s="296"/>
+        <v>65</v>
+      </c>
+      <c r="H27" s="277"/>
+      <c r="I27" s="277"/>
+      <c r="J27" s="277"/>
+      <c r="K27" s="277"/>
+      <c r="L27" s="277"/>
+      <c r="M27" s="277"/>
+      <c r="N27" s="277"/>
+      <c r="O27" s="277"/>
+      <c r="P27" s="277"/>
       <c r="Q27" s="99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R27" s="99"/>
       <c r="S27" s="116"/>
       <c r="T27" s="116" t="s">
-        <v>66</v>
-      </c>
-      <c r="U27" s="296"/>
-      <c r="V27" s="296"/>
-      <c r="W27" s="296"/>
-      <c r="X27" s="296"/>
-      <c r="Y27" s="296"/>
-      <c r="Z27" s="296"/>
-      <c r="AA27" s="296"/>
-      <c r="AB27" s="296"/>
-      <c r="AC27" s="296"/>
-      <c r="AD27" s="296"/>
-      <c r="AE27" s="296"/>
-      <c r="AF27" s="296"/>
-      <c r="AG27" s="296"/>
-      <c r="AH27" s="296"/>
+        <v>65</v>
+      </c>
+      <c r="U27" s="277"/>
+      <c r="V27" s="277"/>
+      <c r="W27" s="277"/>
+      <c r="X27" s="277"/>
+      <c r="Y27" s="277"/>
+      <c r="Z27" s="277"/>
+      <c r="AA27" s="277"/>
+      <c r="AB27" s="277"/>
+      <c r="AC27" s="277"/>
+      <c r="AD27" s="277"/>
+      <c r="AE27" s="277"/>
+      <c r="AF27" s="277"/>
+      <c r="AG27" s="277"/>
+      <c r="AH27" s="277"/>
       <c r="AI27" s="101" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="291" t="s">
-        <v>160</v>
+      <c r="A28" s="267" t="s">
+        <v>159</v>
       </c>
       <c r="B28" s="268"/>
       <c r="C28" s="268"/>
@@ -11230,14 +11245,31 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="E24:P24"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -11250,31 +11282,14 @@
     <mergeCell ref="H26:P26"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="E24:P24"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11821,12 +11836,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="130" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="243" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="239"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="244"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -11840,49 +11855,49 @@
       <c r="L1" s="241"/>
       <c r="M1" s="241"/>
       <c r="N1" s="242"/>
-      <c r="O1" s="243" t="s">
+      <c r="O1" s="249" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="237" t="s">
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="239"/>
-      <c r="AC1" s="252" t="str">
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="253"/>
-      <c r="AE1" s="253"/>
-      <c r="AF1" s="254"/>
-      <c r="AG1" s="264">
+      <c r="AD1" s="246"/>
+      <c r="AE1" s="246"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="237">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="266"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="239"/>
     </row>
     <row r="2" spans="1:43" s="130" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="243" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="244"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -11896,43 +11911,43 @@
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
       <c r="N2" s="242"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="248"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="237" t="s">
+      <c r="O2" s="252"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="254"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="243" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="239"/>
-      <c r="AC2" s="252" t="str">
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="253"/>
-      <c r="AE2" s="253"/>
-      <c r="AF2" s="254"/>
-      <c r="AG2" s="264" t="str">
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="265"/>
-      <c r="AI2" s="266"/>
+      <c r="AH2" s="238"/>
+      <c r="AI2" s="239"/>
     </row>
     <row r="3" spans="1:43" s="130" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="243" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="239"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="244"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -11946,33 +11961,33 @@
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="242"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="237"/>
-      <c r="AB3" s="239"/>
-      <c r="AC3" s="252" t="str">
+      <c r="O3" s="255"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="253"/>
-      <c r="AF3" s="254"/>
-      <c r="AG3" s="264" t="str">
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="246"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="265"/>
-      <c r="AI3" s="266"/>
+      <c r="AH3" s="238"/>
+      <c r="AI3" s="239"/>
     </row>
     <row r="4" spans="1:43" s="130" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="131"/>
@@ -11996,7 +12011,7 @@
     </row>
     <row r="5" spans="1:43" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="136"/>
     </row>
@@ -12005,190 +12020,190 @@
       <c r="C6" s="136"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A7" s="305" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="306"/>
-      <c r="C7" s="306"/>
-      <c r="D7" s="306"/>
-      <c r="E7" s="306"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="306"/>
-      <c r="H7" s="306"/>
-      <c r="I7" s="306"/>
-      <c r="J7" s="306"/>
-      <c r="K7" s="306"/>
-      <c r="L7" s="306"/>
-      <c r="M7" s="306"/>
-      <c r="N7" s="306"/>
-      <c r="O7" s="306"/>
-      <c r="P7" s="306"/>
-      <c r="Q7" s="306"/>
-      <c r="R7" s="306"/>
-      <c r="S7" s="306"/>
-      <c r="T7" s="306"/>
-      <c r="U7" s="306"/>
-      <c r="V7" s="306"/>
-      <c r="W7" s="306"/>
-      <c r="X7" s="306"/>
-      <c r="Y7" s="306"/>
-      <c r="Z7" s="306"/>
-      <c r="AA7" s="306"/>
-      <c r="AB7" s="307"/>
-      <c r="AC7" s="320" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD7" s="306"/>
-      <c r="AE7" s="306"/>
-      <c r="AF7" s="306"/>
-      <c r="AG7" s="306"/>
-      <c r="AH7" s="306"/>
-      <c r="AI7" s="321"/>
+      <c r="A7" s="360" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="361"/>
+      <c r="C7" s="361"/>
+      <c r="D7" s="361"/>
+      <c r="E7" s="361"/>
+      <c r="F7" s="361"/>
+      <c r="G7" s="361"/>
+      <c r="H7" s="361"/>
+      <c r="I7" s="361"/>
+      <c r="J7" s="361"/>
+      <c r="K7" s="361"/>
+      <c r="L7" s="361"/>
+      <c r="M7" s="361"/>
+      <c r="N7" s="361"/>
+      <c r="O7" s="361"/>
+      <c r="P7" s="361"/>
+      <c r="Q7" s="361"/>
+      <c r="R7" s="361"/>
+      <c r="S7" s="361"/>
+      <c r="T7" s="361"/>
+      <c r="U7" s="361"/>
+      <c r="V7" s="361"/>
+      <c r="W7" s="361"/>
+      <c r="X7" s="361"/>
+      <c r="Y7" s="361"/>
+      <c r="Z7" s="361"/>
+      <c r="AA7" s="361"/>
+      <c r="AB7" s="362"/>
+      <c r="AC7" s="375" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD7" s="361"/>
+      <c r="AE7" s="361"/>
+      <c r="AF7" s="361"/>
+      <c r="AG7" s="361"/>
+      <c r="AH7" s="361"/>
+      <c r="AI7" s="376"/>
     </row>
     <row r="8" spans="1:43" s="139" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="138" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="363" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="308" t="s">
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="365"/>
+      <c r="G8" s="363" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="309"/>
-      <c r="D8" s="309"/>
-      <c r="E8" s="309"/>
-      <c r="F8" s="310"/>
-      <c r="G8" s="308" t="s">
+      <c r="H8" s="366"/>
+      <c r="I8" s="368"/>
+      <c r="J8" s="363" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="311"/>
-      <c r="I8" s="313"/>
-      <c r="J8" s="308" t="s">
+      <c r="K8" s="366"/>
+      <c r="L8" s="366"/>
+      <c r="M8" s="366"/>
+      <c r="N8" s="366"/>
+      <c r="O8" s="366"/>
+      <c r="P8" s="368"/>
+      <c r="Q8" s="369" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="311"/>
-      <c r="L8" s="311"/>
-      <c r="M8" s="311"/>
-      <c r="N8" s="311"/>
-      <c r="O8" s="311"/>
-      <c r="P8" s="313"/>
-      <c r="Q8" s="314" t="s">
+      <c r="R8" s="371"/>
+      <c r="S8" s="369" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="316"/>
-      <c r="S8" s="314" t="s">
+      <c r="T8" s="370"/>
+      <c r="U8" s="371"/>
+      <c r="V8" s="363" t="s">
         <v>87</v>
       </c>
-      <c r="T8" s="315"/>
-      <c r="U8" s="316"/>
-      <c r="V8" s="308" t="s">
+      <c r="W8" s="366"/>
+      <c r="X8" s="366"/>
+      <c r="Y8" s="366"/>
+      <c r="Z8" s="366"/>
+      <c r="AA8" s="366"/>
+      <c r="AB8" s="367"/>
+      <c r="AC8" s="372" t="s">
         <v>88</v>
       </c>
-      <c r="W8" s="311"/>
-      <c r="X8" s="311"/>
-      <c r="Y8" s="311"/>
-      <c r="Z8" s="311"/>
-      <c r="AA8" s="311"/>
-      <c r="AB8" s="312"/>
-      <c r="AC8" s="317" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD8" s="318"/>
-      <c r="AE8" s="318"/>
-      <c r="AF8" s="318"/>
-      <c r="AG8" s="318"/>
-      <c r="AH8" s="319" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI8" s="319"/>
+      <c r="AD8" s="373"/>
+      <c r="AE8" s="373"/>
+      <c r="AF8" s="373"/>
+      <c r="AG8" s="373"/>
+      <c r="AH8" s="374" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI8" s="374"/>
     </row>
     <row r="9" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="140">
         <v>1</v>
       </c>
-      <c r="B9" s="324" t="s">
+      <c r="B9" s="312" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="313"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="314"/>
+      <c r="G9" s="312" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="325"/>
-      <c r="D9" s="325"/>
-      <c r="E9" s="325"/>
-      <c r="F9" s="326"/>
-      <c r="G9" s="324" t="s">
+      <c r="H9" s="313"/>
+      <c r="I9" s="314"/>
+      <c r="J9" s="312" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="325"/>
-      <c r="I9" s="326"/>
-      <c r="J9" s="324" t="s">
+      <c r="K9" s="355"/>
+      <c r="L9" s="355"/>
+      <c r="M9" s="355"/>
+      <c r="N9" s="355"/>
+      <c r="O9" s="355"/>
+      <c r="P9" s="356"/>
+      <c r="Q9" s="319">
+        <v>3588</v>
+      </c>
+      <c r="R9" s="320"/>
+      <c r="S9" s="323" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="332"/>
-      <c r="L9" s="332"/>
-      <c r="M9" s="332"/>
-      <c r="N9" s="332"/>
-      <c r="O9" s="332"/>
-      <c r="P9" s="333"/>
-      <c r="Q9" s="370">
-        <v>3588</v>
-      </c>
-      <c r="R9" s="371"/>
-      <c r="S9" s="374" t="s">
+      <c r="T9" s="324"/>
+      <c r="U9" s="325"/>
+      <c r="V9" s="312" t="s">
         <v>93</v>
       </c>
-      <c r="T9" s="375"/>
-      <c r="U9" s="376"/>
-      <c r="V9" s="324" t="s">
-        <v>94</v>
-      </c>
-      <c r="W9" s="325"/>
-      <c r="X9" s="325"/>
-      <c r="Y9" s="325"/>
-      <c r="Z9" s="325"/>
-      <c r="AA9" s="325"/>
-      <c r="AB9" s="330"/>
-      <c r="AC9" s="336"/>
-      <c r="AD9" s="324"/>
-      <c r="AE9" s="325"/>
-      <c r="AF9" s="325"/>
-      <c r="AG9" s="326"/>
-      <c r="AH9" s="372"/>
-      <c r="AI9" s="373"/>
+      <c r="W9" s="313"/>
+      <c r="X9" s="313"/>
+      <c r="Y9" s="313"/>
+      <c r="Z9" s="313"/>
+      <c r="AA9" s="313"/>
+      <c r="AB9" s="354"/>
+      <c r="AC9" s="357"/>
+      <c r="AD9" s="312"/>
+      <c r="AE9" s="313"/>
+      <c r="AF9" s="313"/>
+      <c r="AG9" s="314"/>
+      <c r="AH9" s="321"/>
+      <c r="AI9" s="322"/>
     </row>
     <row r="10" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="140">
         <v>2</v>
       </c>
-      <c r="B10" s="327"/>
-      <c r="C10" s="328"/>
-      <c r="D10" s="328"/>
-      <c r="E10" s="328"/>
-      <c r="F10" s="329"/>
-      <c r="G10" s="327"/>
-      <c r="H10" s="328"/>
-      <c r="I10" s="329"/>
-      <c r="J10" s="327"/>
-      <c r="K10" s="334"/>
-      <c r="L10" s="334"/>
-      <c r="M10" s="334"/>
-      <c r="N10" s="334"/>
-      <c r="O10" s="334"/>
-      <c r="P10" s="335"/>
-      <c r="Q10" s="342"/>
-      <c r="R10" s="343"/>
-      <c r="S10" s="347"/>
-      <c r="T10" s="348"/>
-      <c r="U10" s="349"/>
-      <c r="V10" s="327"/>
-      <c r="W10" s="328"/>
-      <c r="X10" s="328"/>
-      <c r="Y10" s="328"/>
-      <c r="Z10" s="328"/>
-      <c r="AA10" s="328"/>
-      <c r="AB10" s="331"/>
-      <c r="AC10" s="337"/>
-      <c r="AD10" s="327"/>
-      <c r="AE10" s="328"/>
-      <c r="AF10" s="328"/>
-      <c r="AG10" s="329"/>
-      <c r="AH10" s="322"/>
-      <c r="AI10" s="323"/>
+      <c r="B10" s="307"/>
+      <c r="C10" s="308"/>
+      <c r="D10" s="308"/>
+      <c r="E10" s="308"/>
+      <c r="F10" s="309"/>
+      <c r="G10" s="307"/>
+      <c r="H10" s="308"/>
+      <c r="I10" s="309"/>
+      <c r="J10" s="307"/>
+      <c r="K10" s="316"/>
+      <c r="L10" s="316"/>
+      <c r="M10" s="316"/>
+      <c r="N10" s="316"/>
+      <c r="O10" s="316"/>
+      <c r="P10" s="317"/>
+      <c r="Q10" s="310"/>
+      <c r="R10" s="311"/>
+      <c r="S10" s="326"/>
+      <c r="T10" s="327"/>
+      <c r="U10" s="328"/>
+      <c r="V10" s="307"/>
+      <c r="W10" s="308"/>
+      <c r="X10" s="308"/>
+      <c r="Y10" s="308"/>
+      <c r="Z10" s="308"/>
+      <c r="AA10" s="308"/>
+      <c r="AB10" s="318"/>
+      <c r="AC10" s="358"/>
+      <c r="AD10" s="307"/>
+      <c r="AE10" s="308"/>
+      <c r="AF10" s="308"/>
+      <c r="AG10" s="309"/>
+      <c r="AH10" s="305"/>
+      <c r="AI10" s="306"/>
       <c r="AM10" s="141"/>
       <c r="AN10" s="141"/>
       <c r="AO10" s="141"/>
@@ -12199,40 +12214,40 @@
       <c r="A11" s="140">
         <v>3</v>
       </c>
-      <c r="B11" s="327"/>
-      <c r="C11" s="328"/>
-      <c r="D11" s="328"/>
-      <c r="E11" s="328"/>
-      <c r="F11" s="329"/>
-      <c r="G11" s="344"/>
-      <c r="H11" s="345"/>
-      <c r="I11" s="346"/>
-      <c r="J11" s="327"/>
-      <c r="K11" s="334"/>
-      <c r="L11" s="334"/>
-      <c r="M11" s="334"/>
-      <c r="N11" s="334"/>
-      <c r="O11" s="334"/>
-      <c r="P11" s="335"/>
-      <c r="Q11" s="342"/>
-      <c r="R11" s="343"/>
-      <c r="S11" s="347"/>
-      <c r="T11" s="348"/>
-      <c r="U11" s="349"/>
-      <c r="V11" s="327"/>
-      <c r="W11" s="328"/>
-      <c r="X11" s="328"/>
-      <c r="Y11" s="328"/>
-      <c r="Z11" s="328"/>
-      <c r="AA11" s="328"/>
-      <c r="AB11" s="331"/>
-      <c r="AC11" s="337"/>
-      <c r="AD11" s="364"/>
-      <c r="AE11" s="334"/>
-      <c r="AF11" s="334"/>
-      <c r="AG11" s="335"/>
-      <c r="AH11" s="322"/>
-      <c r="AI11" s="323"/>
+      <c r="B11" s="307"/>
+      <c r="C11" s="308"/>
+      <c r="D11" s="308"/>
+      <c r="E11" s="308"/>
+      <c r="F11" s="309"/>
+      <c r="G11" s="331"/>
+      <c r="H11" s="332"/>
+      <c r="I11" s="333"/>
+      <c r="J11" s="307"/>
+      <c r="K11" s="316"/>
+      <c r="L11" s="316"/>
+      <c r="M11" s="316"/>
+      <c r="N11" s="316"/>
+      <c r="O11" s="316"/>
+      <c r="P11" s="317"/>
+      <c r="Q11" s="310"/>
+      <c r="R11" s="311"/>
+      <c r="S11" s="326"/>
+      <c r="T11" s="327"/>
+      <c r="U11" s="328"/>
+      <c r="V11" s="307"/>
+      <c r="W11" s="308"/>
+      <c r="X11" s="308"/>
+      <c r="Y11" s="308"/>
+      <c r="Z11" s="308"/>
+      <c r="AA11" s="308"/>
+      <c r="AB11" s="318"/>
+      <c r="AC11" s="358"/>
+      <c r="AD11" s="315"/>
+      <c r="AE11" s="316"/>
+      <c r="AF11" s="316"/>
+      <c r="AG11" s="317"/>
+      <c r="AH11" s="305"/>
+      <c r="AI11" s="306"/>
       <c r="AM11" s="94"/>
       <c r="AN11" s="94"/>
       <c r="AO11" s="94"/>
@@ -12243,40 +12258,40 @@
       <c r="A12" s="140">
         <v>4</v>
       </c>
-      <c r="B12" s="327"/>
-      <c r="C12" s="328"/>
-      <c r="D12" s="328"/>
-      <c r="E12" s="328"/>
-      <c r="F12" s="329"/>
-      <c r="G12" s="344"/>
-      <c r="H12" s="345"/>
-      <c r="I12" s="346"/>
-      <c r="J12" s="327"/>
-      <c r="K12" s="334"/>
-      <c r="L12" s="334"/>
-      <c r="M12" s="334"/>
-      <c r="N12" s="334"/>
-      <c r="O12" s="334"/>
-      <c r="P12" s="335"/>
-      <c r="Q12" s="342"/>
-      <c r="R12" s="343"/>
-      <c r="S12" s="347"/>
-      <c r="T12" s="348"/>
-      <c r="U12" s="349"/>
-      <c r="V12" s="327"/>
-      <c r="W12" s="328"/>
-      <c r="X12" s="328"/>
-      <c r="Y12" s="328"/>
-      <c r="Z12" s="328"/>
-      <c r="AA12" s="328"/>
-      <c r="AB12" s="331"/>
-      <c r="AC12" s="337"/>
-      <c r="AD12" s="364"/>
-      <c r="AE12" s="334"/>
-      <c r="AF12" s="334"/>
-      <c r="AG12" s="335"/>
-      <c r="AH12" s="322"/>
-      <c r="AI12" s="323"/>
+      <c r="B12" s="307"/>
+      <c r="C12" s="308"/>
+      <c r="D12" s="308"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="309"/>
+      <c r="G12" s="331"/>
+      <c r="H12" s="332"/>
+      <c r="I12" s="333"/>
+      <c r="J12" s="307"/>
+      <c r="K12" s="316"/>
+      <c r="L12" s="316"/>
+      <c r="M12" s="316"/>
+      <c r="N12" s="316"/>
+      <c r="O12" s="316"/>
+      <c r="P12" s="317"/>
+      <c r="Q12" s="310"/>
+      <c r="R12" s="311"/>
+      <c r="S12" s="326"/>
+      <c r="T12" s="327"/>
+      <c r="U12" s="328"/>
+      <c r="V12" s="307"/>
+      <c r="W12" s="308"/>
+      <c r="X12" s="308"/>
+      <c r="Y12" s="308"/>
+      <c r="Z12" s="308"/>
+      <c r="AA12" s="308"/>
+      <c r="AB12" s="318"/>
+      <c r="AC12" s="358"/>
+      <c r="AD12" s="315"/>
+      <c r="AE12" s="316"/>
+      <c r="AF12" s="316"/>
+      <c r="AG12" s="317"/>
+      <c r="AH12" s="305"/>
+      <c r="AI12" s="306"/>
       <c r="AM12" s="94"/>
       <c r="AN12" s="94"/>
       <c r="AO12" s="94"/>
@@ -12287,40 +12302,40 @@
       <c r="A13" s="140">
         <v>5</v>
       </c>
-      <c r="B13" s="339"/>
-      <c r="C13" s="340"/>
-      <c r="D13" s="340"/>
-      <c r="E13" s="340"/>
-      <c r="F13" s="341"/>
-      <c r="G13" s="327"/>
-      <c r="H13" s="328"/>
-      <c r="I13" s="329"/>
-      <c r="J13" s="327"/>
-      <c r="K13" s="328"/>
-      <c r="L13" s="328"/>
-      <c r="M13" s="328"/>
-      <c r="N13" s="328"/>
-      <c r="O13" s="328"/>
-      <c r="P13" s="329"/>
-      <c r="Q13" s="342"/>
-      <c r="R13" s="343"/>
-      <c r="S13" s="327"/>
-      <c r="T13" s="328"/>
-      <c r="U13" s="329"/>
-      <c r="V13" s="327"/>
-      <c r="W13" s="328"/>
-      <c r="X13" s="328"/>
-      <c r="Y13" s="328"/>
-      <c r="Z13" s="328"/>
-      <c r="AA13" s="328"/>
-      <c r="AB13" s="331"/>
-      <c r="AC13" s="337"/>
-      <c r="AD13" s="364"/>
-      <c r="AE13" s="334"/>
-      <c r="AF13" s="334"/>
-      <c r="AG13" s="335"/>
-      <c r="AH13" s="322"/>
-      <c r="AI13" s="323"/>
+      <c r="B13" s="343"/>
+      <c r="C13" s="344"/>
+      <c r="D13" s="344"/>
+      <c r="E13" s="344"/>
+      <c r="F13" s="345"/>
+      <c r="G13" s="307"/>
+      <c r="H13" s="308"/>
+      <c r="I13" s="309"/>
+      <c r="J13" s="307"/>
+      <c r="K13" s="308"/>
+      <c r="L13" s="308"/>
+      <c r="M13" s="308"/>
+      <c r="N13" s="308"/>
+      <c r="O13" s="308"/>
+      <c r="P13" s="309"/>
+      <c r="Q13" s="310"/>
+      <c r="R13" s="311"/>
+      <c r="S13" s="307"/>
+      <c r="T13" s="308"/>
+      <c r="U13" s="309"/>
+      <c r="V13" s="307"/>
+      <c r="W13" s="308"/>
+      <c r="X13" s="308"/>
+      <c r="Y13" s="308"/>
+      <c r="Z13" s="308"/>
+      <c r="AA13" s="308"/>
+      <c r="AB13" s="318"/>
+      <c r="AC13" s="358"/>
+      <c r="AD13" s="315"/>
+      <c r="AE13" s="316"/>
+      <c r="AF13" s="316"/>
+      <c r="AG13" s="317"/>
+      <c r="AH13" s="305"/>
+      <c r="AI13" s="306"/>
       <c r="AM13" s="142"/>
       <c r="AN13" s="142"/>
       <c r="AO13" s="142"/>
@@ -12331,165 +12346,165 @@
       <c r="A14" s="140">
         <v>6</v>
       </c>
-      <c r="B14" s="339"/>
-      <c r="C14" s="340"/>
-      <c r="D14" s="340"/>
-      <c r="E14" s="340"/>
-      <c r="F14" s="341"/>
-      <c r="G14" s="327"/>
-      <c r="H14" s="328"/>
-      <c r="I14" s="329"/>
-      <c r="J14" s="327"/>
-      <c r="K14" s="328"/>
-      <c r="L14" s="328"/>
-      <c r="M14" s="328"/>
-      <c r="N14" s="328"/>
-      <c r="O14" s="328"/>
-      <c r="P14" s="329"/>
-      <c r="Q14" s="342"/>
-      <c r="R14" s="343"/>
-      <c r="S14" s="327"/>
-      <c r="T14" s="328"/>
-      <c r="U14" s="329"/>
-      <c r="V14" s="327"/>
-      <c r="W14" s="328"/>
-      <c r="X14" s="328"/>
-      <c r="Y14" s="328"/>
-      <c r="Z14" s="328"/>
-      <c r="AA14" s="328"/>
-      <c r="AB14" s="331"/>
-      <c r="AC14" s="337"/>
-      <c r="AD14" s="364"/>
-      <c r="AE14" s="334"/>
-      <c r="AF14" s="334"/>
-      <c r="AG14" s="335"/>
-      <c r="AH14" s="322"/>
-      <c r="AI14" s="323"/>
+      <c r="B14" s="343"/>
+      <c r="C14" s="344"/>
+      <c r="D14" s="344"/>
+      <c r="E14" s="344"/>
+      <c r="F14" s="345"/>
+      <c r="G14" s="307"/>
+      <c r="H14" s="308"/>
+      <c r="I14" s="309"/>
+      <c r="J14" s="307"/>
+      <c r="K14" s="308"/>
+      <c r="L14" s="308"/>
+      <c r="M14" s="308"/>
+      <c r="N14" s="308"/>
+      <c r="O14" s="308"/>
+      <c r="P14" s="309"/>
+      <c r="Q14" s="310"/>
+      <c r="R14" s="311"/>
+      <c r="S14" s="307"/>
+      <c r="T14" s="308"/>
+      <c r="U14" s="309"/>
+      <c r="V14" s="307"/>
+      <c r="W14" s="308"/>
+      <c r="X14" s="308"/>
+      <c r="Y14" s="308"/>
+      <c r="Z14" s="308"/>
+      <c r="AA14" s="308"/>
+      <c r="AB14" s="318"/>
+      <c r="AC14" s="358"/>
+      <c r="AD14" s="315"/>
+      <c r="AE14" s="316"/>
+      <c r="AF14" s="316"/>
+      <c r="AG14" s="317"/>
+      <c r="AH14" s="305"/>
+      <c r="AI14" s="306"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="143">
         <v>7</v>
       </c>
-      <c r="B15" s="339"/>
-      <c r="C15" s="340"/>
-      <c r="D15" s="340"/>
-      <c r="E15" s="340"/>
-      <c r="F15" s="341"/>
-      <c r="G15" s="327"/>
-      <c r="H15" s="328"/>
-      <c r="I15" s="329"/>
-      <c r="J15" s="327"/>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
-      <c r="M15" s="328"/>
-      <c r="N15" s="328"/>
-      <c r="O15" s="328"/>
-      <c r="P15" s="329"/>
-      <c r="Q15" s="342"/>
-      <c r="R15" s="343"/>
-      <c r="S15" s="327"/>
-      <c r="T15" s="328"/>
-      <c r="U15" s="329"/>
-      <c r="V15" s="327"/>
-      <c r="W15" s="328"/>
-      <c r="X15" s="328"/>
-      <c r="Y15" s="328"/>
-      <c r="Z15" s="328"/>
-      <c r="AA15" s="328"/>
-      <c r="AB15" s="331"/>
-      <c r="AC15" s="337"/>
-      <c r="AD15" s="364"/>
-      <c r="AE15" s="334"/>
-      <c r="AF15" s="334"/>
-      <c r="AG15" s="335"/>
-      <c r="AH15" s="322"/>
-      <c r="AI15" s="323"/>
+      <c r="B15" s="343"/>
+      <c r="C15" s="344"/>
+      <c r="D15" s="344"/>
+      <c r="E15" s="344"/>
+      <c r="F15" s="345"/>
+      <c r="G15" s="307"/>
+      <c r="H15" s="308"/>
+      <c r="I15" s="309"/>
+      <c r="J15" s="307"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
+      <c r="M15" s="308"/>
+      <c r="N15" s="308"/>
+      <c r="O15" s="308"/>
+      <c r="P15" s="309"/>
+      <c r="Q15" s="310"/>
+      <c r="R15" s="311"/>
+      <c r="S15" s="307"/>
+      <c r="T15" s="308"/>
+      <c r="U15" s="309"/>
+      <c r="V15" s="307"/>
+      <c r="W15" s="308"/>
+      <c r="X15" s="308"/>
+      <c r="Y15" s="308"/>
+      <c r="Z15" s="308"/>
+      <c r="AA15" s="308"/>
+      <c r="AB15" s="318"/>
+      <c r="AC15" s="358"/>
+      <c r="AD15" s="315"/>
+      <c r="AE15" s="316"/>
+      <c r="AF15" s="316"/>
+      <c r="AG15" s="317"/>
+      <c r="AH15" s="305"/>
+      <c r="AI15" s="306"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="143">
         <v>8</v>
       </c>
-      <c r="B16" s="339"/>
-      <c r="C16" s="340"/>
-      <c r="D16" s="340"/>
-      <c r="E16" s="340"/>
-      <c r="F16" s="341"/>
-      <c r="G16" s="327"/>
-      <c r="H16" s="328"/>
-      <c r="I16" s="329"/>
-      <c r="J16" s="327"/>
-      <c r="K16" s="328"/>
-      <c r="L16" s="328"/>
-      <c r="M16" s="328"/>
-      <c r="N16" s="328"/>
-      <c r="O16" s="328"/>
-      <c r="P16" s="329"/>
-      <c r="Q16" s="342"/>
-      <c r="R16" s="343"/>
-      <c r="S16" s="327"/>
-      <c r="T16" s="328"/>
-      <c r="U16" s="329"/>
-      <c r="V16" s="327"/>
-      <c r="W16" s="328"/>
-      <c r="X16" s="328"/>
-      <c r="Y16" s="328"/>
-      <c r="Z16" s="328"/>
-      <c r="AA16" s="328"/>
-      <c r="AB16" s="331"/>
-      <c r="AC16" s="337"/>
-      <c r="AD16" s="364"/>
-      <c r="AE16" s="334"/>
-      <c r="AF16" s="334"/>
-      <c r="AG16" s="335"/>
-      <c r="AH16" s="322"/>
-      <c r="AI16" s="323"/>
+      <c r="B16" s="343"/>
+      <c r="C16" s="344"/>
+      <c r="D16" s="344"/>
+      <c r="E16" s="344"/>
+      <c r="F16" s="345"/>
+      <c r="G16" s="307"/>
+      <c r="H16" s="308"/>
+      <c r="I16" s="309"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
+      <c r="M16" s="308"/>
+      <c r="N16" s="308"/>
+      <c r="O16" s="308"/>
+      <c r="P16" s="309"/>
+      <c r="Q16" s="310"/>
+      <c r="R16" s="311"/>
+      <c r="S16" s="307"/>
+      <c r="T16" s="308"/>
+      <c r="U16" s="309"/>
+      <c r="V16" s="307"/>
+      <c r="W16" s="308"/>
+      <c r="X16" s="308"/>
+      <c r="Y16" s="308"/>
+      <c r="Z16" s="308"/>
+      <c r="AA16" s="308"/>
+      <c r="AB16" s="318"/>
+      <c r="AC16" s="358"/>
+      <c r="AD16" s="315"/>
+      <c r="AE16" s="316"/>
+      <c r="AF16" s="316"/>
+      <c r="AG16" s="317"/>
+      <c r="AH16" s="305"/>
+      <c r="AI16" s="306"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17" s="144">
         <v>9</v>
       </c>
-      <c r="B17" s="361"/>
-      <c r="C17" s="362"/>
-      <c r="D17" s="362"/>
-      <c r="E17" s="362"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="353"/>
-      <c r="H17" s="354"/>
-      <c r="I17" s="358"/>
-      <c r="J17" s="353"/>
-      <c r="K17" s="354"/>
-      <c r="L17" s="354"/>
-      <c r="M17" s="354"/>
-      <c r="N17" s="354"/>
-      <c r="O17" s="354"/>
-      <c r="P17" s="358"/>
-      <c r="Q17" s="359"/>
-      <c r="R17" s="360"/>
-      <c r="S17" s="353"/>
-      <c r="T17" s="354"/>
-      <c r="U17" s="358"/>
-      <c r="V17" s="353"/>
-      <c r="W17" s="354"/>
-      <c r="X17" s="354"/>
-      <c r="Y17" s="354"/>
-      <c r="Z17" s="354"/>
-      <c r="AA17" s="354"/>
-      <c r="AB17" s="355"/>
-      <c r="AC17" s="338"/>
-      <c r="AD17" s="365"/>
-      <c r="AE17" s="366"/>
-      <c r="AF17" s="366"/>
-      <c r="AG17" s="367"/>
-      <c r="AH17" s="368"/>
-      <c r="AI17" s="369"/>
+      <c r="B17" s="346"/>
+      <c r="C17" s="347"/>
+      <c r="D17" s="347"/>
+      <c r="E17" s="347"/>
+      <c r="F17" s="348"/>
+      <c r="G17" s="335"/>
+      <c r="H17" s="336"/>
+      <c r="I17" s="340"/>
+      <c r="J17" s="335"/>
+      <c r="K17" s="336"/>
+      <c r="L17" s="336"/>
+      <c r="M17" s="336"/>
+      <c r="N17" s="336"/>
+      <c r="O17" s="336"/>
+      <c r="P17" s="340"/>
+      <c r="Q17" s="341"/>
+      <c r="R17" s="342"/>
+      <c r="S17" s="335"/>
+      <c r="T17" s="336"/>
+      <c r="U17" s="340"/>
+      <c r="V17" s="335"/>
+      <c r="W17" s="336"/>
+      <c r="X17" s="336"/>
+      <c r="Y17" s="336"/>
+      <c r="Z17" s="336"/>
+      <c r="AA17" s="336"/>
+      <c r="AB17" s="337"/>
+      <c r="AC17" s="359"/>
+      <c r="AD17" s="349"/>
+      <c r="AE17" s="350"/>
+      <c r="AF17" s="350"/>
+      <c r="AG17" s="351"/>
+      <c r="AH17" s="352"/>
+      <c r="AI17" s="353"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="356"/>
-      <c r="B18" s="357"/>
-      <c r="C18" s="357"/>
-      <c r="D18" s="357"/>
-      <c r="E18" s="357"/>
-      <c r="F18" s="357"/>
+      <c r="A18" s="338"/>
+      <c r="B18" s="339"/>
+      <c r="C18" s="339"/>
+      <c r="D18" s="339"/>
+      <c r="E18" s="339"/>
+      <c r="F18" s="339"/>
       <c r="G18" s="145"/>
       <c r="H18" s="145"/>
       <c r="I18" s="145"/>
@@ -12513,23 +12528,23 @@
       <c r="AA18" s="145"/>
       <c r="AB18" s="145"/>
       <c r="AC18" s="82"/>
-      <c r="AD18" s="352"/>
-      <c r="AE18" s="352"/>
-      <c r="AF18" s="352"/>
-      <c r="AG18" s="352"/>
-      <c r="AH18" s="352"/>
+      <c r="AD18" s="334"/>
+      <c r="AE18" s="334"/>
+      <c r="AF18" s="334"/>
+      <c r="AG18" s="334"/>
+      <c r="AH18" s="334"/>
       <c r="AI18" s="83"/>
       <c r="AJ18" s="141"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="350" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="351"/>
-      <c r="C19" s="351"/>
-      <c r="D19" s="351"/>
-      <c r="E19" s="351"/>
-      <c r="F19" s="351"/>
+      <c r="A19" s="329" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="330"/>
+      <c r="C19" s="330"/>
+      <c r="D19" s="330"/>
+      <c r="E19" s="330"/>
+      <c r="F19" s="330"/>
       <c r="G19" s="146"/>
       <c r="H19" s="145"/>
       <c r="I19" s="145"/>
@@ -12572,7 +12587,7 @@
       <c r="A20" s="148"/>
       <c r="B20" s="141"/>
       <c r="C20" s="149" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D20" s="150"/>
       <c r="E20" s="150"/>
@@ -12621,7 +12636,7 @@
       <c r="B21" s="141"/>
       <c r="C21" s="141"/>
       <c r="D21" s="173" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="141"/>
       <c r="F21" s="149"/>
@@ -12659,7 +12674,7 @@
       <c r="C22" s="149"/>
       <c r="D22" s="141"/>
       <c r="E22" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="154"/>
       <c r="G22" s="154"/>
@@ -12696,7 +12711,7 @@
       <c r="C23" s="149"/>
       <c r="D23" s="141"/>
       <c r="E23" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" s="154"/>
       <c r="G23" s="154"/>
@@ -12733,7 +12748,7 @@
       <c r="C24" s="141"/>
       <c r="D24" s="141"/>
       <c r="E24" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="154"/>
       <c r="G24" s="154"/>
@@ -13013,6 +13028,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="AC9:AC17"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
     <mergeCell ref="AH13:AI13"/>
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="G15:I15"/>
@@ -13037,85 +13131,6 @@
     <mergeCell ref="S9:U9"/>
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AC9:AC17"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="AC7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -13158,12 +13173,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:121" s="45" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="239"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="244"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -13177,49 +13192,49 @@
       <c r="L1" s="241"/>
       <c r="M1" s="241"/>
       <c r="N1" s="242"/>
-      <c r="O1" s="243" t="s">
+      <c r="O1" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="237" t="s">
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="243" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="239"/>
-      <c r="AC1" s="252" t="str">
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="253"/>
-      <c r="AE1" s="253"/>
-      <c r="AF1" s="254"/>
-      <c r="AG1" s="396">
+      <c r="AD1" s="246"/>
+      <c r="AE1" s="246"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="380">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="397"/>
-      <c r="AI1" s="398"/>
+      <c r="AH1" s="381"/>
+      <c r="AI1" s="382"/>
     </row>
     <row r="2" spans="1:121" s="45" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="243" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="244"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -13233,43 +13248,43 @@
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
       <c r="N2" s="242"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="248"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="237" t="s">
+      <c r="O2" s="252"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="254"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="239"/>
-      <c r="AC2" s="252" t="str">
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="253"/>
-      <c r="AE2" s="253"/>
-      <c r="AF2" s="254"/>
-      <c r="AG2" s="396" t="str">
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="380" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="397"/>
-      <c r="AI2" s="398"/>
+      <c r="AH2" s="381"/>
+      <c r="AI2" s="382"/>
     </row>
     <row r="3" spans="1:121" s="45" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="243" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="239"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="244"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -13283,38 +13298,38 @@
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="242"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="237"/>
-      <c r="AB3" s="239"/>
-      <c r="AC3" s="252" t="str">
+      <c r="O3" s="255"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="253"/>
-      <c r="AF3" s="254"/>
-      <c r="AG3" s="396" t="str">
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="246"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="380" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="397"/>
-      <c r="AI3" s="398"/>
+      <c r="AH3" s="381"/>
+      <c r="AI3" s="382"/>
     </row>
     <row r="4" spans="1:121" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:121" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="159" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="159"/>
       <c r="C5" s="159"/>
@@ -13330,69 +13345,69 @@
       <c r="A7" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="388" t="s">
+      <c r="B7" s="377" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="379"/>
+      <c r="G7" s="377" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="389"/>
-      <c r="D7" s="389"/>
-      <c r="E7" s="389"/>
-      <c r="F7" s="390"/>
-      <c r="G7" s="388" t="s">
+      <c r="H7" s="378"/>
+      <c r="I7" s="378"/>
+      <c r="J7" s="378"/>
+      <c r="K7" s="379"/>
+      <c r="L7" s="377" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="389"/>
-      <c r="I7" s="389"/>
-      <c r="J7" s="389"/>
-      <c r="K7" s="390"/>
-      <c r="L7" s="388" t="s">
+      <c r="M7" s="378"/>
+      <c r="N7" s="378"/>
+      <c r="O7" s="378"/>
+      <c r="P7" s="379"/>
+      <c r="Q7" s="161" t="s">
+        <v>166</v>
+      </c>
+      <c r="R7" s="392" t="s">
         <v>98</v>
       </c>
-      <c r="M7" s="389"/>
-      <c r="N7" s="389"/>
-      <c r="O7" s="389"/>
-      <c r="P7" s="390"/>
-      <c r="Q7" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="R7" s="391" t="s">
+      <c r="S7" s="392"/>
+      <c r="T7" s="392"/>
+      <c r="U7" s="392"/>
+      <c r="V7" s="383" t="s">
         <v>99</v>
       </c>
-      <c r="S7" s="391"/>
-      <c r="T7" s="391"/>
-      <c r="U7" s="391"/>
-      <c r="V7" s="399" t="s">
+      <c r="W7" s="383"/>
+      <c r="X7" s="384" t="s">
         <v>100</v>
       </c>
-      <c r="W7" s="399"/>
-      <c r="X7" s="400" t="s">
+      <c r="Y7" s="385"/>
+      <c r="Z7" s="377" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" s="401"/>
-      <c r="Z7" s="388" t="s">
+      <c r="AA7" s="379"/>
+      <c r="AB7" s="377" t="s">
         <v>102</v>
       </c>
-      <c r="AA7" s="390"/>
-      <c r="AB7" s="388" t="s">
+      <c r="AC7" s="379"/>
+      <c r="AD7" s="377" t="s">
         <v>103</v>
       </c>
-      <c r="AC7" s="390"/>
-      <c r="AD7" s="388" t="s">
+      <c r="AE7" s="379"/>
+      <c r="AF7" s="377" t="s">
         <v>104</v>
       </c>
-      <c r="AE7" s="390"/>
-      <c r="AF7" s="388" t="s">
+      <c r="AG7" s="378"/>
+      <c r="AH7" s="379"/>
+      <c r="AI7" s="377" t="s">
         <v>105</v>
       </c>
-      <c r="AG7" s="389"/>
-      <c r="AH7" s="390"/>
-      <c r="AI7" s="388" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ7" s="389"/>
-      <c r="AK7" s="389"/>
-      <c r="AL7" s="389"/>
-      <c r="AM7" s="389"/>
-      <c r="AN7" s="390"/>
+      <c r="AJ7" s="378"/>
+      <c r="AK7" s="378"/>
+      <c r="AL7" s="378"/>
+      <c r="AM7" s="378"/>
+      <c r="AN7" s="379"/>
       <c r="BN7" s="163"/>
       <c r="BO7" s="163"/>
       <c r="BP7" s="163"/>
@@ -13454,69 +13469,69 @@
       <c r="A8" s="165">
         <v>1</v>
       </c>
-      <c r="B8" s="378" t="s">
+      <c r="B8" s="389" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="390"/>
+      <c r="D8" s="390"/>
+      <c r="E8" s="390"/>
+      <c r="F8" s="391"/>
+      <c r="G8" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="379"/>
-      <c r="D8" s="379"/>
-      <c r="E8" s="379"/>
-      <c r="F8" s="380"/>
-      <c r="G8" s="377" t="s">
+      <c r="H8" s="364"/>
+      <c r="I8" s="364"/>
+      <c r="J8" s="364"/>
+      <c r="K8" s="365"/>
+      <c r="L8" s="388" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="309"/>
-      <c r="I8" s="309"/>
-      <c r="J8" s="309"/>
-      <c r="K8" s="310"/>
-      <c r="L8" s="377" t="s">
+      <c r="M8" s="364"/>
+      <c r="N8" s="364"/>
+      <c r="O8" s="364"/>
+      <c r="P8" s="365"/>
+      <c r="Q8" s="166" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="309"/>
-      <c r="N8" s="309"/>
-      <c r="O8" s="309"/>
-      <c r="P8" s="310"/>
-      <c r="Q8" s="166" t="s">
+      <c r="R8" s="388" t="s">
         <v>110</v>
       </c>
-      <c r="R8" s="377" t="s">
-        <v>111</v>
-      </c>
-      <c r="S8" s="309"/>
-      <c r="T8" s="309"/>
-      <c r="U8" s="310"/>
-      <c r="V8" s="381">
+      <c r="S8" s="364"/>
+      <c r="T8" s="364"/>
+      <c r="U8" s="365"/>
+      <c r="V8" s="400">
         <v>10</v>
       </c>
-      <c r="W8" s="382"/>
-      <c r="X8" s="383" t="s">
+      <c r="W8" s="401"/>
+      <c r="X8" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="384"/>
-      <c r="Z8" s="377" t="s">
+      <c r="Y8" s="387"/>
+      <c r="Z8" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA8" s="310"/>
-      <c r="AB8" s="377" t="s">
+      <c r="AA8" s="365"/>
+      <c r="AB8" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC8" s="310"/>
-      <c r="AD8" s="383" t="s">
+      <c r="AC8" s="365"/>
+      <c r="AD8" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE8" s="384"/>
-      <c r="AF8" s="377" t="s">
+      <c r="AE8" s="387"/>
+      <c r="AF8" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG8" s="309"/>
-      <c r="AH8" s="310"/>
-      <c r="AI8" s="378" t="s">
+      <c r="AG8" s="364"/>
+      <c r="AH8" s="365"/>
+      <c r="AI8" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ8" s="379"/>
-      <c r="AK8" s="379"/>
-      <c r="AL8" s="379"/>
-      <c r="AM8" s="379"/>
-      <c r="AN8" s="380"/>
+      <c r="AJ8" s="390"/>
+      <c r="AK8" s="390"/>
+      <c r="AL8" s="390"/>
+      <c r="AM8" s="390"/>
+      <c r="AN8" s="391"/>
       <c r="AS8" s="167"/>
       <c r="AT8" s="167"/>
       <c r="AU8" s="168"/>
@@ -13582,70 +13597,70 @@
       <c r="A9" s="165">
         <v>2</v>
       </c>
-      <c r="B9" s="378" t="s">
+      <c r="B9" s="389" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="390"/>
+      <c r="D9" s="390"/>
+      <c r="E9" s="390"/>
+      <c r="F9" s="391"/>
+      <c r="G9" s="388" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="379"/>
-      <c r="D9" s="379"/>
-      <c r="E9" s="379"/>
-      <c r="F9" s="380"/>
-      <c r="G9" s="377" t="s">
+      <c r="H9" s="364"/>
+      <c r="I9" s="364"/>
+      <c r="J9" s="364"/>
+      <c r="K9" s="365"/>
+      <c r="L9" s="388" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="364"/>
+      <c r="N9" s="364"/>
+      <c r="O9" s="364"/>
+      <c r="P9" s="365"/>
+      <c r="Q9" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="R9" s="388" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="309"/>
-      <c r="I9" s="309"/>
-      <c r="J9" s="309"/>
-      <c r="K9" s="310"/>
-      <c r="L9" s="377" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9" s="309"/>
-      <c r="N9" s="309"/>
-      <c r="O9" s="309"/>
-      <c r="P9" s="310"/>
-      <c r="Q9" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="R9" s="377" t="s">
-        <v>114</v>
-      </c>
-      <c r="S9" s="309"/>
-      <c r="T9" s="309"/>
-      <c r="U9" s="310"/>
-      <c r="V9" s="381">
+      <c r="S9" s="364"/>
+      <c r="T9" s="364"/>
+      <c r="U9" s="365"/>
+      <c r="V9" s="400">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W9" s="382"/>
-      <c r="X9" s="383" t="s">
+      <c r="W9" s="401"/>
+      <c r="X9" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="384"/>
-      <c r="Z9" s="377" t="s">
+      <c r="Y9" s="387"/>
+      <c r="Z9" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA9" s="310"/>
-      <c r="AB9" s="377" t="s">
+      <c r="AA9" s="365"/>
+      <c r="AB9" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC9" s="310"/>
-      <c r="AD9" s="383" t="s">
+      <c r="AC9" s="365"/>
+      <c r="AD9" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE9" s="384"/>
-      <c r="AF9" s="377" t="s">
+      <c r="AE9" s="387"/>
+      <c r="AF9" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG9" s="309"/>
-      <c r="AH9" s="310"/>
-      <c r="AI9" s="378" t="s">
+      <c r="AG9" s="364"/>
+      <c r="AH9" s="365"/>
+      <c r="AI9" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ9" s="379"/>
-      <c r="AK9" s="379"/>
-      <c r="AL9" s="379"/>
-      <c r="AM9" s="379"/>
-      <c r="AN9" s="380"/>
+      <c r="AJ9" s="390"/>
+      <c r="AK9" s="390"/>
+      <c r="AL9" s="390"/>
+      <c r="AM9" s="390"/>
+      <c r="AN9" s="391"/>
       <c r="AS9" s="167"/>
       <c r="AT9" s="167"/>
       <c r="AU9" s="168"/>
@@ -13711,70 +13726,70 @@
       <c r="A10" s="165">
         <v>3</v>
       </c>
-      <c r="B10" s="378" t="s">
+      <c r="B10" s="389" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="390"/>
+      <c r="D10" s="390"/>
+      <c r="E10" s="390"/>
+      <c r="F10" s="391"/>
+      <c r="G10" s="388" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="379"/>
-      <c r="D10" s="379"/>
-      <c r="E10" s="379"/>
-      <c r="F10" s="380"/>
-      <c r="G10" s="377" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="309"/>
-      <c r="I10" s="309"/>
-      <c r="J10" s="309"/>
-      <c r="K10" s="310"/>
-      <c r="L10" s="377" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" s="309"/>
-      <c r="N10" s="309"/>
-      <c r="O10" s="309"/>
-      <c r="P10" s="310"/>
+      <c r="H10" s="364"/>
+      <c r="I10" s="364"/>
+      <c r="J10" s="364"/>
+      <c r="K10" s="365"/>
+      <c r="L10" s="388" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" s="364"/>
+      <c r="N10" s="364"/>
+      <c r="O10" s="364"/>
+      <c r="P10" s="365"/>
       <c r="Q10" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="R10" s="377" t="s">
-        <v>114</v>
-      </c>
-      <c r="S10" s="309"/>
-      <c r="T10" s="309"/>
-      <c r="U10" s="310"/>
-      <c r="V10" s="381">
+        <v>109</v>
+      </c>
+      <c r="R10" s="388" t="s">
+        <v>113</v>
+      </c>
+      <c r="S10" s="364"/>
+      <c r="T10" s="364"/>
+      <c r="U10" s="365"/>
+      <c r="V10" s="400">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W10" s="382"/>
-      <c r="X10" s="383" t="s">
+      <c r="W10" s="401"/>
+      <c r="X10" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y10" s="384"/>
-      <c r="Z10" s="377" t="s">
+      <c r="Y10" s="387"/>
+      <c r="Z10" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA10" s="310"/>
-      <c r="AB10" s="377" t="s">
+      <c r="AA10" s="365"/>
+      <c r="AB10" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC10" s="310"/>
-      <c r="AD10" s="383" t="s">
+      <c r="AC10" s="365"/>
+      <c r="AD10" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE10" s="384"/>
-      <c r="AF10" s="377" t="s">
+      <c r="AE10" s="387"/>
+      <c r="AF10" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG10" s="309"/>
-      <c r="AH10" s="310"/>
-      <c r="AI10" s="378" t="s">
+      <c r="AG10" s="364"/>
+      <c r="AH10" s="365"/>
+      <c r="AI10" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ10" s="379"/>
-      <c r="AK10" s="379"/>
-      <c r="AL10" s="379"/>
-      <c r="AM10" s="379"/>
-      <c r="AN10" s="380"/>
+      <c r="AJ10" s="390"/>
+      <c r="AK10" s="390"/>
+      <c r="AL10" s="390"/>
+      <c r="AM10" s="390"/>
+      <c r="AN10" s="391"/>
       <c r="AS10" s="167"/>
       <c r="AT10" s="167"/>
       <c r="AU10" s="168"/>
@@ -13840,70 +13855,70 @@
       <c r="A11" s="165">
         <v>4</v>
       </c>
-      <c r="B11" s="378" t="s">
+      <c r="B11" s="389" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="390"/>
+      <c r="D11" s="390"/>
+      <c r="E11" s="390"/>
+      <c r="F11" s="391"/>
+      <c r="G11" s="388" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="379"/>
-      <c r="D11" s="379"/>
-      <c r="E11" s="379"/>
-      <c r="F11" s="380"/>
-      <c r="G11" s="377" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="309"/>
-      <c r="I11" s="309"/>
-      <c r="J11" s="309"/>
-      <c r="K11" s="310"/>
-      <c r="L11" s="377" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" s="309"/>
-      <c r="N11" s="309"/>
-      <c r="O11" s="309"/>
-      <c r="P11" s="310"/>
+      <c r="H11" s="364"/>
+      <c r="I11" s="364"/>
+      <c r="J11" s="364"/>
+      <c r="K11" s="365"/>
+      <c r="L11" s="388" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="364"/>
+      <c r="N11" s="364"/>
+      <c r="O11" s="364"/>
+      <c r="P11" s="365"/>
       <c r="Q11" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="R11" s="377" t="s">
-        <v>114</v>
-      </c>
-      <c r="S11" s="309"/>
-      <c r="T11" s="309"/>
-      <c r="U11" s="310"/>
-      <c r="V11" s="381">
+        <v>109</v>
+      </c>
+      <c r="R11" s="388" t="s">
+        <v>113</v>
+      </c>
+      <c r="S11" s="364"/>
+      <c r="T11" s="364"/>
+      <c r="U11" s="365"/>
+      <c r="V11" s="400">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W11" s="382"/>
-      <c r="X11" s="383" t="s">
+      <c r="W11" s="401"/>
+      <c r="X11" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y11" s="384"/>
-      <c r="Z11" s="377" t="s">
+      <c r="Y11" s="387"/>
+      <c r="Z11" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA11" s="310"/>
-      <c r="AB11" s="377" t="s">
+      <c r="AA11" s="365"/>
+      <c r="AB11" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC11" s="310"/>
-      <c r="AD11" s="383" t="s">
+      <c r="AC11" s="365"/>
+      <c r="AD11" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" s="384"/>
-      <c r="AF11" s="377" t="s">
+      <c r="AE11" s="387"/>
+      <c r="AF11" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG11" s="309"/>
-      <c r="AH11" s="310"/>
-      <c r="AI11" s="378" t="s">
+      <c r="AG11" s="364"/>
+      <c r="AH11" s="365"/>
+      <c r="AI11" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ11" s="379"/>
-      <c r="AK11" s="379"/>
-      <c r="AL11" s="379"/>
-      <c r="AM11" s="379"/>
-      <c r="AN11" s="380"/>
+      <c r="AJ11" s="390"/>
+      <c r="AK11" s="390"/>
+      <c r="AL11" s="390"/>
+      <c r="AM11" s="390"/>
+      <c r="AN11" s="391"/>
       <c r="AS11" s="167"/>
       <c r="AT11" s="167"/>
       <c r="AU11" s="168"/>
@@ -13969,69 +13984,69 @@
       <c r="A12" s="165">
         <v>5</v>
       </c>
-      <c r="B12" s="378" t="s">
+      <c r="B12" s="389" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="390"/>
+      <c r="D12" s="390"/>
+      <c r="E12" s="390"/>
+      <c r="F12" s="391"/>
+      <c r="G12" s="388" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="379"/>
-      <c r="D12" s="379"/>
-      <c r="E12" s="379"/>
-      <c r="F12" s="380"/>
-      <c r="G12" s="377" t="s">
+      <c r="H12" s="364"/>
+      <c r="I12" s="364"/>
+      <c r="J12" s="364"/>
+      <c r="K12" s="365"/>
+      <c r="L12" s="388" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="309"/>
-      <c r="I12" s="309"/>
-      <c r="J12" s="309"/>
-      <c r="K12" s="310"/>
-      <c r="L12" s="377" t="s">
+      <c r="M12" s="364"/>
+      <c r="N12" s="364"/>
+      <c r="O12" s="364"/>
+      <c r="P12" s="365"/>
+      <c r="Q12" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="R12" s="388" t="s">
         <v>121</v>
       </c>
-      <c r="M12" s="309"/>
-      <c r="N12" s="309"/>
-      <c r="O12" s="309"/>
-      <c r="P12" s="310"/>
-      <c r="Q12" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="R12" s="377" t="s">
+      <c r="S12" s="364"/>
+      <c r="T12" s="364"/>
+      <c r="U12" s="365"/>
+      <c r="V12" s="400">
+        <v>10</v>
+      </c>
+      <c r="W12" s="401"/>
+      <c r="X12" s="386" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y12" s="387"/>
+      <c r="Z12" s="388" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA12" s="365"/>
+      <c r="AB12" s="388" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC12" s="365"/>
+      <c r="AD12" s="386" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE12" s="387"/>
+      <c r="AF12" s="388" t="s">
         <v>122</v>
       </c>
-      <c r="S12" s="309"/>
-      <c r="T12" s="309"/>
-      <c r="U12" s="310"/>
-      <c r="V12" s="381">
-        <v>10</v>
-      </c>
-      <c r="W12" s="382"/>
-      <c r="X12" s="383" t="s">
+      <c r="AG12" s="364"/>
+      <c r="AH12" s="365"/>
+      <c r="AI12" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" s="384"/>
-      <c r="Z12" s="377" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA12" s="310"/>
-      <c r="AB12" s="377" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC12" s="310"/>
-      <c r="AD12" s="383" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE12" s="384"/>
-      <c r="AF12" s="377" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG12" s="309"/>
-      <c r="AH12" s="310"/>
-      <c r="AI12" s="378" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ12" s="379"/>
-      <c r="AK12" s="379"/>
-      <c r="AL12" s="379"/>
-      <c r="AM12" s="379"/>
-      <c r="AN12" s="380"/>
+      <c r="AJ12" s="390"/>
+      <c r="AK12" s="390"/>
+      <c r="AL12" s="390"/>
+      <c r="AM12" s="390"/>
+      <c r="AN12" s="391"/>
       <c r="AS12" s="167"/>
       <c r="AT12" s="167"/>
       <c r="AU12" s="168"/>
@@ -14097,69 +14112,69 @@
       <c r="A13" s="165">
         <v>6</v>
       </c>
-      <c r="B13" s="378" t="s">
+      <c r="B13" s="389" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="390"/>
+      <c r="D13" s="390"/>
+      <c r="E13" s="390"/>
+      <c r="F13" s="391"/>
+      <c r="G13" s="388" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="379"/>
-      <c r="D13" s="379"/>
-      <c r="E13" s="379"/>
-      <c r="F13" s="380"/>
-      <c r="G13" s="377" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" s="309"/>
-      <c r="I13" s="309"/>
-      <c r="J13" s="309"/>
-      <c r="K13" s="310"/>
-      <c r="L13" s="377" t="s">
+      <c r="H13" s="364"/>
+      <c r="I13" s="364"/>
+      <c r="J13" s="364"/>
+      <c r="K13" s="365"/>
+      <c r="L13" s="388" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" s="364"/>
+      <c r="N13" s="364"/>
+      <c r="O13" s="364"/>
+      <c r="P13" s="365"/>
+      <c r="Q13" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="R13" s="388" t="s">
         <v>121</v>
       </c>
-      <c r="M13" s="309"/>
-      <c r="N13" s="309"/>
-      <c r="O13" s="309"/>
-      <c r="P13" s="310"/>
-      <c r="Q13" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="R13" s="377" t="s">
+      <c r="S13" s="364"/>
+      <c r="T13" s="364"/>
+      <c r="U13" s="365"/>
+      <c r="V13" s="400">
+        <v>10</v>
+      </c>
+      <c r="W13" s="401"/>
+      <c r="X13" s="386" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y13" s="387"/>
+      <c r="Z13" s="388" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA13" s="365"/>
+      <c r="AB13" s="388" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC13" s="365"/>
+      <c r="AD13" s="386" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE13" s="387"/>
+      <c r="AF13" s="388" t="s">
         <v>122</v>
       </c>
-      <c r="S13" s="309"/>
-      <c r="T13" s="309"/>
-      <c r="U13" s="310"/>
-      <c r="V13" s="381">
-        <v>10</v>
-      </c>
-      <c r="W13" s="382"/>
-      <c r="X13" s="383" t="s">
+      <c r="AG13" s="364"/>
+      <c r="AH13" s="365"/>
+      <c r="AI13" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="Y13" s="384"/>
-      <c r="Z13" s="377" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA13" s="310"/>
-      <c r="AB13" s="377" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC13" s="310"/>
-      <c r="AD13" s="383" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE13" s="384"/>
-      <c r="AF13" s="377" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG13" s="309"/>
-      <c r="AH13" s="310"/>
-      <c r="AI13" s="378" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ13" s="379"/>
-      <c r="AK13" s="379"/>
-      <c r="AL13" s="379"/>
-      <c r="AM13" s="379"/>
-      <c r="AN13" s="380"/>
+      <c r="AJ13" s="390"/>
+      <c r="AK13" s="390"/>
+      <c r="AL13" s="390"/>
+      <c r="AM13" s="390"/>
+      <c r="AN13" s="391"/>
       <c r="AS13" s="167"/>
       <c r="AT13" s="167"/>
       <c r="AU13" s="168"/>
@@ -14225,69 +14240,69 @@
       <c r="A14" s="165">
         <v>7</v>
       </c>
-      <c r="B14" s="378" t="s">
+      <c r="B14" s="389" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="390"/>
+      <c r="D14" s="390"/>
+      <c r="E14" s="390"/>
+      <c r="F14" s="391"/>
+      <c r="G14" s="388" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="379"/>
-      <c r="D14" s="379"/>
-      <c r="E14" s="379"/>
-      <c r="F14" s="380"/>
-      <c r="G14" s="377" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="309"/>
-      <c r="I14" s="309"/>
-      <c r="J14" s="309"/>
-      <c r="K14" s="310"/>
-      <c r="L14" s="377" t="s">
+      <c r="H14" s="364"/>
+      <c r="I14" s="364"/>
+      <c r="J14" s="364"/>
+      <c r="K14" s="365"/>
+      <c r="L14" s="388" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="364"/>
+      <c r="N14" s="364"/>
+      <c r="O14" s="364"/>
+      <c r="P14" s="365"/>
+      <c r="Q14" s="166" t="s">
         <v>109</v>
       </c>
-      <c r="M14" s="309"/>
-      <c r="N14" s="309"/>
-      <c r="O14" s="309"/>
-      <c r="P14" s="310"/>
-      <c r="Q14" s="166" t="s">
+      <c r="R14" s="388" t="s">
         <v>110</v>
       </c>
-      <c r="R14" s="377" t="s">
-        <v>111</v>
-      </c>
-      <c r="S14" s="309"/>
-      <c r="T14" s="309"/>
-      <c r="U14" s="310"/>
-      <c r="V14" s="381">
+      <c r="S14" s="364"/>
+      <c r="T14" s="364"/>
+      <c r="U14" s="365"/>
+      <c r="V14" s="400">
         <v>11</v>
       </c>
-      <c r="W14" s="382"/>
-      <c r="X14" s="383" t="s">
+      <c r="W14" s="401"/>
+      <c r="X14" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y14" s="384"/>
-      <c r="Z14" s="377" t="s">
+      <c r="Y14" s="387"/>
+      <c r="Z14" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA14" s="310"/>
-      <c r="AB14" s="377" t="s">
+      <c r="AA14" s="365"/>
+      <c r="AB14" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC14" s="310"/>
-      <c r="AD14" s="383" t="s">
+      <c r="AC14" s="365"/>
+      <c r="AD14" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE14" s="384"/>
-      <c r="AF14" s="377" t="s">
+      <c r="AE14" s="387"/>
+      <c r="AF14" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG14" s="309"/>
-      <c r="AH14" s="310"/>
-      <c r="AI14" s="378" t="s">
+      <c r="AG14" s="364"/>
+      <c r="AH14" s="365"/>
+      <c r="AI14" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ14" s="379"/>
-      <c r="AK14" s="379"/>
-      <c r="AL14" s="379"/>
-      <c r="AM14" s="379"/>
-      <c r="AN14" s="380"/>
+      <c r="AJ14" s="390"/>
+      <c r="AK14" s="390"/>
+      <c r="AL14" s="390"/>
+      <c r="AM14" s="390"/>
+      <c r="AN14" s="391"/>
       <c r="AS14" s="167"/>
       <c r="AT14" s="167"/>
       <c r="AU14" s="168"/>
@@ -14353,69 +14368,69 @@
       <c r="A15" s="165">
         <v>8</v>
       </c>
-      <c r="B15" s="378" t="s">
+      <c r="B15" s="389" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="390"/>
+      <c r="D15" s="390"/>
+      <c r="E15" s="390"/>
+      <c r="F15" s="391"/>
+      <c r="G15" s="388" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="379"/>
-      <c r="D15" s="379"/>
-      <c r="E15" s="379"/>
-      <c r="F15" s="380"/>
-      <c r="G15" s="377" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="309"/>
-      <c r="I15" s="309"/>
-      <c r="J15" s="309"/>
-      <c r="K15" s="310"/>
-      <c r="L15" s="377" t="s">
+      <c r="H15" s="364"/>
+      <c r="I15" s="364"/>
+      <c r="J15" s="364"/>
+      <c r="K15" s="365"/>
+      <c r="L15" s="388" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="364"/>
+      <c r="N15" s="364"/>
+      <c r="O15" s="364"/>
+      <c r="P15" s="365"/>
+      <c r="Q15" s="166" t="s">
         <v>109</v>
       </c>
-      <c r="M15" s="309"/>
-      <c r="N15" s="309"/>
-      <c r="O15" s="309"/>
-      <c r="P15" s="310"/>
-      <c r="Q15" s="166" t="s">
+      <c r="R15" s="388" t="s">
         <v>110</v>
       </c>
-      <c r="R15" s="377" t="s">
-        <v>111</v>
-      </c>
-      <c r="S15" s="309"/>
-      <c r="T15" s="309"/>
-      <c r="U15" s="310"/>
-      <c r="V15" s="381">
+      <c r="S15" s="364"/>
+      <c r="T15" s="364"/>
+      <c r="U15" s="365"/>
+      <c r="V15" s="400">
         <v>11</v>
       </c>
-      <c r="W15" s="382"/>
-      <c r="X15" s="383" t="s">
+      <c r="W15" s="401"/>
+      <c r="X15" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y15" s="384"/>
-      <c r="Z15" s="377" t="s">
+      <c r="Y15" s="387"/>
+      <c r="Z15" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA15" s="310"/>
-      <c r="AB15" s="377" t="s">
+      <c r="AA15" s="365"/>
+      <c r="AB15" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC15" s="310"/>
-      <c r="AD15" s="383" t="s">
+      <c r="AC15" s="365"/>
+      <c r="AD15" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE15" s="384"/>
-      <c r="AF15" s="377" t="s">
+      <c r="AE15" s="387"/>
+      <c r="AF15" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG15" s="309"/>
-      <c r="AH15" s="310"/>
-      <c r="AI15" s="378" t="s">
+      <c r="AG15" s="364"/>
+      <c r="AH15" s="365"/>
+      <c r="AI15" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ15" s="379"/>
-      <c r="AK15" s="379"/>
-      <c r="AL15" s="379"/>
-      <c r="AM15" s="379"/>
-      <c r="AN15" s="380"/>
+      <c r="AJ15" s="390"/>
+      <c r="AK15" s="390"/>
+      <c r="AL15" s="390"/>
+      <c r="AM15" s="390"/>
+      <c r="AN15" s="391"/>
       <c r="AS15" s="167"/>
       <c r="AT15" s="167"/>
       <c r="AU15" s="168"/>
@@ -14481,70 +14496,70 @@
       <c r="A16" s="165">
         <v>9</v>
       </c>
-      <c r="B16" s="378" t="s">
+      <c r="B16" s="389" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="390"/>
+      <c r="D16" s="390"/>
+      <c r="E16" s="390"/>
+      <c r="F16" s="391"/>
+      <c r="G16" s="388" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="379"/>
-      <c r="D16" s="379"/>
-      <c r="E16" s="379"/>
-      <c r="F16" s="380"/>
-      <c r="G16" s="377" t="s">
+      <c r="H16" s="364"/>
+      <c r="I16" s="364"/>
+      <c r="J16" s="364"/>
+      <c r="K16" s="365"/>
+      <c r="L16" s="388" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="309"/>
-      <c r="I16" s="309"/>
-      <c r="J16" s="309"/>
-      <c r="K16" s="310"/>
-      <c r="L16" s="377" t="s">
-        <v>132</v>
-      </c>
-      <c r="M16" s="309"/>
-      <c r="N16" s="309"/>
-      <c r="O16" s="309"/>
-      <c r="P16" s="310"/>
+      <c r="M16" s="364"/>
+      <c r="N16" s="364"/>
+      <c r="O16" s="364"/>
+      <c r="P16" s="365"/>
       <c r="Q16" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="R16" s="377" t="s">
-        <v>114</v>
-      </c>
-      <c r="S16" s="309"/>
-      <c r="T16" s="309"/>
-      <c r="U16" s="310"/>
-      <c r="V16" s="381">
+        <v>109</v>
+      </c>
+      <c r="R16" s="388" t="s">
+        <v>113</v>
+      </c>
+      <c r="S16" s="364"/>
+      <c r="T16" s="364"/>
+      <c r="U16" s="365"/>
+      <c r="V16" s="400">
         <f t="shared" ref="V16:V17" si="0">128*3</f>
         <v>384</v>
       </c>
-      <c r="W16" s="382"/>
-      <c r="X16" s="383" t="s">
+      <c r="W16" s="401"/>
+      <c r="X16" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y16" s="384"/>
-      <c r="Z16" s="377" t="s">
+      <c r="Y16" s="387"/>
+      <c r="Z16" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA16" s="310"/>
-      <c r="AB16" s="377" t="s">
+      <c r="AA16" s="365"/>
+      <c r="AB16" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC16" s="310"/>
-      <c r="AD16" s="383" t="s">
+      <c r="AC16" s="365"/>
+      <c r="AD16" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE16" s="384"/>
-      <c r="AF16" s="377" t="s">
+      <c r="AE16" s="387"/>
+      <c r="AF16" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG16" s="309"/>
-      <c r="AH16" s="310"/>
-      <c r="AI16" s="378" t="s">
+      <c r="AG16" s="364"/>
+      <c r="AH16" s="365"/>
+      <c r="AI16" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ16" s="379"/>
-      <c r="AK16" s="379"/>
-      <c r="AL16" s="379"/>
-      <c r="AM16" s="379"/>
-      <c r="AN16" s="380"/>
+      <c r="AJ16" s="390"/>
+      <c r="AK16" s="390"/>
+      <c r="AL16" s="390"/>
+      <c r="AM16" s="390"/>
+      <c r="AN16" s="391"/>
       <c r="AS16" s="167"/>
       <c r="AT16" s="167"/>
       <c r="AU16" s="168"/>
@@ -14610,70 +14625,70 @@
       <c r="A17" s="165">
         <v>10</v>
       </c>
-      <c r="B17" s="378" t="s">
+      <c r="B17" s="389" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="390"/>
+      <c r="D17" s="390"/>
+      <c r="E17" s="390"/>
+      <c r="F17" s="391"/>
+      <c r="G17" s="388" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="379"/>
-      <c r="D17" s="379"/>
-      <c r="E17" s="379"/>
-      <c r="F17" s="380"/>
-      <c r="G17" s="377" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="309"/>
-      <c r="I17" s="309"/>
-      <c r="J17" s="309"/>
-      <c r="K17" s="310"/>
-      <c r="L17" s="377" t="s">
-        <v>132</v>
-      </c>
-      <c r="M17" s="309"/>
-      <c r="N17" s="309"/>
-      <c r="O17" s="309"/>
-      <c r="P17" s="310"/>
+      <c r="H17" s="364"/>
+      <c r="I17" s="364"/>
+      <c r="J17" s="364"/>
+      <c r="K17" s="365"/>
+      <c r="L17" s="388" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" s="364"/>
+      <c r="N17" s="364"/>
+      <c r="O17" s="364"/>
+      <c r="P17" s="365"/>
       <c r="Q17" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="R17" s="377" t="s">
-        <v>114</v>
-      </c>
-      <c r="S17" s="309"/>
-      <c r="T17" s="309"/>
-      <c r="U17" s="310"/>
-      <c r="V17" s="381">
+        <v>109</v>
+      </c>
+      <c r="R17" s="388" t="s">
+        <v>113</v>
+      </c>
+      <c r="S17" s="364"/>
+      <c r="T17" s="364"/>
+      <c r="U17" s="365"/>
+      <c r="V17" s="400">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
-      <c r="W17" s="382"/>
-      <c r="X17" s="383" t="s">
+      <c r="W17" s="401"/>
+      <c r="X17" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="384"/>
-      <c r="Z17" s="377" t="s">
+      <c r="Y17" s="387"/>
+      <c r="Z17" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA17" s="310"/>
-      <c r="AB17" s="377" t="s">
+      <c r="AA17" s="365"/>
+      <c r="AB17" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC17" s="310"/>
-      <c r="AD17" s="383" t="s">
+      <c r="AC17" s="365"/>
+      <c r="AD17" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE17" s="384"/>
-      <c r="AF17" s="377" t="s">
+      <c r="AE17" s="387"/>
+      <c r="AF17" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG17" s="309"/>
-      <c r="AH17" s="310"/>
-      <c r="AI17" s="378" t="s">
+      <c r="AG17" s="364"/>
+      <c r="AH17" s="365"/>
+      <c r="AI17" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ17" s="379"/>
-      <c r="AK17" s="379"/>
-      <c r="AL17" s="379"/>
-      <c r="AM17" s="379"/>
-      <c r="AN17" s="380"/>
+      <c r="AJ17" s="390"/>
+      <c r="AK17" s="390"/>
+      <c r="AL17" s="390"/>
+      <c r="AM17" s="390"/>
+      <c r="AN17" s="391"/>
       <c r="AS17" s="167"/>
       <c r="AT17" s="167"/>
       <c r="AU17" s="168"/>
@@ -14739,70 +14754,70 @@
       <c r="A18" s="165">
         <v>11</v>
       </c>
-      <c r="B18" s="378" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="379"/>
-      <c r="D18" s="379"/>
-      <c r="E18" s="379"/>
-      <c r="F18" s="380"/>
-      <c r="G18" s="377" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" s="309"/>
-      <c r="I18" s="309"/>
-      <c r="J18" s="309"/>
-      <c r="K18" s="310"/>
-      <c r="L18" s="377" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" s="309"/>
-      <c r="N18" s="309"/>
-      <c r="O18" s="309"/>
-      <c r="P18" s="310"/>
+      <c r="B18" s="389" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="390"/>
+      <c r="D18" s="390"/>
+      <c r="E18" s="390"/>
+      <c r="F18" s="391"/>
+      <c r="G18" s="388" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="364"/>
+      <c r="I18" s="364"/>
+      <c r="J18" s="364"/>
+      <c r="K18" s="365"/>
+      <c r="L18" s="388" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" s="364"/>
+      <c r="N18" s="364"/>
+      <c r="O18" s="364"/>
+      <c r="P18" s="365"/>
       <c r="Q18" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="R18" s="377" t="s">
-        <v>114</v>
-      </c>
-      <c r="S18" s="309"/>
-      <c r="T18" s="309"/>
-      <c r="U18" s="310"/>
-      <c r="V18" s="381">
+        <v>109</v>
+      </c>
+      <c r="R18" s="388" t="s">
+        <v>113</v>
+      </c>
+      <c r="S18" s="364"/>
+      <c r="T18" s="364"/>
+      <c r="U18" s="365"/>
+      <c r="V18" s="400">
         <f>512*3</f>
         <v>1536</v>
       </c>
-      <c r="W18" s="382"/>
-      <c r="X18" s="383" t="s">
+      <c r="W18" s="401"/>
+      <c r="X18" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y18" s="384"/>
-      <c r="Z18" s="377" t="s">
+      <c r="Y18" s="387"/>
+      <c r="Z18" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA18" s="310"/>
-      <c r="AB18" s="377" t="s">
+      <c r="AA18" s="365"/>
+      <c r="AB18" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC18" s="310"/>
-      <c r="AD18" s="383" t="s">
+      <c r="AC18" s="365"/>
+      <c r="AD18" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" s="384"/>
-      <c r="AF18" s="377" t="s">
+      <c r="AE18" s="387"/>
+      <c r="AF18" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG18" s="309"/>
-      <c r="AH18" s="310"/>
-      <c r="AI18" s="378" t="s">
+      <c r="AG18" s="364"/>
+      <c r="AH18" s="365"/>
+      <c r="AI18" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ18" s="379"/>
-      <c r="AK18" s="379"/>
-      <c r="AL18" s="379"/>
-      <c r="AM18" s="379"/>
-      <c r="AN18" s="380"/>
+      <c r="AJ18" s="390"/>
+      <c r="AK18" s="390"/>
+      <c r="AL18" s="390"/>
+      <c r="AM18" s="390"/>
+      <c r="AN18" s="391"/>
       <c r="AS18" s="167"/>
       <c r="AT18" s="167"/>
       <c r="AU18" s="168"/>
@@ -14868,69 +14883,69 @@
       <c r="A19" s="165">
         <v>12</v>
       </c>
-      <c r="B19" s="378" t="s">
+      <c r="B19" s="389" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="390"/>
+      <c r="D19" s="390"/>
+      <c r="E19" s="390"/>
+      <c r="F19" s="391"/>
+      <c r="G19" s="388" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="379"/>
-      <c r="D19" s="379"/>
-      <c r="E19" s="379"/>
-      <c r="F19" s="380"/>
-      <c r="G19" s="377" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" s="309"/>
-      <c r="I19" s="309"/>
-      <c r="J19" s="309"/>
-      <c r="K19" s="310"/>
-      <c r="L19" s="377" t="s">
-        <v>136</v>
-      </c>
-      <c r="M19" s="309"/>
-      <c r="N19" s="309"/>
-      <c r="O19" s="309"/>
-      <c r="P19" s="310"/>
+      <c r="H19" s="364"/>
+      <c r="I19" s="364"/>
+      <c r="J19" s="364"/>
+      <c r="K19" s="365"/>
+      <c r="L19" s="388" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19" s="364"/>
+      <c r="N19" s="364"/>
+      <c r="O19" s="364"/>
+      <c r="P19" s="365"/>
       <c r="Q19" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="R19" s="388" t="s">
         <v>110</v>
       </c>
-      <c r="R19" s="377" t="s">
-        <v>111</v>
-      </c>
-      <c r="S19" s="309"/>
-      <c r="T19" s="309"/>
-      <c r="U19" s="310"/>
-      <c r="V19" s="381">
+      <c r="S19" s="364"/>
+      <c r="T19" s="364"/>
+      <c r="U19" s="365"/>
+      <c r="V19" s="400">
         <v>11</v>
       </c>
-      <c r="W19" s="382"/>
-      <c r="X19" s="383" t="s">
+      <c r="W19" s="401"/>
+      <c r="X19" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y19" s="384"/>
-      <c r="Z19" s="377" t="s">
+      <c r="Y19" s="387"/>
+      <c r="Z19" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA19" s="310"/>
-      <c r="AB19" s="377" t="s">
+      <c r="AA19" s="365"/>
+      <c r="AB19" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC19" s="310"/>
-      <c r="AD19" s="383" t="s">
+      <c r="AC19" s="365"/>
+      <c r="AD19" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE19" s="384"/>
-      <c r="AF19" s="377" t="s">
+      <c r="AE19" s="387"/>
+      <c r="AF19" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG19" s="309"/>
-      <c r="AH19" s="310"/>
-      <c r="AI19" s="378" t="s">
+      <c r="AG19" s="364"/>
+      <c r="AH19" s="365"/>
+      <c r="AI19" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ19" s="379"/>
-      <c r="AK19" s="379"/>
-      <c r="AL19" s="379"/>
-      <c r="AM19" s="379"/>
-      <c r="AN19" s="380"/>
+      <c r="AJ19" s="390"/>
+      <c r="AK19" s="390"/>
+      <c r="AL19" s="390"/>
+      <c r="AM19" s="390"/>
+      <c r="AN19" s="391"/>
       <c r="AS19" s="167"/>
       <c r="AT19" s="167"/>
       <c r="AU19" s="168"/>
@@ -14996,69 +15011,69 @@
       <c r="A20" s="165">
         <v>13</v>
       </c>
-      <c r="B20" s="378" t="s">
+      <c r="B20" s="389" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="390"/>
+      <c r="D20" s="390"/>
+      <c r="E20" s="390"/>
+      <c r="F20" s="391"/>
+      <c r="G20" s="388" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="379"/>
-      <c r="D20" s="379"/>
-      <c r="E20" s="379"/>
-      <c r="F20" s="380"/>
-      <c r="G20" s="377" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="309"/>
-      <c r="I20" s="309"/>
-      <c r="J20" s="309"/>
-      <c r="K20" s="310"/>
-      <c r="L20" s="377" t="s">
-        <v>138</v>
-      </c>
-      <c r="M20" s="309"/>
-      <c r="N20" s="309"/>
-      <c r="O20" s="309"/>
-      <c r="P20" s="310"/>
+      <c r="H20" s="364"/>
+      <c r="I20" s="364"/>
+      <c r="J20" s="364"/>
+      <c r="K20" s="365"/>
+      <c r="L20" s="388" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" s="364"/>
+      <c r="N20" s="364"/>
+      <c r="O20" s="364"/>
+      <c r="P20" s="365"/>
       <c r="Q20" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="R20" s="388" t="s">
         <v>110</v>
       </c>
-      <c r="R20" s="377" t="s">
-        <v>111</v>
-      </c>
-      <c r="S20" s="309"/>
-      <c r="T20" s="309"/>
-      <c r="U20" s="310"/>
-      <c r="V20" s="381">
+      <c r="S20" s="364"/>
+      <c r="T20" s="364"/>
+      <c r="U20" s="365"/>
+      <c r="V20" s="400">
         <v>11</v>
       </c>
-      <c r="W20" s="382"/>
-      <c r="X20" s="383" t="s">
+      <c r="W20" s="401"/>
+      <c r="X20" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y20" s="384"/>
-      <c r="Z20" s="377" t="s">
+      <c r="Y20" s="387"/>
+      <c r="Z20" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA20" s="310"/>
-      <c r="AB20" s="377" t="s">
+      <c r="AA20" s="365"/>
+      <c r="AB20" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC20" s="310"/>
-      <c r="AD20" s="383" t="s">
+      <c r="AC20" s="365"/>
+      <c r="AD20" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE20" s="384"/>
-      <c r="AF20" s="377" t="s">
+      <c r="AE20" s="387"/>
+      <c r="AF20" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG20" s="309"/>
-      <c r="AH20" s="310"/>
-      <c r="AI20" s="378" t="s">
+      <c r="AG20" s="364"/>
+      <c r="AH20" s="365"/>
+      <c r="AI20" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ20" s="379"/>
-      <c r="AK20" s="379"/>
-      <c r="AL20" s="379"/>
-      <c r="AM20" s="379"/>
-      <c r="AN20" s="380"/>
+      <c r="AJ20" s="390"/>
+      <c r="AK20" s="390"/>
+      <c r="AL20" s="390"/>
+      <c r="AM20" s="390"/>
+      <c r="AN20" s="391"/>
       <c r="AS20" s="167"/>
       <c r="AT20" s="167"/>
       <c r="AU20" s="168"/>
@@ -15122,45 +15137,45 @@
     </row>
     <row r="21" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="165"/>
-      <c r="B21" s="378"/>
-      <c r="C21" s="379"/>
-      <c r="D21" s="379"/>
-      <c r="E21" s="379"/>
-      <c r="F21" s="380"/>
-      <c r="G21" s="385"/>
-      <c r="H21" s="386"/>
-      <c r="I21" s="386"/>
-      <c r="J21" s="386"/>
-      <c r="K21" s="387"/>
-      <c r="L21" s="378"/>
-      <c r="M21" s="379"/>
-      <c r="N21" s="379"/>
-      <c r="O21" s="379"/>
-      <c r="P21" s="380"/>
+      <c r="B21" s="389"/>
+      <c r="C21" s="390"/>
+      <c r="D21" s="390"/>
+      <c r="E21" s="390"/>
+      <c r="F21" s="391"/>
+      <c r="G21" s="397"/>
+      <c r="H21" s="398"/>
+      <c r="I21" s="398"/>
+      <c r="J21" s="398"/>
+      <c r="K21" s="399"/>
+      <c r="L21" s="389"/>
+      <c r="M21" s="390"/>
+      <c r="N21" s="390"/>
+      <c r="O21" s="390"/>
+      <c r="P21" s="391"/>
       <c r="Q21" s="166"/>
-      <c r="R21" s="377"/>
-      <c r="S21" s="309"/>
-      <c r="T21" s="309"/>
-      <c r="U21" s="310"/>
-      <c r="V21" s="381"/>
-      <c r="W21" s="382"/>
-      <c r="X21" s="383"/>
-      <c r="Y21" s="384"/>
-      <c r="Z21" s="377"/>
-      <c r="AA21" s="310"/>
-      <c r="AB21" s="377"/>
-      <c r="AC21" s="310"/>
-      <c r="AD21" s="383"/>
-      <c r="AE21" s="384"/>
-      <c r="AF21" s="377"/>
-      <c r="AG21" s="309"/>
-      <c r="AH21" s="310"/>
-      <c r="AI21" s="378"/>
-      <c r="AJ21" s="379"/>
-      <c r="AK21" s="379"/>
-      <c r="AL21" s="379"/>
-      <c r="AM21" s="379"/>
-      <c r="AN21" s="380"/>
+      <c r="R21" s="388"/>
+      <c r="S21" s="364"/>
+      <c r="T21" s="364"/>
+      <c r="U21" s="365"/>
+      <c r="V21" s="400"/>
+      <c r="W21" s="401"/>
+      <c r="X21" s="386"/>
+      <c r="Y21" s="387"/>
+      <c r="Z21" s="388"/>
+      <c r="AA21" s="365"/>
+      <c r="AB21" s="388"/>
+      <c r="AC21" s="365"/>
+      <c r="AD21" s="386"/>
+      <c r="AE21" s="387"/>
+      <c r="AF21" s="388"/>
+      <c r="AG21" s="364"/>
+      <c r="AH21" s="365"/>
+      <c r="AI21" s="389"/>
+      <c r="AJ21" s="390"/>
+      <c r="AK21" s="390"/>
+      <c r="AL21" s="390"/>
+      <c r="AM21" s="390"/>
+      <c r="AN21" s="391"/>
       <c r="AS21" s="167"/>
       <c r="AT21" s="167"/>
       <c r="AU21" s="168"/>
@@ -15224,45 +15239,45 @@
     </row>
     <row r="22" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="165"/>
-      <c r="B22" s="378"/>
-      <c r="C22" s="379"/>
-      <c r="D22" s="379"/>
-      <c r="E22" s="379"/>
-      <c r="F22" s="380"/>
-      <c r="G22" s="385"/>
-      <c r="H22" s="386"/>
-      <c r="I22" s="386"/>
-      <c r="J22" s="386"/>
-      <c r="K22" s="387"/>
-      <c r="L22" s="378"/>
-      <c r="M22" s="379"/>
-      <c r="N22" s="379"/>
-      <c r="O22" s="379"/>
-      <c r="P22" s="380"/>
+      <c r="B22" s="389"/>
+      <c r="C22" s="390"/>
+      <c r="D22" s="390"/>
+      <c r="E22" s="390"/>
+      <c r="F22" s="391"/>
+      <c r="G22" s="397"/>
+      <c r="H22" s="398"/>
+      <c r="I22" s="398"/>
+      <c r="J22" s="398"/>
+      <c r="K22" s="399"/>
+      <c r="L22" s="389"/>
+      <c r="M22" s="390"/>
+      <c r="N22" s="390"/>
+      <c r="O22" s="390"/>
+      <c r="P22" s="391"/>
       <c r="Q22" s="166"/>
-      <c r="R22" s="377"/>
-      <c r="S22" s="309"/>
-      <c r="T22" s="309"/>
-      <c r="U22" s="310"/>
-      <c r="V22" s="381"/>
-      <c r="W22" s="382"/>
-      <c r="X22" s="383"/>
-      <c r="Y22" s="384"/>
-      <c r="Z22" s="377"/>
-      <c r="AA22" s="310"/>
-      <c r="AB22" s="377"/>
-      <c r="AC22" s="310"/>
-      <c r="AD22" s="383"/>
-      <c r="AE22" s="384"/>
-      <c r="AF22" s="377"/>
-      <c r="AG22" s="309"/>
-      <c r="AH22" s="310"/>
-      <c r="AI22" s="378"/>
-      <c r="AJ22" s="379"/>
-      <c r="AK22" s="379"/>
-      <c r="AL22" s="379"/>
-      <c r="AM22" s="379"/>
-      <c r="AN22" s="380"/>
+      <c r="R22" s="388"/>
+      <c r="S22" s="364"/>
+      <c r="T22" s="364"/>
+      <c r="U22" s="365"/>
+      <c r="V22" s="400"/>
+      <c r="W22" s="401"/>
+      <c r="X22" s="386"/>
+      <c r="Y22" s="387"/>
+      <c r="Z22" s="388"/>
+      <c r="AA22" s="365"/>
+      <c r="AB22" s="388"/>
+      <c r="AC22" s="365"/>
+      <c r="AD22" s="386"/>
+      <c r="AE22" s="387"/>
+      <c r="AF22" s="388"/>
+      <c r="AG22" s="364"/>
+      <c r="AH22" s="365"/>
+      <c r="AI22" s="389"/>
+      <c r="AJ22" s="390"/>
+      <c r="AK22" s="390"/>
+      <c r="AL22" s="390"/>
+      <c r="AM22" s="390"/>
+      <c r="AN22" s="391"/>
       <c r="AS22" s="167"/>
       <c r="AT22" s="167"/>
       <c r="AU22" s="168"/>
@@ -15326,45 +15341,45 @@
     </row>
     <row r="23" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="165"/>
-      <c r="B23" s="378"/>
-      <c r="C23" s="379"/>
-      <c r="D23" s="379"/>
-      <c r="E23" s="379"/>
-      <c r="F23" s="380"/>
-      <c r="G23" s="378"/>
-      <c r="H23" s="379"/>
-      <c r="I23" s="379"/>
-      <c r="J23" s="379"/>
-      <c r="K23" s="380"/>
-      <c r="L23" s="378"/>
-      <c r="M23" s="379"/>
-      <c r="N23" s="379"/>
-      <c r="O23" s="379"/>
-      <c r="P23" s="380"/>
+      <c r="B23" s="389"/>
+      <c r="C23" s="390"/>
+      <c r="D23" s="390"/>
+      <c r="E23" s="390"/>
+      <c r="F23" s="391"/>
+      <c r="G23" s="389"/>
+      <c r="H23" s="390"/>
+      <c r="I23" s="390"/>
+      <c r="J23" s="390"/>
+      <c r="K23" s="391"/>
+      <c r="L23" s="389"/>
+      <c r="M23" s="390"/>
+      <c r="N23" s="390"/>
+      <c r="O23" s="390"/>
+      <c r="P23" s="391"/>
       <c r="Q23" s="166"/>
-      <c r="R23" s="377"/>
-      <c r="S23" s="309"/>
-      <c r="T23" s="309"/>
-      <c r="U23" s="310"/>
-      <c r="V23" s="392"/>
-      <c r="W23" s="393"/>
-      <c r="X23" s="394"/>
-      <c r="Y23" s="395"/>
-      <c r="Z23" s="383"/>
-      <c r="AA23" s="384"/>
-      <c r="AB23" s="377"/>
-      <c r="AC23" s="310"/>
-      <c r="AD23" s="383"/>
-      <c r="AE23" s="384"/>
-      <c r="AF23" s="377"/>
-      <c r="AG23" s="309"/>
-      <c r="AH23" s="310"/>
-      <c r="AI23" s="378"/>
-      <c r="AJ23" s="379"/>
-      <c r="AK23" s="379"/>
-      <c r="AL23" s="379"/>
-      <c r="AM23" s="379"/>
-      <c r="AN23" s="380"/>
+      <c r="R23" s="388"/>
+      <c r="S23" s="364"/>
+      <c r="T23" s="364"/>
+      <c r="U23" s="365"/>
+      <c r="V23" s="393"/>
+      <c r="W23" s="394"/>
+      <c r="X23" s="395"/>
+      <c r="Y23" s="396"/>
+      <c r="Z23" s="386"/>
+      <c r="AA23" s="387"/>
+      <c r="AB23" s="388"/>
+      <c r="AC23" s="365"/>
+      <c r="AD23" s="386"/>
+      <c r="AE23" s="387"/>
+      <c r="AF23" s="388"/>
+      <c r="AG23" s="364"/>
+      <c r="AH23" s="365"/>
+      <c r="AI23" s="389"/>
+      <c r="AJ23" s="390"/>
+      <c r="AK23" s="390"/>
+      <c r="AL23" s="390"/>
+      <c r="AM23" s="390"/>
+      <c r="AN23" s="391"/>
       <c r="AS23" s="167"/>
       <c r="AT23" s="167"/>
       <c r="AU23" s="168"/>
@@ -15428,27 +15443,165 @@
     </row>
   </sheetData>
   <mergeCells count="204">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AI7:AN7"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AI8:AN8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="AI9:AN9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AI11:AN11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AI15:AN15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AI16:AN16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AI17:AN17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="AI18:AN18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AF19:AH19"/>
+    <mergeCell ref="AI19:AN19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="AI20:AN20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AI21:AN21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
     <mergeCell ref="Z23:AA23"/>
     <mergeCell ref="AB23:AC23"/>
     <mergeCell ref="AD23:AE23"/>
@@ -15473,165 +15626,27 @@
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="L22:P22"/>
     <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="AI20:AN20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AI21:AN21"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="AI18:AN18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF19:AH19"/>
-    <mergeCell ref="AI19:AN19"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AI16:AN16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AI17:AN17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AI14:AN14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AI15:AN15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AI11:AN11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AI8:AN8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="AI9:AN9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AI7:AN7"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="2">
@@ -15668,113 +15683,113 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="169" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="170" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="171" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="170" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="170" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="170" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="170" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="171" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="15"/>
     </row>
     <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="171" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="171" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="171" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="171" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="171" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="171" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="171" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="171" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A18" s="171" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="171" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A20" s="172" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A21" s="172" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A22" s="172" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document(I／F_files)_N21AA002／List_of_Projects_in_Period.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document(I／F_files)_N21AA002／List_of_Projects_in_Period.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC51F00F-C4BE-4779-8808-D5A39DA7B177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DFE635-CF6D-460C-AD03-4FB9EB869CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21795" windowHeight="8805" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="6180" windowWidth="22920" windowHeight="6990" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" state="hidden" r:id="rId1"/>
@@ -1211,9 +1211,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>○</t>
-  </si>
-  <si>
     <t>Numbers</t>
   </si>
   <si>
@@ -1409,6 +1406,9 @@
   <si>
     <t>3.1. Project information record</t>
     <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -2629,6 +2629,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2643,16 +2673,118 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2682,137 +2814,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2823,96 +2904,81 @@
     <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2925,15 +2991,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2961,62 +3018,56 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3024,6 +3075,15 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3033,32 +3093,125 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -3081,158 +3234,38 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3243,6 +3276,21 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3260,54 +3308,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -7005,154 +7005,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="199" t="s">
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="213" t="s">
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="222" t="s">
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="210" t="s">
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="221"/>
+      <c r="AA1" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="212"/>
-      <c r="AC1" s="193" t="s">
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="194"/>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="196">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="193">
         <f>IF(D8="","",D8)</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="198"/>
+      <c r="AH1" s="194"/>
+      <c r="AI1" s="195"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="20"/>
       <c r="AM1" s="20"/>
       <c r="AN1" s="21"/>
     </row>
     <row r="2" spans="1:40" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="199" t="s">
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="226"/>
-      <c r="Y2" s="226"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="210" t="s">
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="223"/>
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="199" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="196" t="str">
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="193" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="198"/>
+      <c r="AH2" s="194"/>
+      <c r="AI2" s="195"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
       <c r="AM2" s="20"/>
       <c r="AN2" s="20"/>
     </row>
     <row r="3" spans="1:40" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="199" t="s">
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="220"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="229"/>
-      <c r="Z3" s="230"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="212"/>
-      <c r="AC3" s="205"/>
-      <c r="AD3" s="194"/>
-      <c r="AE3" s="194"/>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="196"/>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="198"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="198"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="226"/>
+      <c r="V3" s="226"/>
+      <c r="W3" s="226"/>
+      <c r="X3" s="226"/>
+      <c r="Y3" s="226"/>
+      <c r="Z3" s="227"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="193"/>
+      <c r="AH3" s="194"/>
+      <c r="AI3" s="195"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
       <c r="AM3" s="20"/>
@@ -7199,116 +7199,116 @@
       <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="206" t="s">
+      <c r="C7" s="204"/>
+      <c r="D7" s="203" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="208"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="206" t="s">
+      <c r="E7" s="205"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="208"/>
-      <c r="I7" s="207"/>
-      <c r="J7" s="209" t="s">
+      <c r="H7" s="205"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="208"/>
-      <c r="L7" s="208"/>
-      <c r="M7" s="208"/>
-      <c r="N7" s="208"/>
-      <c r="O7" s="208"/>
-      <c r="P7" s="207"/>
-      <c r="Q7" s="206" t="s">
+      <c r="K7" s="205"/>
+      <c r="L7" s="205"/>
+      <c r="M7" s="205"/>
+      <c r="N7" s="205"/>
+      <c r="O7" s="205"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="203" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="208"/>
-      <c r="S7" s="208"/>
-      <c r="T7" s="208"/>
-      <c r="U7" s="208"/>
-      <c r="V7" s="208"/>
-      <c r="W7" s="208"/>
-      <c r="X7" s="208"/>
-      <c r="Y7" s="208"/>
-      <c r="Z7" s="208"/>
-      <c r="AA7" s="208"/>
-      <c r="AB7" s="208"/>
-      <c r="AC7" s="208"/>
-      <c r="AD7" s="208"/>
-      <c r="AE7" s="207"/>
-      <c r="AF7" s="206" t="s">
+      <c r="R7" s="205"/>
+      <c r="S7" s="205"/>
+      <c r="T7" s="205"/>
+      <c r="U7" s="205"/>
+      <c r="V7" s="205"/>
+      <c r="W7" s="205"/>
+      <c r="X7" s="205"/>
+      <c r="Y7" s="205"/>
+      <c r="Z7" s="205"/>
+      <c r="AA7" s="205"/>
+      <c r="AB7" s="205"/>
+      <c r="AC7" s="205"/>
+      <c r="AD7" s="205"/>
+      <c r="AE7" s="204"/>
+      <c r="AF7" s="203" t="s">
         <v>43</v>
       </c>
-      <c r="AG7" s="208"/>
-      <c r="AH7" s="208"/>
-      <c r="AI7" s="207"/>
+      <c r="AG7" s="205"/>
+      <c r="AH7" s="205"/>
+      <c r="AI7" s="204"/>
       <c r="AJ7" s="17"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="37">
         <v>1</v>
       </c>
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="228" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="185"/>
-      <c r="D8" s="186">
+      <c r="C8" s="229"/>
+      <c r="D8" s="230">
         <v>43580</v>
       </c>
-      <c r="E8" s="187"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="184" t="s">
+      <c r="E8" s="231"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="189"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="190" t="s">
+      <c r="H8" s="233"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="234" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="191"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="191"/>
-      <c r="N8" s="191"/>
-      <c r="O8" s="191"/>
-      <c r="P8" s="192"/>
-      <c r="Q8" s="190" t="s">
+      <c r="K8" s="235"/>
+      <c r="L8" s="235"/>
+      <c r="M8" s="235"/>
+      <c r="N8" s="235"/>
+      <c r="O8" s="235"/>
+      <c r="P8" s="236"/>
+      <c r="Q8" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="191"/>
-      <c r="S8" s="191"/>
-      <c r="T8" s="191"/>
-      <c r="U8" s="191"/>
-      <c r="V8" s="191"/>
-      <c r="W8" s="191"/>
-      <c r="X8" s="191"/>
-      <c r="Y8" s="191"/>
-      <c r="Z8" s="191"/>
-      <c r="AA8" s="191"/>
-      <c r="AB8" s="191"/>
-      <c r="AC8" s="191"/>
-      <c r="AD8" s="191"/>
-      <c r="AE8" s="192"/>
-      <c r="AF8" s="234" t="s">
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="235"/>
+      <c r="U8" s="235"/>
+      <c r="V8" s="235"/>
+      <c r="W8" s="235"/>
+      <c r="X8" s="235"/>
+      <c r="Y8" s="235"/>
+      <c r="Z8" s="235"/>
+      <c r="AA8" s="235"/>
+      <c r="AB8" s="235"/>
+      <c r="AC8" s="235"/>
+      <c r="AD8" s="235"/>
+      <c r="AE8" s="236"/>
+      <c r="AF8" s="178" t="s">
         <v>48</v>
       </c>
-      <c r="AG8" s="235"/>
-      <c r="AH8" s="235"/>
-      <c r="AI8" s="236"/>
+      <c r="AG8" s="179"/>
+      <c r="AH8" s="179"/>
+      <c r="AI8" s="180"/>
       <c r="AJ8" s="17"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="38"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="176"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="186"/>
       <c r="J9" s="181"/>
       <c r="K9" s="182"/>
       <c r="L9" s="182"/>
@@ -7331,22 +7331,22 @@
       <c r="AC9" s="182"/>
       <c r="AD9" s="182"/>
       <c r="AE9" s="183"/>
-      <c r="AF9" s="231"/>
-      <c r="AG9" s="232"/>
-      <c r="AH9" s="232"/>
-      <c r="AI9" s="233"/>
+      <c r="AF9" s="175"/>
+      <c r="AG9" s="176"/>
+      <c r="AH9" s="176"/>
+      <c r="AI9" s="177"/>
       <c r="AJ9" s="12"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="38"/>
-      <c r="B10" s="175"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="176"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="186"/>
       <c r="J10" s="181"/>
       <c r="K10" s="182"/>
       <c r="L10" s="182"/>
@@ -7369,21 +7369,21 @@
       <c r="AC10" s="182"/>
       <c r="AD10" s="182"/>
       <c r="AE10" s="183"/>
-      <c r="AF10" s="231"/>
-      <c r="AG10" s="232"/>
-      <c r="AH10" s="232"/>
-      <c r="AI10" s="233"/>
+      <c r="AF10" s="175"/>
+      <c r="AG10" s="176"/>
+      <c r="AH10" s="176"/>
+      <c r="AI10" s="177"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="176"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="186"/>
       <c r="J11" s="181"/>
       <c r="K11" s="182"/>
       <c r="L11" s="182"/>
@@ -7406,21 +7406,21 @@
       <c r="AC11" s="182"/>
       <c r="AD11" s="182"/>
       <c r="AE11" s="183"/>
-      <c r="AF11" s="231"/>
-      <c r="AG11" s="232"/>
-      <c r="AH11" s="232"/>
-      <c r="AI11" s="233"/>
+      <c r="AF11" s="175"/>
+      <c r="AG11" s="176"/>
+      <c r="AH11" s="176"/>
+      <c r="AI11" s="177"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="176"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="186"/>
       <c r="J12" s="181"/>
       <c r="K12" s="182"/>
       <c r="L12" s="182"/>
@@ -7443,21 +7443,21 @@
       <c r="AC12" s="182"/>
       <c r="AD12" s="182"/>
       <c r="AE12" s="183"/>
-      <c r="AF12" s="231"/>
-      <c r="AG12" s="232"/>
-      <c r="AH12" s="232"/>
-      <c r="AI12" s="233"/>
+      <c r="AF12" s="175"/>
+      <c r="AG12" s="176"/>
+      <c r="AH12" s="176"/>
+      <c r="AI12" s="177"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="176"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="186"/>
       <c r="J13" s="181"/>
       <c r="K13" s="182"/>
       <c r="L13" s="182"/>
@@ -7480,28 +7480,28 @@
       <c r="AC13" s="182"/>
       <c r="AD13" s="182"/>
       <c r="AE13" s="183"/>
-      <c r="AF13" s="231"/>
-      <c r="AG13" s="232"/>
-      <c r="AH13" s="232"/>
-      <c r="AI13" s="233"/>
+      <c r="AF13" s="175"/>
+      <c r="AG13" s="176"/>
+      <c r="AH13" s="176"/>
+      <c r="AI13" s="177"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
-      <c r="B14" s="175"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="231"/>
-      <c r="K14" s="232"/>
-      <c r="L14" s="232"/>
-      <c r="M14" s="232"/>
-      <c r="N14" s="232"/>
-      <c r="O14" s="232"/>
-      <c r="P14" s="233"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="176"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="176"/>
+      <c r="O14" s="176"/>
+      <c r="P14" s="177"/>
       <c r="Q14" s="181"/>
       <c r="R14" s="182"/>
       <c r="S14" s="182"/>
@@ -7517,28 +7517,28 @@
       <c r="AC14" s="182"/>
       <c r="AD14" s="182"/>
       <c r="AE14" s="183"/>
-      <c r="AF14" s="231"/>
-      <c r="AG14" s="232"/>
-      <c r="AH14" s="232"/>
-      <c r="AI14" s="233"/>
+      <c r="AF14" s="175"/>
+      <c r="AG14" s="176"/>
+      <c r="AH14" s="176"/>
+      <c r="AI14" s="177"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="231"/>
-      <c r="K15" s="232"/>
-      <c r="L15" s="232"/>
-      <c r="M15" s="232"/>
-      <c r="N15" s="232"/>
-      <c r="O15" s="232"/>
-      <c r="P15" s="233"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="176"/>
+      <c r="M15" s="176"/>
+      <c r="N15" s="176"/>
+      <c r="O15" s="176"/>
+      <c r="P15" s="177"/>
       <c r="Q15" s="181"/>
       <c r="R15" s="182"/>
       <c r="S15" s="182"/>
@@ -7554,28 +7554,28 @@
       <c r="AC15" s="182"/>
       <c r="AD15" s="182"/>
       <c r="AE15" s="183"/>
-      <c r="AF15" s="231"/>
-      <c r="AG15" s="232"/>
-      <c r="AH15" s="232"/>
-      <c r="AI15" s="233"/>
+      <c r="AF15" s="175"/>
+      <c r="AG15" s="176"/>
+      <c r="AH15" s="176"/>
+      <c r="AI15" s="177"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="231"/>
-      <c r="K16" s="232"/>
-      <c r="L16" s="232"/>
-      <c r="M16" s="232"/>
-      <c r="N16" s="232"/>
-      <c r="O16" s="232"/>
-      <c r="P16" s="233"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="176"/>
+      <c r="M16" s="176"/>
+      <c r="N16" s="176"/>
+      <c r="O16" s="176"/>
+      <c r="P16" s="177"/>
       <c r="Q16" s="181"/>
       <c r="R16" s="182"/>
       <c r="S16" s="182"/>
@@ -7591,28 +7591,28 @@
       <c r="AC16" s="182"/>
       <c r="AD16" s="182"/>
       <c r="AE16" s="183"/>
-      <c r="AF16" s="231"/>
-      <c r="AG16" s="232"/>
-      <c r="AH16" s="232"/>
-      <c r="AI16" s="233"/>
+      <c r="AF16" s="175"/>
+      <c r="AG16" s="176"/>
+      <c r="AH16" s="176"/>
+      <c r="AI16" s="177"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="231"/>
-      <c r="K17" s="232"/>
-      <c r="L17" s="232"/>
-      <c r="M17" s="232"/>
-      <c r="N17" s="232"/>
-      <c r="O17" s="232"/>
-      <c r="P17" s="233"/>
+      <c r="B17" s="184"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="176"/>
+      <c r="M17" s="176"/>
+      <c r="N17" s="176"/>
+      <c r="O17" s="176"/>
+      <c r="P17" s="177"/>
       <c r="Q17" s="181"/>
       <c r="R17" s="182"/>
       <c r="S17" s="182"/>
@@ -7628,28 +7628,28 @@
       <c r="AC17" s="182"/>
       <c r="AD17" s="182"/>
       <c r="AE17" s="183"/>
-      <c r="AF17" s="231"/>
-      <c r="AG17" s="232"/>
-      <c r="AH17" s="232"/>
-      <c r="AI17" s="233"/>
+      <c r="AF17" s="175"/>
+      <c r="AG17" s="176"/>
+      <c r="AH17" s="176"/>
+      <c r="AI17" s="177"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="231"/>
-      <c r="K18" s="232"/>
-      <c r="L18" s="232"/>
-      <c r="M18" s="232"/>
-      <c r="N18" s="232"/>
-      <c r="O18" s="232"/>
-      <c r="P18" s="233"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="176"/>
+      <c r="L18" s="176"/>
+      <c r="M18" s="176"/>
+      <c r="N18" s="176"/>
+      <c r="O18" s="176"/>
+      <c r="P18" s="177"/>
       <c r="Q18" s="181"/>
       <c r="R18" s="182"/>
       <c r="S18" s="182"/>
@@ -7665,28 +7665,28 @@
       <c r="AC18" s="182"/>
       <c r="AD18" s="182"/>
       <c r="AE18" s="183"/>
-      <c r="AF18" s="231"/>
-      <c r="AG18" s="232"/>
-      <c r="AH18" s="232"/>
-      <c r="AI18" s="233"/>
+      <c r="AF18" s="175"/>
+      <c r="AG18" s="176"/>
+      <c r="AH18" s="176"/>
+      <c r="AI18" s="177"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="231"/>
-      <c r="K19" s="232"/>
-      <c r="L19" s="232"/>
-      <c r="M19" s="232"/>
-      <c r="N19" s="232"/>
-      <c r="O19" s="232"/>
-      <c r="P19" s="233"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="176"/>
+      <c r="L19" s="176"/>
+      <c r="M19" s="176"/>
+      <c r="N19" s="176"/>
+      <c r="O19" s="176"/>
+      <c r="P19" s="177"/>
       <c r="Q19" s="181"/>
       <c r="R19" s="182"/>
       <c r="S19" s="182"/>
@@ -7702,28 +7702,28 @@
       <c r="AC19" s="182"/>
       <c r="AD19" s="182"/>
       <c r="AE19" s="183"/>
-      <c r="AF19" s="231"/>
-      <c r="AG19" s="232"/>
-      <c r="AH19" s="232"/>
-      <c r="AI19" s="233"/>
+      <c r="AF19" s="175"/>
+      <c r="AG19" s="176"/>
+      <c r="AH19" s="176"/>
+      <c r="AI19" s="177"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="231"/>
-      <c r="K20" s="232"/>
-      <c r="L20" s="232"/>
-      <c r="M20" s="232"/>
-      <c r="N20" s="232"/>
-      <c r="O20" s="232"/>
-      <c r="P20" s="233"/>
+      <c r="B20" s="184"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="176"/>
+      <c r="L20" s="176"/>
+      <c r="M20" s="176"/>
+      <c r="N20" s="176"/>
+      <c r="O20" s="176"/>
+      <c r="P20" s="177"/>
       <c r="Q20" s="181"/>
       <c r="R20" s="182"/>
       <c r="S20" s="182"/>
@@ -7739,28 +7739,28 @@
       <c r="AC20" s="182"/>
       <c r="AD20" s="182"/>
       <c r="AE20" s="183"/>
-      <c r="AF20" s="231"/>
-      <c r="AG20" s="232"/>
-      <c r="AH20" s="232"/>
-      <c r="AI20" s="233"/>
+      <c r="AF20" s="175"/>
+      <c r="AG20" s="176"/>
+      <c r="AH20" s="176"/>
+      <c r="AI20" s="177"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
-      <c r="B21" s="175"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="231"/>
-      <c r="K21" s="232"/>
-      <c r="L21" s="232"/>
-      <c r="M21" s="232"/>
-      <c r="N21" s="232"/>
-      <c r="O21" s="232"/>
-      <c r="P21" s="233"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="176"/>
+      <c r="N21" s="176"/>
+      <c r="O21" s="176"/>
+      <c r="P21" s="177"/>
       <c r="Q21" s="181"/>
       <c r="R21" s="182"/>
       <c r="S21" s="182"/>
@@ -7776,28 +7776,28 @@
       <c r="AC21" s="182"/>
       <c r="AD21" s="182"/>
       <c r="AE21" s="183"/>
-      <c r="AF21" s="231"/>
-      <c r="AG21" s="232"/>
-      <c r="AH21" s="232"/>
-      <c r="AI21" s="233"/>
+      <c r="AF21" s="175"/>
+      <c r="AG21" s="176"/>
+      <c r="AH21" s="176"/>
+      <c r="AI21" s="177"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="231"/>
-      <c r="K22" s="232"/>
-      <c r="L22" s="232"/>
-      <c r="M22" s="232"/>
-      <c r="N22" s="232"/>
-      <c r="O22" s="232"/>
-      <c r="P22" s="233"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="176"/>
+      <c r="M22" s="176"/>
+      <c r="N22" s="176"/>
+      <c r="O22" s="176"/>
+      <c r="P22" s="177"/>
       <c r="Q22" s="181"/>
       <c r="R22" s="182"/>
       <c r="S22" s="182"/>
@@ -7813,28 +7813,28 @@
       <c r="AC22" s="182"/>
       <c r="AD22" s="182"/>
       <c r="AE22" s="183"/>
-      <c r="AF22" s="231"/>
-      <c r="AG22" s="232"/>
-      <c r="AH22" s="232"/>
-      <c r="AI22" s="233"/>
+      <c r="AF22" s="175"/>
+      <c r="AG22" s="176"/>
+      <c r="AH22" s="176"/>
+      <c r="AI22" s="177"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
-      <c r="B23" s="175"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="231"/>
-      <c r="K23" s="232"/>
-      <c r="L23" s="232"/>
-      <c r="M23" s="232"/>
-      <c r="N23" s="232"/>
-      <c r="O23" s="232"/>
-      <c r="P23" s="233"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="176"/>
+      <c r="M23" s="176"/>
+      <c r="N23" s="176"/>
+      <c r="O23" s="176"/>
+      <c r="P23" s="177"/>
       <c r="Q23" s="181"/>
       <c r="R23" s="182"/>
       <c r="S23" s="182"/>
@@ -7850,28 +7850,28 @@
       <c r="AC23" s="182"/>
       <c r="AD23" s="182"/>
       <c r="AE23" s="183"/>
-      <c r="AF23" s="231"/>
-      <c r="AG23" s="232"/>
-      <c r="AH23" s="232"/>
-      <c r="AI23" s="233"/>
+      <c r="AF23" s="175"/>
+      <c r="AG23" s="176"/>
+      <c r="AH23" s="176"/>
+      <c r="AI23" s="177"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
-      <c r="B24" s="175"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="231"/>
-      <c r="K24" s="232"/>
-      <c r="L24" s="232"/>
-      <c r="M24" s="232"/>
-      <c r="N24" s="232"/>
-      <c r="O24" s="232"/>
-      <c r="P24" s="233"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="189"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="176"/>
+      <c r="L24" s="176"/>
+      <c r="M24" s="176"/>
+      <c r="N24" s="176"/>
+      <c r="O24" s="176"/>
+      <c r="P24" s="177"/>
       <c r="Q24" s="181"/>
       <c r="R24" s="182"/>
       <c r="S24" s="182"/>
@@ -7887,28 +7887,28 @@
       <c r="AC24" s="182"/>
       <c r="AD24" s="182"/>
       <c r="AE24" s="183"/>
-      <c r="AF24" s="231"/>
-      <c r="AG24" s="232"/>
-      <c r="AH24" s="232"/>
-      <c r="AI24" s="233"/>
+      <c r="AF24" s="175"/>
+      <c r="AG24" s="176"/>
+      <c r="AH24" s="176"/>
+      <c r="AI24" s="177"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
-      <c r="B25" s="175"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="231"/>
-      <c r="K25" s="232"/>
-      <c r="L25" s="232"/>
-      <c r="M25" s="232"/>
-      <c r="N25" s="232"/>
-      <c r="O25" s="232"/>
-      <c r="P25" s="233"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="176"/>
+      <c r="L25" s="176"/>
+      <c r="M25" s="176"/>
+      <c r="N25" s="176"/>
+      <c r="O25" s="176"/>
+      <c r="P25" s="177"/>
       <c r="Q25" s="181"/>
       <c r="R25" s="182"/>
       <c r="S25" s="182"/>
@@ -7924,28 +7924,28 @@
       <c r="AC25" s="182"/>
       <c r="AD25" s="182"/>
       <c r="AE25" s="183"/>
-      <c r="AF25" s="231"/>
-      <c r="AG25" s="232"/>
-      <c r="AH25" s="232"/>
-      <c r="AI25" s="233"/>
+      <c r="AF25" s="175"/>
+      <c r="AG25" s="176"/>
+      <c r="AH25" s="176"/>
+      <c r="AI25" s="177"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="38"/>
-      <c r="B26" s="175"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="231"/>
-      <c r="K26" s="232"/>
-      <c r="L26" s="232"/>
-      <c r="M26" s="232"/>
-      <c r="N26" s="232"/>
-      <c r="O26" s="232"/>
-      <c r="P26" s="233"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="189"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="176"/>
+      <c r="N26" s="176"/>
+      <c r="O26" s="176"/>
+      <c r="P26" s="177"/>
       <c r="Q26" s="181"/>
       <c r="R26" s="182"/>
       <c r="S26" s="182"/>
@@ -7961,28 +7961,28 @@
       <c r="AC26" s="182"/>
       <c r="AD26" s="182"/>
       <c r="AE26" s="183"/>
-      <c r="AF26" s="231"/>
-      <c r="AG26" s="232"/>
-      <c r="AH26" s="232"/>
-      <c r="AI26" s="233"/>
+      <c r="AF26" s="175"/>
+      <c r="AG26" s="176"/>
+      <c r="AH26" s="176"/>
+      <c r="AI26" s="177"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
-      <c r="B27" s="175"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="231"/>
-      <c r="K27" s="232"/>
-      <c r="L27" s="232"/>
-      <c r="M27" s="232"/>
-      <c r="N27" s="232"/>
-      <c r="O27" s="232"/>
-      <c r="P27" s="233"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="176"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="176"/>
+      <c r="N27" s="176"/>
+      <c r="O27" s="176"/>
+      <c r="P27" s="177"/>
       <c r="Q27" s="181"/>
       <c r="R27" s="182"/>
       <c r="S27" s="182"/>
@@ -7998,28 +7998,28 @@
       <c r="AC27" s="182"/>
       <c r="AD27" s="182"/>
       <c r="AE27" s="183"/>
-      <c r="AF27" s="231"/>
-      <c r="AG27" s="232"/>
-      <c r="AH27" s="232"/>
-      <c r="AI27" s="233"/>
+      <c r="AF27" s="175"/>
+      <c r="AG27" s="176"/>
+      <c r="AH27" s="176"/>
+      <c r="AI27" s="177"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="38"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="231"/>
-      <c r="K28" s="232"/>
-      <c r="L28" s="232"/>
-      <c r="M28" s="232"/>
-      <c r="N28" s="232"/>
-      <c r="O28" s="232"/>
-      <c r="P28" s="233"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="176"/>
+      <c r="N28" s="176"/>
+      <c r="O28" s="176"/>
+      <c r="P28" s="177"/>
       <c r="Q28" s="181"/>
       <c r="R28" s="182"/>
       <c r="S28" s="182"/>
@@ -8035,28 +8035,28 @@
       <c r="AC28" s="182"/>
       <c r="AD28" s="182"/>
       <c r="AE28" s="183"/>
-      <c r="AF28" s="231"/>
-      <c r="AG28" s="232"/>
-      <c r="AH28" s="232"/>
-      <c r="AI28" s="233"/>
+      <c r="AF28" s="175"/>
+      <c r="AG28" s="176"/>
+      <c r="AH28" s="176"/>
+      <c r="AI28" s="177"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="38"/>
-      <c r="B29" s="175"/>
-      <c r="C29" s="176"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="231"/>
-      <c r="K29" s="232"/>
-      <c r="L29" s="232"/>
-      <c r="M29" s="232"/>
-      <c r="N29" s="232"/>
-      <c r="O29" s="232"/>
-      <c r="P29" s="233"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="176"/>
+      <c r="N29" s="176"/>
+      <c r="O29" s="176"/>
+      <c r="P29" s="177"/>
       <c r="Q29" s="181"/>
       <c r="R29" s="182"/>
       <c r="S29" s="182"/>
@@ -8072,28 +8072,28 @@
       <c r="AC29" s="182"/>
       <c r="AD29" s="182"/>
       <c r="AE29" s="183"/>
-      <c r="AF29" s="231"/>
-      <c r="AG29" s="232"/>
-      <c r="AH29" s="232"/>
-      <c r="AI29" s="233"/>
+      <c r="AF29" s="175"/>
+      <c r="AG29" s="176"/>
+      <c r="AH29" s="176"/>
+      <c r="AI29" s="177"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="38"/>
-      <c r="B30" s="175"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="231"/>
-      <c r="K30" s="232"/>
-      <c r="L30" s="232"/>
-      <c r="M30" s="232"/>
-      <c r="N30" s="232"/>
-      <c r="O30" s="232"/>
-      <c r="P30" s="233"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="176"/>
+      <c r="L30" s="176"/>
+      <c r="M30" s="176"/>
+      <c r="N30" s="176"/>
+      <c r="O30" s="176"/>
+      <c r="P30" s="177"/>
       <c r="Q30" s="181"/>
       <c r="R30" s="182"/>
       <c r="S30" s="182"/>
@@ -8109,28 +8109,28 @@
       <c r="AC30" s="182"/>
       <c r="AD30" s="182"/>
       <c r="AE30" s="183"/>
-      <c r="AF30" s="231"/>
-      <c r="AG30" s="232"/>
-      <c r="AH30" s="232"/>
-      <c r="AI30" s="233"/>
+      <c r="AF30" s="175"/>
+      <c r="AG30" s="176"/>
+      <c r="AH30" s="176"/>
+      <c r="AI30" s="177"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="38"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="231"/>
-      <c r="K31" s="232"/>
-      <c r="L31" s="232"/>
-      <c r="M31" s="232"/>
-      <c r="N31" s="232"/>
-      <c r="O31" s="232"/>
-      <c r="P31" s="233"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="176"/>
+      <c r="N31" s="176"/>
+      <c r="O31" s="176"/>
+      <c r="P31" s="177"/>
       <c r="Q31" s="181"/>
       <c r="R31" s="182"/>
       <c r="S31" s="182"/>
@@ -8146,28 +8146,28 @@
       <c r="AC31" s="182"/>
       <c r="AD31" s="182"/>
       <c r="AE31" s="183"/>
-      <c r="AF31" s="231"/>
-      <c r="AG31" s="232"/>
-      <c r="AH31" s="232"/>
-      <c r="AI31" s="233"/>
+      <c r="AF31" s="175"/>
+      <c r="AG31" s="176"/>
+      <c r="AH31" s="176"/>
+      <c r="AI31" s="177"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="38"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="231"/>
-      <c r="K32" s="232"/>
-      <c r="L32" s="232"/>
-      <c r="M32" s="232"/>
-      <c r="N32" s="232"/>
-      <c r="O32" s="232"/>
-      <c r="P32" s="233"/>
+      <c r="B32" s="184"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="176"/>
+      <c r="M32" s="176"/>
+      <c r="N32" s="176"/>
+      <c r="O32" s="176"/>
+      <c r="P32" s="177"/>
       <c r="Q32" s="181"/>
       <c r="R32" s="182"/>
       <c r="S32" s="182"/>
@@ -8183,28 +8183,28 @@
       <c r="AC32" s="182"/>
       <c r="AD32" s="182"/>
       <c r="AE32" s="183"/>
-      <c r="AF32" s="231"/>
-      <c r="AG32" s="232"/>
-      <c r="AH32" s="232"/>
-      <c r="AI32" s="233"/>
+      <c r="AF32" s="175"/>
+      <c r="AG32" s="176"/>
+      <c r="AH32" s="176"/>
+      <c r="AI32" s="177"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="38"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="231"/>
-      <c r="K33" s="232"/>
-      <c r="L33" s="232"/>
-      <c r="M33" s="232"/>
-      <c r="N33" s="232"/>
-      <c r="O33" s="232"/>
-      <c r="P33" s="233"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="176"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="176"/>
+      <c r="N33" s="176"/>
+      <c r="O33" s="176"/>
+      <c r="P33" s="177"/>
       <c r="Q33" s="181"/>
       <c r="R33" s="182"/>
       <c r="S33" s="182"/>
@@ -8220,24 +8220,157 @@
       <c r="AC33" s="182"/>
       <c r="AD33" s="182"/>
       <c r="AE33" s="183"/>
-      <c r="AF33" s="231"/>
-      <c r="AG33" s="232"/>
-      <c r="AH33" s="232"/>
-      <c r="AI33" s="233"/>
+      <c r="AF33" s="175"/>
+      <c r="AG33" s="176"/>
+      <c r="AH33" s="176"/>
+      <c r="AI33" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="Q23:AE23"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AF9:AI9"/>
     <mergeCell ref="AF10:AI10"/>
@@ -8262,150 +8395,17 @@
     <mergeCell ref="AF15:AI15"/>
     <mergeCell ref="AF16:AI16"/>
     <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF27:AI27"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -8561,12 +8561,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="39" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="239"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -8580,49 +8580,49 @@
       <c r="L1" s="241"/>
       <c r="M1" s="241"/>
       <c r="N1" s="242"/>
-      <c r="O1" s="249" t="s">
+      <c r="O1" s="243" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="258" t="str">
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="243" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="245" t="str">
+      <c r="AB1" s="239"/>
+      <c r="AC1" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="246"/>
-      <c r="AE1" s="246"/>
-      <c r="AF1" s="247"/>
-      <c r="AG1" s="237">
+      <c r="AD1" s="253"/>
+      <c r="AE1" s="253"/>
+      <c r="AF1" s="254"/>
+      <c r="AG1" s="264">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="239"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="266"/>
     </row>
     <row r="2" spans="1:35" s="39" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="244"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -8636,43 +8636,43 @@
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
       <c r="N2" s="242"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="253"/>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="243" t="s">
+      <c r="O2" s="246"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="245" t="str">
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="247"/>
-      <c r="AG2" s="237" t="str">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="254"/>
+      <c r="AG2" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="238"/>
-      <c r="AI2" s="239"/>
+      <c r="AH2" s="265"/>
+      <c r="AI2" s="266"/>
     </row>
     <row r="3" spans="1:35" s="39" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="244"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="239"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -8686,40 +8686,40 @@
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="242"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="257"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="245" t="str">
+      <c r="O3" s="249"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="237"/>
+      <c r="AB3" s="239"/>
+      <c r="AC3" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="246"/>
-      <c r="AE3" s="246"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="237" t="str">
+      <c r="AD3" s="253"/>
+      <c r="AE3" s="253"/>
+      <c r="AF3" s="254"/>
+      <c r="AG3" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="239"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="266"/>
     </row>
     <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="41"/>
     </row>
     <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q5" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC5" s="41"/>
     </row>
@@ -8730,7 +8730,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="43"/>
       <c r="B7" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="45"/>
@@ -8806,7 +8806,7 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="43"/>
       <c r="B9" s="44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="45"/>
@@ -8922,7 +8922,7 @@
       <c r="A12" s="43"/>
       <c r="B12" s="45"/>
       <c r="C12" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
@@ -9967,6 +9967,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -9978,12 +9984,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -10009,12 +10009,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="81" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="237" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="239"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -10028,49 +10028,49 @@
       <c r="L1" s="241"/>
       <c r="M1" s="241"/>
       <c r="N1" s="242"/>
-      <c r="O1" s="249" t="s">
+      <c r="O1" s="243" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="258" t="str">
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="243" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="237" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="245" t="str">
+      <c r="AB1" s="239"/>
+      <c r="AC1" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="246"/>
-      <c r="AE1" s="246"/>
-      <c r="AF1" s="247"/>
-      <c r="AG1" s="237">
+      <c r="AD1" s="253"/>
+      <c r="AE1" s="253"/>
+      <c r="AF1" s="254"/>
+      <c r="AG1" s="264">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="239"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="266"/>
     </row>
     <row r="2" spans="1:35" s="81" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="244"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -10084,43 +10084,43 @@
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
       <c r="N2" s="242"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="253"/>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="243" t="s">
+      <c r="O2" s="246"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="245" t="str">
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="247"/>
-      <c r="AG2" s="237" t="str">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="254"/>
+      <c r="AG2" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="238"/>
-      <c r="AI2" s="239"/>
+      <c r="AH2" s="265"/>
+      <c r="AI2" s="266"/>
     </row>
     <row r="3" spans="1:35" s="81" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="244"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="239"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -10134,33 +10134,33 @@
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="242"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="257"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="245" t="str">
+      <c r="O3" s="249"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="237"/>
+      <c r="AB3" s="239"/>
+      <c r="AC3" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="246"/>
-      <c r="AE3" s="246"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="237" t="str">
+      <c r="AD3" s="253"/>
+      <c r="AE3" s="253"/>
+      <c r="AF3" s="254"/>
+      <c r="AG3" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="239"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="266"/>
     </row>
     <row r="4" spans="1:35" s="81" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="82"/>
@@ -10182,12 +10182,12 @@
       <c r="C6" s="86"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="274" t="s">
+      <c r="A7" s="267" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="275"/>
-      <c r="C7" s="275"/>
-      <c r="D7" s="276"/>
+      <c r="B7" s="270"/>
+      <c r="C7" s="270"/>
+      <c r="D7" s="271"/>
       <c r="E7" s="87"/>
       <c r="F7" s="87"/>
       <c r="G7" s="87"/>
@@ -10200,82 +10200,82 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="298" t="s">
-        <v>158</v>
-      </c>
-      <c r="R7" s="293"/>
-      <c r="S7" s="293"/>
-      <c r="T7" s="294"/>
-      <c r="U7" s="299" t="s">
+      <c r="Q7" s="275" t="s">
+        <v>157</v>
+      </c>
+      <c r="R7" s="276"/>
+      <c r="S7" s="276"/>
+      <c r="T7" s="277"/>
+      <c r="U7" s="280" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="300"/>
-      <c r="W7" s="300"/>
-      <c r="X7" s="300"/>
-      <c r="Y7" s="300"/>
-      <c r="Z7" s="300"/>
-      <c r="AA7" s="300"/>
-      <c r="AB7" s="300"/>
-      <c r="AC7" s="300"/>
-      <c r="AD7" s="300"/>
-      <c r="AE7" s="300"/>
-      <c r="AF7" s="300"/>
-      <c r="AG7" s="300"/>
-      <c r="AH7" s="300"/>
-      <c r="AI7" s="301"/>
+      <c r="V7" s="281"/>
+      <c r="W7" s="281"/>
+      <c r="X7" s="281"/>
+      <c r="Y7" s="281"/>
+      <c r="Z7" s="281"/>
+      <c r="AA7" s="281"/>
+      <c r="AB7" s="281"/>
+      <c r="AC7" s="281"/>
+      <c r="AD7" s="281"/>
+      <c r="AE7" s="281"/>
+      <c r="AF7" s="281"/>
+      <c r="AG7" s="281"/>
+      <c r="AH7" s="281"/>
+      <c r="AI7" s="282"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="302" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="303"/>
-      <c r="C8" s="303"/>
-      <c r="D8" s="304"/>
-      <c r="E8" s="289" t="s">
+      <c r="A8" s="272" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="273"/>
+      <c r="C8" s="273"/>
+      <c r="D8" s="274"/>
+      <c r="E8" s="278" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="290"/>
-      <c r="G8" s="290"/>
-      <c r="H8" s="290"/>
-      <c r="I8" s="290"/>
-      <c r="J8" s="290"/>
-      <c r="K8" s="290"/>
-      <c r="L8" s="290"/>
-      <c r="M8" s="290"/>
-      <c r="N8" s="290"/>
-      <c r="O8" s="290"/>
-      <c r="P8" s="290"/>
-      <c r="Q8" s="274" t="s">
+      <c r="F8" s="279"/>
+      <c r="G8" s="279"/>
+      <c r="H8" s="279"/>
+      <c r="I8" s="279"/>
+      <c r="J8" s="279"/>
+      <c r="K8" s="279"/>
+      <c r="L8" s="279"/>
+      <c r="M8" s="279"/>
+      <c r="N8" s="279"/>
+      <c r="O8" s="279"/>
+      <c r="P8" s="279"/>
+      <c r="Q8" s="267" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="275"/>
-      <c r="S8" s="275"/>
-      <c r="T8" s="276"/>
-      <c r="U8" s="289" t="s">
+      <c r="R8" s="270"/>
+      <c r="S8" s="270"/>
+      <c r="T8" s="271"/>
+      <c r="U8" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="V8" s="290"/>
-      <c r="W8" s="290"/>
-      <c r="X8" s="290"/>
-      <c r="Y8" s="290"/>
-      <c r="Z8" s="290"/>
-      <c r="AA8" s="290"/>
-      <c r="AB8" s="290"/>
-      <c r="AC8" s="290"/>
-      <c r="AD8" s="290"/>
-      <c r="AE8" s="290"/>
-      <c r="AF8" s="290"/>
-      <c r="AG8" s="290"/>
-      <c r="AH8" s="290"/>
-      <c r="AI8" s="291"/>
+      <c r="V8" s="279"/>
+      <c r="W8" s="279"/>
+      <c r="X8" s="279"/>
+      <c r="Y8" s="279"/>
+      <c r="Z8" s="279"/>
+      <c r="AA8" s="279"/>
+      <c r="AB8" s="279"/>
+      <c r="AC8" s="279"/>
+      <c r="AD8" s="279"/>
+      <c r="AE8" s="279"/>
+      <c r="AF8" s="279"/>
+      <c r="AG8" s="279"/>
+      <c r="AH8" s="279"/>
+      <c r="AI8" s="283"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="274" t="s">
+      <c r="A9" s="267" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="275"/>
-      <c r="C9" s="275"/>
-      <c r="D9" s="276"/>
+      <c r="B9" s="270"/>
+      <c r="C9" s="270"/>
+      <c r="D9" s="271"/>
       <c r="E9" s="89"/>
       <c r="F9" s="89"/>
       <c r="G9" s="89"/>
@@ -10461,7 +10461,7 @@
       <c r="AI13" s="101"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="274" t="s">
+      <c r="A14" s="267" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="268"/>
@@ -10615,12 +10615,12 @@
       <c r="AI17" s="101"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="286" t="s">
+      <c r="A18" s="284" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="287"/>
-      <c r="C18" s="287"/>
-      <c r="D18" s="288"/>
+      <c r="B18" s="285"/>
+      <c r="C18" s="285"/>
+      <c r="D18" s="286"/>
       <c r="E18" s="92"/>
       <c r="F18" s="103"/>
       <c r="G18" s="94"/>
@@ -10633,12 +10633,12 @@
       <c r="N18" s="94"/>
       <c r="O18" s="93"/>
       <c r="P18" s="94"/>
-      <c r="Q18" s="286" t="s">
+      <c r="Q18" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="R18" s="287"/>
-      <c r="S18" s="287"/>
-      <c r="T18" s="288"/>
+      <c r="R18" s="285"/>
+      <c r="S18" s="285"/>
+      <c r="T18" s="286"/>
       <c r="U18" s="93"/>
       <c r="V18" s="93"/>
       <c r="W18" s="93"/>
@@ -10740,12 +10740,12 @@
       <c r="AI20" s="95"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="274" t="s">
+      <c r="A21" s="267" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="275"/>
-      <c r="C21" s="275"/>
-      <c r="D21" s="276"/>
+      <c r="B21" s="270"/>
+      <c r="C21" s="270"/>
+      <c r="D21" s="271"/>
       <c r="E21" s="111" t="s">
         <v>69</v>
       </c>
@@ -10760,37 +10760,37 @@
       <c r="N21" s="87"/>
       <c r="O21" s="87"/>
       <c r="P21" s="87"/>
-      <c r="Q21" s="274" t="s">
+      <c r="Q21" s="267" t="s">
         <v>70</v>
       </c>
-      <c r="R21" s="275"/>
-      <c r="S21" s="275"/>
-      <c r="T21" s="276"/>
-      <c r="U21" s="289" t="s">
+      <c r="R21" s="270"/>
+      <c r="S21" s="270"/>
+      <c r="T21" s="271"/>
+      <c r="U21" s="278" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="290"/>
-      <c r="W21" s="290"/>
-      <c r="X21" s="290"/>
-      <c r="Y21" s="290"/>
-      <c r="Z21" s="290"/>
-      <c r="AA21" s="290"/>
-      <c r="AB21" s="290"/>
-      <c r="AC21" s="290"/>
-      <c r="AD21" s="290"/>
-      <c r="AE21" s="290"/>
-      <c r="AF21" s="290"/>
-      <c r="AG21" s="290"/>
-      <c r="AH21" s="290"/>
-      <c r="AI21" s="291"/>
+      <c r="V21" s="279"/>
+      <c r="W21" s="279"/>
+      <c r="X21" s="279"/>
+      <c r="Y21" s="279"/>
+      <c r="Z21" s="279"/>
+      <c r="AA21" s="279"/>
+      <c r="AB21" s="279"/>
+      <c r="AC21" s="279"/>
+      <c r="AD21" s="279"/>
+      <c r="AE21" s="279"/>
+      <c r="AF21" s="279"/>
+      <c r="AG21" s="279"/>
+      <c r="AH21" s="279"/>
+      <c r="AI21" s="283"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="292" t="s">
+      <c r="A22" s="287" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="293"/>
-      <c r="C22" s="293"/>
-      <c r="D22" s="294"/>
+      <c r="B22" s="276"/>
+      <c r="C22" s="276"/>
+      <c r="D22" s="277"/>
       <c r="E22" s="112"/>
       <c r="F22" s="113"/>
       <c r="G22" s="90"/>
@@ -10803,12 +10803,12 @@
       <c r="N22" s="90"/>
       <c r="O22" s="89"/>
       <c r="P22" s="90"/>
-      <c r="Q22" s="292" t="s">
+      <c r="Q22" s="287" t="s">
         <v>73</v>
       </c>
-      <c r="R22" s="293"/>
-      <c r="S22" s="293"/>
-      <c r="T22" s="294"/>
+      <c r="R22" s="276"/>
+      <c r="S22" s="276"/>
+      <c r="T22" s="277"/>
       <c r="U22" s="114"/>
       <c r="V22" s="90"/>
       <c r="W22" s="89"/>
@@ -10871,38 +10871,38 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="283" t="s">
+      <c r="A24" s="302" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="284"/>
-      <c r="C24" s="284"/>
-      <c r="D24" s="285"/>
-      <c r="E24" s="289" t="s">
+      <c r="B24" s="303"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="304"/>
+      <c r="E24" s="278" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="290"/>
-      <c r="G24" s="290"/>
-      <c r="H24" s="290"/>
-      <c r="I24" s="290"/>
-      <c r="J24" s="290"/>
-      <c r="K24" s="290"/>
-      <c r="L24" s="290"/>
-      <c r="M24" s="290"/>
-      <c r="N24" s="290"/>
-      <c r="O24" s="290"/>
-      <c r="P24" s="291"/>
-      <c r="Q24" s="295" t="s">
+      <c r="F24" s="279"/>
+      <c r="G24" s="279"/>
+      <c r="H24" s="279"/>
+      <c r="I24" s="279"/>
+      <c r="J24" s="279"/>
+      <c r="K24" s="279"/>
+      <c r="L24" s="279"/>
+      <c r="M24" s="279"/>
+      <c r="N24" s="279"/>
+      <c r="O24" s="279"/>
+      <c r="P24" s="283"/>
+      <c r="Q24" s="288" t="s">
         <v>76</v>
       </c>
-      <c r="R24" s="296"/>
-      <c r="S24" s="296"/>
-      <c r="T24" s="297"/>
-      <c r="U24" s="272">
+      <c r="R24" s="289"/>
+      <c r="S24" s="289"/>
+      <c r="T24" s="290"/>
+      <c r="U24" s="294">
         <v>3588</v>
       </c>
-      <c r="V24" s="273"/>
-      <c r="W24" s="273"/>
-      <c r="X24" s="273"/>
+      <c r="V24" s="295"/>
+      <c r="W24" s="295"/>
+      <c r="X24" s="295"/>
       <c r="Y24" s="117" t="s">
         <v>77</v>
       </c>
@@ -10918,28 +10918,28 @@
       <c r="AI24" s="119"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="279" t="s">
+      <c r="A25" s="298" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="280"/>
-      <c r="C25" s="280"/>
-      <c r="D25" s="281"/>
+      <c r="B25" s="299"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="300"/>
       <c r="E25" s="112"/>
       <c r="F25" s="120"/>
       <c r="G25" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="270" t="s">
+      <c r="H25" s="292" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="271"/>
-      <c r="J25" s="271"/>
-      <c r="K25" s="271"/>
-      <c r="L25" s="271"/>
-      <c r="M25" s="271"/>
-      <c r="N25" s="271"/>
-      <c r="O25" s="271"/>
-      <c r="P25" s="271"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="293"/>
+      <c r="M25" s="293"/>
+      <c r="N25" s="293"/>
+      <c r="O25" s="293"/>
+      <c r="P25" s="293"/>
       <c r="Q25" s="90" t="s">
         <v>67</v>
       </c>
@@ -10948,15 +10948,15 @@
       <c r="T25" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="U25" s="282"/>
-      <c r="V25" s="282"/>
-      <c r="W25" s="282"/>
-      <c r="X25" s="282"/>
-      <c r="Y25" s="282"/>
-      <c r="Z25" s="282"/>
-      <c r="AA25" s="282"/>
-      <c r="AB25" s="282"/>
-      <c r="AC25" s="282"/>
+      <c r="U25" s="301"/>
+      <c r="V25" s="301"/>
+      <c r="W25" s="301"/>
+      <c r="X25" s="301"/>
+      <c r="Y25" s="301"/>
+      <c r="Z25" s="301"/>
+      <c r="AA25" s="301"/>
+      <c r="AB25" s="301"/>
+      <c r="AC25" s="301"/>
       <c r="AD25" s="90" t="s">
         <v>67</v>
       </c>
@@ -10976,15 +10976,15 @@
       <c r="G26" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="278"/>
-      <c r="I26" s="278"/>
-      <c r="J26" s="278"/>
-      <c r="K26" s="278"/>
-      <c r="L26" s="278"/>
-      <c r="M26" s="278"/>
-      <c r="N26" s="278"/>
-      <c r="O26" s="278"/>
-      <c r="P26" s="278"/>
+      <c r="H26" s="297"/>
+      <c r="I26" s="297"/>
+      <c r="J26" s="297"/>
+      <c r="K26" s="297"/>
+      <c r="L26" s="297"/>
+      <c r="M26" s="297"/>
+      <c r="N26" s="297"/>
+      <c r="O26" s="297"/>
+      <c r="P26" s="297"/>
       <c r="Q26" s="94" t="s">
         <v>67</v>
       </c>
@@ -10993,15 +10993,15 @@
       <c r="T26" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="U26" s="278"/>
-      <c r="V26" s="278"/>
-      <c r="W26" s="278"/>
-      <c r="X26" s="278"/>
-      <c r="Y26" s="278"/>
-      <c r="Z26" s="278"/>
-      <c r="AA26" s="278"/>
-      <c r="AB26" s="278"/>
-      <c r="AC26" s="278"/>
+      <c r="U26" s="297"/>
+      <c r="V26" s="297"/>
+      <c r="W26" s="297"/>
+      <c r="X26" s="297"/>
+      <c r="Y26" s="297"/>
+      <c r="Z26" s="297"/>
+      <c r="AA26" s="297"/>
+      <c r="AB26" s="297"/>
+      <c r="AC26" s="297"/>
       <c r="AD26" s="94" t="s">
         <v>67</v>
       </c>
@@ -11021,15 +11021,15 @@
       <c r="G27" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="277"/>
-      <c r="I27" s="277"/>
-      <c r="J27" s="277"/>
-      <c r="K27" s="277"/>
-      <c r="L27" s="277"/>
-      <c r="M27" s="277"/>
-      <c r="N27" s="277"/>
-      <c r="O27" s="277"/>
-      <c r="P27" s="277"/>
+      <c r="H27" s="296"/>
+      <c r="I27" s="296"/>
+      <c r="J27" s="296"/>
+      <c r="K27" s="296"/>
+      <c r="L27" s="296"/>
+      <c r="M27" s="296"/>
+      <c r="N27" s="296"/>
+      <c r="O27" s="296"/>
+      <c r="P27" s="296"/>
       <c r="Q27" s="99" t="s">
         <v>67</v>
       </c>
@@ -11038,27 +11038,27 @@
       <c r="T27" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="U27" s="277"/>
-      <c r="V27" s="277"/>
-      <c r="W27" s="277"/>
-      <c r="X27" s="277"/>
-      <c r="Y27" s="277"/>
-      <c r="Z27" s="277"/>
-      <c r="AA27" s="277"/>
-      <c r="AB27" s="277"/>
-      <c r="AC27" s="277"/>
-      <c r="AD27" s="277"/>
-      <c r="AE27" s="277"/>
-      <c r="AF27" s="277"/>
-      <c r="AG27" s="277"/>
-      <c r="AH27" s="277"/>
+      <c r="U27" s="296"/>
+      <c r="V27" s="296"/>
+      <c r="W27" s="296"/>
+      <c r="X27" s="296"/>
+      <c r="Y27" s="296"/>
+      <c r="Z27" s="296"/>
+      <c r="AA27" s="296"/>
+      <c r="AB27" s="296"/>
+      <c r="AC27" s="296"/>
+      <c r="AD27" s="296"/>
+      <c r="AE27" s="296"/>
+      <c r="AF27" s="296"/>
+      <c r="AG27" s="296"/>
+      <c r="AH27" s="296"/>
       <c r="AI27" s="101" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="267" t="s">
-        <v>159</v>
+      <c r="A28" s="291" t="s">
+        <v>158</v>
       </c>
       <c r="B28" s="268"/>
       <c r="C28" s="268"/>
@@ -11245,31 +11245,14 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -11282,14 +11265,31 @@
     <mergeCell ref="H26:P26"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11836,12 +11836,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="130" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="239"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -11855,49 +11855,49 @@
       <c r="L1" s="241"/>
       <c r="M1" s="241"/>
       <c r="N1" s="242"/>
-      <c r="O1" s="249" t="s">
+      <c r="O1" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="258" t="str">
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="243" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="237" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="245" t="str">
+      <c r="AB1" s="239"/>
+      <c r="AC1" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="246"/>
-      <c r="AE1" s="246"/>
-      <c r="AF1" s="247"/>
-      <c r="AG1" s="237">
+      <c r="AD1" s="253"/>
+      <c r="AE1" s="253"/>
+      <c r="AF1" s="254"/>
+      <c r="AG1" s="264">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="239"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="266"/>
     </row>
     <row r="2" spans="1:43" s="130" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="244"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -11911,43 +11911,43 @@
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
       <c r="N2" s="242"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="253"/>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="243" t="s">
+      <c r="O2" s="246"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="237" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="245" t="str">
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="247"/>
-      <c r="AG2" s="237" t="str">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="254"/>
+      <c r="AG2" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="238"/>
-      <c r="AI2" s="239"/>
+      <c r="AH2" s="265"/>
+      <c r="AI2" s="266"/>
     </row>
     <row r="3" spans="1:43" s="130" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="237" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="244"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="239"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -11961,33 +11961,33 @@
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="242"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="257"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="245" t="str">
+      <c r="O3" s="249"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="237"/>
+      <c r="AB3" s="239"/>
+      <c r="AC3" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="246"/>
-      <c r="AE3" s="246"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="237" t="str">
+      <c r="AD3" s="253"/>
+      <c r="AE3" s="253"/>
+      <c r="AF3" s="254"/>
+      <c r="AG3" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="239"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="266"/>
     </row>
     <row r="4" spans="1:43" s="130" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="131"/>
@@ -12011,7 +12011,7 @@
     </row>
     <row r="5" spans="1:43" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="136"/>
     </row>
@@ -12020,190 +12020,190 @@
       <c r="C6" s="136"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A7" s="360" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="361"/>
-      <c r="C7" s="361"/>
-      <c r="D7" s="361"/>
-      <c r="E7" s="361"/>
-      <c r="F7" s="361"/>
-      <c r="G7" s="361"/>
-      <c r="H7" s="361"/>
-      <c r="I7" s="361"/>
-      <c r="J7" s="361"/>
-      <c r="K7" s="361"/>
-      <c r="L7" s="361"/>
-      <c r="M7" s="361"/>
-      <c r="N7" s="361"/>
-      <c r="O7" s="361"/>
-      <c r="P7" s="361"/>
-      <c r="Q7" s="361"/>
-      <c r="R7" s="361"/>
-      <c r="S7" s="361"/>
-      <c r="T7" s="361"/>
-      <c r="U7" s="361"/>
-      <c r="V7" s="361"/>
-      <c r="W7" s="361"/>
-      <c r="X7" s="361"/>
-      <c r="Y7" s="361"/>
-      <c r="Z7" s="361"/>
-      <c r="AA7" s="361"/>
-      <c r="AB7" s="362"/>
-      <c r="AC7" s="375" t="s">
+      <c r="A7" s="305" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="306"/>
+      <c r="C7" s="306"/>
+      <c r="D7" s="306"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="306"/>
+      <c r="H7" s="306"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="306"/>
+      <c r="K7" s="306"/>
+      <c r="L7" s="306"/>
+      <c r="M7" s="306"/>
+      <c r="N7" s="306"/>
+      <c r="O7" s="306"/>
+      <c r="P7" s="306"/>
+      <c r="Q7" s="306"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="306"/>
+      <c r="V7" s="306"/>
+      <c r="W7" s="306"/>
+      <c r="X7" s="306"/>
+      <c r="Y7" s="306"/>
+      <c r="Z7" s="306"/>
+      <c r="AA7" s="306"/>
+      <c r="AB7" s="307"/>
+      <c r="AC7" s="320" t="s">
         <v>80</v>
       </c>
-      <c r="AD7" s="361"/>
-      <c r="AE7" s="361"/>
-      <c r="AF7" s="361"/>
-      <c r="AG7" s="361"/>
-      <c r="AH7" s="361"/>
-      <c r="AI7" s="376"/>
+      <c r="AD7" s="306"/>
+      <c r="AE7" s="306"/>
+      <c r="AF7" s="306"/>
+      <c r="AG7" s="306"/>
+      <c r="AH7" s="306"/>
+      <c r="AI7" s="321"/>
     </row>
     <row r="8" spans="1:43" s="139" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="363" t="s">
+      <c r="B8" s="308" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="364"/>
-      <c r="D8" s="364"/>
-      <c r="E8" s="364"/>
-      <c r="F8" s="365"/>
-      <c r="G8" s="363" t="s">
+      <c r="C8" s="309"/>
+      <c r="D8" s="309"/>
+      <c r="E8" s="309"/>
+      <c r="F8" s="310"/>
+      <c r="G8" s="308" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="366"/>
-      <c r="I8" s="368"/>
-      <c r="J8" s="363" t="s">
+      <c r="H8" s="311"/>
+      <c r="I8" s="313"/>
+      <c r="J8" s="308" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="366"/>
-      <c r="L8" s="366"/>
-      <c r="M8" s="366"/>
-      <c r="N8" s="366"/>
-      <c r="O8" s="366"/>
-      <c r="P8" s="368"/>
-      <c r="Q8" s="369" t="s">
+      <c r="K8" s="311"/>
+      <c r="L8" s="311"/>
+      <c r="M8" s="311"/>
+      <c r="N8" s="311"/>
+      <c r="O8" s="311"/>
+      <c r="P8" s="313"/>
+      <c r="Q8" s="314" t="s">
         <v>85</v>
       </c>
-      <c r="R8" s="371"/>
-      <c r="S8" s="369" t="s">
+      <c r="R8" s="316"/>
+      <c r="S8" s="314" t="s">
         <v>86</v>
       </c>
-      <c r="T8" s="370"/>
-      <c r="U8" s="371"/>
-      <c r="V8" s="363" t="s">
+      <c r="T8" s="315"/>
+      <c r="U8" s="316"/>
+      <c r="V8" s="308" t="s">
         <v>87</v>
       </c>
-      <c r="W8" s="366"/>
-      <c r="X8" s="366"/>
-      <c r="Y8" s="366"/>
-      <c r="Z8" s="366"/>
-      <c r="AA8" s="366"/>
-      <c r="AB8" s="367"/>
-      <c r="AC8" s="372" t="s">
+      <c r="W8" s="311"/>
+      <c r="X8" s="311"/>
+      <c r="Y8" s="311"/>
+      <c r="Z8" s="311"/>
+      <c r="AA8" s="311"/>
+      <c r="AB8" s="312"/>
+      <c r="AC8" s="317" t="s">
         <v>88</v>
       </c>
-      <c r="AD8" s="373"/>
-      <c r="AE8" s="373"/>
-      <c r="AF8" s="373"/>
-      <c r="AG8" s="373"/>
-      <c r="AH8" s="374" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI8" s="374"/>
+      <c r="AD8" s="318"/>
+      <c r="AE8" s="318"/>
+      <c r="AF8" s="318"/>
+      <c r="AG8" s="318"/>
+      <c r="AH8" s="319" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI8" s="319"/>
     </row>
     <row r="9" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="140">
         <v>1</v>
       </c>
-      <c r="B9" s="312" t="s">
+      <c r="B9" s="324" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="313"/>
-      <c r="D9" s="313"/>
-      <c r="E9" s="313"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="312" t="s">
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="326"/>
+      <c r="G9" s="324" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="313"/>
-      <c r="I9" s="314"/>
-      <c r="J9" s="312" t="s">
+      <c r="H9" s="325"/>
+      <c r="I9" s="326"/>
+      <c r="J9" s="324" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="355"/>
-      <c r="L9" s="355"/>
-      <c r="M9" s="355"/>
-      <c r="N9" s="355"/>
-      <c r="O9" s="355"/>
-      <c r="P9" s="356"/>
-      <c r="Q9" s="319">
+      <c r="K9" s="332"/>
+      <c r="L9" s="332"/>
+      <c r="M9" s="332"/>
+      <c r="N9" s="332"/>
+      <c r="O9" s="332"/>
+      <c r="P9" s="333"/>
+      <c r="Q9" s="370">
         <v>3588</v>
       </c>
-      <c r="R9" s="320"/>
-      <c r="S9" s="323" t="s">
+      <c r="R9" s="371"/>
+      <c r="S9" s="374" t="s">
         <v>92</v>
       </c>
-      <c r="T9" s="324"/>
-      <c r="U9" s="325"/>
-      <c r="V9" s="312" t="s">
+      <c r="T9" s="375"/>
+      <c r="U9" s="376"/>
+      <c r="V9" s="324" t="s">
         <v>93</v>
       </c>
-      <c r="W9" s="313"/>
-      <c r="X9" s="313"/>
-      <c r="Y9" s="313"/>
-      <c r="Z9" s="313"/>
-      <c r="AA9" s="313"/>
-      <c r="AB9" s="354"/>
-      <c r="AC9" s="357"/>
-      <c r="AD9" s="312"/>
-      <c r="AE9" s="313"/>
-      <c r="AF9" s="313"/>
-      <c r="AG9" s="314"/>
-      <c r="AH9" s="321"/>
-      <c r="AI9" s="322"/>
+      <c r="W9" s="325"/>
+      <c r="X9" s="325"/>
+      <c r="Y9" s="325"/>
+      <c r="Z9" s="325"/>
+      <c r="AA9" s="325"/>
+      <c r="AB9" s="330"/>
+      <c r="AC9" s="336"/>
+      <c r="AD9" s="324"/>
+      <c r="AE9" s="325"/>
+      <c r="AF9" s="325"/>
+      <c r="AG9" s="326"/>
+      <c r="AH9" s="372"/>
+      <c r="AI9" s="373"/>
     </row>
     <row r="10" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="140">
         <v>2</v>
       </c>
-      <c r="B10" s="307"/>
-      <c r="C10" s="308"/>
-      <c r="D10" s="308"/>
-      <c r="E10" s="308"/>
-      <c r="F10" s="309"/>
-      <c r="G10" s="307"/>
-      <c r="H10" s="308"/>
-      <c r="I10" s="309"/>
-      <c r="J10" s="307"/>
-      <c r="K10" s="316"/>
-      <c r="L10" s="316"/>
-      <c r="M10" s="316"/>
-      <c r="N10" s="316"/>
-      <c r="O10" s="316"/>
-      <c r="P10" s="317"/>
-      <c r="Q10" s="310"/>
-      <c r="R10" s="311"/>
-      <c r="S10" s="326"/>
-      <c r="T10" s="327"/>
-      <c r="U10" s="328"/>
-      <c r="V10" s="307"/>
-      <c r="W10" s="308"/>
-      <c r="X10" s="308"/>
-      <c r="Y10" s="308"/>
-      <c r="Z10" s="308"/>
-      <c r="AA10" s="308"/>
-      <c r="AB10" s="318"/>
-      <c r="AC10" s="358"/>
-      <c r="AD10" s="307"/>
-      <c r="AE10" s="308"/>
-      <c r="AF10" s="308"/>
-      <c r="AG10" s="309"/>
-      <c r="AH10" s="305"/>
-      <c r="AI10" s="306"/>
+      <c r="B10" s="327"/>
+      <c r="C10" s="328"/>
+      <c r="D10" s="328"/>
+      <c r="E10" s="328"/>
+      <c r="F10" s="329"/>
+      <c r="G10" s="327"/>
+      <c r="H10" s="328"/>
+      <c r="I10" s="329"/>
+      <c r="J10" s="327"/>
+      <c r="K10" s="334"/>
+      <c r="L10" s="334"/>
+      <c r="M10" s="334"/>
+      <c r="N10" s="334"/>
+      <c r="O10" s="334"/>
+      <c r="P10" s="335"/>
+      <c r="Q10" s="342"/>
+      <c r="R10" s="343"/>
+      <c r="S10" s="347"/>
+      <c r="T10" s="348"/>
+      <c r="U10" s="349"/>
+      <c r="V10" s="327"/>
+      <c r="W10" s="328"/>
+      <c r="X10" s="328"/>
+      <c r="Y10" s="328"/>
+      <c r="Z10" s="328"/>
+      <c r="AA10" s="328"/>
+      <c r="AB10" s="331"/>
+      <c r="AC10" s="337"/>
+      <c r="AD10" s="327"/>
+      <c r="AE10" s="328"/>
+      <c r="AF10" s="328"/>
+      <c r="AG10" s="329"/>
+      <c r="AH10" s="322"/>
+      <c r="AI10" s="323"/>
       <c r="AM10" s="141"/>
       <c r="AN10" s="141"/>
       <c r="AO10" s="141"/>
@@ -12214,40 +12214,40 @@
       <c r="A11" s="140">
         <v>3</v>
       </c>
-      <c r="B11" s="307"/>
-      <c r="C11" s="308"/>
-      <c r="D11" s="308"/>
-      <c r="E11" s="308"/>
-      <c r="F11" s="309"/>
-      <c r="G11" s="331"/>
-      <c r="H11" s="332"/>
-      <c r="I11" s="333"/>
-      <c r="J11" s="307"/>
-      <c r="K11" s="316"/>
-      <c r="L11" s="316"/>
-      <c r="M11" s="316"/>
-      <c r="N11" s="316"/>
-      <c r="O11" s="316"/>
-      <c r="P11" s="317"/>
-      <c r="Q11" s="310"/>
-      <c r="R11" s="311"/>
-      <c r="S11" s="326"/>
-      <c r="T11" s="327"/>
-      <c r="U11" s="328"/>
-      <c r="V11" s="307"/>
-      <c r="W11" s="308"/>
-      <c r="X11" s="308"/>
-      <c r="Y11" s="308"/>
-      <c r="Z11" s="308"/>
-      <c r="AA11" s="308"/>
-      <c r="AB11" s="318"/>
-      <c r="AC11" s="358"/>
-      <c r="AD11" s="315"/>
-      <c r="AE11" s="316"/>
-      <c r="AF11" s="316"/>
-      <c r="AG11" s="317"/>
-      <c r="AH11" s="305"/>
-      <c r="AI11" s="306"/>
+      <c r="B11" s="327"/>
+      <c r="C11" s="328"/>
+      <c r="D11" s="328"/>
+      <c r="E11" s="328"/>
+      <c r="F11" s="329"/>
+      <c r="G11" s="344"/>
+      <c r="H11" s="345"/>
+      <c r="I11" s="346"/>
+      <c r="J11" s="327"/>
+      <c r="K11" s="334"/>
+      <c r="L11" s="334"/>
+      <c r="M11" s="334"/>
+      <c r="N11" s="334"/>
+      <c r="O11" s="334"/>
+      <c r="P11" s="335"/>
+      <c r="Q11" s="342"/>
+      <c r="R11" s="343"/>
+      <c r="S11" s="347"/>
+      <c r="T11" s="348"/>
+      <c r="U11" s="349"/>
+      <c r="V11" s="327"/>
+      <c r="W11" s="328"/>
+      <c r="X11" s="328"/>
+      <c r="Y11" s="328"/>
+      <c r="Z11" s="328"/>
+      <c r="AA11" s="328"/>
+      <c r="AB11" s="331"/>
+      <c r="AC11" s="337"/>
+      <c r="AD11" s="364"/>
+      <c r="AE11" s="334"/>
+      <c r="AF11" s="334"/>
+      <c r="AG11" s="335"/>
+      <c r="AH11" s="322"/>
+      <c r="AI11" s="323"/>
       <c r="AM11" s="94"/>
       <c r="AN11" s="94"/>
       <c r="AO11" s="94"/>
@@ -12258,40 +12258,40 @@
       <c r="A12" s="140">
         <v>4</v>
       </c>
-      <c r="B12" s="307"/>
-      <c r="C12" s="308"/>
-      <c r="D12" s="308"/>
-      <c r="E12" s="308"/>
-      <c r="F12" s="309"/>
-      <c r="G12" s="331"/>
-      <c r="H12" s="332"/>
-      <c r="I12" s="333"/>
-      <c r="J12" s="307"/>
-      <c r="K12" s="316"/>
-      <c r="L12" s="316"/>
-      <c r="M12" s="316"/>
-      <c r="N12" s="316"/>
-      <c r="O12" s="316"/>
-      <c r="P12" s="317"/>
-      <c r="Q12" s="310"/>
-      <c r="R12" s="311"/>
-      <c r="S12" s="326"/>
-      <c r="T12" s="327"/>
-      <c r="U12" s="328"/>
-      <c r="V12" s="307"/>
-      <c r="W12" s="308"/>
-      <c r="X12" s="308"/>
-      <c r="Y12" s="308"/>
-      <c r="Z12" s="308"/>
-      <c r="AA12" s="308"/>
-      <c r="AB12" s="318"/>
-      <c r="AC12" s="358"/>
-      <c r="AD12" s="315"/>
-      <c r="AE12" s="316"/>
-      <c r="AF12" s="316"/>
-      <c r="AG12" s="317"/>
-      <c r="AH12" s="305"/>
-      <c r="AI12" s="306"/>
+      <c r="B12" s="327"/>
+      <c r="C12" s="328"/>
+      <c r="D12" s="328"/>
+      <c r="E12" s="328"/>
+      <c r="F12" s="329"/>
+      <c r="G12" s="344"/>
+      <c r="H12" s="345"/>
+      <c r="I12" s="346"/>
+      <c r="J12" s="327"/>
+      <c r="K12" s="334"/>
+      <c r="L12" s="334"/>
+      <c r="M12" s="334"/>
+      <c r="N12" s="334"/>
+      <c r="O12" s="334"/>
+      <c r="P12" s="335"/>
+      <c r="Q12" s="342"/>
+      <c r="R12" s="343"/>
+      <c r="S12" s="347"/>
+      <c r="T12" s="348"/>
+      <c r="U12" s="349"/>
+      <c r="V12" s="327"/>
+      <c r="W12" s="328"/>
+      <c r="X12" s="328"/>
+      <c r="Y12" s="328"/>
+      <c r="Z12" s="328"/>
+      <c r="AA12" s="328"/>
+      <c r="AB12" s="331"/>
+      <c r="AC12" s="337"/>
+      <c r="AD12" s="364"/>
+      <c r="AE12" s="334"/>
+      <c r="AF12" s="334"/>
+      <c r="AG12" s="335"/>
+      <c r="AH12" s="322"/>
+      <c r="AI12" s="323"/>
       <c r="AM12" s="94"/>
       <c r="AN12" s="94"/>
       <c r="AO12" s="94"/>
@@ -12302,40 +12302,40 @@
       <c r="A13" s="140">
         <v>5</v>
       </c>
-      <c r="B13" s="343"/>
-      <c r="C13" s="344"/>
-      <c r="D13" s="344"/>
-      <c r="E13" s="344"/>
-      <c r="F13" s="345"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="309"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="308"/>
-      <c r="M13" s="308"/>
-      <c r="N13" s="308"/>
-      <c r="O13" s="308"/>
-      <c r="P13" s="309"/>
-      <c r="Q13" s="310"/>
-      <c r="R13" s="311"/>
-      <c r="S13" s="307"/>
-      <c r="T13" s="308"/>
-      <c r="U13" s="309"/>
-      <c r="V13" s="307"/>
-      <c r="W13" s="308"/>
-      <c r="X13" s="308"/>
-      <c r="Y13" s="308"/>
-      <c r="Z13" s="308"/>
-      <c r="AA13" s="308"/>
-      <c r="AB13" s="318"/>
-      <c r="AC13" s="358"/>
-      <c r="AD13" s="315"/>
-      <c r="AE13" s="316"/>
-      <c r="AF13" s="316"/>
-      <c r="AG13" s="317"/>
-      <c r="AH13" s="305"/>
-      <c r="AI13" s="306"/>
+      <c r="B13" s="339"/>
+      <c r="C13" s="340"/>
+      <c r="D13" s="340"/>
+      <c r="E13" s="340"/>
+      <c r="F13" s="341"/>
+      <c r="G13" s="327"/>
+      <c r="H13" s="328"/>
+      <c r="I13" s="329"/>
+      <c r="J13" s="327"/>
+      <c r="K13" s="328"/>
+      <c r="L13" s="328"/>
+      <c r="M13" s="328"/>
+      <c r="N13" s="328"/>
+      <c r="O13" s="328"/>
+      <c r="P13" s="329"/>
+      <c r="Q13" s="342"/>
+      <c r="R13" s="343"/>
+      <c r="S13" s="327"/>
+      <c r="T13" s="328"/>
+      <c r="U13" s="329"/>
+      <c r="V13" s="327"/>
+      <c r="W13" s="328"/>
+      <c r="X13" s="328"/>
+      <c r="Y13" s="328"/>
+      <c r="Z13" s="328"/>
+      <c r="AA13" s="328"/>
+      <c r="AB13" s="331"/>
+      <c r="AC13" s="337"/>
+      <c r="AD13" s="364"/>
+      <c r="AE13" s="334"/>
+      <c r="AF13" s="334"/>
+      <c r="AG13" s="335"/>
+      <c r="AH13" s="322"/>
+      <c r="AI13" s="323"/>
       <c r="AM13" s="142"/>
       <c r="AN13" s="142"/>
       <c r="AO13" s="142"/>
@@ -12346,165 +12346,165 @@
       <c r="A14" s="140">
         <v>6</v>
       </c>
-      <c r="B14" s="343"/>
-      <c r="C14" s="344"/>
-      <c r="D14" s="344"/>
-      <c r="E14" s="344"/>
-      <c r="F14" s="345"/>
-      <c r="G14" s="307"/>
-      <c r="H14" s="308"/>
-      <c r="I14" s="309"/>
-      <c r="J14" s="307"/>
-      <c r="K14" s="308"/>
-      <c r="L14" s="308"/>
-      <c r="M14" s="308"/>
-      <c r="N14" s="308"/>
-      <c r="O14" s="308"/>
-      <c r="P14" s="309"/>
-      <c r="Q14" s="310"/>
-      <c r="R14" s="311"/>
-      <c r="S14" s="307"/>
-      <c r="T14" s="308"/>
-      <c r="U14" s="309"/>
-      <c r="V14" s="307"/>
-      <c r="W14" s="308"/>
-      <c r="X14" s="308"/>
-      <c r="Y14" s="308"/>
-      <c r="Z14" s="308"/>
-      <c r="AA14" s="308"/>
-      <c r="AB14" s="318"/>
-      <c r="AC14" s="358"/>
-      <c r="AD14" s="315"/>
-      <c r="AE14" s="316"/>
-      <c r="AF14" s="316"/>
-      <c r="AG14" s="317"/>
-      <c r="AH14" s="305"/>
-      <c r="AI14" s="306"/>
+      <c r="B14" s="339"/>
+      <c r="C14" s="340"/>
+      <c r="D14" s="340"/>
+      <c r="E14" s="340"/>
+      <c r="F14" s="341"/>
+      <c r="G14" s="327"/>
+      <c r="H14" s="328"/>
+      <c r="I14" s="329"/>
+      <c r="J14" s="327"/>
+      <c r="K14" s="328"/>
+      <c r="L14" s="328"/>
+      <c r="M14" s="328"/>
+      <c r="N14" s="328"/>
+      <c r="O14" s="328"/>
+      <c r="P14" s="329"/>
+      <c r="Q14" s="342"/>
+      <c r="R14" s="343"/>
+      <c r="S14" s="327"/>
+      <c r="T14" s="328"/>
+      <c r="U14" s="329"/>
+      <c r="V14" s="327"/>
+      <c r="W14" s="328"/>
+      <c r="X14" s="328"/>
+      <c r="Y14" s="328"/>
+      <c r="Z14" s="328"/>
+      <c r="AA14" s="328"/>
+      <c r="AB14" s="331"/>
+      <c r="AC14" s="337"/>
+      <c r="AD14" s="364"/>
+      <c r="AE14" s="334"/>
+      <c r="AF14" s="334"/>
+      <c r="AG14" s="335"/>
+      <c r="AH14" s="322"/>
+      <c r="AI14" s="323"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="143">
         <v>7</v>
       </c>
-      <c r="B15" s="343"/>
-      <c r="C15" s="344"/>
-      <c r="D15" s="344"/>
-      <c r="E15" s="344"/>
-      <c r="F15" s="345"/>
-      <c r="G15" s="307"/>
-      <c r="H15" s="308"/>
-      <c r="I15" s="309"/>
-      <c r="J15" s="307"/>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
-      <c r="M15" s="308"/>
-      <c r="N15" s="308"/>
-      <c r="O15" s="308"/>
-      <c r="P15" s="309"/>
-      <c r="Q15" s="310"/>
-      <c r="R15" s="311"/>
-      <c r="S15" s="307"/>
-      <c r="T15" s="308"/>
-      <c r="U15" s="309"/>
-      <c r="V15" s="307"/>
-      <c r="W15" s="308"/>
-      <c r="X15" s="308"/>
-      <c r="Y15" s="308"/>
-      <c r="Z15" s="308"/>
-      <c r="AA15" s="308"/>
-      <c r="AB15" s="318"/>
-      <c r="AC15" s="358"/>
-      <c r="AD15" s="315"/>
-      <c r="AE15" s="316"/>
-      <c r="AF15" s="316"/>
-      <c r="AG15" s="317"/>
-      <c r="AH15" s="305"/>
-      <c r="AI15" s="306"/>
+      <c r="B15" s="339"/>
+      <c r="C15" s="340"/>
+      <c r="D15" s="340"/>
+      <c r="E15" s="340"/>
+      <c r="F15" s="341"/>
+      <c r="G15" s="327"/>
+      <c r="H15" s="328"/>
+      <c r="I15" s="329"/>
+      <c r="J15" s="327"/>
+      <c r="K15" s="328"/>
+      <c r="L15" s="328"/>
+      <c r="M15" s="328"/>
+      <c r="N15" s="328"/>
+      <c r="O15" s="328"/>
+      <c r="P15" s="329"/>
+      <c r="Q15" s="342"/>
+      <c r="R15" s="343"/>
+      <c r="S15" s="327"/>
+      <c r="T15" s="328"/>
+      <c r="U15" s="329"/>
+      <c r="V15" s="327"/>
+      <c r="W15" s="328"/>
+      <c r="X15" s="328"/>
+      <c r="Y15" s="328"/>
+      <c r="Z15" s="328"/>
+      <c r="AA15" s="328"/>
+      <c r="AB15" s="331"/>
+      <c r="AC15" s="337"/>
+      <c r="AD15" s="364"/>
+      <c r="AE15" s="334"/>
+      <c r="AF15" s="334"/>
+      <c r="AG15" s="335"/>
+      <c r="AH15" s="322"/>
+      <c r="AI15" s="323"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="143">
         <v>8</v>
       </c>
-      <c r="B16" s="343"/>
-      <c r="C16" s="344"/>
-      <c r="D16" s="344"/>
-      <c r="E16" s="344"/>
-      <c r="F16" s="345"/>
-      <c r="G16" s="307"/>
-      <c r="H16" s="308"/>
-      <c r="I16" s="309"/>
-      <c r="J16" s="307"/>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
-      <c r="M16" s="308"/>
-      <c r="N16" s="308"/>
-      <c r="O16" s="308"/>
-      <c r="P16" s="309"/>
-      <c r="Q16" s="310"/>
-      <c r="R16" s="311"/>
-      <c r="S16" s="307"/>
-      <c r="T16" s="308"/>
-      <c r="U16" s="309"/>
-      <c r="V16" s="307"/>
-      <c r="W16" s="308"/>
-      <c r="X16" s="308"/>
-      <c r="Y16" s="308"/>
-      <c r="Z16" s="308"/>
-      <c r="AA16" s="308"/>
-      <c r="AB16" s="318"/>
-      <c r="AC16" s="358"/>
-      <c r="AD16" s="315"/>
-      <c r="AE16" s="316"/>
-      <c r="AF16" s="316"/>
-      <c r="AG16" s="317"/>
-      <c r="AH16" s="305"/>
-      <c r="AI16" s="306"/>
+      <c r="B16" s="339"/>
+      <c r="C16" s="340"/>
+      <c r="D16" s="340"/>
+      <c r="E16" s="340"/>
+      <c r="F16" s="341"/>
+      <c r="G16" s="327"/>
+      <c r="H16" s="328"/>
+      <c r="I16" s="329"/>
+      <c r="J16" s="327"/>
+      <c r="K16" s="328"/>
+      <c r="L16" s="328"/>
+      <c r="M16" s="328"/>
+      <c r="N16" s="328"/>
+      <c r="O16" s="328"/>
+      <c r="P16" s="329"/>
+      <c r="Q16" s="342"/>
+      <c r="R16" s="343"/>
+      <c r="S16" s="327"/>
+      <c r="T16" s="328"/>
+      <c r="U16" s="329"/>
+      <c r="V16" s="327"/>
+      <c r="W16" s="328"/>
+      <c r="X16" s="328"/>
+      <c r="Y16" s="328"/>
+      <c r="Z16" s="328"/>
+      <c r="AA16" s="328"/>
+      <c r="AB16" s="331"/>
+      <c r="AC16" s="337"/>
+      <c r="AD16" s="364"/>
+      <c r="AE16" s="334"/>
+      <c r="AF16" s="334"/>
+      <c r="AG16" s="335"/>
+      <c r="AH16" s="322"/>
+      <c r="AI16" s="323"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17" s="144">
         <v>9</v>
       </c>
-      <c r="B17" s="346"/>
-      <c r="C17" s="347"/>
-      <c r="D17" s="347"/>
-      <c r="E17" s="347"/>
-      <c r="F17" s="348"/>
-      <c r="G17" s="335"/>
-      <c r="H17" s="336"/>
-      <c r="I17" s="340"/>
-      <c r="J17" s="335"/>
-      <c r="K17" s="336"/>
-      <c r="L17" s="336"/>
-      <c r="M17" s="336"/>
-      <c r="N17" s="336"/>
-      <c r="O17" s="336"/>
-      <c r="P17" s="340"/>
-      <c r="Q17" s="341"/>
-      <c r="R17" s="342"/>
-      <c r="S17" s="335"/>
-      <c r="T17" s="336"/>
-      <c r="U17" s="340"/>
-      <c r="V17" s="335"/>
-      <c r="W17" s="336"/>
-      <c r="X17" s="336"/>
-      <c r="Y17" s="336"/>
-      <c r="Z17" s="336"/>
-      <c r="AA17" s="336"/>
-      <c r="AB17" s="337"/>
-      <c r="AC17" s="359"/>
-      <c r="AD17" s="349"/>
-      <c r="AE17" s="350"/>
-      <c r="AF17" s="350"/>
-      <c r="AG17" s="351"/>
-      <c r="AH17" s="352"/>
-      <c r="AI17" s="353"/>
+      <c r="B17" s="361"/>
+      <c r="C17" s="362"/>
+      <c r="D17" s="362"/>
+      <c r="E17" s="362"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="353"/>
+      <c r="H17" s="354"/>
+      <c r="I17" s="358"/>
+      <c r="J17" s="353"/>
+      <c r="K17" s="354"/>
+      <c r="L17" s="354"/>
+      <c r="M17" s="354"/>
+      <c r="N17" s="354"/>
+      <c r="O17" s="354"/>
+      <c r="P17" s="358"/>
+      <c r="Q17" s="359"/>
+      <c r="R17" s="360"/>
+      <c r="S17" s="353"/>
+      <c r="T17" s="354"/>
+      <c r="U17" s="358"/>
+      <c r="V17" s="353"/>
+      <c r="W17" s="354"/>
+      <c r="X17" s="354"/>
+      <c r="Y17" s="354"/>
+      <c r="Z17" s="354"/>
+      <c r="AA17" s="354"/>
+      <c r="AB17" s="355"/>
+      <c r="AC17" s="338"/>
+      <c r="AD17" s="365"/>
+      <c r="AE17" s="366"/>
+      <c r="AF17" s="366"/>
+      <c r="AG17" s="367"/>
+      <c r="AH17" s="368"/>
+      <c r="AI17" s="369"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="338"/>
-      <c r="B18" s="339"/>
-      <c r="C18" s="339"/>
-      <c r="D18" s="339"/>
-      <c r="E18" s="339"/>
-      <c r="F18" s="339"/>
+      <c r="A18" s="356"/>
+      <c r="B18" s="357"/>
+      <c r="C18" s="357"/>
+      <c r="D18" s="357"/>
+      <c r="E18" s="357"/>
+      <c r="F18" s="357"/>
       <c r="G18" s="145"/>
       <c r="H18" s="145"/>
       <c r="I18" s="145"/>
@@ -12528,23 +12528,23 @@
       <c r="AA18" s="145"/>
       <c r="AB18" s="145"/>
       <c r="AC18" s="82"/>
-      <c r="AD18" s="334"/>
-      <c r="AE18" s="334"/>
-      <c r="AF18" s="334"/>
-      <c r="AG18" s="334"/>
-      <c r="AH18" s="334"/>
+      <c r="AD18" s="352"/>
+      <c r="AE18" s="352"/>
+      <c r="AF18" s="352"/>
+      <c r="AG18" s="352"/>
+      <c r="AH18" s="352"/>
       <c r="AI18" s="83"/>
       <c r="AJ18" s="141"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="329" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="330"/>
-      <c r="C19" s="330"/>
-      <c r="D19" s="330"/>
-      <c r="E19" s="330"/>
-      <c r="F19" s="330"/>
+      <c r="A19" s="350" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="351"/>
+      <c r="C19" s="351"/>
+      <c r="D19" s="351"/>
+      <c r="E19" s="351"/>
+      <c r="F19" s="351"/>
       <c r="G19" s="146"/>
       <c r="H19" s="145"/>
       <c r="I19" s="145"/>
@@ -12587,7 +12587,7 @@
       <c r="A20" s="148"/>
       <c r="B20" s="141"/>
       <c r="C20" s="149" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="150"/>
       <c r="E20" s="150"/>
@@ -12636,7 +12636,7 @@
       <c r="B21" s="141"/>
       <c r="C21" s="141"/>
       <c r="D21" s="173" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E21" s="141"/>
       <c r="F21" s="149"/>
@@ -13028,23 +13028,68 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="AH11:AI11"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="A3:D3"/>
@@ -13069,68 +13114,23 @@
     <mergeCell ref="AH12:AI12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="AC7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -13173,12 +13173,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:121" s="45" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="237" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="239"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -13192,49 +13192,49 @@
       <c r="L1" s="241"/>
       <c r="M1" s="241"/>
       <c r="N1" s="242"/>
-      <c r="O1" s="249" t="s">
+      <c r="O1" s="243" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="258" t="str">
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="243" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="237" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="245" t="str">
+      <c r="AB1" s="239"/>
+      <c r="AC1" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="246"/>
-      <c r="AE1" s="246"/>
-      <c r="AF1" s="247"/>
-      <c r="AG1" s="380">
+      <c r="AD1" s="253"/>
+      <c r="AE1" s="253"/>
+      <c r="AF1" s="254"/>
+      <c r="AG1" s="396">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="381"/>
-      <c r="AI1" s="382"/>
+      <c r="AH1" s="397"/>
+      <c r="AI1" s="398"/>
     </row>
     <row r="2" spans="1:121" s="45" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="244"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -13248,43 +13248,43 @@
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
       <c r="N2" s="242"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="253"/>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="243" t="s">
+      <c r="O2" s="246"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="245" t="str">
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="247"/>
-      <c r="AG2" s="380" t="str">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="254"/>
+      <c r="AG2" s="396" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="381"/>
-      <c r="AI2" s="382"/>
+      <c r="AH2" s="397"/>
+      <c r="AI2" s="398"/>
     </row>
     <row r="3" spans="1:121" s="45" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="237" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="244"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="239"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -13298,33 +13298,33 @@
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="242"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="257"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="245" t="str">
+      <c r="O3" s="249"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="237"/>
+      <c r="AB3" s="239"/>
+      <c r="AC3" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="246"/>
-      <c r="AE3" s="246"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="380" t="str">
+      <c r="AD3" s="253"/>
+      <c r="AE3" s="253"/>
+      <c r="AF3" s="254"/>
+      <c r="AG3" s="396" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="381"/>
-      <c r="AI3" s="382"/>
+      <c r="AH3" s="397"/>
+      <c r="AI3" s="398"/>
     </row>
     <row r="4" spans="1:121" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:121" ht="12" x14ac:dyDescent="0.2">
@@ -13345,69 +13345,69 @@
       <c r="A7" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="377" t="s">
+      <c r="B7" s="388" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="378"/>
-      <c r="D7" s="378"/>
-      <c r="E7" s="378"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="377" t="s">
+      <c r="C7" s="389"/>
+      <c r="D7" s="389"/>
+      <c r="E7" s="389"/>
+      <c r="F7" s="390"/>
+      <c r="G7" s="388" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="378"/>
-      <c r="I7" s="378"/>
-      <c r="J7" s="378"/>
-      <c r="K7" s="379"/>
-      <c r="L7" s="377" t="s">
+      <c r="H7" s="389"/>
+      <c r="I7" s="389"/>
+      <c r="J7" s="389"/>
+      <c r="K7" s="390"/>
+      <c r="L7" s="388" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="378"/>
-      <c r="N7" s="378"/>
-      <c r="O7" s="378"/>
-      <c r="P7" s="379"/>
+      <c r="M7" s="389"/>
+      <c r="N7" s="389"/>
+      <c r="O7" s="389"/>
+      <c r="P7" s="390"/>
       <c r="Q7" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="R7" s="392" t="s">
+        <v>165</v>
+      </c>
+      <c r="R7" s="391" t="s">
         <v>98</v>
       </c>
-      <c r="S7" s="392"/>
-      <c r="T7" s="392"/>
-      <c r="U7" s="392"/>
-      <c r="V7" s="383" t="s">
+      <c r="S7" s="391"/>
+      <c r="T7" s="391"/>
+      <c r="U7" s="391"/>
+      <c r="V7" s="399" t="s">
         <v>99</v>
       </c>
-      <c r="W7" s="383"/>
-      <c r="X7" s="384" t="s">
+      <c r="W7" s="399"/>
+      <c r="X7" s="400" t="s">
         <v>100</v>
       </c>
-      <c r="Y7" s="385"/>
-      <c r="Z7" s="377" t="s">
+      <c r="Y7" s="401"/>
+      <c r="Z7" s="388" t="s">
         <v>101</v>
       </c>
-      <c r="AA7" s="379"/>
-      <c r="AB7" s="377" t="s">
+      <c r="AA7" s="390"/>
+      <c r="AB7" s="388" t="s">
         <v>102</v>
       </c>
-      <c r="AC7" s="379"/>
-      <c r="AD7" s="377" t="s">
+      <c r="AC7" s="390"/>
+      <c r="AD7" s="388" t="s">
         <v>103</v>
       </c>
-      <c r="AE7" s="379"/>
-      <c r="AF7" s="377" t="s">
+      <c r="AE7" s="390"/>
+      <c r="AF7" s="388" t="s">
         <v>104</v>
       </c>
-      <c r="AG7" s="378"/>
-      <c r="AH7" s="379"/>
-      <c r="AI7" s="377" t="s">
+      <c r="AG7" s="389"/>
+      <c r="AH7" s="390"/>
+      <c r="AI7" s="388" t="s">
         <v>105</v>
       </c>
-      <c r="AJ7" s="378"/>
-      <c r="AK7" s="378"/>
-      <c r="AL7" s="378"/>
-      <c r="AM7" s="378"/>
-      <c r="AN7" s="379"/>
+      <c r="AJ7" s="389"/>
+      <c r="AK7" s="389"/>
+      <c r="AL7" s="389"/>
+      <c r="AM7" s="389"/>
+      <c r="AN7" s="390"/>
       <c r="BN7" s="163"/>
       <c r="BO7" s="163"/>
       <c r="BP7" s="163"/>
@@ -13469,69 +13469,69 @@
       <c r="A8" s="165">
         <v>1</v>
       </c>
-      <c r="B8" s="389" t="s">
+      <c r="B8" s="378" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="390"/>
-      <c r="D8" s="390"/>
-      <c r="E8" s="390"/>
-      <c r="F8" s="391"/>
-      <c r="G8" s="388" t="s">
+      <c r="C8" s="379"/>
+      <c r="D8" s="379"/>
+      <c r="E8" s="379"/>
+      <c r="F8" s="380"/>
+      <c r="G8" s="377" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="364"/>
-      <c r="I8" s="364"/>
-      <c r="J8" s="364"/>
-      <c r="K8" s="365"/>
-      <c r="L8" s="388" t="s">
+      <c r="H8" s="309"/>
+      <c r="I8" s="309"/>
+      <c r="J8" s="309"/>
+      <c r="K8" s="310"/>
+      <c r="L8" s="377" t="s">
         <v>108</v>
       </c>
-      <c r="M8" s="364"/>
-      <c r="N8" s="364"/>
-      <c r="O8" s="364"/>
-      <c r="P8" s="365"/>
+      <c r="M8" s="309"/>
+      <c r="N8" s="309"/>
+      <c r="O8" s="309"/>
+      <c r="P8" s="310"/>
       <c r="Q8" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="R8" s="377" t="s">
         <v>109</v>
       </c>
-      <c r="R8" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="S8" s="364"/>
-      <c r="T8" s="364"/>
-      <c r="U8" s="365"/>
-      <c r="V8" s="400">
+      <c r="S8" s="309"/>
+      <c r="T8" s="309"/>
+      <c r="U8" s="310"/>
+      <c r="V8" s="381">
         <v>10</v>
       </c>
-      <c r="W8" s="401"/>
-      <c r="X8" s="386" t="s">
+      <c r="W8" s="382"/>
+      <c r="X8" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="387"/>
-      <c r="Z8" s="388" t="s">
+      <c r="Y8" s="384"/>
+      <c r="Z8" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA8" s="365"/>
-      <c r="AB8" s="388" t="s">
+      <c r="AA8" s="310"/>
+      <c r="AB8" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC8" s="365"/>
-      <c r="AD8" s="386" t="s">
+      <c r="AC8" s="310"/>
+      <c r="AD8" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE8" s="387"/>
-      <c r="AF8" s="388" t="s">
+      <c r="AE8" s="384"/>
+      <c r="AF8" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG8" s="364"/>
-      <c r="AH8" s="365"/>
-      <c r="AI8" s="389" t="s">
+      <c r="AG8" s="309"/>
+      <c r="AH8" s="310"/>
+      <c r="AI8" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ8" s="390"/>
-      <c r="AK8" s="390"/>
-      <c r="AL8" s="390"/>
-      <c r="AM8" s="390"/>
-      <c r="AN8" s="391"/>
+      <c r="AJ8" s="379"/>
+      <c r="AK8" s="379"/>
+      <c r="AL8" s="379"/>
+      <c r="AM8" s="379"/>
+      <c r="AN8" s="380"/>
       <c r="AS8" s="167"/>
       <c r="AT8" s="167"/>
       <c r="AU8" s="168"/>
@@ -13597,70 +13597,70 @@
       <c r="A9" s="165">
         <v>2</v>
       </c>
-      <c r="B9" s="389" t="s">
+      <c r="B9" s="378" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="379"/>
+      <c r="D9" s="379"/>
+      <c r="E9" s="379"/>
+      <c r="F9" s="380"/>
+      <c r="G9" s="377" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="390"/>
-      <c r="D9" s="390"/>
-      <c r="E9" s="390"/>
-      <c r="F9" s="391"/>
-      <c r="G9" s="388" t="s">
+      <c r="H9" s="309"/>
+      <c r="I9" s="309"/>
+      <c r="J9" s="309"/>
+      <c r="K9" s="310"/>
+      <c r="L9" s="377" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="309"/>
+      <c r="N9" s="309"/>
+      <c r="O9" s="309"/>
+      <c r="P9" s="310"/>
+      <c r="Q9" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="R9" s="377" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="364"/>
-      <c r="I9" s="364"/>
-      <c r="J9" s="364"/>
-      <c r="K9" s="365"/>
-      <c r="L9" s="388" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" s="364"/>
-      <c r="N9" s="364"/>
-      <c r="O9" s="364"/>
-      <c r="P9" s="365"/>
-      <c r="Q9" s="166" t="s">
-        <v>109</v>
-      </c>
-      <c r="R9" s="388" t="s">
-        <v>113</v>
-      </c>
-      <c r="S9" s="364"/>
-      <c r="T9" s="364"/>
-      <c r="U9" s="365"/>
-      <c r="V9" s="400">
+      <c r="S9" s="309"/>
+      <c r="T9" s="309"/>
+      <c r="U9" s="310"/>
+      <c r="V9" s="381">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W9" s="401"/>
-      <c r="X9" s="386" t="s">
+      <c r="W9" s="382"/>
+      <c r="X9" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="387"/>
-      <c r="Z9" s="388" t="s">
+      <c r="Y9" s="384"/>
+      <c r="Z9" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA9" s="365"/>
-      <c r="AB9" s="388" t="s">
+      <c r="AA9" s="310"/>
+      <c r="AB9" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC9" s="365"/>
-      <c r="AD9" s="386" t="s">
+      <c r="AC9" s="310"/>
+      <c r="AD9" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE9" s="387"/>
-      <c r="AF9" s="388" t="s">
+      <c r="AE9" s="384"/>
+      <c r="AF9" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG9" s="364"/>
-      <c r="AH9" s="365"/>
-      <c r="AI9" s="389" t="s">
+      <c r="AG9" s="309"/>
+      <c r="AH9" s="310"/>
+      <c r="AI9" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ9" s="390"/>
-      <c r="AK9" s="390"/>
-      <c r="AL9" s="390"/>
-      <c r="AM9" s="390"/>
-      <c r="AN9" s="391"/>
+      <c r="AJ9" s="379"/>
+      <c r="AK9" s="379"/>
+      <c r="AL9" s="379"/>
+      <c r="AM9" s="379"/>
+      <c r="AN9" s="380"/>
       <c r="AS9" s="167"/>
       <c r="AT9" s="167"/>
       <c r="AU9" s="168"/>
@@ -13726,70 +13726,70 @@
       <c r="A10" s="165">
         <v>3</v>
       </c>
-      <c r="B10" s="389" t="s">
+      <c r="B10" s="378" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="379"/>
+      <c r="D10" s="379"/>
+      <c r="E10" s="379"/>
+      <c r="F10" s="380"/>
+      <c r="G10" s="377" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="390"/>
-      <c r="D10" s="390"/>
-      <c r="E10" s="390"/>
-      <c r="F10" s="391"/>
-      <c r="G10" s="388" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="364"/>
-      <c r="I10" s="364"/>
-      <c r="J10" s="364"/>
-      <c r="K10" s="365"/>
-      <c r="L10" s="388" t="s">
-        <v>114</v>
-      </c>
-      <c r="M10" s="364"/>
-      <c r="N10" s="364"/>
-      <c r="O10" s="364"/>
-      <c r="P10" s="365"/>
+      <c r="H10" s="309"/>
+      <c r="I10" s="309"/>
+      <c r="J10" s="309"/>
+      <c r="K10" s="310"/>
+      <c r="L10" s="377" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="309"/>
+      <c r="N10" s="309"/>
+      <c r="O10" s="309"/>
+      <c r="P10" s="310"/>
       <c r="Q10" s="166" t="s">
-        <v>109</v>
-      </c>
-      <c r="R10" s="388" t="s">
-        <v>113</v>
-      </c>
-      <c r="S10" s="364"/>
-      <c r="T10" s="364"/>
-      <c r="U10" s="365"/>
-      <c r="V10" s="400">
+        <v>170</v>
+      </c>
+      <c r="R10" s="377" t="s">
+        <v>112</v>
+      </c>
+      <c r="S10" s="309"/>
+      <c r="T10" s="309"/>
+      <c r="U10" s="310"/>
+      <c r="V10" s="381">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W10" s="401"/>
-      <c r="X10" s="386" t="s">
+      <c r="W10" s="382"/>
+      <c r="X10" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y10" s="387"/>
-      <c r="Z10" s="388" t="s">
+      <c r="Y10" s="384"/>
+      <c r="Z10" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA10" s="365"/>
-      <c r="AB10" s="388" t="s">
+      <c r="AA10" s="310"/>
+      <c r="AB10" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC10" s="365"/>
-      <c r="AD10" s="386" t="s">
+      <c r="AC10" s="310"/>
+      <c r="AD10" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE10" s="387"/>
-      <c r="AF10" s="388" t="s">
+      <c r="AE10" s="384"/>
+      <c r="AF10" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG10" s="364"/>
-      <c r="AH10" s="365"/>
-      <c r="AI10" s="389" t="s">
+      <c r="AG10" s="309"/>
+      <c r="AH10" s="310"/>
+      <c r="AI10" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ10" s="390"/>
-      <c r="AK10" s="390"/>
-      <c r="AL10" s="390"/>
-      <c r="AM10" s="390"/>
-      <c r="AN10" s="391"/>
+      <c r="AJ10" s="379"/>
+      <c r="AK10" s="379"/>
+      <c r="AL10" s="379"/>
+      <c r="AM10" s="379"/>
+      <c r="AN10" s="380"/>
       <c r="AS10" s="167"/>
       <c r="AT10" s="167"/>
       <c r="AU10" s="168"/>
@@ -13855,70 +13855,70 @@
       <c r="A11" s="165">
         <v>4</v>
       </c>
-      <c r="B11" s="389" t="s">
+      <c r="B11" s="378" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="379"/>
+      <c r="D11" s="379"/>
+      <c r="E11" s="379"/>
+      <c r="F11" s="380"/>
+      <c r="G11" s="377" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="390"/>
-      <c r="D11" s="390"/>
-      <c r="E11" s="390"/>
-      <c r="F11" s="391"/>
-      <c r="G11" s="388" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="364"/>
-      <c r="I11" s="364"/>
-      <c r="J11" s="364"/>
-      <c r="K11" s="365"/>
-      <c r="L11" s="388" t="s">
-        <v>116</v>
-      </c>
-      <c r="M11" s="364"/>
-      <c r="N11" s="364"/>
-      <c r="O11" s="364"/>
-      <c r="P11" s="365"/>
+      <c r="H11" s="309"/>
+      <c r="I11" s="309"/>
+      <c r="J11" s="309"/>
+      <c r="K11" s="310"/>
+      <c r="L11" s="377" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" s="309"/>
+      <c r="N11" s="309"/>
+      <c r="O11" s="309"/>
+      <c r="P11" s="310"/>
       <c r="Q11" s="166" t="s">
-        <v>109</v>
-      </c>
-      <c r="R11" s="388" t="s">
-        <v>113</v>
-      </c>
-      <c r="S11" s="364"/>
-      <c r="T11" s="364"/>
-      <c r="U11" s="365"/>
-      <c r="V11" s="400">
+        <v>170</v>
+      </c>
+      <c r="R11" s="377" t="s">
+        <v>112</v>
+      </c>
+      <c r="S11" s="309"/>
+      <c r="T11" s="309"/>
+      <c r="U11" s="310"/>
+      <c r="V11" s="381">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W11" s="401"/>
-      <c r="X11" s="386" t="s">
+      <c r="W11" s="382"/>
+      <c r="X11" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y11" s="387"/>
-      <c r="Z11" s="388" t="s">
+      <c r="Y11" s="384"/>
+      <c r="Z11" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA11" s="365"/>
-      <c r="AB11" s="388" t="s">
+      <c r="AA11" s="310"/>
+      <c r="AB11" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC11" s="365"/>
-      <c r="AD11" s="386" t="s">
+      <c r="AC11" s="310"/>
+      <c r="AD11" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" s="387"/>
-      <c r="AF11" s="388" t="s">
+      <c r="AE11" s="384"/>
+      <c r="AF11" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG11" s="364"/>
-      <c r="AH11" s="365"/>
-      <c r="AI11" s="389" t="s">
+      <c r="AG11" s="309"/>
+      <c r="AH11" s="310"/>
+      <c r="AI11" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ11" s="390"/>
-      <c r="AK11" s="390"/>
-      <c r="AL11" s="390"/>
-      <c r="AM11" s="390"/>
-      <c r="AN11" s="391"/>
+      <c r="AJ11" s="379"/>
+      <c r="AK11" s="379"/>
+      <c r="AL11" s="379"/>
+      <c r="AM11" s="379"/>
+      <c r="AN11" s="380"/>
       <c r="AS11" s="167"/>
       <c r="AT11" s="167"/>
       <c r="AU11" s="168"/>
@@ -13984,69 +13984,69 @@
       <c r="A12" s="165">
         <v>5</v>
       </c>
-      <c r="B12" s="389" t="s">
+      <c r="B12" s="378" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="379"/>
+      <c r="D12" s="379"/>
+      <c r="E12" s="379"/>
+      <c r="F12" s="380"/>
+      <c r="G12" s="377" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="390"/>
-      <c r="D12" s="390"/>
-      <c r="E12" s="390"/>
-      <c r="F12" s="391"/>
-      <c r="G12" s="388" t="s">
+      <c r="H12" s="309"/>
+      <c r="I12" s="309"/>
+      <c r="J12" s="309"/>
+      <c r="K12" s="310"/>
+      <c r="L12" s="377" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="364"/>
-      <c r="I12" s="364"/>
-      <c r="J12" s="364"/>
-      <c r="K12" s="365"/>
-      <c r="L12" s="388" t="s">
+      <c r="M12" s="309"/>
+      <c r="N12" s="309"/>
+      <c r="O12" s="309"/>
+      <c r="P12" s="310"/>
+      <c r="Q12" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="R12" s="377" t="s">
         <v>120</v>
       </c>
-      <c r="M12" s="364"/>
-      <c r="N12" s="364"/>
-      <c r="O12" s="364"/>
-      <c r="P12" s="365"/>
-      <c r="Q12" s="166" t="s">
-        <v>109</v>
-      </c>
-      <c r="R12" s="388" t="s">
+      <c r="S12" s="309"/>
+      <c r="T12" s="309"/>
+      <c r="U12" s="310"/>
+      <c r="V12" s="381">
+        <v>10</v>
+      </c>
+      <c r="W12" s="382"/>
+      <c r="X12" s="383" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y12" s="384"/>
+      <c r="Z12" s="377" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA12" s="310"/>
+      <c r="AB12" s="377" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC12" s="310"/>
+      <c r="AD12" s="383" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE12" s="384"/>
+      <c r="AF12" s="377" t="s">
         <v>121</v>
       </c>
-      <c r="S12" s="364"/>
-      <c r="T12" s="364"/>
-      <c r="U12" s="365"/>
-      <c r="V12" s="400">
-        <v>10</v>
-      </c>
-      <c r="W12" s="401"/>
-      <c r="X12" s="386" t="s">
+      <c r="AG12" s="309"/>
+      <c r="AH12" s="310"/>
+      <c r="AI12" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" s="387"/>
-      <c r="Z12" s="388" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA12" s="365"/>
-      <c r="AB12" s="388" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC12" s="365"/>
-      <c r="AD12" s="386" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE12" s="387"/>
-      <c r="AF12" s="388" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG12" s="364"/>
-      <c r="AH12" s="365"/>
-      <c r="AI12" s="389" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ12" s="390"/>
-      <c r="AK12" s="390"/>
-      <c r="AL12" s="390"/>
-      <c r="AM12" s="390"/>
-      <c r="AN12" s="391"/>
+      <c r="AJ12" s="379"/>
+      <c r="AK12" s="379"/>
+      <c r="AL12" s="379"/>
+      <c r="AM12" s="379"/>
+      <c r="AN12" s="380"/>
       <c r="AS12" s="167"/>
       <c r="AT12" s="167"/>
       <c r="AU12" s="168"/>
@@ -14112,69 +14112,69 @@
       <c r="A13" s="165">
         <v>6</v>
       </c>
-      <c r="B13" s="389" t="s">
+      <c r="B13" s="378" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="379"/>
+      <c r="D13" s="379"/>
+      <c r="E13" s="379"/>
+      <c r="F13" s="380"/>
+      <c r="G13" s="377" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="390"/>
-      <c r="D13" s="390"/>
-      <c r="E13" s="390"/>
-      <c r="F13" s="391"/>
-      <c r="G13" s="388" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="364"/>
-      <c r="I13" s="364"/>
-      <c r="J13" s="364"/>
-      <c r="K13" s="365"/>
-      <c r="L13" s="388" t="s">
+      <c r="H13" s="309"/>
+      <c r="I13" s="309"/>
+      <c r="J13" s="309"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="377" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="309"/>
+      <c r="N13" s="309"/>
+      <c r="O13" s="309"/>
+      <c r="P13" s="310"/>
+      <c r="Q13" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="R13" s="377" t="s">
         <v>120</v>
       </c>
-      <c r="M13" s="364"/>
-      <c r="N13" s="364"/>
-      <c r="O13" s="364"/>
-      <c r="P13" s="365"/>
-      <c r="Q13" s="166" t="s">
-        <v>109</v>
-      </c>
-      <c r="R13" s="388" t="s">
+      <c r="S13" s="309"/>
+      <c r="T13" s="309"/>
+      <c r="U13" s="310"/>
+      <c r="V13" s="381">
+        <v>10</v>
+      </c>
+      <c r="W13" s="382"/>
+      <c r="X13" s="383" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y13" s="384"/>
+      <c r="Z13" s="377" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA13" s="310"/>
+      <c r="AB13" s="377" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC13" s="310"/>
+      <c r="AD13" s="383" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE13" s="384"/>
+      <c r="AF13" s="377" t="s">
         <v>121</v>
       </c>
-      <c r="S13" s="364"/>
-      <c r="T13" s="364"/>
-      <c r="U13" s="365"/>
-      <c r="V13" s="400">
-        <v>10</v>
-      </c>
-      <c r="W13" s="401"/>
-      <c r="X13" s="386" t="s">
+      <c r="AG13" s="309"/>
+      <c r="AH13" s="310"/>
+      <c r="AI13" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="Y13" s="387"/>
-      <c r="Z13" s="388" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA13" s="365"/>
-      <c r="AB13" s="388" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC13" s="365"/>
-      <c r="AD13" s="386" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE13" s="387"/>
-      <c r="AF13" s="388" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG13" s="364"/>
-      <c r="AH13" s="365"/>
-      <c r="AI13" s="389" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ13" s="390"/>
-      <c r="AK13" s="390"/>
-      <c r="AL13" s="390"/>
-      <c r="AM13" s="390"/>
-      <c r="AN13" s="391"/>
+      <c r="AJ13" s="379"/>
+      <c r="AK13" s="379"/>
+      <c r="AL13" s="379"/>
+      <c r="AM13" s="379"/>
+      <c r="AN13" s="380"/>
       <c r="AS13" s="167"/>
       <c r="AT13" s="167"/>
       <c r="AU13" s="168"/>
@@ -14240,69 +14240,69 @@
       <c r="A14" s="165">
         <v>7</v>
       </c>
-      <c r="B14" s="389" t="s">
+      <c r="B14" s="378" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="379"/>
+      <c r="D14" s="379"/>
+      <c r="E14" s="379"/>
+      <c r="F14" s="380"/>
+      <c r="G14" s="377" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="390"/>
-      <c r="D14" s="390"/>
-      <c r="E14" s="390"/>
-      <c r="F14" s="391"/>
-      <c r="G14" s="388" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="364"/>
-      <c r="I14" s="364"/>
-      <c r="J14" s="364"/>
-      <c r="K14" s="365"/>
-      <c r="L14" s="388" t="s">
+      <c r="H14" s="309"/>
+      <c r="I14" s="309"/>
+      <c r="J14" s="309"/>
+      <c r="K14" s="310"/>
+      <c r="L14" s="377" t="s">
         <v>108</v>
       </c>
-      <c r="M14" s="364"/>
-      <c r="N14" s="364"/>
-      <c r="O14" s="364"/>
-      <c r="P14" s="365"/>
+      <c r="M14" s="309"/>
+      <c r="N14" s="309"/>
+      <c r="O14" s="309"/>
+      <c r="P14" s="310"/>
       <c r="Q14" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="R14" s="377" t="s">
         <v>109</v>
       </c>
-      <c r="R14" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="S14" s="364"/>
-      <c r="T14" s="364"/>
-      <c r="U14" s="365"/>
-      <c r="V14" s="400">
+      <c r="S14" s="309"/>
+      <c r="T14" s="309"/>
+      <c r="U14" s="310"/>
+      <c r="V14" s="381">
         <v>11</v>
       </c>
-      <c r="W14" s="401"/>
-      <c r="X14" s="386" t="s">
+      <c r="W14" s="382"/>
+      <c r="X14" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y14" s="387"/>
-      <c r="Z14" s="388" t="s">
+      <c r="Y14" s="384"/>
+      <c r="Z14" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA14" s="365"/>
-      <c r="AB14" s="388" t="s">
+      <c r="AA14" s="310"/>
+      <c r="AB14" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC14" s="365"/>
-      <c r="AD14" s="386" t="s">
+      <c r="AC14" s="310"/>
+      <c r="AD14" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE14" s="387"/>
-      <c r="AF14" s="388" t="s">
+      <c r="AE14" s="384"/>
+      <c r="AF14" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG14" s="364"/>
-      <c r="AH14" s="365"/>
-      <c r="AI14" s="389" t="s">
+      <c r="AG14" s="309"/>
+      <c r="AH14" s="310"/>
+      <c r="AI14" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ14" s="390"/>
-      <c r="AK14" s="390"/>
-      <c r="AL14" s="390"/>
-      <c r="AM14" s="390"/>
-      <c r="AN14" s="391"/>
+      <c r="AJ14" s="379"/>
+      <c r="AK14" s="379"/>
+      <c r="AL14" s="379"/>
+      <c r="AM14" s="379"/>
+      <c r="AN14" s="380"/>
       <c r="AS14" s="167"/>
       <c r="AT14" s="167"/>
       <c r="AU14" s="168"/>
@@ -14368,69 +14368,69 @@
       <c r="A15" s="165">
         <v>8</v>
       </c>
-      <c r="B15" s="389" t="s">
+      <c r="B15" s="378" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="379"/>
+      <c r="D15" s="379"/>
+      <c r="E15" s="379"/>
+      <c r="F15" s="380"/>
+      <c r="G15" s="377" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="390"/>
-      <c r="D15" s="390"/>
-      <c r="E15" s="390"/>
-      <c r="F15" s="391"/>
-      <c r="G15" s="388" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" s="364"/>
-      <c r="I15" s="364"/>
-      <c r="J15" s="364"/>
-      <c r="K15" s="365"/>
-      <c r="L15" s="388" t="s">
+      <c r="H15" s="309"/>
+      <c r="I15" s="309"/>
+      <c r="J15" s="309"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="377" t="s">
         <v>108</v>
       </c>
-      <c r="M15" s="364"/>
-      <c r="N15" s="364"/>
-      <c r="O15" s="364"/>
-      <c r="P15" s="365"/>
+      <c r="M15" s="309"/>
+      <c r="N15" s="309"/>
+      <c r="O15" s="309"/>
+      <c r="P15" s="310"/>
       <c r="Q15" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="R15" s="377" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="S15" s="364"/>
-      <c r="T15" s="364"/>
-      <c r="U15" s="365"/>
-      <c r="V15" s="400">
+      <c r="S15" s="309"/>
+      <c r="T15" s="309"/>
+      <c r="U15" s="310"/>
+      <c r="V15" s="381">
         <v>11</v>
       </c>
-      <c r="W15" s="401"/>
-      <c r="X15" s="386" t="s">
+      <c r="W15" s="382"/>
+      <c r="X15" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y15" s="387"/>
-      <c r="Z15" s="388" t="s">
+      <c r="Y15" s="384"/>
+      <c r="Z15" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA15" s="365"/>
-      <c r="AB15" s="388" t="s">
+      <c r="AA15" s="310"/>
+      <c r="AB15" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC15" s="365"/>
-      <c r="AD15" s="386" t="s">
+      <c r="AC15" s="310"/>
+      <c r="AD15" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE15" s="387"/>
-      <c r="AF15" s="388" t="s">
+      <c r="AE15" s="384"/>
+      <c r="AF15" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG15" s="364"/>
-      <c r="AH15" s="365"/>
-      <c r="AI15" s="389" t="s">
+      <c r="AG15" s="309"/>
+      <c r="AH15" s="310"/>
+      <c r="AI15" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ15" s="390"/>
-      <c r="AK15" s="390"/>
-      <c r="AL15" s="390"/>
-      <c r="AM15" s="390"/>
-      <c r="AN15" s="391"/>
+      <c r="AJ15" s="379"/>
+      <c r="AK15" s="379"/>
+      <c r="AL15" s="379"/>
+      <c r="AM15" s="379"/>
+      <c r="AN15" s="380"/>
       <c r="AS15" s="167"/>
       <c r="AT15" s="167"/>
       <c r="AU15" s="168"/>
@@ -14496,70 +14496,70 @@
       <c r="A16" s="165">
         <v>9</v>
       </c>
-      <c r="B16" s="389" t="s">
+      <c r="B16" s="378" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="379"/>
+      <c r="D16" s="379"/>
+      <c r="E16" s="379"/>
+      <c r="F16" s="380"/>
+      <c r="G16" s="377" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="390"/>
-      <c r="D16" s="390"/>
-      <c r="E16" s="390"/>
-      <c r="F16" s="391"/>
-      <c r="G16" s="388" t="s">
+      <c r="H16" s="309"/>
+      <c r="I16" s="309"/>
+      <c r="J16" s="309"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="377" t="s">
         <v>130</v>
       </c>
-      <c r="H16" s="364"/>
-      <c r="I16" s="364"/>
-      <c r="J16" s="364"/>
-      <c r="K16" s="365"/>
-      <c r="L16" s="388" t="s">
-        <v>131</v>
-      </c>
-      <c r="M16" s="364"/>
-      <c r="N16" s="364"/>
-      <c r="O16" s="364"/>
-      <c r="P16" s="365"/>
+      <c r="M16" s="309"/>
+      <c r="N16" s="309"/>
+      <c r="O16" s="309"/>
+      <c r="P16" s="310"/>
       <c r="Q16" s="166" t="s">
-        <v>109</v>
-      </c>
-      <c r="R16" s="388" t="s">
-        <v>113</v>
-      </c>
-      <c r="S16" s="364"/>
-      <c r="T16" s="364"/>
-      <c r="U16" s="365"/>
-      <c r="V16" s="400">
+        <v>170</v>
+      </c>
+      <c r="R16" s="377" t="s">
+        <v>112</v>
+      </c>
+      <c r="S16" s="309"/>
+      <c r="T16" s="309"/>
+      <c r="U16" s="310"/>
+      <c r="V16" s="381">
         <f t="shared" ref="V16:V17" si="0">128*3</f>
         <v>384</v>
       </c>
-      <c r="W16" s="401"/>
-      <c r="X16" s="386" t="s">
+      <c r="W16" s="382"/>
+      <c r="X16" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y16" s="387"/>
-      <c r="Z16" s="388" t="s">
+      <c r="Y16" s="384"/>
+      <c r="Z16" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA16" s="365"/>
-      <c r="AB16" s="388" t="s">
+      <c r="AA16" s="310"/>
+      <c r="AB16" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC16" s="365"/>
-      <c r="AD16" s="386" t="s">
+      <c r="AC16" s="310"/>
+      <c r="AD16" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE16" s="387"/>
-      <c r="AF16" s="388" t="s">
+      <c r="AE16" s="384"/>
+      <c r="AF16" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG16" s="364"/>
-      <c r="AH16" s="365"/>
-      <c r="AI16" s="389" t="s">
+      <c r="AG16" s="309"/>
+      <c r="AH16" s="310"/>
+      <c r="AI16" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ16" s="390"/>
-      <c r="AK16" s="390"/>
-      <c r="AL16" s="390"/>
-      <c r="AM16" s="390"/>
-      <c r="AN16" s="391"/>
+      <c r="AJ16" s="379"/>
+      <c r="AK16" s="379"/>
+      <c r="AL16" s="379"/>
+      <c r="AM16" s="379"/>
+      <c r="AN16" s="380"/>
       <c r="AS16" s="167"/>
       <c r="AT16" s="167"/>
       <c r="AU16" s="168"/>
@@ -14625,70 +14625,70 @@
       <c r="A17" s="165">
         <v>10</v>
       </c>
-      <c r="B17" s="389" t="s">
+      <c r="B17" s="378" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="379"/>
+      <c r="D17" s="379"/>
+      <c r="E17" s="379"/>
+      <c r="F17" s="380"/>
+      <c r="G17" s="377" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="390"/>
-      <c r="D17" s="390"/>
-      <c r="E17" s="390"/>
-      <c r="F17" s="391"/>
-      <c r="G17" s="388" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" s="364"/>
-      <c r="I17" s="364"/>
-      <c r="J17" s="364"/>
-      <c r="K17" s="365"/>
-      <c r="L17" s="388" t="s">
-        <v>131</v>
-      </c>
-      <c r="M17" s="364"/>
-      <c r="N17" s="364"/>
-      <c r="O17" s="364"/>
-      <c r="P17" s="365"/>
+      <c r="H17" s="309"/>
+      <c r="I17" s="309"/>
+      <c r="J17" s="309"/>
+      <c r="K17" s="310"/>
+      <c r="L17" s="377" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="309"/>
+      <c r="N17" s="309"/>
+      <c r="O17" s="309"/>
+      <c r="P17" s="310"/>
       <c r="Q17" s="166" t="s">
-        <v>109</v>
-      </c>
-      <c r="R17" s="388" t="s">
-        <v>113</v>
-      </c>
-      <c r="S17" s="364"/>
-      <c r="T17" s="364"/>
-      <c r="U17" s="365"/>
-      <c r="V17" s="400">
+        <v>170</v>
+      </c>
+      <c r="R17" s="377" t="s">
+        <v>112</v>
+      </c>
+      <c r="S17" s="309"/>
+      <c r="T17" s="309"/>
+      <c r="U17" s="310"/>
+      <c r="V17" s="381">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
-      <c r="W17" s="401"/>
-      <c r="X17" s="386" t="s">
+      <c r="W17" s="382"/>
+      <c r="X17" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="387"/>
-      <c r="Z17" s="388" t="s">
+      <c r="Y17" s="384"/>
+      <c r="Z17" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA17" s="365"/>
-      <c r="AB17" s="388" t="s">
+      <c r="AA17" s="310"/>
+      <c r="AB17" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC17" s="365"/>
-      <c r="AD17" s="386" t="s">
+      <c r="AC17" s="310"/>
+      <c r="AD17" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE17" s="387"/>
-      <c r="AF17" s="388" t="s">
+      <c r="AE17" s="384"/>
+      <c r="AF17" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG17" s="364"/>
-      <c r="AH17" s="365"/>
-      <c r="AI17" s="389" t="s">
+      <c r="AG17" s="309"/>
+      <c r="AH17" s="310"/>
+      <c r="AI17" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ17" s="390"/>
-      <c r="AK17" s="390"/>
-      <c r="AL17" s="390"/>
-      <c r="AM17" s="390"/>
-      <c r="AN17" s="391"/>
+      <c r="AJ17" s="379"/>
+      <c r="AK17" s="379"/>
+      <c r="AL17" s="379"/>
+      <c r="AM17" s="379"/>
+      <c r="AN17" s="380"/>
       <c r="AS17" s="167"/>
       <c r="AT17" s="167"/>
       <c r="AU17" s="168"/>
@@ -14754,70 +14754,70 @@
       <c r="A18" s="165">
         <v>11</v>
       </c>
-      <c r="B18" s="389" t="s">
+      <c r="B18" s="378" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="390"/>
-      <c r="D18" s="390"/>
-      <c r="E18" s="390"/>
-      <c r="F18" s="391"/>
-      <c r="G18" s="388" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="364"/>
-      <c r="I18" s="364"/>
-      <c r="J18" s="364"/>
-      <c r="K18" s="365"/>
-      <c r="L18" s="388" t="s">
+      <c r="C18" s="379"/>
+      <c r="D18" s="379"/>
+      <c r="E18" s="379"/>
+      <c r="F18" s="380"/>
+      <c r="G18" s="377" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="309"/>
+      <c r="I18" s="309"/>
+      <c r="J18" s="309"/>
+      <c r="K18" s="310"/>
+      <c r="L18" s="377" t="s">
         <v>105</v>
       </c>
-      <c r="M18" s="364"/>
-      <c r="N18" s="364"/>
-      <c r="O18" s="364"/>
-      <c r="P18" s="365"/>
+      <c r="M18" s="309"/>
+      <c r="N18" s="309"/>
+      <c r="O18" s="309"/>
+      <c r="P18" s="310"/>
       <c r="Q18" s="166" t="s">
-        <v>109</v>
-      </c>
-      <c r="R18" s="388" t="s">
-        <v>113</v>
-      </c>
-      <c r="S18" s="364"/>
-      <c r="T18" s="364"/>
-      <c r="U18" s="365"/>
-      <c r="V18" s="400">
+        <v>170</v>
+      </c>
+      <c r="R18" s="377" t="s">
+        <v>112</v>
+      </c>
+      <c r="S18" s="309"/>
+      <c r="T18" s="309"/>
+      <c r="U18" s="310"/>
+      <c r="V18" s="381">
         <f>512*3</f>
         <v>1536</v>
       </c>
-      <c r="W18" s="401"/>
-      <c r="X18" s="386" t="s">
+      <c r="W18" s="382"/>
+      <c r="X18" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y18" s="387"/>
-      <c r="Z18" s="388" t="s">
+      <c r="Y18" s="384"/>
+      <c r="Z18" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA18" s="365"/>
-      <c r="AB18" s="388" t="s">
+      <c r="AA18" s="310"/>
+      <c r="AB18" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC18" s="365"/>
-      <c r="AD18" s="386" t="s">
+      <c r="AC18" s="310"/>
+      <c r="AD18" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" s="387"/>
-      <c r="AF18" s="388" t="s">
+      <c r="AE18" s="384"/>
+      <c r="AF18" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG18" s="364"/>
-      <c r="AH18" s="365"/>
-      <c r="AI18" s="389" t="s">
+      <c r="AG18" s="309"/>
+      <c r="AH18" s="310"/>
+      <c r="AI18" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ18" s="390"/>
-      <c r="AK18" s="390"/>
-      <c r="AL18" s="390"/>
-      <c r="AM18" s="390"/>
-      <c r="AN18" s="391"/>
+      <c r="AJ18" s="379"/>
+      <c r="AK18" s="379"/>
+      <c r="AL18" s="379"/>
+      <c r="AM18" s="379"/>
+      <c r="AN18" s="380"/>
       <c r="AS18" s="167"/>
       <c r="AT18" s="167"/>
       <c r="AU18" s="168"/>
@@ -14883,69 +14883,69 @@
       <c r="A19" s="165">
         <v>12</v>
       </c>
-      <c r="B19" s="389" t="s">
+      <c r="B19" s="378" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="379"/>
+      <c r="D19" s="379"/>
+      <c r="E19" s="379"/>
+      <c r="F19" s="380"/>
+      <c r="G19" s="377" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="390"/>
-      <c r="D19" s="390"/>
-      <c r="E19" s="390"/>
-      <c r="F19" s="391"/>
-      <c r="G19" s="388" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="364"/>
-      <c r="I19" s="364"/>
-      <c r="J19" s="364"/>
-      <c r="K19" s="365"/>
-      <c r="L19" s="388" t="s">
-        <v>135</v>
-      </c>
-      <c r="M19" s="364"/>
-      <c r="N19" s="364"/>
-      <c r="O19" s="364"/>
-      <c r="P19" s="365"/>
+      <c r="H19" s="309"/>
+      <c r="I19" s="309"/>
+      <c r="J19" s="309"/>
+      <c r="K19" s="310"/>
+      <c r="L19" s="377" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" s="309"/>
+      <c r="N19" s="309"/>
+      <c r="O19" s="309"/>
+      <c r="P19" s="310"/>
       <c r="Q19" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="R19" s="377" t="s">
         <v>109</v>
       </c>
-      <c r="R19" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="S19" s="364"/>
-      <c r="T19" s="364"/>
-      <c r="U19" s="365"/>
-      <c r="V19" s="400">
+      <c r="S19" s="309"/>
+      <c r="T19" s="309"/>
+      <c r="U19" s="310"/>
+      <c r="V19" s="381">
         <v>11</v>
       </c>
-      <c r="W19" s="401"/>
-      <c r="X19" s="386" t="s">
+      <c r="W19" s="382"/>
+      <c r="X19" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y19" s="387"/>
-      <c r="Z19" s="388" t="s">
+      <c r="Y19" s="384"/>
+      <c r="Z19" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA19" s="365"/>
-      <c r="AB19" s="388" t="s">
+      <c r="AA19" s="310"/>
+      <c r="AB19" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC19" s="365"/>
-      <c r="AD19" s="386" t="s">
+      <c r="AC19" s="310"/>
+      <c r="AD19" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE19" s="387"/>
-      <c r="AF19" s="388" t="s">
+      <c r="AE19" s="384"/>
+      <c r="AF19" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG19" s="364"/>
-      <c r="AH19" s="365"/>
-      <c r="AI19" s="389" t="s">
+      <c r="AG19" s="309"/>
+      <c r="AH19" s="310"/>
+      <c r="AI19" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ19" s="390"/>
-      <c r="AK19" s="390"/>
-      <c r="AL19" s="390"/>
-      <c r="AM19" s="390"/>
-      <c r="AN19" s="391"/>
+      <c r="AJ19" s="379"/>
+      <c r="AK19" s="379"/>
+      <c r="AL19" s="379"/>
+      <c r="AM19" s="379"/>
+      <c r="AN19" s="380"/>
       <c r="AS19" s="167"/>
       <c r="AT19" s="167"/>
       <c r="AU19" s="168"/>
@@ -15011,69 +15011,69 @@
       <c r="A20" s="165">
         <v>13</v>
       </c>
-      <c r="B20" s="389" t="s">
+      <c r="B20" s="378" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="379"/>
+      <c r="D20" s="379"/>
+      <c r="E20" s="379"/>
+      <c r="F20" s="380"/>
+      <c r="G20" s="377" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="390"/>
-      <c r="D20" s="390"/>
-      <c r="E20" s="390"/>
-      <c r="F20" s="391"/>
-      <c r="G20" s="388" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="364"/>
-      <c r="I20" s="364"/>
-      <c r="J20" s="364"/>
-      <c r="K20" s="365"/>
-      <c r="L20" s="388" t="s">
-        <v>137</v>
-      </c>
-      <c r="M20" s="364"/>
-      <c r="N20" s="364"/>
-      <c r="O20" s="364"/>
-      <c r="P20" s="365"/>
+      <c r="H20" s="309"/>
+      <c r="I20" s="309"/>
+      <c r="J20" s="309"/>
+      <c r="K20" s="310"/>
+      <c r="L20" s="377" t="s">
+        <v>136</v>
+      </c>
+      <c r="M20" s="309"/>
+      <c r="N20" s="309"/>
+      <c r="O20" s="309"/>
+      <c r="P20" s="310"/>
       <c r="Q20" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="R20" s="377" t="s">
         <v>109</v>
       </c>
-      <c r="R20" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="S20" s="364"/>
-      <c r="T20" s="364"/>
-      <c r="U20" s="365"/>
-      <c r="V20" s="400">
+      <c r="S20" s="309"/>
+      <c r="T20" s="309"/>
+      <c r="U20" s="310"/>
+      <c r="V20" s="381">
         <v>11</v>
       </c>
-      <c r="W20" s="401"/>
-      <c r="X20" s="386" t="s">
+      <c r="W20" s="382"/>
+      <c r="X20" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y20" s="387"/>
-      <c r="Z20" s="388" t="s">
+      <c r="Y20" s="384"/>
+      <c r="Z20" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA20" s="365"/>
-      <c r="AB20" s="388" t="s">
+      <c r="AA20" s="310"/>
+      <c r="AB20" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC20" s="365"/>
-      <c r="AD20" s="386" t="s">
+      <c r="AC20" s="310"/>
+      <c r="AD20" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE20" s="387"/>
-      <c r="AF20" s="388" t="s">
+      <c r="AE20" s="384"/>
+      <c r="AF20" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG20" s="364"/>
-      <c r="AH20" s="365"/>
-      <c r="AI20" s="389" t="s">
+      <c r="AG20" s="309"/>
+      <c r="AH20" s="310"/>
+      <c r="AI20" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ20" s="390"/>
-      <c r="AK20" s="390"/>
-      <c r="AL20" s="390"/>
-      <c r="AM20" s="390"/>
-      <c r="AN20" s="391"/>
+      <c r="AJ20" s="379"/>
+      <c r="AK20" s="379"/>
+      <c r="AL20" s="379"/>
+      <c r="AM20" s="379"/>
+      <c r="AN20" s="380"/>
       <c r="AS20" s="167"/>
       <c r="AT20" s="167"/>
       <c r="AU20" s="168"/>
@@ -15137,45 +15137,45 @@
     </row>
     <row r="21" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="165"/>
-      <c r="B21" s="389"/>
-      <c r="C21" s="390"/>
-      <c r="D21" s="390"/>
-      <c r="E21" s="390"/>
-      <c r="F21" s="391"/>
-      <c r="G21" s="397"/>
-      <c r="H21" s="398"/>
-      <c r="I21" s="398"/>
-      <c r="J21" s="398"/>
-      <c r="K21" s="399"/>
-      <c r="L21" s="389"/>
-      <c r="M21" s="390"/>
-      <c r="N21" s="390"/>
-      <c r="O21" s="390"/>
-      <c r="P21" s="391"/>
+      <c r="B21" s="378"/>
+      <c r="C21" s="379"/>
+      <c r="D21" s="379"/>
+      <c r="E21" s="379"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="385"/>
+      <c r="H21" s="386"/>
+      <c r="I21" s="386"/>
+      <c r="J21" s="386"/>
+      <c r="K21" s="387"/>
+      <c r="L21" s="378"/>
+      <c r="M21" s="379"/>
+      <c r="N21" s="379"/>
+      <c r="O21" s="379"/>
+      <c r="P21" s="380"/>
       <c r="Q21" s="166"/>
-      <c r="R21" s="388"/>
-      <c r="S21" s="364"/>
-      <c r="T21" s="364"/>
-      <c r="U21" s="365"/>
-      <c r="V21" s="400"/>
-      <c r="W21" s="401"/>
-      <c r="X21" s="386"/>
-      <c r="Y21" s="387"/>
-      <c r="Z21" s="388"/>
-      <c r="AA21" s="365"/>
-      <c r="AB21" s="388"/>
-      <c r="AC21" s="365"/>
-      <c r="AD21" s="386"/>
-      <c r="AE21" s="387"/>
-      <c r="AF21" s="388"/>
-      <c r="AG21" s="364"/>
-      <c r="AH21" s="365"/>
-      <c r="AI21" s="389"/>
-      <c r="AJ21" s="390"/>
-      <c r="AK21" s="390"/>
-      <c r="AL21" s="390"/>
-      <c r="AM21" s="390"/>
-      <c r="AN21" s="391"/>
+      <c r="R21" s="377"/>
+      <c r="S21" s="309"/>
+      <c r="T21" s="309"/>
+      <c r="U21" s="310"/>
+      <c r="V21" s="381"/>
+      <c r="W21" s="382"/>
+      <c r="X21" s="383"/>
+      <c r="Y21" s="384"/>
+      <c r="Z21" s="377"/>
+      <c r="AA21" s="310"/>
+      <c r="AB21" s="377"/>
+      <c r="AC21" s="310"/>
+      <c r="AD21" s="383"/>
+      <c r="AE21" s="384"/>
+      <c r="AF21" s="377"/>
+      <c r="AG21" s="309"/>
+      <c r="AH21" s="310"/>
+      <c r="AI21" s="378"/>
+      <c r="AJ21" s="379"/>
+      <c r="AK21" s="379"/>
+      <c r="AL21" s="379"/>
+      <c r="AM21" s="379"/>
+      <c r="AN21" s="380"/>
       <c r="AS21" s="167"/>
       <c r="AT21" s="167"/>
       <c r="AU21" s="168"/>
@@ -15239,45 +15239,45 @@
     </row>
     <row r="22" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="165"/>
-      <c r="B22" s="389"/>
-      <c r="C22" s="390"/>
-      <c r="D22" s="390"/>
-      <c r="E22" s="390"/>
-      <c r="F22" s="391"/>
-      <c r="G22" s="397"/>
-      <c r="H22" s="398"/>
-      <c r="I22" s="398"/>
-      <c r="J22" s="398"/>
-      <c r="K22" s="399"/>
-      <c r="L22" s="389"/>
-      <c r="M22" s="390"/>
-      <c r="N22" s="390"/>
-      <c r="O22" s="390"/>
-      <c r="P22" s="391"/>
+      <c r="B22" s="378"/>
+      <c r="C22" s="379"/>
+      <c r="D22" s="379"/>
+      <c r="E22" s="379"/>
+      <c r="F22" s="380"/>
+      <c r="G22" s="385"/>
+      <c r="H22" s="386"/>
+      <c r="I22" s="386"/>
+      <c r="J22" s="386"/>
+      <c r="K22" s="387"/>
+      <c r="L22" s="378"/>
+      <c r="M22" s="379"/>
+      <c r="N22" s="379"/>
+      <c r="O22" s="379"/>
+      <c r="P22" s="380"/>
       <c r="Q22" s="166"/>
-      <c r="R22" s="388"/>
-      <c r="S22" s="364"/>
-      <c r="T22" s="364"/>
-      <c r="U22" s="365"/>
-      <c r="V22" s="400"/>
-      <c r="W22" s="401"/>
-      <c r="X22" s="386"/>
-      <c r="Y22" s="387"/>
-      <c r="Z22" s="388"/>
-      <c r="AA22" s="365"/>
-      <c r="AB22" s="388"/>
-      <c r="AC22" s="365"/>
-      <c r="AD22" s="386"/>
-      <c r="AE22" s="387"/>
-      <c r="AF22" s="388"/>
-      <c r="AG22" s="364"/>
-      <c r="AH22" s="365"/>
-      <c r="AI22" s="389"/>
-      <c r="AJ22" s="390"/>
-      <c r="AK22" s="390"/>
-      <c r="AL22" s="390"/>
-      <c r="AM22" s="390"/>
-      <c r="AN22" s="391"/>
+      <c r="R22" s="377"/>
+      <c r="S22" s="309"/>
+      <c r="T22" s="309"/>
+      <c r="U22" s="310"/>
+      <c r="V22" s="381"/>
+      <c r="W22" s="382"/>
+      <c r="X22" s="383"/>
+      <c r="Y22" s="384"/>
+      <c r="Z22" s="377"/>
+      <c r="AA22" s="310"/>
+      <c r="AB22" s="377"/>
+      <c r="AC22" s="310"/>
+      <c r="AD22" s="383"/>
+      <c r="AE22" s="384"/>
+      <c r="AF22" s="377"/>
+      <c r="AG22" s="309"/>
+      <c r="AH22" s="310"/>
+      <c r="AI22" s="378"/>
+      <c r="AJ22" s="379"/>
+      <c r="AK22" s="379"/>
+      <c r="AL22" s="379"/>
+      <c r="AM22" s="379"/>
+      <c r="AN22" s="380"/>
       <c r="AS22" s="167"/>
       <c r="AT22" s="167"/>
       <c r="AU22" s="168"/>
@@ -15341,45 +15341,45 @@
     </row>
     <row r="23" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="165"/>
-      <c r="B23" s="389"/>
-      <c r="C23" s="390"/>
-      <c r="D23" s="390"/>
-      <c r="E23" s="390"/>
-      <c r="F23" s="391"/>
-      <c r="G23" s="389"/>
-      <c r="H23" s="390"/>
-      <c r="I23" s="390"/>
-      <c r="J23" s="390"/>
-      <c r="K23" s="391"/>
-      <c r="L23" s="389"/>
-      <c r="M23" s="390"/>
-      <c r="N23" s="390"/>
-      <c r="O23" s="390"/>
-      <c r="P23" s="391"/>
+      <c r="B23" s="378"/>
+      <c r="C23" s="379"/>
+      <c r="D23" s="379"/>
+      <c r="E23" s="379"/>
+      <c r="F23" s="380"/>
+      <c r="G23" s="378"/>
+      <c r="H23" s="379"/>
+      <c r="I23" s="379"/>
+      <c r="J23" s="379"/>
+      <c r="K23" s="380"/>
+      <c r="L23" s="378"/>
+      <c r="M23" s="379"/>
+      <c r="N23" s="379"/>
+      <c r="O23" s="379"/>
+      <c r="P23" s="380"/>
       <c r="Q23" s="166"/>
-      <c r="R23" s="388"/>
-      <c r="S23" s="364"/>
-      <c r="T23" s="364"/>
-      <c r="U23" s="365"/>
-      <c r="V23" s="393"/>
-      <c r="W23" s="394"/>
-      <c r="X23" s="395"/>
-      <c r="Y23" s="396"/>
-      <c r="Z23" s="386"/>
-      <c r="AA23" s="387"/>
-      <c r="AB23" s="388"/>
-      <c r="AC23" s="365"/>
-      <c r="AD23" s="386"/>
-      <c r="AE23" s="387"/>
-      <c r="AF23" s="388"/>
-      <c r="AG23" s="364"/>
-      <c r="AH23" s="365"/>
-      <c r="AI23" s="389"/>
-      <c r="AJ23" s="390"/>
-      <c r="AK23" s="390"/>
-      <c r="AL23" s="390"/>
-      <c r="AM23" s="390"/>
-      <c r="AN23" s="391"/>
+      <c r="R23" s="377"/>
+      <c r="S23" s="309"/>
+      <c r="T23" s="309"/>
+      <c r="U23" s="310"/>
+      <c r="V23" s="392"/>
+      <c r="W23" s="393"/>
+      <c r="X23" s="394"/>
+      <c r="Y23" s="395"/>
+      <c r="Z23" s="383"/>
+      <c r="AA23" s="384"/>
+      <c r="AB23" s="377"/>
+      <c r="AC23" s="310"/>
+      <c r="AD23" s="383"/>
+      <c r="AE23" s="384"/>
+      <c r="AF23" s="377"/>
+      <c r="AG23" s="309"/>
+      <c r="AH23" s="310"/>
+      <c r="AI23" s="378"/>
+      <c r="AJ23" s="379"/>
+      <c r="AK23" s="379"/>
+      <c r="AL23" s="379"/>
+      <c r="AM23" s="379"/>
+      <c r="AN23" s="380"/>
       <c r="AS23" s="167"/>
       <c r="AT23" s="167"/>
       <c r="AU23" s="168"/>
@@ -15443,117 +15443,75 @@
     </row>
   </sheetData>
   <mergeCells count="204">
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AI8:AN8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="AI9:AN9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AI11:AN11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AI14:AN14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AI15:AN15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AI16:AN16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AI17:AN17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AI7:AN7"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AI23:AN23"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AI22:AN22"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="AI20:AN20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AI21:AN21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
     <mergeCell ref="Z20:AA20"/>
     <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="AD20:AE20"/>
@@ -15578,81 +15536,120 @@
     <mergeCell ref="X18:Y18"/>
     <mergeCell ref="Z18:AA18"/>
     <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="AI20:AN20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AI21:AN21"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AI23:AN23"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AI22:AN22"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AI7:AN7"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AI16:AN16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AI17:AN17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AI15:AN15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AI11:AN11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AI8:AN8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="AI9:AN9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q8:Q23" xr:uid="{00000000-0002-0000-0500-000000000000}">
-      <formula1>"○,-"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8:R23" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>データ型</formula1>
     </dataValidation>
@@ -15688,108 +15685,108 @@
     </row>
     <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="170" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="171" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="170" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="170" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="170" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="170" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="171" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="15"/>
     </row>
     <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="171" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="171" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="171" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="171" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="171" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="171" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="171" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="171" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A18" s="171" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="171" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A20" s="172" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A21" s="172" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A22" s="172" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document(I／F_files)_N21AA002／List_of_Projects_in_Period.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document(I／F_files)_N21AA002／List_of_Projects_in_Period.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DFE635-CF6D-460C-AD03-4FB9EB869CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6024E325-0ACD-436B-881D-B030A842A870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="6180" windowWidth="22920" windowHeight="6990" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="6045" windowWidth="26940" windowHeight="8535" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" state="hidden" r:id="rId1"/>
@@ -370,7 +370,16 @@
             <rFont val="Times New Roman"/>
             <family val="1"/>
           </rPr>
-          <t>If there is a repetition of a record, describe the unit repetition.
+          <t>If there is a repetition of a record, describe the unit of</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve"> repetition.
 Example: Data record "1 group in XX section", trailer record "1 record in 1 group of data record"</t>
         </r>
       </text>
@@ -2629,6 +2638,174 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2646,192 +2823,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2859,15 +2886,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2895,30 +2913,111 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="25" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2928,95 +3027,170 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="25" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3069,170 +3243,38 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3246,68 +3288,35 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3337,11 +3346,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7005,154 +7014,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="196" t="s">
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="210" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="212"/>
-      <c r="S1" s="219" t="s">
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="215"/>
+      <c r="S1" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="220"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="221"/>
-      <c r="AA1" s="207" t="s">
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="209"/>
-      <c r="AC1" s="190" t="s">
+      <c r="AB1" s="212"/>
+      <c r="AC1" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="192"/>
-      <c r="AG1" s="193">
+      <c r="AD1" s="194"/>
+      <c r="AE1" s="194"/>
+      <c r="AF1" s="195"/>
+      <c r="AG1" s="196">
         <f>IF(D8="","",D8)</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="194"/>
-      <c r="AI1" s="195"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="198"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="20"/>
       <c r="AM1" s="20"/>
       <c r="AN1" s="21"/>
     </row>
     <row r="2" spans="1:40" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="210" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="196" t="s">
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="223"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="223"/>
-      <c r="X2" s="223"/>
-      <c r="Y2" s="223"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="207" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="217"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="210" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="209"/>
-      <c r="AC2" s="199" t="str">
+      <c r="AB2" s="212"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="193" t="str">
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="196" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="194"/>
-      <c r="AI2" s="195"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="198"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
       <c r="AM2" s="20"/>
       <c r="AN2" s="20"/>
     </row>
     <row r="3" spans="1:40" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="210" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="196" t="s">
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="198"/>
-      <c r="O3" s="216"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="218"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="226"/>
-      <c r="U3" s="226"/>
-      <c r="V3" s="226"/>
-      <c r="W3" s="226"/>
-      <c r="X3" s="226"/>
-      <c r="Y3" s="226"/>
-      <c r="Z3" s="227"/>
-      <c r="AA3" s="207"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="202"/>
-      <c r="AD3" s="191"/>
-      <c r="AE3" s="191"/>
-      <c r="AF3" s="192"/>
-      <c r="AG3" s="193"/>
-      <c r="AH3" s="194"/>
-      <c r="AI3" s="195"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="219"/>
+      <c r="P3" s="220"/>
+      <c r="Q3" s="220"/>
+      <c r="R3" s="221"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="230"/>
+      <c r="AA3" s="210"/>
+      <c r="AB3" s="212"/>
+      <c r="AC3" s="205"/>
+      <c r="AD3" s="194"/>
+      <c r="AE3" s="194"/>
+      <c r="AF3" s="195"/>
+      <c r="AG3" s="196"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="198"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
       <c r="AM3" s="20"/>
@@ -7199,116 +7208,116 @@
       <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="203" t="s">
+      <c r="B7" s="206" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="204"/>
-      <c r="D7" s="203" t="s">
+      <c r="C7" s="207"/>
+      <c r="D7" s="206" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="205"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="203" t="s">
+      <c r="E7" s="208"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="205"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="206" t="s">
+      <c r="H7" s="208"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="205"/>
-      <c r="L7" s="205"/>
-      <c r="M7" s="205"/>
-      <c r="N7" s="205"/>
-      <c r="O7" s="205"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="203" t="s">
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="208"/>
+      <c r="P7" s="207"/>
+      <c r="Q7" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="205"/>
-      <c r="S7" s="205"/>
-      <c r="T7" s="205"/>
-      <c r="U7" s="205"/>
-      <c r="V7" s="205"/>
-      <c r="W7" s="205"/>
-      <c r="X7" s="205"/>
-      <c r="Y7" s="205"/>
-      <c r="Z7" s="205"/>
-      <c r="AA7" s="205"/>
-      <c r="AB7" s="205"/>
-      <c r="AC7" s="205"/>
-      <c r="AD7" s="205"/>
-      <c r="AE7" s="204"/>
-      <c r="AF7" s="203" t="s">
+      <c r="R7" s="208"/>
+      <c r="S7" s="208"/>
+      <c r="T7" s="208"/>
+      <c r="U7" s="208"/>
+      <c r="V7" s="208"/>
+      <c r="W7" s="208"/>
+      <c r="X7" s="208"/>
+      <c r="Y7" s="208"/>
+      <c r="Z7" s="208"/>
+      <c r="AA7" s="208"/>
+      <c r="AB7" s="208"/>
+      <c r="AC7" s="208"/>
+      <c r="AD7" s="208"/>
+      <c r="AE7" s="207"/>
+      <c r="AF7" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AG7" s="205"/>
-      <c r="AH7" s="205"/>
-      <c r="AI7" s="204"/>
+      <c r="AG7" s="208"/>
+      <c r="AH7" s="208"/>
+      <c r="AI7" s="207"/>
       <c r="AJ7" s="17"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="37">
         <v>1</v>
       </c>
-      <c r="B8" s="228" t="s">
+      <c r="B8" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="229"/>
-      <c r="D8" s="230">
+      <c r="C8" s="185"/>
+      <c r="D8" s="186">
         <v>43580</v>
       </c>
-      <c r="E8" s="231"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="228" t="s">
+      <c r="E8" s="187"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="233"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="234" t="s">
+      <c r="H8" s="189"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="235"/>
-      <c r="L8" s="235"/>
-      <c r="M8" s="235"/>
-      <c r="N8" s="235"/>
-      <c r="O8" s="235"/>
-      <c r="P8" s="236"/>
-      <c r="Q8" s="234" t="s">
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="191"/>
+      <c r="O8" s="191"/>
+      <c r="P8" s="192"/>
+      <c r="Q8" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="235"/>
-      <c r="S8" s="235"/>
-      <c r="T8" s="235"/>
-      <c r="U8" s="235"/>
-      <c r="V8" s="235"/>
-      <c r="W8" s="235"/>
-      <c r="X8" s="235"/>
-      <c r="Y8" s="235"/>
-      <c r="Z8" s="235"/>
-      <c r="AA8" s="235"/>
-      <c r="AB8" s="235"/>
-      <c r="AC8" s="235"/>
-      <c r="AD8" s="235"/>
-      <c r="AE8" s="236"/>
-      <c r="AF8" s="178" t="s">
+      <c r="R8" s="191"/>
+      <c r="S8" s="191"/>
+      <c r="T8" s="191"/>
+      <c r="U8" s="191"/>
+      <c r="V8" s="191"/>
+      <c r="W8" s="191"/>
+      <c r="X8" s="191"/>
+      <c r="Y8" s="191"/>
+      <c r="Z8" s="191"/>
+      <c r="AA8" s="191"/>
+      <c r="AB8" s="191"/>
+      <c r="AC8" s="191"/>
+      <c r="AD8" s="191"/>
+      <c r="AE8" s="192"/>
+      <c r="AF8" s="234" t="s">
         <v>48</v>
       </c>
-      <c r="AG8" s="179"/>
-      <c r="AH8" s="179"/>
-      <c r="AI8" s="180"/>
+      <c r="AG8" s="235"/>
+      <c r="AH8" s="235"/>
+      <c r="AI8" s="236"/>
       <c r="AJ8" s="17"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="38"/>
-      <c r="B9" s="184"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="186"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="176"/>
       <c r="J9" s="181"/>
       <c r="K9" s="182"/>
       <c r="L9" s="182"/>
@@ -7331,22 +7340,22 @@
       <c r="AC9" s="182"/>
       <c r="AD9" s="182"/>
       <c r="AE9" s="183"/>
-      <c r="AF9" s="175"/>
-      <c r="AG9" s="176"/>
-      <c r="AH9" s="176"/>
-      <c r="AI9" s="177"/>
+      <c r="AF9" s="231"/>
+      <c r="AG9" s="232"/>
+      <c r="AH9" s="232"/>
+      <c r="AI9" s="233"/>
       <c r="AJ9" s="12"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="38"/>
-      <c r="B10" s="184"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="186"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="176"/>
       <c r="J10" s="181"/>
       <c r="K10" s="182"/>
       <c r="L10" s="182"/>
@@ -7369,21 +7378,21 @@
       <c r="AC10" s="182"/>
       <c r="AD10" s="182"/>
       <c r="AE10" s="183"/>
-      <c r="AF10" s="175"/>
-      <c r="AG10" s="176"/>
-      <c r="AH10" s="176"/>
-      <c r="AI10" s="177"/>
+      <c r="AF10" s="231"/>
+      <c r="AG10" s="232"/>
+      <c r="AH10" s="232"/>
+      <c r="AI10" s="233"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
-      <c r="B11" s="184"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="186"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="176"/>
       <c r="J11" s="181"/>
       <c r="K11" s="182"/>
       <c r="L11" s="182"/>
@@ -7406,21 +7415,21 @@
       <c r="AC11" s="182"/>
       <c r="AD11" s="182"/>
       <c r="AE11" s="183"/>
-      <c r="AF11" s="175"/>
-      <c r="AG11" s="176"/>
-      <c r="AH11" s="176"/>
-      <c r="AI11" s="177"/>
+      <c r="AF11" s="231"/>
+      <c r="AG11" s="232"/>
+      <c r="AH11" s="232"/>
+      <c r="AI11" s="233"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
-      <c r="B12" s="184"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="186"/>
+      <c r="B12" s="175"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="176"/>
       <c r="J12" s="181"/>
       <c r="K12" s="182"/>
       <c r="L12" s="182"/>
@@ -7443,21 +7452,21 @@
       <c r="AC12" s="182"/>
       <c r="AD12" s="182"/>
       <c r="AE12" s="183"/>
-      <c r="AF12" s="175"/>
-      <c r="AG12" s="176"/>
-      <c r="AH12" s="176"/>
-      <c r="AI12" s="177"/>
+      <c r="AF12" s="231"/>
+      <c r="AG12" s="232"/>
+      <c r="AH12" s="232"/>
+      <c r="AI12" s="233"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
-      <c r="B13" s="184"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="186"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="176"/>
       <c r="J13" s="181"/>
       <c r="K13" s="182"/>
       <c r="L13" s="182"/>
@@ -7480,28 +7489,28 @@
       <c r="AC13" s="182"/>
       <c r="AD13" s="182"/>
       <c r="AE13" s="183"/>
-      <c r="AF13" s="175"/>
-      <c r="AG13" s="176"/>
-      <c r="AH13" s="176"/>
-      <c r="AI13" s="177"/>
+      <c r="AF13" s="231"/>
+      <c r="AG13" s="232"/>
+      <c r="AH13" s="232"/>
+      <c r="AI13" s="233"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
-      <c r="B14" s="184"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="176"/>
-      <c r="O14" s="176"/>
-      <c r="P14" s="177"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="231"/>
+      <c r="K14" s="232"/>
+      <c r="L14" s="232"/>
+      <c r="M14" s="232"/>
+      <c r="N14" s="232"/>
+      <c r="O14" s="232"/>
+      <c r="P14" s="233"/>
       <c r="Q14" s="181"/>
       <c r="R14" s="182"/>
       <c r="S14" s="182"/>
@@ -7517,28 +7526,28 @@
       <c r="AC14" s="182"/>
       <c r="AD14" s="182"/>
       <c r="AE14" s="183"/>
-      <c r="AF14" s="175"/>
-      <c r="AG14" s="176"/>
-      <c r="AH14" s="176"/>
-      <c r="AI14" s="177"/>
+      <c r="AF14" s="231"/>
+      <c r="AG14" s="232"/>
+      <c r="AH14" s="232"/>
+      <c r="AI14" s="233"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
-      <c r="B15" s="184"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="176"/>
-      <c r="N15" s="176"/>
-      <c r="O15" s="176"/>
-      <c r="P15" s="177"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="231"/>
+      <c r="K15" s="232"/>
+      <c r="L15" s="232"/>
+      <c r="M15" s="232"/>
+      <c r="N15" s="232"/>
+      <c r="O15" s="232"/>
+      <c r="P15" s="233"/>
       <c r="Q15" s="181"/>
       <c r="R15" s="182"/>
       <c r="S15" s="182"/>
@@ -7554,28 +7563,28 @@
       <c r="AC15" s="182"/>
       <c r="AD15" s="182"/>
       <c r="AE15" s="183"/>
-      <c r="AF15" s="175"/>
-      <c r="AG15" s="176"/>
-      <c r="AH15" s="176"/>
-      <c r="AI15" s="177"/>
+      <c r="AF15" s="231"/>
+      <c r="AG15" s="232"/>
+      <c r="AH15" s="232"/>
+      <c r="AI15" s="233"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="184"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="176"/>
-      <c r="M16" s="176"/>
-      <c r="N16" s="176"/>
-      <c r="O16" s="176"/>
-      <c r="P16" s="177"/>
+      <c r="B16" s="175"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="231"/>
+      <c r="K16" s="232"/>
+      <c r="L16" s="232"/>
+      <c r="M16" s="232"/>
+      <c r="N16" s="232"/>
+      <c r="O16" s="232"/>
+      <c r="P16" s="233"/>
       <c r="Q16" s="181"/>
       <c r="R16" s="182"/>
       <c r="S16" s="182"/>
@@ -7591,28 +7600,28 @@
       <c r="AC16" s="182"/>
       <c r="AD16" s="182"/>
       <c r="AE16" s="183"/>
-      <c r="AF16" s="175"/>
-      <c r="AG16" s="176"/>
-      <c r="AH16" s="176"/>
-      <c r="AI16" s="177"/>
+      <c r="AF16" s="231"/>
+      <c r="AG16" s="232"/>
+      <c r="AH16" s="232"/>
+      <c r="AI16" s="233"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
-      <c r="B17" s="184"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="176"/>
-      <c r="M17" s="176"/>
-      <c r="N17" s="176"/>
-      <c r="O17" s="176"/>
-      <c r="P17" s="177"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="231"/>
+      <c r="K17" s="232"/>
+      <c r="L17" s="232"/>
+      <c r="M17" s="232"/>
+      <c r="N17" s="232"/>
+      <c r="O17" s="232"/>
+      <c r="P17" s="233"/>
       <c r="Q17" s="181"/>
       <c r="R17" s="182"/>
       <c r="S17" s="182"/>
@@ -7628,28 +7637,28 @@
       <c r="AC17" s="182"/>
       <c r="AD17" s="182"/>
       <c r="AE17" s="183"/>
-      <c r="AF17" s="175"/>
-      <c r="AG17" s="176"/>
-      <c r="AH17" s="176"/>
-      <c r="AI17" s="177"/>
+      <c r="AF17" s="231"/>
+      <c r="AG17" s="232"/>
+      <c r="AH17" s="232"/>
+      <c r="AI17" s="233"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
-      <c r="B18" s="184"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="176"/>
-      <c r="L18" s="176"/>
-      <c r="M18" s="176"/>
-      <c r="N18" s="176"/>
-      <c r="O18" s="176"/>
-      <c r="P18" s="177"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="231"/>
+      <c r="K18" s="232"/>
+      <c r="L18" s="232"/>
+      <c r="M18" s="232"/>
+      <c r="N18" s="232"/>
+      <c r="O18" s="232"/>
+      <c r="P18" s="233"/>
       <c r="Q18" s="181"/>
       <c r="R18" s="182"/>
       <c r="S18" s="182"/>
@@ -7665,28 +7674,28 @@
       <c r="AC18" s="182"/>
       <c r="AD18" s="182"/>
       <c r="AE18" s="183"/>
-      <c r="AF18" s="175"/>
-      <c r="AG18" s="176"/>
-      <c r="AH18" s="176"/>
-      <c r="AI18" s="177"/>
+      <c r="AF18" s="231"/>
+      <c r="AG18" s="232"/>
+      <c r="AH18" s="232"/>
+      <c r="AI18" s="233"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
-      <c r="B19" s="184"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="189"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="176"/>
-      <c r="L19" s="176"/>
-      <c r="M19" s="176"/>
-      <c r="N19" s="176"/>
-      <c r="O19" s="176"/>
-      <c r="P19" s="177"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="231"/>
+      <c r="K19" s="232"/>
+      <c r="L19" s="232"/>
+      <c r="M19" s="232"/>
+      <c r="N19" s="232"/>
+      <c r="O19" s="232"/>
+      <c r="P19" s="233"/>
       <c r="Q19" s="181"/>
       <c r="R19" s="182"/>
       <c r="S19" s="182"/>
@@ -7702,28 +7711,28 @@
       <c r="AC19" s="182"/>
       <c r="AD19" s="182"/>
       <c r="AE19" s="183"/>
-      <c r="AF19" s="175"/>
-      <c r="AG19" s="176"/>
-      <c r="AH19" s="176"/>
-      <c r="AI19" s="177"/>
+      <c r="AF19" s="231"/>
+      <c r="AG19" s="232"/>
+      <c r="AH19" s="232"/>
+      <c r="AI19" s="233"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
-      <c r="B20" s="184"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="189"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="186"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="176"/>
-      <c r="L20" s="176"/>
-      <c r="M20" s="176"/>
-      <c r="N20" s="176"/>
-      <c r="O20" s="176"/>
-      <c r="P20" s="177"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="231"/>
+      <c r="K20" s="232"/>
+      <c r="L20" s="232"/>
+      <c r="M20" s="232"/>
+      <c r="N20" s="232"/>
+      <c r="O20" s="232"/>
+      <c r="P20" s="233"/>
       <c r="Q20" s="181"/>
       <c r="R20" s="182"/>
       <c r="S20" s="182"/>
@@ -7739,28 +7748,28 @@
       <c r="AC20" s="182"/>
       <c r="AD20" s="182"/>
       <c r="AE20" s="183"/>
-      <c r="AF20" s="175"/>
-      <c r="AG20" s="176"/>
-      <c r="AH20" s="176"/>
-      <c r="AI20" s="177"/>
+      <c r="AF20" s="231"/>
+      <c r="AG20" s="232"/>
+      <c r="AH20" s="232"/>
+      <c r="AI20" s="233"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
-      <c r="B21" s="184"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="187"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="176"/>
-      <c r="L21" s="176"/>
-      <c r="M21" s="176"/>
-      <c r="N21" s="176"/>
-      <c r="O21" s="176"/>
-      <c r="P21" s="177"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="231"/>
+      <c r="K21" s="232"/>
+      <c r="L21" s="232"/>
+      <c r="M21" s="232"/>
+      <c r="N21" s="232"/>
+      <c r="O21" s="232"/>
+      <c r="P21" s="233"/>
       <c r="Q21" s="181"/>
       <c r="R21" s="182"/>
       <c r="S21" s="182"/>
@@ -7776,28 +7785,28 @@
       <c r="AC21" s="182"/>
       <c r="AD21" s="182"/>
       <c r="AE21" s="183"/>
-      <c r="AF21" s="175"/>
-      <c r="AG21" s="176"/>
-      <c r="AH21" s="176"/>
-      <c r="AI21" s="177"/>
+      <c r="AF21" s="231"/>
+      <c r="AG21" s="232"/>
+      <c r="AH21" s="232"/>
+      <c r="AI21" s="233"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
-      <c r="B22" s="184"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="186"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="176"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="176"/>
-      <c r="N22" s="176"/>
-      <c r="O22" s="176"/>
-      <c r="P22" s="177"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="231"/>
+      <c r="K22" s="232"/>
+      <c r="L22" s="232"/>
+      <c r="M22" s="232"/>
+      <c r="N22" s="232"/>
+      <c r="O22" s="232"/>
+      <c r="P22" s="233"/>
       <c r="Q22" s="181"/>
       <c r="R22" s="182"/>
       <c r="S22" s="182"/>
@@ -7813,28 +7822,28 @@
       <c r="AC22" s="182"/>
       <c r="AD22" s="182"/>
       <c r="AE22" s="183"/>
-      <c r="AF22" s="175"/>
-      <c r="AG22" s="176"/>
-      <c r="AH22" s="176"/>
-      <c r="AI22" s="177"/>
+      <c r="AF22" s="231"/>
+      <c r="AG22" s="232"/>
+      <c r="AH22" s="232"/>
+      <c r="AI22" s="233"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
-      <c r="B23" s="184"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="175"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="176"/>
-      <c r="M23" s="176"/>
-      <c r="N23" s="176"/>
-      <c r="O23" s="176"/>
-      <c r="P23" s="177"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="176"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="231"/>
+      <c r="K23" s="232"/>
+      <c r="L23" s="232"/>
+      <c r="M23" s="232"/>
+      <c r="N23" s="232"/>
+      <c r="O23" s="232"/>
+      <c r="P23" s="233"/>
       <c r="Q23" s="181"/>
       <c r="R23" s="182"/>
       <c r="S23" s="182"/>
@@ -7850,28 +7859,28 @@
       <c r="AC23" s="182"/>
       <c r="AD23" s="182"/>
       <c r="AE23" s="183"/>
-      <c r="AF23" s="175"/>
-      <c r="AG23" s="176"/>
-      <c r="AH23" s="176"/>
-      <c r="AI23" s="177"/>
+      <c r="AF23" s="231"/>
+      <c r="AG23" s="232"/>
+      <c r="AH23" s="232"/>
+      <c r="AI23" s="233"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="189"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="176"/>
-      <c r="L24" s="176"/>
-      <c r="M24" s="176"/>
-      <c r="N24" s="176"/>
-      <c r="O24" s="176"/>
-      <c r="P24" s="177"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="231"/>
+      <c r="K24" s="232"/>
+      <c r="L24" s="232"/>
+      <c r="M24" s="232"/>
+      <c r="N24" s="232"/>
+      <c r="O24" s="232"/>
+      <c r="P24" s="233"/>
       <c r="Q24" s="181"/>
       <c r="R24" s="182"/>
       <c r="S24" s="182"/>
@@ -7887,28 +7896,28 @@
       <c r="AC24" s="182"/>
       <c r="AD24" s="182"/>
       <c r="AE24" s="183"/>
-      <c r="AF24" s="175"/>
-      <c r="AG24" s="176"/>
-      <c r="AH24" s="176"/>
-      <c r="AI24" s="177"/>
+      <c r="AF24" s="231"/>
+      <c r="AG24" s="232"/>
+      <c r="AH24" s="232"/>
+      <c r="AI24" s="233"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="175"/>
-      <c r="K25" s="176"/>
-      <c r="L25" s="176"/>
-      <c r="M25" s="176"/>
-      <c r="N25" s="176"/>
-      <c r="O25" s="176"/>
-      <c r="P25" s="177"/>
+      <c r="B25" s="175"/>
+      <c r="C25" s="176"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="231"/>
+      <c r="K25" s="232"/>
+      <c r="L25" s="232"/>
+      <c r="M25" s="232"/>
+      <c r="N25" s="232"/>
+      <c r="O25" s="232"/>
+      <c r="P25" s="233"/>
       <c r="Q25" s="181"/>
       <c r="R25" s="182"/>
       <c r="S25" s="182"/>
@@ -7924,28 +7933,28 @@
       <c r="AC25" s="182"/>
       <c r="AD25" s="182"/>
       <c r="AE25" s="183"/>
-      <c r="AF25" s="175"/>
-      <c r="AG25" s="176"/>
-      <c r="AH25" s="176"/>
-      <c r="AI25" s="177"/>
+      <c r="AF25" s="231"/>
+      <c r="AG25" s="232"/>
+      <c r="AH25" s="232"/>
+      <c r="AI25" s="233"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="38"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="189"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="185"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="176"/>
-      <c r="N26" s="176"/>
-      <c r="O26" s="176"/>
-      <c r="P26" s="177"/>
+      <c r="B26" s="175"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="231"/>
+      <c r="K26" s="232"/>
+      <c r="L26" s="232"/>
+      <c r="M26" s="232"/>
+      <c r="N26" s="232"/>
+      <c r="O26" s="232"/>
+      <c r="P26" s="233"/>
       <c r="Q26" s="181"/>
       <c r="R26" s="182"/>
       <c r="S26" s="182"/>
@@ -7961,28 +7970,28 @@
       <c r="AC26" s="182"/>
       <c r="AD26" s="182"/>
       <c r="AE26" s="183"/>
-      <c r="AF26" s="175"/>
-      <c r="AG26" s="176"/>
-      <c r="AH26" s="176"/>
-      <c r="AI26" s="177"/>
+      <c r="AF26" s="231"/>
+      <c r="AG26" s="232"/>
+      <c r="AH26" s="232"/>
+      <c r="AI26" s="233"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="189"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="176"/>
-      <c r="L27" s="176"/>
-      <c r="M27" s="176"/>
-      <c r="N27" s="176"/>
-      <c r="O27" s="176"/>
-      <c r="P27" s="177"/>
+      <c r="B27" s="175"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="231"/>
+      <c r="K27" s="232"/>
+      <c r="L27" s="232"/>
+      <c r="M27" s="232"/>
+      <c r="N27" s="232"/>
+      <c r="O27" s="232"/>
+      <c r="P27" s="233"/>
       <c r="Q27" s="181"/>
       <c r="R27" s="182"/>
       <c r="S27" s="182"/>
@@ -7998,28 +8007,28 @@
       <c r="AC27" s="182"/>
       <c r="AD27" s="182"/>
       <c r="AE27" s="183"/>
-      <c r="AF27" s="175"/>
-      <c r="AG27" s="176"/>
-      <c r="AH27" s="176"/>
-      <c r="AI27" s="177"/>
+      <c r="AF27" s="231"/>
+      <c r="AG27" s="232"/>
+      <c r="AH27" s="232"/>
+      <c r="AI27" s="233"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="38"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="189"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="176"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="176"/>
-      <c r="N28" s="176"/>
-      <c r="O28" s="176"/>
-      <c r="P28" s="177"/>
+      <c r="B28" s="175"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="180"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="231"/>
+      <c r="K28" s="232"/>
+      <c r="L28" s="232"/>
+      <c r="M28" s="232"/>
+      <c r="N28" s="232"/>
+      <c r="O28" s="232"/>
+      <c r="P28" s="233"/>
       <c r="Q28" s="181"/>
       <c r="R28" s="182"/>
       <c r="S28" s="182"/>
@@ -8035,28 +8044,28 @@
       <c r="AC28" s="182"/>
       <c r="AD28" s="182"/>
       <c r="AE28" s="183"/>
-      <c r="AF28" s="175"/>
-      <c r="AG28" s="176"/>
-      <c r="AH28" s="176"/>
-      <c r="AI28" s="177"/>
+      <c r="AF28" s="231"/>
+      <c r="AG28" s="232"/>
+      <c r="AH28" s="232"/>
+      <c r="AI28" s="233"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="38"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="176"/>
-      <c r="M29" s="176"/>
-      <c r="N29" s="176"/>
-      <c r="O29" s="176"/>
-      <c r="P29" s="177"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="231"/>
+      <c r="K29" s="232"/>
+      <c r="L29" s="232"/>
+      <c r="M29" s="232"/>
+      <c r="N29" s="232"/>
+      <c r="O29" s="232"/>
+      <c r="P29" s="233"/>
       <c r="Q29" s="181"/>
       <c r="R29" s="182"/>
       <c r="S29" s="182"/>
@@ -8072,28 +8081,28 @@
       <c r="AC29" s="182"/>
       <c r="AD29" s="182"/>
       <c r="AE29" s="183"/>
-      <c r="AF29" s="175"/>
-      <c r="AG29" s="176"/>
-      <c r="AH29" s="176"/>
-      <c r="AI29" s="177"/>
+      <c r="AF29" s="231"/>
+      <c r="AG29" s="232"/>
+      <c r="AH29" s="232"/>
+      <c r="AI29" s="233"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="38"/>
-      <c r="B30" s="184"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="176"/>
-      <c r="L30" s="176"/>
-      <c r="M30" s="176"/>
-      <c r="N30" s="176"/>
-      <c r="O30" s="176"/>
-      <c r="P30" s="177"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="180"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="231"/>
+      <c r="K30" s="232"/>
+      <c r="L30" s="232"/>
+      <c r="M30" s="232"/>
+      <c r="N30" s="232"/>
+      <c r="O30" s="232"/>
+      <c r="P30" s="233"/>
       <c r="Q30" s="181"/>
       <c r="R30" s="182"/>
       <c r="S30" s="182"/>
@@ -8109,28 +8118,28 @@
       <c r="AC30" s="182"/>
       <c r="AD30" s="182"/>
       <c r="AE30" s="183"/>
-      <c r="AF30" s="175"/>
-      <c r="AG30" s="176"/>
-      <c r="AH30" s="176"/>
-      <c r="AI30" s="177"/>
+      <c r="AF30" s="231"/>
+      <c r="AG30" s="232"/>
+      <c r="AH30" s="232"/>
+      <c r="AI30" s="233"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="38"/>
-      <c r="B31" s="184"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="187"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="176"/>
-      <c r="N31" s="176"/>
-      <c r="O31" s="176"/>
-      <c r="P31" s="177"/>
+      <c r="B31" s="175"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="231"/>
+      <c r="K31" s="232"/>
+      <c r="L31" s="232"/>
+      <c r="M31" s="232"/>
+      <c r="N31" s="232"/>
+      <c r="O31" s="232"/>
+      <c r="P31" s="233"/>
       <c r="Q31" s="181"/>
       <c r="R31" s="182"/>
       <c r="S31" s="182"/>
@@ -8146,28 +8155,28 @@
       <c r="AC31" s="182"/>
       <c r="AD31" s="182"/>
       <c r="AE31" s="183"/>
-      <c r="AF31" s="175"/>
-      <c r="AG31" s="176"/>
-      <c r="AH31" s="176"/>
-      <c r="AI31" s="177"/>
+      <c r="AF31" s="231"/>
+      <c r="AG31" s="232"/>
+      <c r="AH31" s="232"/>
+      <c r="AI31" s="233"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="38"/>
-      <c r="B32" s="184"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="189"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="176"/>
-      <c r="N32" s="176"/>
-      <c r="O32" s="176"/>
-      <c r="P32" s="177"/>
+      <c r="B32" s="175"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="180"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="231"/>
+      <c r="K32" s="232"/>
+      <c r="L32" s="232"/>
+      <c r="M32" s="232"/>
+      <c r="N32" s="232"/>
+      <c r="O32" s="232"/>
+      <c r="P32" s="233"/>
       <c r="Q32" s="181"/>
       <c r="R32" s="182"/>
       <c r="S32" s="182"/>
@@ -8183,28 +8192,28 @@
       <c r="AC32" s="182"/>
       <c r="AD32" s="182"/>
       <c r="AE32" s="183"/>
-      <c r="AF32" s="175"/>
-      <c r="AG32" s="176"/>
-      <c r="AH32" s="176"/>
-      <c r="AI32" s="177"/>
+      <c r="AF32" s="231"/>
+      <c r="AG32" s="232"/>
+      <c r="AH32" s="232"/>
+      <c r="AI32" s="233"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="38"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="176"/>
-      <c r="M33" s="176"/>
-      <c r="N33" s="176"/>
-      <c r="O33" s="176"/>
-      <c r="P33" s="177"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="180"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="231"/>
+      <c r="K33" s="232"/>
+      <c r="L33" s="232"/>
+      <c r="M33" s="232"/>
+      <c r="N33" s="232"/>
+      <c r="O33" s="232"/>
+      <c r="P33" s="233"/>
       <c r="Q33" s="181"/>
       <c r="R33" s="182"/>
       <c r="S33" s="182"/>
@@ -8220,157 +8229,24 @@
       <c r="AC33" s="182"/>
       <c r="AD33" s="182"/>
       <c r="AE33" s="183"/>
-      <c r="AF33" s="175"/>
-      <c r="AG33" s="176"/>
-      <c r="AH33" s="176"/>
-      <c r="AI33" s="177"/>
+      <c r="AF33" s="231"/>
+      <c r="AG33" s="232"/>
+      <c r="AH33" s="232"/>
+      <c r="AI33" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF27:AI27"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AF9:AI9"/>
     <mergeCell ref="AF10:AI10"/>
@@ -8395,17 +8271,150 @@
     <mergeCell ref="AF15:AI15"/>
     <mergeCell ref="AF16:AI16"/>
     <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -8561,12 +8570,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="39" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="239"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="244"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -8580,49 +8589,49 @@
       <c r="L1" s="241"/>
       <c r="M1" s="241"/>
       <c r="N1" s="242"/>
-      <c r="O1" s="243" t="s">
+      <c r="O1" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="237" t="s">
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="239"/>
-      <c r="AC1" s="252" t="str">
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="253"/>
-      <c r="AE1" s="253"/>
-      <c r="AF1" s="254"/>
-      <c r="AG1" s="264">
+      <c r="AD1" s="246"/>
+      <c r="AE1" s="246"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="237">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="266"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="239"/>
     </row>
     <row r="2" spans="1:35" s="39" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="244"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -8636,43 +8645,43 @@
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
       <c r="N2" s="242"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="248"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="237" t="s">
+      <c r="O2" s="252"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="254"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="239"/>
-      <c r="AC2" s="252" t="str">
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="253"/>
-      <c r="AE2" s="253"/>
-      <c r="AF2" s="254"/>
-      <c r="AG2" s="264" t="str">
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="265"/>
-      <c r="AI2" s="266"/>
+      <c r="AH2" s="238"/>
+      <c r="AI2" s="239"/>
     </row>
     <row r="3" spans="1:35" s="39" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="239"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="244"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -8686,33 +8695,33 @@
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="242"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="237"/>
-      <c r="AB3" s="239"/>
-      <c r="AC3" s="252" t="str">
+      <c r="O3" s="255"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="253"/>
-      <c r="AF3" s="254"/>
-      <c r="AG3" s="264" t="str">
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="246"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="265"/>
-      <c r="AI3" s="266"/>
+      <c r="AH3" s="238"/>
+      <c r="AI3" s="239"/>
     </row>
     <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="41"/>
@@ -9967,12 +9976,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -9984,6 +9987,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -10009,12 +10018,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="81" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="243" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="239"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="244"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -10028,49 +10037,49 @@
       <c r="L1" s="241"/>
       <c r="M1" s="241"/>
       <c r="N1" s="242"/>
-      <c r="O1" s="243" t="s">
+      <c r="O1" s="249" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="237" t="s">
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="239"/>
-      <c r="AC1" s="252" t="str">
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="253"/>
-      <c r="AE1" s="253"/>
-      <c r="AF1" s="254"/>
-      <c r="AG1" s="264">
+      <c r="AD1" s="246"/>
+      <c r="AE1" s="246"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="237">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="266"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="239"/>
     </row>
     <row r="2" spans="1:35" s="81" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="244"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -10084,43 +10093,43 @@
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
       <c r="N2" s="242"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="248"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="237" t="s">
+      <c r="O2" s="252"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="254"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="243" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="239"/>
-      <c r="AC2" s="252" t="str">
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="253"/>
-      <c r="AE2" s="253"/>
-      <c r="AF2" s="254"/>
-      <c r="AG2" s="264" t="str">
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="265"/>
-      <c r="AI2" s="266"/>
+      <c r="AH2" s="238"/>
+      <c r="AI2" s="239"/>
     </row>
     <row r="3" spans="1:35" s="81" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="239"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="244"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -10134,33 +10143,33 @@
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="242"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="237"/>
-      <c r="AB3" s="239"/>
-      <c r="AC3" s="252" t="str">
+      <c r="O3" s="255"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="253"/>
-      <c r="AF3" s="254"/>
-      <c r="AG3" s="264" t="str">
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="246"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="265"/>
-      <c r="AI3" s="266"/>
+      <c r="AH3" s="238"/>
+      <c r="AI3" s="239"/>
     </row>
     <row r="4" spans="1:35" s="81" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="82"/>
@@ -10182,12 +10191,12 @@
       <c r="C6" s="86"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="267" t="s">
+      <c r="A7" s="274" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="270"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="271"/>
+      <c r="B7" s="275"/>
+      <c r="C7" s="275"/>
+      <c r="D7" s="276"/>
       <c r="E7" s="87"/>
       <c r="F7" s="87"/>
       <c r="G7" s="87"/>
@@ -10200,82 +10209,82 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="275" t="s">
+      <c r="Q7" s="298" t="s">
         <v>157</v>
       </c>
-      <c r="R7" s="276"/>
-      <c r="S7" s="276"/>
-      <c r="T7" s="277"/>
-      <c r="U7" s="280" t="s">
+      <c r="R7" s="293"/>
+      <c r="S7" s="293"/>
+      <c r="T7" s="294"/>
+      <c r="U7" s="299" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="281"/>
-      <c r="W7" s="281"/>
-      <c r="X7" s="281"/>
-      <c r="Y7" s="281"/>
-      <c r="Z7" s="281"/>
-      <c r="AA7" s="281"/>
-      <c r="AB7" s="281"/>
-      <c r="AC7" s="281"/>
-      <c r="AD7" s="281"/>
-      <c r="AE7" s="281"/>
-      <c r="AF7" s="281"/>
-      <c r="AG7" s="281"/>
-      <c r="AH7" s="281"/>
-      <c r="AI7" s="282"/>
+      <c r="V7" s="300"/>
+      <c r="W7" s="300"/>
+      <c r="X7" s="300"/>
+      <c r="Y7" s="300"/>
+      <c r="Z7" s="300"/>
+      <c r="AA7" s="300"/>
+      <c r="AB7" s="300"/>
+      <c r="AC7" s="300"/>
+      <c r="AD7" s="300"/>
+      <c r="AE7" s="300"/>
+      <c r="AF7" s="300"/>
+      <c r="AG7" s="300"/>
+      <c r="AH7" s="300"/>
+      <c r="AI7" s="301"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="272" t="s">
+      <c r="A8" s="302" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="273"/>
-      <c r="C8" s="273"/>
-      <c r="D8" s="274"/>
-      <c r="E8" s="278" t="s">
+      <c r="B8" s="303"/>
+      <c r="C8" s="303"/>
+      <c r="D8" s="304"/>
+      <c r="E8" s="289" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="279"/>
-      <c r="I8" s="279"/>
-      <c r="J8" s="279"/>
-      <c r="K8" s="279"/>
-      <c r="L8" s="279"/>
-      <c r="M8" s="279"/>
-      <c r="N8" s="279"/>
-      <c r="O8" s="279"/>
-      <c r="P8" s="279"/>
-      <c r="Q8" s="267" t="s">
+      <c r="F8" s="290"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="290"/>
+      <c r="I8" s="290"/>
+      <c r="J8" s="290"/>
+      <c r="K8" s="290"/>
+      <c r="L8" s="290"/>
+      <c r="M8" s="290"/>
+      <c r="N8" s="290"/>
+      <c r="O8" s="290"/>
+      <c r="P8" s="290"/>
+      <c r="Q8" s="274" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="270"/>
-      <c r="S8" s="270"/>
-      <c r="T8" s="271"/>
-      <c r="U8" s="278" t="s">
+      <c r="R8" s="275"/>
+      <c r="S8" s="275"/>
+      <c r="T8" s="276"/>
+      <c r="U8" s="289" t="s">
         <v>56</v>
       </c>
-      <c r="V8" s="279"/>
-      <c r="W8" s="279"/>
-      <c r="X8" s="279"/>
-      <c r="Y8" s="279"/>
-      <c r="Z8" s="279"/>
-      <c r="AA8" s="279"/>
-      <c r="AB8" s="279"/>
-      <c r="AC8" s="279"/>
-      <c r="AD8" s="279"/>
-      <c r="AE8" s="279"/>
-      <c r="AF8" s="279"/>
-      <c r="AG8" s="279"/>
-      <c r="AH8" s="279"/>
-      <c r="AI8" s="283"/>
+      <c r="V8" s="290"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="290"/>
+      <c r="Y8" s="290"/>
+      <c r="Z8" s="290"/>
+      <c r="AA8" s="290"/>
+      <c r="AB8" s="290"/>
+      <c r="AC8" s="290"/>
+      <c r="AD8" s="290"/>
+      <c r="AE8" s="290"/>
+      <c r="AF8" s="290"/>
+      <c r="AG8" s="290"/>
+      <c r="AH8" s="290"/>
+      <c r="AI8" s="291"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="267" t="s">
+      <c r="A9" s="274" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="270"/>
-      <c r="C9" s="270"/>
-      <c r="D9" s="271"/>
+      <c r="B9" s="275"/>
+      <c r="C9" s="275"/>
+      <c r="D9" s="276"/>
       <c r="E9" s="89"/>
       <c r="F9" s="89"/>
       <c r="G9" s="89"/>
@@ -10461,7 +10470,7 @@
       <c r="AI13" s="101"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="267" t="s">
+      <c r="A14" s="274" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="268"/>
@@ -10615,12 +10624,12 @@
       <c r="AI17" s="101"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="284" t="s">
+      <c r="A18" s="286" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="285"/>
-      <c r="C18" s="285"/>
-      <c r="D18" s="286"/>
+      <c r="B18" s="287"/>
+      <c r="C18" s="287"/>
+      <c r="D18" s="288"/>
       <c r="E18" s="92"/>
       <c r="F18" s="103"/>
       <c r="G18" s="94"/>
@@ -10633,12 +10642,12 @@
       <c r="N18" s="94"/>
       <c r="O18" s="93"/>
       <c r="P18" s="94"/>
-      <c r="Q18" s="284" t="s">
+      <c r="Q18" s="286" t="s">
         <v>64</v>
       </c>
-      <c r="R18" s="285"/>
-      <c r="S18" s="285"/>
-      <c r="T18" s="286"/>
+      <c r="R18" s="287"/>
+      <c r="S18" s="287"/>
+      <c r="T18" s="288"/>
       <c r="U18" s="93"/>
       <c r="V18" s="93"/>
       <c r="W18" s="93"/>
@@ -10740,12 +10749,12 @@
       <c r="AI20" s="95"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="267" t="s">
+      <c r="A21" s="274" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="270"/>
-      <c r="C21" s="270"/>
-      <c r="D21" s="271"/>
+      <c r="B21" s="275"/>
+      <c r="C21" s="275"/>
+      <c r="D21" s="276"/>
       <c r="E21" s="111" t="s">
         <v>69</v>
       </c>
@@ -10760,37 +10769,37 @@
       <c r="N21" s="87"/>
       <c r="O21" s="87"/>
       <c r="P21" s="87"/>
-      <c r="Q21" s="267" t="s">
+      <c r="Q21" s="274" t="s">
         <v>70</v>
       </c>
-      <c r="R21" s="270"/>
-      <c r="S21" s="270"/>
-      <c r="T21" s="271"/>
-      <c r="U21" s="278" t="s">
+      <c r="R21" s="275"/>
+      <c r="S21" s="275"/>
+      <c r="T21" s="276"/>
+      <c r="U21" s="289" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="279"/>
-      <c r="W21" s="279"/>
-      <c r="X21" s="279"/>
-      <c r="Y21" s="279"/>
-      <c r="Z21" s="279"/>
-      <c r="AA21" s="279"/>
-      <c r="AB21" s="279"/>
-      <c r="AC21" s="279"/>
-      <c r="AD21" s="279"/>
-      <c r="AE21" s="279"/>
-      <c r="AF21" s="279"/>
-      <c r="AG21" s="279"/>
-      <c r="AH21" s="279"/>
-      <c r="AI21" s="283"/>
+      <c r="V21" s="290"/>
+      <c r="W21" s="290"/>
+      <c r="X21" s="290"/>
+      <c r="Y21" s="290"/>
+      <c r="Z21" s="290"/>
+      <c r="AA21" s="290"/>
+      <c r="AB21" s="290"/>
+      <c r="AC21" s="290"/>
+      <c r="AD21" s="290"/>
+      <c r="AE21" s="290"/>
+      <c r="AF21" s="290"/>
+      <c r="AG21" s="290"/>
+      <c r="AH21" s="290"/>
+      <c r="AI21" s="291"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="287" t="s">
+      <c r="A22" s="292" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="276"/>
-      <c r="C22" s="276"/>
-      <c r="D22" s="277"/>
+      <c r="B22" s="293"/>
+      <c r="C22" s="293"/>
+      <c r="D22" s="294"/>
       <c r="E22" s="112"/>
       <c r="F22" s="113"/>
       <c r="G22" s="90"/>
@@ -10803,12 +10812,12 @@
       <c r="N22" s="90"/>
       <c r="O22" s="89"/>
       <c r="P22" s="90"/>
-      <c r="Q22" s="287" t="s">
+      <c r="Q22" s="292" t="s">
         <v>73</v>
       </c>
-      <c r="R22" s="276"/>
-      <c r="S22" s="276"/>
-      <c r="T22" s="277"/>
+      <c r="R22" s="293"/>
+      <c r="S22" s="293"/>
+      <c r="T22" s="294"/>
       <c r="U22" s="114"/>
       <c r="V22" s="90"/>
       <c r="W22" s="89"/>
@@ -10871,38 +10880,38 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="302" t="s">
+      <c r="A24" s="283" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="303"/>
-      <c r="C24" s="303"/>
-      <c r="D24" s="304"/>
-      <c r="E24" s="278" t="s">
+      <c r="B24" s="284"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="285"/>
+      <c r="E24" s="289" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="279"/>
-      <c r="G24" s="279"/>
-      <c r="H24" s="279"/>
-      <c r="I24" s="279"/>
-      <c r="J24" s="279"/>
-      <c r="K24" s="279"/>
-      <c r="L24" s="279"/>
-      <c r="M24" s="279"/>
-      <c r="N24" s="279"/>
-      <c r="O24" s="279"/>
-      <c r="P24" s="283"/>
-      <c r="Q24" s="288" t="s">
+      <c r="F24" s="290"/>
+      <c r="G24" s="290"/>
+      <c r="H24" s="290"/>
+      <c r="I24" s="290"/>
+      <c r="J24" s="290"/>
+      <c r="K24" s="290"/>
+      <c r="L24" s="290"/>
+      <c r="M24" s="290"/>
+      <c r="N24" s="290"/>
+      <c r="O24" s="290"/>
+      <c r="P24" s="291"/>
+      <c r="Q24" s="295" t="s">
         <v>76</v>
       </c>
-      <c r="R24" s="289"/>
-      <c r="S24" s="289"/>
-      <c r="T24" s="290"/>
-      <c r="U24" s="294">
+      <c r="R24" s="296"/>
+      <c r="S24" s="296"/>
+      <c r="T24" s="297"/>
+      <c r="U24" s="272">
         <v>3588</v>
       </c>
-      <c r="V24" s="295"/>
-      <c r="W24" s="295"/>
-      <c r="X24" s="295"/>
+      <c r="V24" s="273"/>
+      <c r="W24" s="273"/>
+      <c r="X24" s="273"/>
       <c r="Y24" s="117" t="s">
         <v>77</v>
       </c>
@@ -10918,28 +10927,28 @@
       <c r="AI24" s="119"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="298" t="s">
+      <c r="A25" s="279" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="300"/>
+      <c r="B25" s="280"/>
+      <c r="C25" s="280"/>
+      <c r="D25" s="281"/>
       <c r="E25" s="112"/>
       <c r="F25" s="120"/>
       <c r="G25" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="292" t="s">
+      <c r="H25" s="270" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="293"/>
-      <c r="J25" s="293"/>
-      <c r="K25" s="293"/>
-      <c r="L25" s="293"/>
-      <c r="M25" s="293"/>
-      <c r="N25" s="293"/>
-      <c r="O25" s="293"/>
-      <c r="P25" s="293"/>
+      <c r="I25" s="271"/>
+      <c r="J25" s="271"/>
+      <c r="K25" s="271"/>
+      <c r="L25" s="271"/>
+      <c r="M25" s="271"/>
+      <c r="N25" s="271"/>
+      <c r="O25" s="271"/>
+      <c r="P25" s="271"/>
       <c r="Q25" s="90" t="s">
         <v>67</v>
       </c>
@@ -10948,15 +10957,15 @@
       <c r="T25" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="U25" s="301"/>
-      <c r="V25" s="301"/>
-      <c r="W25" s="301"/>
-      <c r="X25" s="301"/>
-      <c r="Y25" s="301"/>
-      <c r="Z25" s="301"/>
-      <c r="AA25" s="301"/>
-      <c r="AB25" s="301"/>
-      <c r="AC25" s="301"/>
+      <c r="U25" s="282"/>
+      <c r="V25" s="282"/>
+      <c r="W25" s="282"/>
+      <c r="X25" s="282"/>
+      <c r="Y25" s="282"/>
+      <c r="Z25" s="282"/>
+      <c r="AA25" s="282"/>
+      <c r="AB25" s="282"/>
+      <c r="AC25" s="282"/>
       <c r="AD25" s="90" t="s">
         <v>67</v>
       </c>
@@ -10976,15 +10985,15 @@
       <c r="G26" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="297"/>
-      <c r="I26" s="297"/>
-      <c r="J26" s="297"/>
-      <c r="K26" s="297"/>
-      <c r="L26" s="297"/>
-      <c r="M26" s="297"/>
-      <c r="N26" s="297"/>
-      <c r="O26" s="297"/>
-      <c r="P26" s="297"/>
+      <c r="H26" s="278"/>
+      <c r="I26" s="278"/>
+      <c r="J26" s="278"/>
+      <c r="K26" s="278"/>
+      <c r="L26" s="278"/>
+      <c r="M26" s="278"/>
+      <c r="N26" s="278"/>
+      <c r="O26" s="278"/>
+      <c r="P26" s="278"/>
       <c r="Q26" s="94" t="s">
         <v>67</v>
       </c>
@@ -10993,15 +11002,15 @@
       <c r="T26" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="U26" s="297"/>
-      <c r="V26" s="297"/>
-      <c r="W26" s="297"/>
-      <c r="X26" s="297"/>
-      <c r="Y26" s="297"/>
-      <c r="Z26" s="297"/>
-      <c r="AA26" s="297"/>
-      <c r="AB26" s="297"/>
-      <c r="AC26" s="297"/>
+      <c r="U26" s="278"/>
+      <c r="V26" s="278"/>
+      <c r="W26" s="278"/>
+      <c r="X26" s="278"/>
+      <c r="Y26" s="278"/>
+      <c r="Z26" s="278"/>
+      <c r="AA26" s="278"/>
+      <c r="AB26" s="278"/>
+      <c r="AC26" s="278"/>
       <c r="AD26" s="94" t="s">
         <v>67</v>
       </c>
@@ -11021,15 +11030,15 @@
       <c r="G27" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="296"/>
-      <c r="I27" s="296"/>
-      <c r="J27" s="296"/>
-      <c r="K27" s="296"/>
-      <c r="L27" s="296"/>
-      <c r="M27" s="296"/>
-      <c r="N27" s="296"/>
-      <c r="O27" s="296"/>
-      <c r="P27" s="296"/>
+      <c r="H27" s="277"/>
+      <c r="I27" s="277"/>
+      <c r="J27" s="277"/>
+      <c r="K27" s="277"/>
+      <c r="L27" s="277"/>
+      <c r="M27" s="277"/>
+      <c r="N27" s="277"/>
+      <c r="O27" s="277"/>
+      <c r="P27" s="277"/>
       <c r="Q27" s="99" t="s">
         <v>67</v>
       </c>
@@ -11038,26 +11047,26 @@
       <c r="T27" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="U27" s="296"/>
-      <c r="V27" s="296"/>
-      <c r="W27" s="296"/>
-      <c r="X27" s="296"/>
-      <c r="Y27" s="296"/>
-      <c r="Z27" s="296"/>
-      <c r="AA27" s="296"/>
-      <c r="AB27" s="296"/>
-      <c r="AC27" s="296"/>
-      <c r="AD27" s="296"/>
-      <c r="AE27" s="296"/>
-      <c r="AF27" s="296"/>
-      <c r="AG27" s="296"/>
-      <c r="AH27" s="296"/>
+      <c r="U27" s="277"/>
+      <c r="V27" s="277"/>
+      <c r="W27" s="277"/>
+      <c r="X27" s="277"/>
+      <c r="Y27" s="277"/>
+      <c r="Z27" s="277"/>
+      <c r="AA27" s="277"/>
+      <c r="AB27" s="277"/>
+      <c r="AC27" s="277"/>
+      <c r="AD27" s="277"/>
+      <c r="AE27" s="277"/>
+      <c r="AF27" s="277"/>
+      <c r="AG27" s="277"/>
+      <c r="AH27" s="277"/>
       <c r="AI27" s="101" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="291" t="s">
+      <c r="A28" s="267" t="s">
         <v>158</v>
       </c>
       <c r="B28" s="268"/>
@@ -11245,14 +11254,31 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="E24:P24"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -11265,31 +11291,14 @@
     <mergeCell ref="H26:P26"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="E24:P24"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11836,12 +11845,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="130" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="243" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="239"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="244"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -11855,49 +11864,49 @@
       <c r="L1" s="241"/>
       <c r="M1" s="241"/>
       <c r="N1" s="242"/>
-      <c r="O1" s="243" t="s">
+      <c r="O1" s="249" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="237" t="s">
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="239"/>
-      <c r="AC1" s="252" t="str">
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="253"/>
-      <c r="AE1" s="253"/>
-      <c r="AF1" s="254"/>
-      <c r="AG1" s="264">
+      <c r="AD1" s="246"/>
+      <c r="AE1" s="246"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="237">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="266"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="239"/>
     </row>
     <row r="2" spans="1:43" s="130" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="243" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="244"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -11911,43 +11920,43 @@
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
       <c r="N2" s="242"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="248"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="237" t="s">
+      <c r="O2" s="252"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="254"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="243" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="239"/>
-      <c r="AC2" s="252" t="str">
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="253"/>
-      <c r="AE2" s="253"/>
-      <c r="AF2" s="254"/>
-      <c r="AG2" s="264" t="str">
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="265"/>
-      <c r="AI2" s="266"/>
+      <c r="AH2" s="238"/>
+      <c r="AI2" s="239"/>
     </row>
     <row r="3" spans="1:43" s="130" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="243" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="239"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="244"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -11961,33 +11970,33 @@
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="242"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="237"/>
-      <c r="AB3" s="239"/>
-      <c r="AC3" s="252" t="str">
+      <c r="O3" s="255"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="253"/>
-      <c r="AF3" s="254"/>
-      <c r="AG3" s="264" t="str">
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="246"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="265"/>
-      <c r="AI3" s="266"/>
+      <c r="AH3" s="238"/>
+      <c r="AI3" s="239"/>
     </row>
     <row r="4" spans="1:43" s="130" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="131"/>
@@ -12020,190 +12029,190 @@
       <c r="C6" s="136"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A7" s="305" t="s">
+      <c r="A7" s="360" t="s">
         <v>160</v>
       </c>
-      <c r="B7" s="306"/>
-      <c r="C7" s="306"/>
-      <c r="D7" s="306"/>
-      <c r="E7" s="306"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="306"/>
-      <c r="H7" s="306"/>
-      <c r="I7" s="306"/>
-      <c r="J7" s="306"/>
-      <c r="K7" s="306"/>
-      <c r="L7" s="306"/>
-      <c r="M7" s="306"/>
-      <c r="N7" s="306"/>
-      <c r="O7" s="306"/>
-      <c r="P7" s="306"/>
-      <c r="Q7" s="306"/>
-      <c r="R7" s="306"/>
-      <c r="S7" s="306"/>
-      <c r="T7" s="306"/>
-      <c r="U7" s="306"/>
-      <c r="V7" s="306"/>
-      <c r="W7" s="306"/>
-      <c r="X7" s="306"/>
-      <c r="Y7" s="306"/>
-      <c r="Z7" s="306"/>
-      <c r="AA7" s="306"/>
-      <c r="AB7" s="307"/>
-      <c r="AC7" s="320" t="s">
+      <c r="B7" s="361"/>
+      <c r="C7" s="361"/>
+      <c r="D7" s="361"/>
+      <c r="E7" s="361"/>
+      <c r="F7" s="361"/>
+      <c r="G7" s="361"/>
+      <c r="H7" s="361"/>
+      <c r="I7" s="361"/>
+      <c r="J7" s="361"/>
+      <c r="K7" s="361"/>
+      <c r="L7" s="361"/>
+      <c r="M7" s="361"/>
+      <c r="N7" s="361"/>
+      <c r="O7" s="361"/>
+      <c r="P7" s="361"/>
+      <c r="Q7" s="361"/>
+      <c r="R7" s="361"/>
+      <c r="S7" s="361"/>
+      <c r="T7" s="361"/>
+      <c r="U7" s="361"/>
+      <c r="V7" s="361"/>
+      <c r="W7" s="361"/>
+      <c r="X7" s="361"/>
+      <c r="Y7" s="361"/>
+      <c r="Z7" s="361"/>
+      <c r="AA7" s="361"/>
+      <c r="AB7" s="362"/>
+      <c r="AC7" s="375" t="s">
         <v>80</v>
       </c>
-      <c r="AD7" s="306"/>
-      <c r="AE7" s="306"/>
-      <c r="AF7" s="306"/>
-      <c r="AG7" s="306"/>
-      <c r="AH7" s="306"/>
-      <c r="AI7" s="321"/>
+      <c r="AD7" s="361"/>
+      <c r="AE7" s="361"/>
+      <c r="AF7" s="361"/>
+      <c r="AG7" s="361"/>
+      <c r="AH7" s="361"/>
+      <c r="AI7" s="376"/>
     </row>
     <row r="8" spans="1:43" s="139" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="308" t="s">
+      <c r="B8" s="363" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="309"/>
-      <c r="D8" s="309"/>
-      <c r="E8" s="309"/>
-      <c r="F8" s="310"/>
-      <c r="G8" s="308" t="s">
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="365"/>
+      <c r="G8" s="363" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="311"/>
-      <c r="I8" s="313"/>
-      <c r="J8" s="308" t="s">
+      <c r="H8" s="366"/>
+      <c r="I8" s="368"/>
+      <c r="J8" s="363" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="311"/>
-      <c r="L8" s="311"/>
-      <c r="M8" s="311"/>
-      <c r="N8" s="311"/>
-      <c r="O8" s="311"/>
-      <c r="P8" s="313"/>
-      <c r="Q8" s="314" t="s">
+      <c r="K8" s="366"/>
+      <c r="L8" s="366"/>
+      <c r="M8" s="366"/>
+      <c r="N8" s="366"/>
+      <c r="O8" s="366"/>
+      <c r="P8" s="368"/>
+      <c r="Q8" s="369" t="s">
         <v>85</v>
       </c>
-      <c r="R8" s="316"/>
-      <c r="S8" s="314" t="s">
+      <c r="R8" s="371"/>
+      <c r="S8" s="369" t="s">
         <v>86</v>
       </c>
-      <c r="T8" s="315"/>
-      <c r="U8" s="316"/>
-      <c r="V8" s="308" t="s">
+      <c r="T8" s="370"/>
+      <c r="U8" s="371"/>
+      <c r="V8" s="363" t="s">
         <v>87</v>
       </c>
-      <c r="W8" s="311"/>
-      <c r="X8" s="311"/>
-      <c r="Y8" s="311"/>
-      <c r="Z8" s="311"/>
-      <c r="AA8" s="311"/>
-      <c r="AB8" s="312"/>
-      <c r="AC8" s="317" t="s">
+      <c r="W8" s="366"/>
+      <c r="X8" s="366"/>
+      <c r="Y8" s="366"/>
+      <c r="Z8" s="366"/>
+      <c r="AA8" s="366"/>
+      <c r="AB8" s="367"/>
+      <c r="AC8" s="372" t="s">
         <v>88</v>
       </c>
-      <c r="AD8" s="318"/>
-      <c r="AE8" s="318"/>
-      <c r="AF8" s="318"/>
-      <c r="AG8" s="318"/>
-      <c r="AH8" s="319" t="s">
+      <c r="AD8" s="373"/>
+      <c r="AE8" s="373"/>
+      <c r="AF8" s="373"/>
+      <c r="AG8" s="373"/>
+      <c r="AH8" s="374" t="s">
         <v>159</v>
       </c>
-      <c r="AI8" s="319"/>
+      <c r="AI8" s="374"/>
     </row>
     <row r="9" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="140">
         <v>1</v>
       </c>
-      <c r="B9" s="324" t="s">
+      <c r="B9" s="312" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="325"/>
-      <c r="D9" s="325"/>
-      <c r="E9" s="325"/>
-      <c r="F9" s="326"/>
-      <c r="G9" s="324" t="s">
+      <c r="C9" s="313"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="313"/>
+      <c r="F9" s="314"/>
+      <c r="G9" s="312" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="325"/>
-      <c r="I9" s="326"/>
-      <c r="J9" s="324" t="s">
+      <c r="H9" s="313"/>
+      <c r="I9" s="314"/>
+      <c r="J9" s="312" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="332"/>
-      <c r="L9" s="332"/>
-      <c r="M9" s="332"/>
-      <c r="N9" s="332"/>
-      <c r="O9" s="332"/>
-      <c r="P9" s="333"/>
-      <c r="Q9" s="370">
+      <c r="K9" s="355"/>
+      <c r="L9" s="355"/>
+      <c r="M9" s="355"/>
+      <c r="N9" s="355"/>
+      <c r="O9" s="355"/>
+      <c r="P9" s="356"/>
+      <c r="Q9" s="319">
         <v>3588</v>
       </c>
-      <c r="R9" s="371"/>
-      <c r="S9" s="374" t="s">
+      <c r="R9" s="320"/>
+      <c r="S9" s="323" t="s">
         <v>92</v>
       </c>
-      <c r="T9" s="375"/>
-      <c r="U9" s="376"/>
-      <c r="V9" s="324" t="s">
+      <c r="T9" s="324"/>
+      <c r="U9" s="325"/>
+      <c r="V9" s="312" t="s">
         <v>93</v>
       </c>
-      <c r="W9" s="325"/>
-      <c r="X9" s="325"/>
-      <c r="Y9" s="325"/>
-      <c r="Z9" s="325"/>
-      <c r="AA9" s="325"/>
-      <c r="AB9" s="330"/>
-      <c r="AC9" s="336"/>
-      <c r="AD9" s="324"/>
-      <c r="AE9" s="325"/>
-      <c r="AF9" s="325"/>
-      <c r="AG9" s="326"/>
-      <c r="AH9" s="372"/>
-      <c r="AI9" s="373"/>
+      <c r="W9" s="313"/>
+      <c r="X9" s="313"/>
+      <c r="Y9" s="313"/>
+      <c r="Z9" s="313"/>
+      <c r="AA9" s="313"/>
+      <c r="AB9" s="354"/>
+      <c r="AC9" s="357"/>
+      <c r="AD9" s="312"/>
+      <c r="AE9" s="313"/>
+      <c r="AF9" s="313"/>
+      <c r="AG9" s="314"/>
+      <c r="AH9" s="321"/>
+      <c r="AI9" s="322"/>
     </row>
     <row r="10" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="140">
         <v>2</v>
       </c>
-      <c r="B10" s="327"/>
-      <c r="C10" s="328"/>
-      <c r="D10" s="328"/>
-      <c r="E10" s="328"/>
-      <c r="F10" s="329"/>
-      <c r="G10" s="327"/>
-      <c r="H10" s="328"/>
-      <c r="I10" s="329"/>
-      <c r="J10" s="327"/>
-      <c r="K10" s="334"/>
-      <c r="L10" s="334"/>
-      <c r="M10" s="334"/>
-      <c r="N10" s="334"/>
-      <c r="O10" s="334"/>
-      <c r="P10" s="335"/>
-      <c r="Q10" s="342"/>
-      <c r="R10" s="343"/>
-      <c r="S10" s="347"/>
-      <c r="T10" s="348"/>
-      <c r="U10" s="349"/>
-      <c r="V10" s="327"/>
-      <c r="W10" s="328"/>
-      <c r="X10" s="328"/>
-      <c r="Y10" s="328"/>
-      <c r="Z10" s="328"/>
-      <c r="AA10" s="328"/>
-      <c r="AB10" s="331"/>
-      <c r="AC10" s="337"/>
-      <c r="AD10" s="327"/>
-      <c r="AE10" s="328"/>
-      <c r="AF10" s="328"/>
-      <c r="AG10" s="329"/>
-      <c r="AH10" s="322"/>
-      <c r="AI10" s="323"/>
+      <c r="B10" s="307"/>
+      <c r="C10" s="308"/>
+      <c r="D10" s="308"/>
+      <c r="E10" s="308"/>
+      <c r="F10" s="309"/>
+      <c r="G10" s="307"/>
+      <c r="H10" s="308"/>
+      <c r="I10" s="309"/>
+      <c r="J10" s="307"/>
+      <c r="K10" s="316"/>
+      <c r="L10" s="316"/>
+      <c r="M10" s="316"/>
+      <c r="N10" s="316"/>
+      <c r="O10" s="316"/>
+      <c r="P10" s="317"/>
+      <c r="Q10" s="310"/>
+      <c r="R10" s="311"/>
+      <c r="S10" s="326"/>
+      <c r="T10" s="327"/>
+      <c r="U10" s="328"/>
+      <c r="V10" s="307"/>
+      <c r="W10" s="308"/>
+      <c r="X10" s="308"/>
+      <c r="Y10" s="308"/>
+      <c r="Z10" s="308"/>
+      <c r="AA10" s="308"/>
+      <c r="AB10" s="318"/>
+      <c r="AC10" s="358"/>
+      <c r="AD10" s="307"/>
+      <c r="AE10" s="308"/>
+      <c r="AF10" s="308"/>
+      <c r="AG10" s="309"/>
+      <c r="AH10" s="305"/>
+      <c r="AI10" s="306"/>
       <c r="AM10" s="141"/>
       <c r="AN10" s="141"/>
       <c r="AO10" s="141"/>
@@ -12214,40 +12223,40 @@
       <c r="A11" s="140">
         <v>3</v>
       </c>
-      <c r="B11" s="327"/>
-      <c r="C11" s="328"/>
-      <c r="D11" s="328"/>
-      <c r="E11" s="328"/>
-      <c r="F11" s="329"/>
-      <c r="G11" s="344"/>
-      <c r="H11" s="345"/>
-      <c r="I11" s="346"/>
-      <c r="J11" s="327"/>
-      <c r="K11" s="334"/>
-      <c r="L11" s="334"/>
-      <c r="M11" s="334"/>
-      <c r="N11" s="334"/>
-      <c r="O11" s="334"/>
-      <c r="P11" s="335"/>
-      <c r="Q11" s="342"/>
-      <c r="R11" s="343"/>
-      <c r="S11" s="347"/>
-      <c r="T11" s="348"/>
-      <c r="U11" s="349"/>
-      <c r="V11" s="327"/>
-      <c r="W11" s="328"/>
-      <c r="X11" s="328"/>
-      <c r="Y11" s="328"/>
-      <c r="Z11" s="328"/>
-      <c r="AA11" s="328"/>
-      <c r="AB11" s="331"/>
-      <c r="AC11" s="337"/>
-      <c r="AD11" s="364"/>
-      <c r="AE11" s="334"/>
-      <c r="AF11" s="334"/>
-      <c r="AG11" s="335"/>
-      <c r="AH11" s="322"/>
-      <c r="AI11" s="323"/>
+      <c r="B11" s="307"/>
+      <c r="C11" s="308"/>
+      <c r="D11" s="308"/>
+      <c r="E11" s="308"/>
+      <c r="F11" s="309"/>
+      <c r="G11" s="331"/>
+      <c r="H11" s="332"/>
+      <c r="I11" s="333"/>
+      <c r="J11" s="307"/>
+      <c r="K11" s="316"/>
+      <c r="L11" s="316"/>
+      <c r="M11" s="316"/>
+      <c r="N11" s="316"/>
+      <c r="O11" s="316"/>
+      <c r="P11" s="317"/>
+      <c r="Q11" s="310"/>
+      <c r="R11" s="311"/>
+      <c r="S11" s="326"/>
+      <c r="T11" s="327"/>
+      <c r="U11" s="328"/>
+      <c r="V11" s="307"/>
+      <c r="W11" s="308"/>
+      <c r="X11" s="308"/>
+      <c r="Y11" s="308"/>
+      <c r="Z11" s="308"/>
+      <c r="AA11" s="308"/>
+      <c r="AB11" s="318"/>
+      <c r="AC11" s="358"/>
+      <c r="AD11" s="315"/>
+      <c r="AE11" s="316"/>
+      <c r="AF11" s="316"/>
+      <c r="AG11" s="317"/>
+      <c r="AH11" s="305"/>
+      <c r="AI11" s="306"/>
       <c r="AM11" s="94"/>
       <c r="AN11" s="94"/>
       <c r="AO11" s="94"/>
@@ -12258,40 +12267,40 @@
       <c r="A12" s="140">
         <v>4</v>
       </c>
-      <c r="B12" s="327"/>
-      <c r="C12" s="328"/>
-      <c r="D12" s="328"/>
-      <c r="E12" s="328"/>
-      <c r="F12" s="329"/>
-      <c r="G12" s="344"/>
-      <c r="H12" s="345"/>
-      <c r="I12" s="346"/>
-      <c r="J12" s="327"/>
-      <c r="K12" s="334"/>
-      <c r="L12" s="334"/>
-      <c r="M12" s="334"/>
-      <c r="N12" s="334"/>
-      <c r="O12" s="334"/>
-      <c r="P12" s="335"/>
-      <c r="Q12" s="342"/>
-      <c r="R12" s="343"/>
-      <c r="S12" s="347"/>
-      <c r="T12" s="348"/>
-      <c r="U12" s="349"/>
-      <c r="V12" s="327"/>
-      <c r="W12" s="328"/>
-      <c r="X12" s="328"/>
-      <c r="Y12" s="328"/>
-      <c r="Z12" s="328"/>
-      <c r="AA12" s="328"/>
-      <c r="AB12" s="331"/>
-      <c r="AC12" s="337"/>
-      <c r="AD12" s="364"/>
-      <c r="AE12" s="334"/>
-      <c r="AF12" s="334"/>
-      <c r="AG12" s="335"/>
-      <c r="AH12" s="322"/>
-      <c r="AI12" s="323"/>
+      <c r="B12" s="307"/>
+      <c r="C12" s="308"/>
+      <c r="D12" s="308"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="309"/>
+      <c r="G12" s="331"/>
+      <c r="H12" s="332"/>
+      <c r="I12" s="333"/>
+      <c r="J12" s="307"/>
+      <c r="K12" s="316"/>
+      <c r="L12" s="316"/>
+      <c r="M12" s="316"/>
+      <c r="N12" s="316"/>
+      <c r="O12" s="316"/>
+      <c r="P12" s="317"/>
+      <c r="Q12" s="310"/>
+      <c r="R12" s="311"/>
+      <c r="S12" s="326"/>
+      <c r="T12" s="327"/>
+      <c r="U12" s="328"/>
+      <c r="V12" s="307"/>
+      <c r="W12" s="308"/>
+      <c r="X12" s="308"/>
+      <c r="Y12" s="308"/>
+      <c r="Z12" s="308"/>
+      <c r="AA12" s="308"/>
+      <c r="AB12" s="318"/>
+      <c r="AC12" s="358"/>
+      <c r="AD12" s="315"/>
+      <c r="AE12" s="316"/>
+      <c r="AF12" s="316"/>
+      <c r="AG12" s="317"/>
+      <c r="AH12" s="305"/>
+      <c r="AI12" s="306"/>
       <c r="AM12" s="94"/>
       <c r="AN12" s="94"/>
       <c r="AO12" s="94"/>
@@ -12302,40 +12311,40 @@
       <c r="A13" s="140">
         <v>5</v>
       </c>
-      <c r="B13" s="339"/>
-      <c r="C13" s="340"/>
-      <c r="D13" s="340"/>
-      <c r="E13" s="340"/>
-      <c r="F13" s="341"/>
-      <c r="G13" s="327"/>
-      <c r="H13" s="328"/>
-      <c r="I13" s="329"/>
-      <c r="J13" s="327"/>
-      <c r="K13" s="328"/>
-      <c r="L13" s="328"/>
-      <c r="M13" s="328"/>
-      <c r="N13" s="328"/>
-      <c r="O13" s="328"/>
-      <c r="P13" s="329"/>
-      <c r="Q13" s="342"/>
-      <c r="R13" s="343"/>
-      <c r="S13" s="327"/>
-      <c r="T13" s="328"/>
-      <c r="U13" s="329"/>
-      <c r="V13" s="327"/>
-      <c r="W13" s="328"/>
-      <c r="X13" s="328"/>
-      <c r="Y13" s="328"/>
-      <c r="Z13" s="328"/>
-      <c r="AA13" s="328"/>
-      <c r="AB13" s="331"/>
-      <c r="AC13" s="337"/>
-      <c r="AD13" s="364"/>
-      <c r="AE13" s="334"/>
-      <c r="AF13" s="334"/>
-      <c r="AG13" s="335"/>
-      <c r="AH13" s="322"/>
-      <c r="AI13" s="323"/>
+      <c r="B13" s="343"/>
+      <c r="C13" s="344"/>
+      <c r="D13" s="344"/>
+      <c r="E13" s="344"/>
+      <c r="F13" s="345"/>
+      <c r="G13" s="307"/>
+      <c r="H13" s="308"/>
+      <c r="I13" s="309"/>
+      <c r="J13" s="307"/>
+      <c r="K13" s="308"/>
+      <c r="L13" s="308"/>
+      <c r="M13" s="308"/>
+      <c r="N13" s="308"/>
+      <c r="O13" s="308"/>
+      <c r="P13" s="309"/>
+      <c r="Q13" s="310"/>
+      <c r="R13" s="311"/>
+      <c r="S13" s="307"/>
+      <c r="T13" s="308"/>
+      <c r="U13" s="309"/>
+      <c r="V13" s="307"/>
+      <c r="W13" s="308"/>
+      <c r="X13" s="308"/>
+      <c r="Y13" s="308"/>
+      <c r="Z13" s="308"/>
+      <c r="AA13" s="308"/>
+      <c r="AB13" s="318"/>
+      <c r="AC13" s="358"/>
+      <c r="AD13" s="315"/>
+      <c r="AE13" s="316"/>
+      <c r="AF13" s="316"/>
+      <c r="AG13" s="317"/>
+      <c r="AH13" s="305"/>
+      <c r="AI13" s="306"/>
       <c r="AM13" s="142"/>
       <c r="AN13" s="142"/>
       <c r="AO13" s="142"/>
@@ -12346,165 +12355,165 @@
       <c r="A14" s="140">
         <v>6</v>
       </c>
-      <c r="B14" s="339"/>
-      <c r="C14" s="340"/>
-      <c r="D14" s="340"/>
-      <c r="E14" s="340"/>
-      <c r="F14" s="341"/>
-      <c r="G14" s="327"/>
-      <c r="H14" s="328"/>
-      <c r="I14" s="329"/>
-      <c r="J14" s="327"/>
-      <c r="K14" s="328"/>
-      <c r="L14" s="328"/>
-      <c r="M14" s="328"/>
-      <c r="N14" s="328"/>
-      <c r="O14" s="328"/>
-      <c r="P14" s="329"/>
-      <c r="Q14" s="342"/>
-      <c r="R14" s="343"/>
-      <c r="S14" s="327"/>
-      <c r="T14" s="328"/>
-      <c r="U14" s="329"/>
-      <c r="V14" s="327"/>
-      <c r="W14" s="328"/>
-      <c r="X14" s="328"/>
-      <c r="Y14" s="328"/>
-      <c r="Z14" s="328"/>
-      <c r="AA14" s="328"/>
-      <c r="AB14" s="331"/>
-      <c r="AC14" s="337"/>
-      <c r="AD14" s="364"/>
-      <c r="AE14" s="334"/>
-      <c r="AF14" s="334"/>
-      <c r="AG14" s="335"/>
-      <c r="AH14" s="322"/>
-      <c r="AI14" s="323"/>
+      <c r="B14" s="343"/>
+      <c r="C14" s="344"/>
+      <c r="D14" s="344"/>
+      <c r="E14" s="344"/>
+      <c r="F14" s="345"/>
+      <c r="G14" s="307"/>
+      <c r="H14" s="308"/>
+      <c r="I14" s="309"/>
+      <c r="J14" s="307"/>
+      <c r="K14" s="308"/>
+      <c r="L14" s="308"/>
+      <c r="M14" s="308"/>
+      <c r="N14" s="308"/>
+      <c r="O14" s="308"/>
+      <c r="P14" s="309"/>
+      <c r="Q14" s="310"/>
+      <c r="R14" s="311"/>
+      <c r="S14" s="307"/>
+      <c r="T14" s="308"/>
+      <c r="U14" s="309"/>
+      <c r="V14" s="307"/>
+      <c r="W14" s="308"/>
+      <c r="X14" s="308"/>
+      <c r="Y14" s="308"/>
+      <c r="Z14" s="308"/>
+      <c r="AA14" s="308"/>
+      <c r="AB14" s="318"/>
+      <c r="AC14" s="358"/>
+      <c r="AD14" s="315"/>
+      <c r="AE14" s="316"/>
+      <c r="AF14" s="316"/>
+      <c r="AG14" s="317"/>
+      <c r="AH14" s="305"/>
+      <c r="AI14" s="306"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="143">
         <v>7</v>
       </c>
-      <c r="B15" s="339"/>
-      <c r="C15" s="340"/>
-      <c r="D15" s="340"/>
-      <c r="E15" s="340"/>
-      <c r="F15" s="341"/>
-      <c r="G15" s="327"/>
-      <c r="H15" s="328"/>
-      <c r="I15" s="329"/>
-      <c r="J15" s="327"/>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
-      <c r="M15" s="328"/>
-      <c r="N15" s="328"/>
-      <c r="O15" s="328"/>
-      <c r="P15" s="329"/>
-      <c r="Q15" s="342"/>
-      <c r="R15" s="343"/>
-      <c r="S15" s="327"/>
-      <c r="T15" s="328"/>
-      <c r="U15" s="329"/>
-      <c r="V15" s="327"/>
-      <c r="W15" s="328"/>
-      <c r="X15" s="328"/>
-      <c r="Y15" s="328"/>
-      <c r="Z15" s="328"/>
-      <c r="AA15" s="328"/>
-      <c r="AB15" s="331"/>
-      <c r="AC15" s="337"/>
-      <c r="AD15" s="364"/>
-      <c r="AE15" s="334"/>
-      <c r="AF15" s="334"/>
-      <c r="AG15" s="335"/>
-      <c r="AH15" s="322"/>
-      <c r="AI15" s="323"/>
+      <c r="B15" s="343"/>
+      <c r="C15" s="344"/>
+      <c r="D15" s="344"/>
+      <c r="E15" s="344"/>
+      <c r="F15" s="345"/>
+      <c r="G15" s="307"/>
+      <c r="H15" s="308"/>
+      <c r="I15" s="309"/>
+      <c r="J15" s="307"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
+      <c r="M15" s="308"/>
+      <c r="N15" s="308"/>
+      <c r="O15" s="308"/>
+      <c r="P15" s="309"/>
+      <c r="Q15" s="310"/>
+      <c r="R15" s="311"/>
+      <c r="S15" s="307"/>
+      <c r="T15" s="308"/>
+      <c r="U15" s="309"/>
+      <c r="V15" s="307"/>
+      <c r="W15" s="308"/>
+      <c r="X15" s="308"/>
+      <c r="Y15" s="308"/>
+      <c r="Z15" s="308"/>
+      <c r="AA15" s="308"/>
+      <c r="AB15" s="318"/>
+      <c r="AC15" s="358"/>
+      <c r="AD15" s="315"/>
+      <c r="AE15" s="316"/>
+      <c r="AF15" s="316"/>
+      <c r="AG15" s="317"/>
+      <c r="AH15" s="305"/>
+      <c r="AI15" s="306"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="143">
         <v>8</v>
       </c>
-      <c r="B16" s="339"/>
-      <c r="C16" s="340"/>
-      <c r="D16" s="340"/>
-      <c r="E16" s="340"/>
-      <c r="F16" s="341"/>
-      <c r="G16" s="327"/>
-      <c r="H16" s="328"/>
-      <c r="I16" s="329"/>
-      <c r="J16" s="327"/>
-      <c r="K16" s="328"/>
-      <c r="L16" s="328"/>
-      <c r="M16" s="328"/>
-      <c r="N16" s="328"/>
-      <c r="O16" s="328"/>
-      <c r="P16" s="329"/>
-      <c r="Q16" s="342"/>
-      <c r="R16" s="343"/>
-      <c r="S16" s="327"/>
-      <c r="T16" s="328"/>
-      <c r="U16" s="329"/>
-      <c r="V16" s="327"/>
-      <c r="W16" s="328"/>
-      <c r="X16" s="328"/>
-      <c r="Y16" s="328"/>
-      <c r="Z16" s="328"/>
-      <c r="AA16" s="328"/>
-      <c r="AB16" s="331"/>
-      <c r="AC16" s="337"/>
-      <c r="AD16" s="364"/>
-      <c r="AE16" s="334"/>
-      <c r="AF16" s="334"/>
-      <c r="AG16" s="335"/>
-      <c r="AH16" s="322"/>
-      <c r="AI16" s="323"/>
+      <c r="B16" s="343"/>
+      <c r="C16" s="344"/>
+      <c r="D16" s="344"/>
+      <c r="E16" s="344"/>
+      <c r="F16" s="345"/>
+      <c r="G16" s="307"/>
+      <c r="H16" s="308"/>
+      <c r="I16" s="309"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
+      <c r="M16" s="308"/>
+      <c r="N16" s="308"/>
+      <c r="O16" s="308"/>
+      <c r="P16" s="309"/>
+      <c r="Q16" s="310"/>
+      <c r="R16" s="311"/>
+      <c r="S16" s="307"/>
+      <c r="T16" s="308"/>
+      <c r="U16" s="309"/>
+      <c r="V16" s="307"/>
+      <c r="W16" s="308"/>
+      <c r="X16" s="308"/>
+      <c r="Y16" s="308"/>
+      <c r="Z16" s="308"/>
+      <c r="AA16" s="308"/>
+      <c r="AB16" s="318"/>
+      <c r="AC16" s="358"/>
+      <c r="AD16" s="315"/>
+      <c r="AE16" s="316"/>
+      <c r="AF16" s="316"/>
+      <c r="AG16" s="317"/>
+      <c r="AH16" s="305"/>
+      <c r="AI16" s="306"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17" s="144">
         <v>9</v>
       </c>
-      <c r="B17" s="361"/>
-      <c r="C17" s="362"/>
-      <c r="D17" s="362"/>
-      <c r="E17" s="362"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="353"/>
-      <c r="H17" s="354"/>
-      <c r="I17" s="358"/>
-      <c r="J17" s="353"/>
-      <c r="K17" s="354"/>
-      <c r="L17" s="354"/>
-      <c r="M17" s="354"/>
-      <c r="N17" s="354"/>
-      <c r="O17" s="354"/>
-      <c r="P17" s="358"/>
-      <c r="Q17" s="359"/>
-      <c r="R17" s="360"/>
-      <c r="S17" s="353"/>
-      <c r="T17" s="354"/>
-      <c r="U17" s="358"/>
-      <c r="V17" s="353"/>
-      <c r="W17" s="354"/>
-      <c r="X17" s="354"/>
-      <c r="Y17" s="354"/>
-      <c r="Z17" s="354"/>
-      <c r="AA17" s="354"/>
-      <c r="AB17" s="355"/>
-      <c r="AC17" s="338"/>
-      <c r="AD17" s="365"/>
-      <c r="AE17" s="366"/>
-      <c r="AF17" s="366"/>
-      <c r="AG17" s="367"/>
-      <c r="AH17" s="368"/>
-      <c r="AI17" s="369"/>
+      <c r="B17" s="346"/>
+      <c r="C17" s="347"/>
+      <c r="D17" s="347"/>
+      <c r="E17" s="347"/>
+      <c r="F17" s="348"/>
+      <c r="G17" s="335"/>
+      <c r="H17" s="336"/>
+      <c r="I17" s="340"/>
+      <c r="J17" s="335"/>
+      <c r="K17" s="336"/>
+      <c r="L17" s="336"/>
+      <c r="M17" s="336"/>
+      <c r="N17" s="336"/>
+      <c r="O17" s="336"/>
+      <c r="P17" s="340"/>
+      <c r="Q17" s="341"/>
+      <c r="R17" s="342"/>
+      <c r="S17" s="335"/>
+      <c r="T17" s="336"/>
+      <c r="U17" s="340"/>
+      <c r="V17" s="335"/>
+      <c r="W17" s="336"/>
+      <c r="X17" s="336"/>
+      <c r="Y17" s="336"/>
+      <c r="Z17" s="336"/>
+      <c r="AA17" s="336"/>
+      <c r="AB17" s="337"/>
+      <c r="AC17" s="359"/>
+      <c r="AD17" s="349"/>
+      <c r="AE17" s="350"/>
+      <c r="AF17" s="350"/>
+      <c r="AG17" s="351"/>
+      <c r="AH17" s="352"/>
+      <c r="AI17" s="353"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="356"/>
-      <c r="B18" s="357"/>
-      <c r="C18" s="357"/>
-      <c r="D18" s="357"/>
-      <c r="E18" s="357"/>
-      <c r="F18" s="357"/>
+      <c r="A18" s="338"/>
+      <c r="B18" s="339"/>
+      <c r="C18" s="339"/>
+      <c r="D18" s="339"/>
+      <c r="E18" s="339"/>
+      <c r="F18" s="339"/>
       <c r="G18" s="145"/>
       <c r="H18" s="145"/>
       <c r="I18" s="145"/>
@@ -12528,23 +12537,23 @@
       <c r="AA18" s="145"/>
       <c r="AB18" s="145"/>
       <c r="AC18" s="82"/>
-      <c r="AD18" s="352"/>
-      <c r="AE18" s="352"/>
-      <c r="AF18" s="352"/>
-      <c r="AG18" s="352"/>
-      <c r="AH18" s="352"/>
+      <c r="AD18" s="334"/>
+      <c r="AE18" s="334"/>
+      <c r="AF18" s="334"/>
+      <c r="AG18" s="334"/>
+      <c r="AH18" s="334"/>
       <c r="AI18" s="83"/>
       <c r="AJ18" s="141"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="350" t="s">
+      <c r="A19" s="329" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="351"/>
-      <c r="C19" s="351"/>
-      <c r="D19" s="351"/>
-      <c r="E19" s="351"/>
-      <c r="F19" s="351"/>
+      <c r="B19" s="330"/>
+      <c r="C19" s="330"/>
+      <c r="D19" s="330"/>
+      <c r="E19" s="330"/>
+      <c r="F19" s="330"/>
       <c r="G19" s="146"/>
       <c r="H19" s="145"/>
       <c r="I19" s="145"/>
@@ -13028,6 +13037,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="AC9:AC17"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
     <mergeCell ref="AH13:AI13"/>
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="G15:I15"/>
@@ -13052,85 +13140,6 @@
     <mergeCell ref="S9:U9"/>
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AC9:AC17"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="AC7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -13173,12 +13182,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:121" s="45" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="239"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="244"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -13192,49 +13201,49 @@
       <c r="L1" s="241"/>
       <c r="M1" s="241"/>
       <c r="N1" s="242"/>
-      <c r="O1" s="243" t="s">
+      <c r="O1" s="249" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="255" t="str">
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="237" t="s">
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="243" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="239"/>
-      <c r="AC1" s="252" t="str">
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="253"/>
-      <c r="AE1" s="253"/>
-      <c r="AF1" s="254"/>
-      <c r="AG1" s="396">
+      <c r="AD1" s="246"/>
+      <c r="AE1" s="246"/>
+      <c r="AF1" s="247"/>
+      <c r="AG1" s="380">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="397"/>
-      <c r="AI1" s="398"/>
+      <c r="AH1" s="381"/>
+      <c r="AI1" s="382"/>
     </row>
     <row r="2" spans="1:121" s="45" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="243" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="239"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="244"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -13248,43 +13257,43 @@
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
       <c r="N2" s="242"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="248"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="237" t="s">
+      <c r="O2" s="252"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="254"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="239"/>
-      <c r="AC2" s="252" t="str">
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="253"/>
-      <c r="AE2" s="253"/>
-      <c r="AF2" s="254"/>
-      <c r="AG2" s="396" t="str">
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="380" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="397"/>
-      <c r="AI2" s="398"/>
+      <c r="AH2" s="381"/>
+      <c r="AI2" s="382"/>
     </row>
     <row r="3" spans="1:121" s="45" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="243" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="239"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="244"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -13298,33 +13307,33 @@
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="242"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="237"/>
-      <c r="AB3" s="239"/>
-      <c r="AC3" s="252" t="str">
+      <c r="O3" s="255"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="253"/>
-      <c r="AE3" s="253"/>
-      <c r="AF3" s="254"/>
-      <c r="AG3" s="396" t="str">
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="246"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="380" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="397"/>
-      <c r="AI3" s="398"/>
+      <c r="AH3" s="381"/>
+      <c r="AI3" s="382"/>
     </row>
     <row r="4" spans="1:121" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:121" ht="12" x14ac:dyDescent="0.2">
@@ -13345,69 +13354,69 @@
       <c r="A7" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="388" t="s">
+      <c r="B7" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="389"/>
-      <c r="D7" s="389"/>
-      <c r="E7" s="389"/>
-      <c r="F7" s="390"/>
-      <c r="G7" s="388" t="s">
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="379"/>
+      <c r="G7" s="377" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="389"/>
-      <c r="I7" s="389"/>
-      <c r="J7" s="389"/>
-      <c r="K7" s="390"/>
-      <c r="L7" s="388" t="s">
+      <c r="H7" s="378"/>
+      <c r="I7" s="378"/>
+      <c r="J7" s="378"/>
+      <c r="K7" s="379"/>
+      <c r="L7" s="377" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="389"/>
-      <c r="N7" s="389"/>
-      <c r="O7" s="389"/>
-      <c r="P7" s="390"/>
+      <c r="M7" s="378"/>
+      <c r="N7" s="378"/>
+      <c r="O7" s="378"/>
+      <c r="P7" s="379"/>
       <c r="Q7" s="161" t="s">
         <v>165</v>
       </c>
-      <c r="R7" s="391" t="s">
+      <c r="R7" s="392" t="s">
         <v>98</v>
       </c>
-      <c r="S7" s="391"/>
-      <c r="T7" s="391"/>
-      <c r="U7" s="391"/>
-      <c r="V7" s="399" t="s">
+      <c r="S7" s="392"/>
+      <c r="T7" s="392"/>
+      <c r="U7" s="392"/>
+      <c r="V7" s="383" t="s">
         <v>99</v>
       </c>
-      <c r="W7" s="399"/>
-      <c r="X7" s="400" t="s">
+      <c r="W7" s="383"/>
+      <c r="X7" s="384" t="s">
         <v>100</v>
       </c>
-      <c r="Y7" s="401"/>
-      <c r="Z7" s="388" t="s">
+      <c r="Y7" s="385"/>
+      <c r="Z7" s="377" t="s">
         <v>101</v>
       </c>
-      <c r="AA7" s="390"/>
-      <c r="AB7" s="388" t="s">
+      <c r="AA7" s="379"/>
+      <c r="AB7" s="377" t="s">
         <v>102</v>
       </c>
-      <c r="AC7" s="390"/>
-      <c r="AD7" s="388" t="s">
+      <c r="AC7" s="379"/>
+      <c r="AD7" s="377" t="s">
         <v>103</v>
       </c>
-      <c r="AE7" s="390"/>
-      <c r="AF7" s="388" t="s">
+      <c r="AE7" s="379"/>
+      <c r="AF7" s="377" t="s">
         <v>104</v>
       </c>
-      <c r="AG7" s="389"/>
-      <c r="AH7" s="390"/>
-      <c r="AI7" s="388" t="s">
+      <c r="AG7" s="378"/>
+      <c r="AH7" s="379"/>
+      <c r="AI7" s="377" t="s">
         <v>105</v>
       </c>
-      <c r="AJ7" s="389"/>
-      <c r="AK7" s="389"/>
-      <c r="AL7" s="389"/>
-      <c r="AM7" s="389"/>
-      <c r="AN7" s="390"/>
+      <c r="AJ7" s="378"/>
+      <c r="AK7" s="378"/>
+      <c r="AL7" s="378"/>
+      <c r="AM7" s="378"/>
+      <c r="AN7" s="379"/>
       <c r="BN7" s="163"/>
       <c r="BO7" s="163"/>
       <c r="BP7" s="163"/>
@@ -13469,69 +13478,69 @@
       <c r="A8" s="165">
         <v>1</v>
       </c>
-      <c r="B8" s="378" t="s">
+      <c r="B8" s="389" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="379"/>
-      <c r="D8" s="379"/>
-      <c r="E8" s="379"/>
-      <c r="F8" s="380"/>
-      <c r="G8" s="377" t="s">
+      <c r="C8" s="390"/>
+      <c r="D8" s="390"/>
+      <c r="E8" s="390"/>
+      <c r="F8" s="391"/>
+      <c r="G8" s="388" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="309"/>
-      <c r="I8" s="309"/>
-      <c r="J8" s="309"/>
-      <c r="K8" s="310"/>
-      <c r="L8" s="377" t="s">
+      <c r="H8" s="364"/>
+      <c r="I8" s="364"/>
+      <c r="J8" s="364"/>
+      <c r="K8" s="365"/>
+      <c r="L8" s="388" t="s">
         <v>108</v>
       </c>
-      <c r="M8" s="309"/>
-      <c r="N8" s="309"/>
-      <c r="O8" s="309"/>
-      <c r="P8" s="310"/>
+      <c r="M8" s="364"/>
+      <c r="N8" s="364"/>
+      <c r="O8" s="364"/>
+      <c r="P8" s="365"/>
       <c r="Q8" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R8" s="377" t="s">
+      <c r="R8" s="388" t="s">
         <v>109</v>
       </c>
-      <c r="S8" s="309"/>
-      <c r="T8" s="309"/>
-      <c r="U8" s="310"/>
-      <c r="V8" s="381">
+      <c r="S8" s="364"/>
+      <c r="T8" s="364"/>
+      <c r="U8" s="365"/>
+      <c r="V8" s="400">
         <v>10</v>
       </c>
-      <c r="W8" s="382"/>
-      <c r="X8" s="383" t="s">
+      <c r="W8" s="401"/>
+      <c r="X8" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="384"/>
-      <c r="Z8" s="377" t="s">
+      <c r="Y8" s="387"/>
+      <c r="Z8" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA8" s="310"/>
-      <c r="AB8" s="377" t="s">
+      <c r="AA8" s="365"/>
+      <c r="AB8" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC8" s="310"/>
-      <c r="AD8" s="383" t="s">
+      <c r="AC8" s="365"/>
+      <c r="AD8" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE8" s="384"/>
-      <c r="AF8" s="377" t="s">
+      <c r="AE8" s="387"/>
+      <c r="AF8" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG8" s="309"/>
-      <c r="AH8" s="310"/>
-      <c r="AI8" s="378" t="s">
+      <c r="AG8" s="364"/>
+      <c r="AH8" s="365"/>
+      <c r="AI8" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ8" s="379"/>
-      <c r="AK8" s="379"/>
-      <c r="AL8" s="379"/>
-      <c r="AM8" s="379"/>
-      <c r="AN8" s="380"/>
+      <c r="AJ8" s="390"/>
+      <c r="AK8" s="390"/>
+      <c r="AL8" s="390"/>
+      <c r="AM8" s="390"/>
+      <c r="AN8" s="391"/>
       <c r="AS8" s="167"/>
       <c r="AT8" s="167"/>
       <c r="AU8" s="168"/>
@@ -13597,70 +13606,70 @@
       <c r="A9" s="165">
         <v>2</v>
       </c>
-      <c r="B9" s="378" t="s">
+      <c r="B9" s="389" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="379"/>
-      <c r="D9" s="379"/>
-      <c r="E9" s="379"/>
-      <c r="F9" s="380"/>
-      <c r="G9" s="377" t="s">
+      <c r="C9" s="390"/>
+      <c r="D9" s="390"/>
+      <c r="E9" s="390"/>
+      <c r="F9" s="391"/>
+      <c r="G9" s="388" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="309"/>
-      <c r="I9" s="309"/>
-      <c r="J9" s="309"/>
-      <c r="K9" s="310"/>
-      <c r="L9" s="377" t="s">
+      <c r="H9" s="364"/>
+      <c r="I9" s="364"/>
+      <c r="J9" s="364"/>
+      <c r="K9" s="365"/>
+      <c r="L9" s="388" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="309"/>
-      <c r="N9" s="309"/>
-      <c r="O9" s="309"/>
-      <c r="P9" s="310"/>
+      <c r="M9" s="364"/>
+      <c r="N9" s="364"/>
+      <c r="O9" s="364"/>
+      <c r="P9" s="365"/>
       <c r="Q9" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R9" s="377" t="s">
+      <c r="R9" s="388" t="s">
         <v>112</v>
       </c>
-      <c r="S9" s="309"/>
-      <c r="T9" s="309"/>
-      <c r="U9" s="310"/>
-      <c r="V9" s="381">
+      <c r="S9" s="364"/>
+      <c r="T9" s="364"/>
+      <c r="U9" s="365"/>
+      <c r="V9" s="400">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W9" s="382"/>
-      <c r="X9" s="383" t="s">
+      <c r="W9" s="401"/>
+      <c r="X9" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="384"/>
-      <c r="Z9" s="377" t="s">
+      <c r="Y9" s="387"/>
+      <c r="Z9" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA9" s="310"/>
-      <c r="AB9" s="377" t="s">
+      <c r="AA9" s="365"/>
+      <c r="AB9" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC9" s="310"/>
-      <c r="AD9" s="383" t="s">
+      <c r="AC9" s="365"/>
+      <c r="AD9" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE9" s="384"/>
-      <c r="AF9" s="377" t="s">
+      <c r="AE9" s="387"/>
+      <c r="AF9" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG9" s="309"/>
-      <c r="AH9" s="310"/>
-      <c r="AI9" s="378" t="s">
+      <c r="AG9" s="364"/>
+      <c r="AH9" s="365"/>
+      <c r="AI9" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ9" s="379"/>
-      <c r="AK9" s="379"/>
-      <c r="AL9" s="379"/>
-      <c r="AM9" s="379"/>
-      <c r="AN9" s="380"/>
+      <c r="AJ9" s="390"/>
+      <c r="AK9" s="390"/>
+      <c r="AL9" s="390"/>
+      <c r="AM9" s="390"/>
+      <c r="AN9" s="391"/>
       <c r="AS9" s="167"/>
       <c r="AT9" s="167"/>
       <c r="AU9" s="168"/>
@@ -13726,70 +13735,70 @@
       <c r="A10" s="165">
         <v>3</v>
       </c>
-      <c r="B10" s="378" t="s">
+      <c r="B10" s="389" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="379"/>
-      <c r="D10" s="379"/>
-      <c r="E10" s="379"/>
-      <c r="F10" s="380"/>
-      <c r="G10" s="377" t="s">
+      <c r="C10" s="390"/>
+      <c r="D10" s="390"/>
+      <c r="E10" s="390"/>
+      <c r="F10" s="391"/>
+      <c r="G10" s="388" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="309"/>
-      <c r="I10" s="309"/>
-      <c r="J10" s="309"/>
-      <c r="K10" s="310"/>
-      <c r="L10" s="377" t="s">
+      <c r="H10" s="364"/>
+      <c r="I10" s="364"/>
+      <c r="J10" s="364"/>
+      <c r="K10" s="365"/>
+      <c r="L10" s="388" t="s">
         <v>113</v>
       </c>
-      <c r="M10" s="309"/>
-      <c r="N10" s="309"/>
-      <c r="O10" s="309"/>
-      <c r="P10" s="310"/>
+      <c r="M10" s="364"/>
+      <c r="N10" s="364"/>
+      <c r="O10" s="364"/>
+      <c r="P10" s="365"/>
       <c r="Q10" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R10" s="377" t="s">
+      <c r="R10" s="388" t="s">
         <v>112</v>
       </c>
-      <c r="S10" s="309"/>
-      <c r="T10" s="309"/>
-      <c r="U10" s="310"/>
-      <c r="V10" s="381">
+      <c r="S10" s="364"/>
+      <c r="T10" s="364"/>
+      <c r="U10" s="365"/>
+      <c r="V10" s="400">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W10" s="382"/>
-      <c r="X10" s="383" t="s">
+      <c r="W10" s="401"/>
+      <c r="X10" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y10" s="384"/>
-      <c r="Z10" s="377" t="s">
+      <c r="Y10" s="387"/>
+      <c r="Z10" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA10" s="310"/>
-      <c r="AB10" s="377" t="s">
+      <c r="AA10" s="365"/>
+      <c r="AB10" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC10" s="310"/>
-      <c r="AD10" s="383" t="s">
+      <c r="AC10" s="365"/>
+      <c r="AD10" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE10" s="384"/>
-      <c r="AF10" s="377" t="s">
+      <c r="AE10" s="387"/>
+      <c r="AF10" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG10" s="309"/>
-      <c r="AH10" s="310"/>
-      <c r="AI10" s="378" t="s">
+      <c r="AG10" s="364"/>
+      <c r="AH10" s="365"/>
+      <c r="AI10" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ10" s="379"/>
-      <c r="AK10" s="379"/>
-      <c r="AL10" s="379"/>
-      <c r="AM10" s="379"/>
-      <c r="AN10" s="380"/>
+      <c r="AJ10" s="390"/>
+      <c r="AK10" s="390"/>
+      <c r="AL10" s="390"/>
+      <c r="AM10" s="390"/>
+      <c r="AN10" s="391"/>
       <c r="AS10" s="167"/>
       <c r="AT10" s="167"/>
       <c r="AU10" s="168"/>
@@ -13855,70 +13864,70 @@
       <c r="A11" s="165">
         <v>4</v>
       </c>
-      <c r="B11" s="378" t="s">
+      <c r="B11" s="389" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="379"/>
-      <c r="D11" s="379"/>
-      <c r="E11" s="379"/>
-      <c r="F11" s="380"/>
-      <c r="G11" s="377" t="s">
+      <c r="C11" s="390"/>
+      <c r="D11" s="390"/>
+      <c r="E11" s="390"/>
+      <c r="F11" s="391"/>
+      <c r="G11" s="388" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="309"/>
-      <c r="I11" s="309"/>
-      <c r="J11" s="309"/>
-      <c r="K11" s="310"/>
-      <c r="L11" s="377" t="s">
+      <c r="H11" s="364"/>
+      <c r="I11" s="364"/>
+      <c r="J11" s="364"/>
+      <c r="K11" s="365"/>
+      <c r="L11" s="388" t="s">
         <v>115</v>
       </c>
-      <c r="M11" s="309"/>
-      <c r="N11" s="309"/>
-      <c r="O11" s="309"/>
-      <c r="P11" s="310"/>
+      <c r="M11" s="364"/>
+      <c r="N11" s="364"/>
+      <c r="O11" s="364"/>
+      <c r="P11" s="365"/>
       <c r="Q11" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R11" s="377" t="s">
+      <c r="R11" s="388" t="s">
         <v>112</v>
       </c>
-      <c r="S11" s="309"/>
-      <c r="T11" s="309"/>
-      <c r="U11" s="310"/>
-      <c r="V11" s="381">
+      <c r="S11" s="364"/>
+      <c r="T11" s="364"/>
+      <c r="U11" s="365"/>
+      <c r="V11" s="400">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W11" s="382"/>
-      <c r="X11" s="383" t="s">
+      <c r="W11" s="401"/>
+      <c r="X11" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y11" s="384"/>
-      <c r="Z11" s="377" t="s">
+      <c r="Y11" s="387"/>
+      <c r="Z11" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA11" s="310"/>
-      <c r="AB11" s="377" t="s">
+      <c r="AA11" s="365"/>
+      <c r="AB11" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC11" s="310"/>
-      <c r="AD11" s="383" t="s">
+      <c r="AC11" s="365"/>
+      <c r="AD11" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" s="384"/>
-      <c r="AF11" s="377" t="s">
+      <c r="AE11" s="387"/>
+      <c r="AF11" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG11" s="309"/>
-      <c r="AH11" s="310"/>
-      <c r="AI11" s="378" t="s">
+      <c r="AG11" s="364"/>
+      <c r="AH11" s="365"/>
+      <c r="AI11" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ11" s="379"/>
-      <c r="AK11" s="379"/>
-      <c r="AL11" s="379"/>
-      <c r="AM11" s="379"/>
-      <c r="AN11" s="380"/>
+      <c r="AJ11" s="390"/>
+      <c r="AK11" s="390"/>
+      <c r="AL11" s="390"/>
+      <c r="AM11" s="390"/>
+      <c r="AN11" s="391"/>
       <c r="AS11" s="167"/>
       <c r="AT11" s="167"/>
       <c r="AU11" s="168"/>
@@ -13984,69 +13993,69 @@
       <c r="A12" s="165">
         <v>5</v>
       </c>
-      <c r="B12" s="378" t="s">
+      <c r="B12" s="389" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="379"/>
-      <c r="D12" s="379"/>
-      <c r="E12" s="379"/>
-      <c r="F12" s="380"/>
-      <c r="G12" s="377" t="s">
+      <c r="C12" s="390"/>
+      <c r="D12" s="390"/>
+      <c r="E12" s="390"/>
+      <c r="F12" s="391"/>
+      <c r="G12" s="388" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="309"/>
-      <c r="I12" s="309"/>
-      <c r="J12" s="309"/>
-      <c r="K12" s="310"/>
-      <c r="L12" s="377" t="s">
+      <c r="H12" s="364"/>
+      <c r="I12" s="364"/>
+      <c r="J12" s="364"/>
+      <c r="K12" s="365"/>
+      <c r="L12" s="388" t="s">
         <v>119</v>
       </c>
-      <c r="M12" s="309"/>
-      <c r="N12" s="309"/>
-      <c r="O12" s="309"/>
-      <c r="P12" s="310"/>
+      <c r="M12" s="364"/>
+      <c r="N12" s="364"/>
+      <c r="O12" s="364"/>
+      <c r="P12" s="365"/>
       <c r="Q12" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R12" s="377" t="s">
+      <c r="R12" s="388" t="s">
         <v>120</v>
       </c>
-      <c r="S12" s="309"/>
-      <c r="T12" s="309"/>
-      <c r="U12" s="310"/>
-      <c r="V12" s="381">
+      <c r="S12" s="364"/>
+      <c r="T12" s="364"/>
+      <c r="U12" s="365"/>
+      <c r="V12" s="400">
         <v>10</v>
       </c>
-      <c r="W12" s="382"/>
-      <c r="X12" s="383" t="s">
+      <c r="W12" s="401"/>
+      <c r="X12" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" s="384"/>
-      <c r="Z12" s="377" t="s">
+      <c r="Y12" s="387"/>
+      <c r="Z12" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA12" s="310"/>
-      <c r="AB12" s="377" t="s">
+      <c r="AA12" s="365"/>
+      <c r="AB12" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC12" s="310"/>
-      <c r="AD12" s="383" t="s">
+      <c r="AC12" s="365"/>
+      <c r="AD12" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE12" s="384"/>
-      <c r="AF12" s="377" t="s">
+      <c r="AE12" s="387"/>
+      <c r="AF12" s="388" t="s">
         <v>121</v>
       </c>
-      <c r="AG12" s="309"/>
-      <c r="AH12" s="310"/>
-      <c r="AI12" s="378" t="s">
+      <c r="AG12" s="364"/>
+      <c r="AH12" s="365"/>
+      <c r="AI12" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ12" s="379"/>
-      <c r="AK12" s="379"/>
-      <c r="AL12" s="379"/>
-      <c r="AM12" s="379"/>
-      <c r="AN12" s="380"/>
+      <c r="AJ12" s="390"/>
+      <c r="AK12" s="390"/>
+      <c r="AL12" s="390"/>
+      <c r="AM12" s="390"/>
+      <c r="AN12" s="391"/>
       <c r="AS12" s="167"/>
       <c r="AT12" s="167"/>
       <c r="AU12" s="168"/>
@@ -14112,69 +14121,69 @@
       <c r="A13" s="165">
         <v>6</v>
       </c>
-      <c r="B13" s="378" t="s">
+      <c r="B13" s="389" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="379"/>
-      <c r="D13" s="379"/>
-      <c r="E13" s="379"/>
-      <c r="F13" s="380"/>
-      <c r="G13" s="377" t="s">
+      <c r="C13" s="390"/>
+      <c r="D13" s="390"/>
+      <c r="E13" s="390"/>
+      <c r="F13" s="391"/>
+      <c r="G13" s="388" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="309"/>
-      <c r="I13" s="309"/>
-      <c r="J13" s="309"/>
-      <c r="K13" s="310"/>
-      <c r="L13" s="377" t="s">
+      <c r="H13" s="364"/>
+      <c r="I13" s="364"/>
+      <c r="J13" s="364"/>
+      <c r="K13" s="365"/>
+      <c r="L13" s="388" t="s">
         <v>119</v>
       </c>
-      <c r="M13" s="309"/>
-      <c r="N13" s="309"/>
-      <c r="O13" s="309"/>
-      <c r="P13" s="310"/>
+      <c r="M13" s="364"/>
+      <c r="N13" s="364"/>
+      <c r="O13" s="364"/>
+      <c r="P13" s="365"/>
       <c r="Q13" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R13" s="377" t="s">
+      <c r="R13" s="388" t="s">
         <v>120</v>
       </c>
-      <c r="S13" s="309"/>
-      <c r="T13" s="309"/>
-      <c r="U13" s="310"/>
-      <c r="V13" s="381">
+      <c r="S13" s="364"/>
+      <c r="T13" s="364"/>
+      <c r="U13" s="365"/>
+      <c r="V13" s="400">
         <v>10</v>
       </c>
-      <c r="W13" s="382"/>
-      <c r="X13" s="383" t="s">
+      <c r="W13" s="401"/>
+      <c r="X13" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y13" s="384"/>
-      <c r="Z13" s="377" t="s">
+      <c r="Y13" s="387"/>
+      <c r="Z13" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA13" s="310"/>
-      <c r="AB13" s="377" t="s">
+      <c r="AA13" s="365"/>
+      <c r="AB13" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC13" s="310"/>
-      <c r="AD13" s="383" t="s">
+      <c r="AC13" s="365"/>
+      <c r="AD13" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE13" s="384"/>
-      <c r="AF13" s="377" t="s">
+      <c r="AE13" s="387"/>
+      <c r="AF13" s="388" t="s">
         <v>121</v>
       </c>
-      <c r="AG13" s="309"/>
-      <c r="AH13" s="310"/>
-      <c r="AI13" s="378" t="s">
+      <c r="AG13" s="364"/>
+      <c r="AH13" s="365"/>
+      <c r="AI13" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ13" s="379"/>
-      <c r="AK13" s="379"/>
-      <c r="AL13" s="379"/>
-      <c r="AM13" s="379"/>
-      <c r="AN13" s="380"/>
+      <c r="AJ13" s="390"/>
+      <c r="AK13" s="390"/>
+      <c r="AL13" s="390"/>
+      <c r="AM13" s="390"/>
+      <c r="AN13" s="391"/>
       <c r="AS13" s="167"/>
       <c r="AT13" s="167"/>
       <c r="AU13" s="168"/>
@@ -14240,69 +14249,69 @@
       <c r="A14" s="165">
         <v>7</v>
       </c>
-      <c r="B14" s="378" t="s">
+      <c r="B14" s="389" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="379"/>
-      <c r="D14" s="379"/>
-      <c r="E14" s="379"/>
-      <c r="F14" s="380"/>
-      <c r="G14" s="377" t="s">
+      <c r="C14" s="390"/>
+      <c r="D14" s="390"/>
+      <c r="E14" s="390"/>
+      <c r="F14" s="391"/>
+      <c r="G14" s="388" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="309"/>
-      <c r="I14" s="309"/>
-      <c r="J14" s="309"/>
-      <c r="K14" s="310"/>
-      <c r="L14" s="377" t="s">
+      <c r="H14" s="364"/>
+      <c r="I14" s="364"/>
+      <c r="J14" s="364"/>
+      <c r="K14" s="365"/>
+      <c r="L14" s="388" t="s">
         <v>108</v>
       </c>
-      <c r="M14" s="309"/>
-      <c r="N14" s="309"/>
-      <c r="O14" s="309"/>
-      <c r="P14" s="310"/>
+      <c r="M14" s="364"/>
+      <c r="N14" s="364"/>
+      <c r="O14" s="364"/>
+      <c r="P14" s="365"/>
       <c r="Q14" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R14" s="377" t="s">
+      <c r="R14" s="388" t="s">
         <v>109</v>
       </c>
-      <c r="S14" s="309"/>
-      <c r="T14" s="309"/>
-      <c r="U14" s="310"/>
-      <c r="V14" s="381">
+      <c r="S14" s="364"/>
+      <c r="T14" s="364"/>
+      <c r="U14" s="365"/>
+      <c r="V14" s="400">
         <v>11</v>
       </c>
-      <c r="W14" s="382"/>
-      <c r="X14" s="383" t="s">
+      <c r="W14" s="401"/>
+      <c r="X14" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y14" s="384"/>
-      <c r="Z14" s="377" t="s">
+      <c r="Y14" s="387"/>
+      <c r="Z14" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA14" s="310"/>
-      <c r="AB14" s="377" t="s">
+      <c r="AA14" s="365"/>
+      <c r="AB14" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC14" s="310"/>
-      <c r="AD14" s="383" t="s">
+      <c r="AC14" s="365"/>
+      <c r="AD14" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE14" s="384"/>
-      <c r="AF14" s="377" t="s">
+      <c r="AE14" s="387"/>
+      <c r="AF14" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG14" s="309"/>
-      <c r="AH14" s="310"/>
-      <c r="AI14" s="378" t="s">
+      <c r="AG14" s="364"/>
+      <c r="AH14" s="365"/>
+      <c r="AI14" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ14" s="379"/>
-      <c r="AK14" s="379"/>
-      <c r="AL14" s="379"/>
-      <c r="AM14" s="379"/>
-      <c r="AN14" s="380"/>
+      <c r="AJ14" s="390"/>
+      <c r="AK14" s="390"/>
+      <c r="AL14" s="390"/>
+      <c r="AM14" s="390"/>
+      <c r="AN14" s="391"/>
       <c r="AS14" s="167"/>
       <c r="AT14" s="167"/>
       <c r="AU14" s="168"/>
@@ -14368,69 +14377,69 @@
       <c r="A15" s="165">
         <v>8</v>
       </c>
-      <c r="B15" s="378" t="s">
+      <c r="B15" s="389" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="379"/>
-      <c r="D15" s="379"/>
-      <c r="E15" s="379"/>
-      <c r="F15" s="380"/>
-      <c r="G15" s="377" t="s">
+      <c r="C15" s="390"/>
+      <c r="D15" s="390"/>
+      <c r="E15" s="390"/>
+      <c r="F15" s="391"/>
+      <c r="G15" s="388" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="309"/>
-      <c r="I15" s="309"/>
-      <c r="J15" s="309"/>
-      <c r="K15" s="310"/>
-      <c r="L15" s="377" t="s">
+      <c r="H15" s="364"/>
+      <c r="I15" s="364"/>
+      <c r="J15" s="364"/>
+      <c r="K15" s="365"/>
+      <c r="L15" s="388" t="s">
         <v>108</v>
       </c>
-      <c r="M15" s="309"/>
-      <c r="N15" s="309"/>
-      <c r="O15" s="309"/>
-      <c r="P15" s="310"/>
+      <c r="M15" s="364"/>
+      <c r="N15" s="364"/>
+      <c r="O15" s="364"/>
+      <c r="P15" s="365"/>
       <c r="Q15" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R15" s="377" t="s">
+      <c r="R15" s="388" t="s">
         <v>109</v>
       </c>
-      <c r="S15" s="309"/>
-      <c r="T15" s="309"/>
-      <c r="U15" s="310"/>
-      <c r="V15" s="381">
+      <c r="S15" s="364"/>
+      <c r="T15" s="364"/>
+      <c r="U15" s="365"/>
+      <c r="V15" s="400">
         <v>11</v>
       </c>
-      <c r="W15" s="382"/>
-      <c r="X15" s="383" t="s">
+      <c r="W15" s="401"/>
+      <c r="X15" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y15" s="384"/>
-      <c r="Z15" s="377" t="s">
+      <c r="Y15" s="387"/>
+      <c r="Z15" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA15" s="310"/>
-      <c r="AB15" s="377" t="s">
+      <c r="AA15" s="365"/>
+      <c r="AB15" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC15" s="310"/>
-      <c r="AD15" s="383" t="s">
+      <c r="AC15" s="365"/>
+      <c r="AD15" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE15" s="384"/>
-      <c r="AF15" s="377" t="s">
+      <c r="AE15" s="387"/>
+      <c r="AF15" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG15" s="309"/>
-      <c r="AH15" s="310"/>
-      <c r="AI15" s="378" t="s">
+      <c r="AG15" s="364"/>
+      <c r="AH15" s="365"/>
+      <c r="AI15" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ15" s="379"/>
-      <c r="AK15" s="379"/>
-      <c r="AL15" s="379"/>
-      <c r="AM15" s="379"/>
-      <c r="AN15" s="380"/>
+      <c r="AJ15" s="390"/>
+      <c r="AK15" s="390"/>
+      <c r="AL15" s="390"/>
+      <c r="AM15" s="390"/>
+      <c r="AN15" s="391"/>
       <c r="AS15" s="167"/>
       <c r="AT15" s="167"/>
       <c r="AU15" s="168"/>
@@ -14496,70 +14505,70 @@
       <c r="A16" s="165">
         <v>9</v>
       </c>
-      <c r="B16" s="378" t="s">
+      <c r="B16" s="389" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="379"/>
-      <c r="D16" s="379"/>
-      <c r="E16" s="379"/>
-      <c r="F16" s="380"/>
-      <c r="G16" s="377" t="s">
+      <c r="C16" s="390"/>
+      <c r="D16" s="390"/>
+      <c r="E16" s="390"/>
+      <c r="F16" s="391"/>
+      <c r="G16" s="388" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="309"/>
-      <c r="I16" s="309"/>
-      <c r="J16" s="309"/>
-      <c r="K16" s="310"/>
-      <c r="L16" s="377" t="s">
+      <c r="H16" s="364"/>
+      <c r="I16" s="364"/>
+      <c r="J16" s="364"/>
+      <c r="K16" s="365"/>
+      <c r="L16" s="388" t="s">
         <v>130</v>
       </c>
-      <c r="M16" s="309"/>
-      <c r="N16" s="309"/>
-      <c r="O16" s="309"/>
-      <c r="P16" s="310"/>
+      <c r="M16" s="364"/>
+      <c r="N16" s="364"/>
+      <c r="O16" s="364"/>
+      <c r="P16" s="365"/>
       <c r="Q16" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R16" s="377" t="s">
+      <c r="R16" s="388" t="s">
         <v>112</v>
       </c>
-      <c r="S16" s="309"/>
-      <c r="T16" s="309"/>
-      <c r="U16" s="310"/>
-      <c r="V16" s="381">
+      <c r="S16" s="364"/>
+      <c r="T16" s="364"/>
+      <c r="U16" s="365"/>
+      <c r="V16" s="400">
         <f t="shared" ref="V16:V17" si="0">128*3</f>
         <v>384</v>
       </c>
-      <c r="W16" s="382"/>
-      <c r="X16" s="383" t="s">
+      <c r="W16" s="401"/>
+      <c r="X16" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y16" s="384"/>
-      <c r="Z16" s="377" t="s">
+      <c r="Y16" s="387"/>
+      <c r="Z16" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA16" s="310"/>
-      <c r="AB16" s="377" t="s">
+      <c r="AA16" s="365"/>
+      <c r="AB16" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC16" s="310"/>
-      <c r="AD16" s="383" t="s">
+      <c r="AC16" s="365"/>
+      <c r="AD16" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE16" s="384"/>
-      <c r="AF16" s="377" t="s">
+      <c r="AE16" s="387"/>
+      <c r="AF16" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG16" s="309"/>
-      <c r="AH16" s="310"/>
-      <c r="AI16" s="378" t="s">
+      <c r="AG16" s="364"/>
+      <c r="AH16" s="365"/>
+      <c r="AI16" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ16" s="379"/>
-      <c r="AK16" s="379"/>
-      <c r="AL16" s="379"/>
-      <c r="AM16" s="379"/>
-      <c r="AN16" s="380"/>
+      <c r="AJ16" s="390"/>
+      <c r="AK16" s="390"/>
+      <c r="AL16" s="390"/>
+      <c r="AM16" s="390"/>
+      <c r="AN16" s="391"/>
       <c r="AS16" s="167"/>
       <c r="AT16" s="167"/>
       <c r="AU16" s="168"/>
@@ -14625,70 +14634,70 @@
       <c r="A17" s="165">
         <v>10</v>
       </c>
-      <c r="B17" s="378" t="s">
+      <c r="B17" s="389" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="379"/>
-      <c r="D17" s="379"/>
-      <c r="E17" s="379"/>
-      <c r="F17" s="380"/>
-      <c r="G17" s="377" t="s">
+      <c r="C17" s="390"/>
+      <c r="D17" s="390"/>
+      <c r="E17" s="390"/>
+      <c r="F17" s="391"/>
+      <c r="G17" s="388" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="309"/>
-      <c r="I17" s="309"/>
-      <c r="J17" s="309"/>
-      <c r="K17" s="310"/>
-      <c r="L17" s="377" t="s">
+      <c r="H17" s="364"/>
+      <c r="I17" s="364"/>
+      <c r="J17" s="364"/>
+      <c r="K17" s="365"/>
+      <c r="L17" s="388" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="309"/>
-      <c r="N17" s="309"/>
-      <c r="O17" s="309"/>
-      <c r="P17" s="310"/>
+      <c r="M17" s="364"/>
+      <c r="N17" s="364"/>
+      <c r="O17" s="364"/>
+      <c r="P17" s="365"/>
       <c r="Q17" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R17" s="377" t="s">
+      <c r="R17" s="388" t="s">
         <v>112</v>
       </c>
-      <c r="S17" s="309"/>
-      <c r="T17" s="309"/>
-      <c r="U17" s="310"/>
-      <c r="V17" s="381">
+      <c r="S17" s="364"/>
+      <c r="T17" s="364"/>
+      <c r="U17" s="365"/>
+      <c r="V17" s="400">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
-      <c r="W17" s="382"/>
-      <c r="X17" s="383" t="s">
+      <c r="W17" s="401"/>
+      <c r="X17" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="384"/>
-      <c r="Z17" s="377" t="s">
+      <c r="Y17" s="387"/>
+      <c r="Z17" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA17" s="310"/>
-      <c r="AB17" s="377" t="s">
+      <c r="AA17" s="365"/>
+      <c r="AB17" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC17" s="310"/>
-      <c r="AD17" s="383" t="s">
+      <c r="AC17" s="365"/>
+      <c r="AD17" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE17" s="384"/>
-      <c r="AF17" s="377" t="s">
+      <c r="AE17" s="387"/>
+      <c r="AF17" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG17" s="309"/>
-      <c r="AH17" s="310"/>
-      <c r="AI17" s="378" t="s">
+      <c r="AG17" s="364"/>
+      <c r="AH17" s="365"/>
+      <c r="AI17" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ17" s="379"/>
-      <c r="AK17" s="379"/>
-      <c r="AL17" s="379"/>
-      <c r="AM17" s="379"/>
-      <c r="AN17" s="380"/>
+      <c r="AJ17" s="390"/>
+      <c r="AK17" s="390"/>
+      <c r="AL17" s="390"/>
+      <c r="AM17" s="390"/>
+      <c r="AN17" s="391"/>
       <c r="AS17" s="167"/>
       <c r="AT17" s="167"/>
       <c r="AU17" s="168"/>
@@ -14754,70 +14763,70 @@
       <c r="A18" s="165">
         <v>11</v>
       </c>
-      <c r="B18" s="378" t="s">
+      <c r="B18" s="389" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="379"/>
-      <c r="D18" s="379"/>
-      <c r="E18" s="379"/>
-      <c r="F18" s="380"/>
-      <c r="G18" s="377" t="s">
+      <c r="C18" s="390"/>
+      <c r="D18" s="390"/>
+      <c r="E18" s="390"/>
+      <c r="F18" s="391"/>
+      <c r="G18" s="388" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="309"/>
-      <c r="I18" s="309"/>
-      <c r="J18" s="309"/>
-      <c r="K18" s="310"/>
-      <c r="L18" s="377" t="s">
+      <c r="H18" s="364"/>
+      <c r="I18" s="364"/>
+      <c r="J18" s="364"/>
+      <c r="K18" s="365"/>
+      <c r="L18" s="388" t="s">
         <v>105</v>
       </c>
-      <c r="M18" s="309"/>
-      <c r="N18" s="309"/>
-      <c r="O18" s="309"/>
-      <c r="P18" s="310"/>
+      <c r="M18" s="364"/>
+      <c r="N18" s="364"/>
+      <c r="O18" s="364"/>
+      <c r="P18" s="365"/>
       <c r="Q18" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R18" s="377" t="s">
+      <c r="R18" s="388" t="s">
         <v>112</v>
       </c>
-      <c r="S18" s="309"/>
-      <c r="T18" s="309"/>
-      <c r="U18" s="310"/>
-      <c r="V18" s="381">
+      <c r="S18" s="364"/>
+      <c r="T18" s="364"/>
+      <c r="U18" s="365"/>
+      <c r="V18" s="400">
         <f>512*3</f>
         <v>1536</v>
       </c>
-      <c r="W18" s="382"/>
-      <c r="X18" s="383" t="s">
+      <c r="W18" s="401"/>
+      <c r="X18" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y18" s="384"/>
-      <c r="Z18" s="377" t="s">
+      <c r="Y18" s="387"/>
+      <c r="Z18" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA18" s="310"/>
-      <c r="AB18" s="377" t="s">
+      <c r="AA18" s="365"/>
+      <c r="AB18" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC18" s="310"/>
-      <c r="AD18" s="383" t="s">
+      <c r="AC18" s="365"/>
+      <c r="AD18" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" s="384"/>
-      <c r="AF18" s="377" t="s">
+      <c r="AE18" s="387"/>
+      <c r="AF18" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG18" s="309"/>
-      <c r="AH18" s="310"/>
-      <c r="AI18" s="378" t="s">
+      <c r="AG18" s="364"/>
+      <c r="AH18" s="365"/>
+      <c r="AI18" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ18" s="379"/>
-      <c r="AK18" s="379"/>
-      <c r="AL18" s="379"/>
-      <c r="AM18" s="379"/>
-      <c r="AN18" s="380"/>
+      <c r="AJ18" s="390"/>
+      <c r="AK18" s="390"/>
+      <c r="AL18" s="390"/>
+      <c r="AM18" s="390"/>
+      <c r="AN18" s="391"/>
       <c r="AS18" s="167"/>
       <c r="AT18" s="167"/>
       <c r="AU18" s="168"/>
@@ -14883,69 +14892,69 @@
       <c r="A19" s="165">
         <v>12</v>
       </c>
-      <c r="B19" s="378" t="s">
+      <c r="B19" s="389" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="379"/>
-      <c r="D19" s="379"/>
-      <c r="E19" s="379"/>
-      <c r="F19" s="380"/>
-      <c r="G19" s="377" t="s">
+      <c r="C19" s="390"/>
+      <c r="D19" s="390"/>
+      <c r="E19" s="390"/>
+      <c r="F19" s="391"/>
+      <c r="G19" s="388" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="309"/>
-      <c r="I19" s="309"/>
-      <c r="J19" s="309"/>
-      <c r="K19" s="310"/>
-      <c r="L19" s="377" t="s">
+      <c r="H19" s="364"/>
+      <c r="I19" s="364"/>
+      <c r="J19" s="364"/>
+      <c r="K19" s="365"/>
+      <c r="L19" s="388" t="s">
         <v>134</v>
       </c>
-      <c r="M19" s="309"/>
-      <c r="N19" s="309"/>
-      <c r="O19" s="309"/>
-      <c r="P19" s="310"/>
+      <c r="M19" s="364"/>
+      <c r="N19" s="364"/>
+      <c r="O19" s="364"/>
+      <c r="P19" s="365"/>
       <c r="Q19" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R19" s="377" t="s">
+      <c r="R19" s="388" t="s">
         <v>109</v>
       </c>
-      <c r="S19" s="309"/>
-      <c r="T19" s="309"/>
-      <c r="U19" s="310"/>
-      <c r="V19" s="381">
+      <c r="S19" s="364"/>
+      <c r="T19" s="364"/>
+      <c r="U19" s="365"/>
+      <c r="V19" s="400">
         <v>11</v>
       </c>
-      <c r="W19" s="382"/>
-      <c r="X19" s="383" t="s">
+      <c r="W19" s="401"/>
+      <c r="X19" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y19" s="384"/>
-      <c r="Z19" s="377" t="s">
+      <c r="Y19" s="387"/>
+      <c r="Z19" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA19" s="310"/>
-      <c r="AB19" s="377" t="s">
+      <c r="AA19" s="365"/>
+      <c r="AB19" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC19" s="310"/>
-      <c r="AD19" s="383" t="s">
+      <c r="AC19" s="365"/>
+      <c r="AD19" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE19" s="384"/>
-      <c r="AF19" s="377" t="s">
+      <c r="AE19" s="387"/>
+      <c r="AF19" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG19" s="309"/>
-      <c r="AH19" s="310"/>
-      <c r="AI19" s="378" t="s">
+      <c r="AG19" s="364"/>
+      <c r="AH19" s="365"/>
+      <c r="AI19" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ19" s="379"/>
-      <c r="AK19" s="379"/>
-      <c r="AL19" s="379"/>
-      <c r="AM19" s="379"/>
-      <c r="AN19" s="380"/>
+      <c r="AJ19" s="390"/>
+      <c r="AK19" s="390"/>
+      <c r="AL19" s="390"/>
+      <c r="AM19" s="390"/>
+      <c r="AN19" s="391"/>
       <c r="AS19" s="167"/>
       <c r="AT19" s="167"/>
       <c r="AU19" s="168"/>
@@ -15011,69 +15020,69 @@
       <c r="A20" s="165">
         <v>13</v>
       </c>
-      <c r="B20" s="378" t="s">
+      <c r="B20" s="389" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="379"/>
-      <c r="D20" s="379"/>
-      <c r="E20" s="379"/>
-      <c r="F20" s="380"/>
-      <c r="G20" s="377" t="s">
+      <c r="C20" s="390"/>
+      <c r="D20" s="390"/>
+      <c r="E20" s="390"/>
+      <c r="F20" s="391"/>
+      <c r="G20" s="388" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="309"/>
-      <c r="I20" s="309"/>
-      <c r="J20" s="309"/>
-      <c r="K20" s="310"/>
-      <c r="L20" s="377" t="s">
+      <c r="H20" s="364"/>
+      <c r="I20" s="364"/>
+      <c r="J20" s="364"/>
+      <c r="K20" s="365"/>
+      <c r="L20" s="388" t="s">
         <v>136</v>
       </c>
-      <c r="M20" s="309"/>
-      <c r="N20" s="309"/>
-      <c r="O20" s="309"/>
-      <c r="P20" s="310"/>
+      <c r="M20" s="364"/>
+      <c r="N20" s="364"/>
+      <c r="O20" s="364"/>
+      <c r="P20" s="365"/>
       <c r="Q20" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R20" s="377" t="s">
+      <c r="R20" s="388" t="s">
         <v>109</v>
       </c>
-      <c r="S20" s="309"/>
-      <c r="T20" s="309"/>
-      <c r="U20" s="310"/>
-      <c r="V20" s="381">
+      <c r="S20" s="364"/>
+      <c r="T20" s="364"/>
+      <c r="U20" s="365"/>
+      <c r="V20" s="400">
         <v>11</v>
       </c>
-      <c r="W20" s="382"/>
-      <c r="X20" s="383" t="s">
+      <c r="W20" s="401"/>
+      <c r="X20" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="Y20" s="384"/>
-      <c r="Z20" s="377" t="s">
+      <c r="Y20" s="387"/>
+      <c r="Z20" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AA20" s="310"/>
-      <c r="AB20" s="377" t="s">
+      <c r="AA20" s="365"/>
+      <c r="AB20" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AC20" s="310"/>
-      <c r="AD20" s="383" t="s">
+      <c r="AC20" s="365"/>
+      <c r="AD20" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="AE20" s="384"/>
-      <c r="AF20" s="377" t="s">
+      <c r="AE20" s="387"/>
+      <c r="AF20" s="388" t="s">
         <v>46</v>
       </c>
-      <c r="AG20" s="309"/>
-      <c r="AH20" s="310"/>
-      <c r="AI20" s="378" t="s">
+      <c r="AG20" s="364"/>
+      <c r="AH20" s="365"/>
+      <c r="AI20" s="389" t="s">
         <v>46</v>
       </c>
-      <c r="AJ20" s="379"/>
-      <c r="AK20" s="379"/>
-      <c r="AL20" s="379"/>
-      <c r="AM20" s="379"/>
-      <c r="AN20" s="380"/>
+      <c r="AJ20" s="390"/>
+      <c r="AK20" s="390"/>
+      <c r="AL20" s="390"/>
+      <c r="AM20" s="390"/>
+      <c r="AN20" s="391"/>
       <c r="AS20" s="167"/>
       <c r="AT20" s="167"/>
       <c r="AU20" s="168"/>
@@ -15137,45 +15146,45 @@
     </row>
     <row r="21" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="165"/>
-      <c r="B21" s="378"/>
-      <c r="C21" s="379"/>
-      <c r="D21" s="379"/>
-      <c r="E21" s="379"/>
-      <c r="F21" s="380"/>
-      <c r="G21" s="385"/>
-      <c r="H21" s="386"/>
-      <c r="I21" s="386"/>
-      <c r="J21" s="386"/>
-      <c r="K21" s="387"/>
-      <c r="L21" s="378"/>
-      <c r="M21" s="379"/>
-      <c r="N21" s="379"/>
-      <c r="O21" s="379"/>
-      <c r="P21" s="380"/>
+      <c r="B21" s="389"/>
+      <c r="C21" s="390"/>
+      <c r="D21" s="390"/>
+      <c r="E21" s="390"/>
+      <c r="F21" s="391"/>
+      <c r="G21" s="397"/>
+      <c r="H21" s="398"/>
+      <c r="I21" s="398"/>
+      <c r="J21" s="398"/>
+      <c r="K21" s="399"/>
+      <c r="L21" s="389"/>
+      <c r="M21" s="390"/>
+      <c r="N21" s="390"/>
+      <c r="O21" s="390"/>
+      <c r="P21" s="391"/>
       <c r="Q21" s="166"/>
-      <c r="R21" s="377"/>
-      <c r="S21" s="309"/>
-      <c r="T21" s="309"/>
-      <c r="U21" s="310"/>
-      <c r="V21" s="381"/>
-      <c r="W21" s="382"/>
-      <c r="X21" s="383"/>
-      <c r="Y21" s="384"/>
-      <c r="Z21" s="377"/>
-      <c r="AA21" s="310"/>
-      <c r="AB21" s="377"/>
-      <c r="AC21" s="310"/>
-      <c r="AD21" s="383"/>
-      <c r="AE21" s="384"/>
-      <c r="AF21" s="377"/>
-      <c r="AG21" s="309"/>
-      <c r="AH21" s="310"/>
-      <c r="AI21" s="378"/>
-      <c r="AJ21" s="379"/>
-      <c r="AK21" s="379"/>
-      <c r="AL21" s="379"/>
-      <c r="AM21" s="379"/>
-      <c r="AN21" s="380"/>
+      <c r="R21" s="388"/>
+      <c r="S21" s="364"/>
+      <c r="T21" s="364"/>
+      <c r="U21" s="365"/>
+      <c r="V21" s="400"/>
+      <c r="W21" s="401"/>
+      <c r="X21" s="386"/>
+      <c r="Y21" s="387"/>
+      <c r="Z21" s="388"/>
+      <c r="AA21" s="365"/>
+      <c r="AB21" s="388"/>
+      <c r="AC21" s="365"/>
+      <c r="AD21" s="386"/>
+      <c r="AE21" s="387"/>
+      <c r="AF21" s="388"/>
+      <c r="AG21" s="364"/>
+      <c r="AH21" s="365"/>
+      <c r="AI21" s="389"/>
+      <c r="AJ21" s="390"/>
+      <c r="AK21" s="390"/>
+      <c r="AL21" s="390"/>
+      <c r="AM21" s="390"/>
+      <c r="AN21" s="391"/>
       <c r="AS21" s="167"/>
       <c r="AT21" s="167"/>
       <c r="AU21" s="168"/>
@@ -15239,45 +15248,45 @@
     </row>
     <row r="22" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="165"/>
-      <c r="B22" s="378"/>
-      <c r="C22" s="379"/>
-      <c r="D22" s="379"/>
-      <c r="E22" s="379"/>
-      <c r="F22" s="380"/>
-      <c r="G22" s="385"/>
-      <c r="H22" s="386"/>
-      <c r="I22" s="386"/>
-      <c r="J22" s="386"/>
-      <c r="K22" s="387"/>
-      <c r="L22" s="378"/>
-      <c r="M22" s="379"/>
-      <c r="N22" s="379"/>
-      <c r="O22" s="379"/>
-      <c r="P22" s="380"/>
+      <c r="B22" s="389"/>
+      <c r="C22" s="390"/>
+      <c r="D22" s="390"/>
+      <c r="E22" s="390"/>
+      <c r="F22" s="391"/>
+      <c r="G22" s="397"/>
+      <c r="H22" s="398"/>
+      <c r="I22" s="398"/>
+      <c r="J22" s="398"/>
+      <c r="K22" s="399"/>
+      <c r="L22" s="389"/>
+      <c r="M22" s="390"/>
+      <c r="N22" s="390"/>
+      <c r="O22" s="390"/>
+      <c r="P22" s="391"/>
       <c r="Q22" s="166"/>
-      <c r="R22" s="377"/>
-      <c r="S22" s="309"/>
-      <c r="T22" s="309"/>
-      <c r="U22" s="310"/>
-      <c r="V22" s="381"/>
-      <c r="W22" s="382"/>
-      <c r="X22" s="383"/>
-      <c r="Y22" s="384"/>
-      <c r="Z22" s="377"/>
-      <c r="AA22" s="310"/>
-      <c r="AB22" s="377"/>
-      <c r="AC22" s="310"/>
-      <c r="AD22" s="383"/>
-      <c r="AE22" s="384"/>
-      <c r="AF22" s="377"/>
-      <c r="AG22" s="309"/>
-      <c r="AH22" s="310"/>
-      <c r="AI22" s="378"/>
-      <c r="AJ22" s="379"/>
-      <c r="AK22" s="379"/>
-      <c r="AL22" s="379"/>
-      <c r="AM22" s="379"/>
-      <c r="AN22" s="380"/>
+      <c r="R22" s="388"/>
+      <c r="S22" s="364"/>
+      <c r="T22" s="364"/>
+      <c r="U22" s="365"/>
+      <c r="V22" s="400"/>
+      <c r="W22" s="401"/>
+      <c r="X22" s="386"/>
+      <c r="Y22" s="387"/>
+      <c r="Z22" s="388"/>
+      <c r="AA22" s="365"/>
+      <c r="AB22" s="388"/>
+      <c r="AC22" s="365"/>
+      <c r="AD22" s="386"/>
+      <c r="AE22" s="387"/>
+      <c r="AF22" s="388"/>
+      <c r="AG22" s="364"/>
+      <c r="AH22" s="365"/>
+      <c r="AI22" s="389"/>
+      <c r="AJ22" s="390"/>
+      <c r="AK22" s="390"/>
+      <c r="AL22" s="390"/>
+      <c r="AM22" s="390"/>
+      <c r="AN22" s="391"/>
       <c r="AS22" s="167"/>
       <c r="AT22" s="167"/>
       <c r="AU22" s="168"/>
@@ -15341,45 +15350,45 @@
     </row>
     <row r="23" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="165"/>
-      <c r="B23" s="378"/>
-      <c r="C23" s="379"/>
-      <c r="D23" s="379"/>
-      <c r="E23" s="379"/>
-      <c r="F23" s="380"/>
-      <c r="G23" s="378"/>
-      <c r="H23" s="379"/>
-      <c r="I23" s="379"/>
-      <c r="J23" s="379"/>
-      <c r="K23" s="380"/>
-      <c r="L23" s="378"/>
-      <c r="M23" s="379"/>
-      <c r="N23" s="379"/>
-      <c r="O23" s="379"/>
-      <c r="P23" s="380"/>
+      <c r="B23" s="389"/>
+      <c r="C23" s="390"/>
+      <c r="D23" s="390"/>
+      <c r="E23" s="390"/>
+      <c r="F23" s="391"/>
+      <c r="G23" s="389"/>
+      <c r="H23" s="390"/>
+      <c r="I23" s="390"/>
+      <c r="J23" s="390"/>
+      <c r="K23" s="391"/>
+      <c r="L23" s="389"/>
+      <c r="M23" s="390"/>
+      <c r="N23" s="390"/>
+      <c r="O23" s="390"/>
+      <c r="P23" s="391"/>
       <c r="Q23" s="166"/>
-      <c r="R23" s="377"/>
-      <c r="S23" s="309"/>
-      <c r="T23" s="309"/>
-      <c r="U23" s="310"/>
-      <c r="V23" s="392"/>
-      <c r="W23" s="393"/>
-      <c r="X23" s="394"/>
-      <c r="Y23" s="395"/>
-      <c r="Z23" s="383"/>
-      <c r="AA23" s="384"/>
-      <c r="AB23" s="377"/>
-      <c r="AC23" s="310"/>
-      <c r="AD23" s="383"/>
-      <c r="AE23" s="384"/>
-      <c r="AF23" s="377"/>
-      <c r="AG23" s="309"/>
-      <c r="AH23" s="310"/>
-      <c r="AI23" s="378"/>
-      <c r="AJ23" s="379"/>
-      <c r="AK23" s="379"/>
-      <c r="AL23" s="379"/>
-      <c r="AM23" s="379"/>
-      <c r="AN23" s="380"/>
+      <c r="R23" s="388"/>
+      <c r="S23" s="364"/>
+      <c r="T23" s="364"/>
+      <c r="U23" s="365"/>
+      <c r="V23" s="393"/>
+      <c r="W23" s="394"/>
+      <c r="X23" s="395"/>
+      <c r="Y23" s="396"/>
+      <c r="Z23" s="386"/>
+      <c r="AA23" s="387"/>
+      <c r="AB23" s="388"/>
+      <c r="AC23" s="365"/>
+      <c r="AD23" s="386"/>
+      <c r="AE23" s="387"/>
+      <c r="AF23" s="388"/>
+      <c r="AG23" s="364"/>
+      <c r="AH23" s="365"/>
+      <c r="AI23" s="389"/>
+      <c r="AJ23" s="390"/>
+      <c r="AK23" s="390"/>
+      <c r="AL23" s="390"/>
+      <c r="AM23" s="390"/>
+      <c r="AN23" s="391"/>
       <c r="AS23" s="167"/>
       <c r="AT23" s="167"/>
       <c r="AU23" s="168"/>
@@ -15443,27 +15452,165 @@
     </row>
   </sheetData>
   <mergeCells count="204">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AI7:AN7"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AI8:AN8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="AI9:AN9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AI11:AN11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AI15:AN15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AI16:AN16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AI17:AN17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="AI18:AN18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AF19:AH19"/>
+    <mergeCell ref="AI19:AN19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="AI20:AN20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AI21:AN21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
     <mergeCell ref="Z23:AA23"/>
     <mergeCell ref="AB23:AC23"/>
     <mergeCell ref="AD23:AE23"/>
@@ -15488,165 +15635,27 @@
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="L22:P22"/>
     <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="AI20:AN20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AI21:AN21"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="AI18:AN18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF19:AH19"/>
-    <mergeCell ref="AI19:AN19"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AI16:AN16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AI17:AN17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AI14:AN14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AI15:AN15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AI11:AN11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AI8:AN8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="AI9:AN9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AI7:AN7"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document(I／F_files)_N21AA002／List_of_Projects_in_Period.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document(I／F_files)_N21AA002／List_of_Projects_in_Period.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6024E325-0ACD-436B-881D-B030A842A870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70A1077-7592-415C-BDFE-B6BCDB4DE55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="6045" windowWidth="26940" windowHeight="8535" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="420" windowWidth="27240" windowHeight="8370" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" state="hidden" r:id="rId1"/>
@@ -58,9 +58,8 @@
             <rFont val="Times New Roman"/>
             <family val="1"/>
           </rPr>
-          <t xml:space="preserve">Use in general-purpose data format from external interface design document
-A format definition file can be automatically generated.
-Detailed specification of automatic generation is in "nablarch-development-standards-tools"
+          <t xml:space="preserve">Format definition files used in generic data formats can be generated automatically from external interface design documents.
+Detailed specification of automatic generation is in "nablarch-development-standards-tools".
 See "Format definition file automatic generation tool" in the repository.
 </t>
         </r>
@@ -2638,6 +2637,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2652,16 +2681,118 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2691,137 +2822,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2832,96 +2912,81 @@
     <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2934,15 +2999,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2970,62 +3026,56 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3033,6 +3083,15 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3042,32 +3101,125 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -3090,158 +3242,38 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3252,6 +3284,21 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3269,54 +3316,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -7014,154 +7013,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="199" t="s">
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="213" t="s">
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="222" t="s">
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="210" t="s">
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="221"/>
+      <c r="AA1" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="212"/>
-      <c r="AC1" s="193" t="s">
+      <c r="AB1" s="209"/>
+      <c r="AC1" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="194"/>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="196">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="193">
         <f>IF(D8="","",D8)</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="198"/>
+      <c r="AH1" s="194"/>
+      <c r="AI1" s="195"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="20"/>
       <c r="AM1" s="20"/>
       <c r="AN1" s="21"/>
     </row>
     <row r="2" spans="1:40" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="199" t="s">
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="226"/>
-      <c r="Y2" s="226"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="210" t="s">
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="223"/>
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="199" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="196" t="str">
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="193" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="198"/>
+      <c r="AH2" s="194"/>
+      <c r="AI2" s="195"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
       <c r="AM2" s="20"/>
       <c r="AN2" s="20"/>
     </row>
     <row r="3" spans="1:40" s="19" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="199" t="s">
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="220"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="229"/>
-      <c r="Z3" s="230"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="212"/>
-      <c r="AC3" s="205"/>
-      <c r="AD3" s="194"/>
-      <c r="AE3" s="194"/>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="196"/>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="198"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="198"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="226"/>
+      <c r="V3" s="226"/>
+      <c r="W3" s="226"/>
+      <c r="X3" s="226"/>
+      <c r="Y3" s="226"/>
+      <c r="Z3" s="227"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="193"/>
+      <c r="AH3" s="194"/>
+      <c r="AI3" s="195"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
       <c r="AM3" s="20"/>
@@ -7208,116 +7207,116 @@
       <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="206" t="s">
+      <c r="C7" s="204"/>
+      <c r="D7" s="203" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="208"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="206" t="s">
+      <c r="E7" s="205"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="208"/>
-      <c r="I7" s="207"/>
-      <c r="J7" s="209" t="s">
+      <c r="H7" s="205"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="208"/>
-      <c r="L7" s="208"/>
-      <c r="M7" s="208"/>
-      <c r="N7" s="208"/>
-      <c r="O7" s="208"/>
-      <c r="P7" s="207"/>
-      <c r="Q7" s="206" t="s">
+      <c r="K7" s="205"/>
+      <c r="L7" s="205"/>
+      <c r="M7" s="205"/>
+      <c r="N7" s="205"/>
+      <c r="O7" s="205"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="203" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="208"/>
-      <c r="S7" s="208"/>
-      <c r="T7" s="208"/>
-      <c r="U7" s="208"/>
-      <c r="V7" s="208"/>
-      <c r="W7" s="208"/>
-      <c r="X7" s="208"/>
-      <c r="Y7" s="208"/>
-      <c r="Z7" s="208"/>
-      <c r="AA7" s="208"/>
-      <c r="AB7" s="208"/>
-      <c r="AC7" s="208"/>
-      <c r="AD7" s="208"/>
-      <c r="AE7" s="207"/>
-      <c r="AF7" s="206" t="s">
+      <c r="R7" s="205"/>
+      <c r="S7" s="205"/>
+      <c r="T7" s="205"/>
+      <c r="U7" s="205"/>
+      <c r="V7" s="205"/>
+      <c r="W7" s="205"/>
+      <c r="X7" s="205"/>
+      <c r="Y7" s="205"/>
+      <c r="Z7" s="205"/>
+      <c r="AA7" s="205"/>
+      <c r="AB7" s="205"/>
+      <c r="AC7" s="205"/>
+      <c r="AD7" s="205"/>
+      <c r="AE7" s="204"/>
+      <c r="AF7" s="203" t="s">
         <v>43</v>
       </c>
-      <c r="AG7" s="208"/>
-      <c r="AH7" s="208"/>
-      <c r="AI7" s="207"/>
+      <c r="AG7" s="205"/>
+      <c r="AH7" s="205"/>
+      <c r="AI7" s="204"/>
       <c r="AJ7" s="17"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="37">
         <v>1</v>
       </c>
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="228" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="185"/>
-      <c r="D8" s="186">
+      <c r="C8" s="229"/>
+      <c r="D8" s="230">
         <v>43580</v>
       </c>
-      <c r="E8" s="187"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="184" t="s">
+      <c r="E8" s="231"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="189"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="190" t="s">
+      <c r="H8" s="233"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="234" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="191"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="191"/>
-      <c r="N8" s="191"/>
-      <c r="O8" s="191"/>
-      <c r="P8" s="192"/>
-      <c r="Q8" s="190" t="s">
+      <c r="K8" s="235"/>
+      <c r="L8" s="235"/>
+      <c r="M8" s="235"/>
+      <c r="N8" s="235"/>
+      <c r="O8" s="235"/>
+      <c r="P8" s="236"/>
+      <c r="Q8" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="191"/>
-      <c r="S8" s="191"/>
-      <c r="T8" s="191"/>
-      <c r="U8" s="191"/>
-      <c r="V8" s="191"/>
-      <c r="W8" s="191"/>
-      <c r="X8" s="191"/>
-      <c r="Y8" s="191"/>
-      <c r="Z8" s="191"/>
-      <c r="AA8" s="191"/>
-      <c r="AB8" s="191"/>
-      <c r="AC8" s="191"/>
-      <c r="AD8" s="191"/>
-      <c r="AE8" s="192"/>
-      <c r="AF8" s="234" t="s">
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="235"/>
+      <c r="U8" s="235"/>
+      <c r="V8" s="235"/>
+      <c r="W8" s="235"/>
+      <c r="X8" s="235"/>
+      <c r="Y8" s="235"/>
+      <c r="Z8" s="235"/>
+      <c r="AA8" s="235"/>
+      <c r="AB8" s="235"/>
+      <c r="AC8" s="235"/>
+      <c r="AD8" s="235"/>
+      <c r="AE8" s="236"/>
+      <c r="AF8" s="178" t="s">
         <v>48</v>
       </c>
-      <c r="AG8" s="235"/>
-      <c r="AH8" s="235"/>
-      <c r="AI8" s="236"/>
+      <c r="AG8" s="179"/>
+      <c r="AH8" s="179"/>
+      <c r="AI8" s="180"/>
       <c r="AJ8" s="17"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="38"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="176"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="186"/>
       <c r="J9" s="181"/>
       <c r="K9" s="182"/>
       <c r="L9" s="182"/>
@@ -7340,22 +7339,22 @@
       <c r="AC9" s="182"/>
       <c r="AD9" s="182"/>
       <c r="AE9" s="183"/>
-      <c r="AF9" s="231"/>
-      <c r="AG9" s="232"/>
-      <c r="AH9" s="232"/>
-      <c r="AI9" s="233"/>
+      <c r="AF9" s="175"/>
+      <c r="AG9" s="176"/>
+      <c r="AH9" s="176"/>
+      <c r="AI9" s="177"/>
       <c r="AJ9" s="12"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="38"/>
-      <c r="B10" s="175"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="176"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="186"/>
       <c r="J10" s="181"/>
       <c r="K10" s="182"/>
       <c r="L10" s="182"/>
@@ -7378,21 +7377,21 @@
       <c r="AC10" s="182"/>
       <c r="AD10" s="182"/>
       <c r="AE10" s="183"/>
-      <c r="AF10" s="231"/>
-      <c r="AG10" s="232"/>
-      <c r="AH10" s="232"/>
-      <c r="AI10" s="233"/>
+      <c r="AF10" s="175"/>
+      <c r="AG10" s="176"/>
+      <c r="AH10" s="176"/>
+      <c r="AI10" s="177"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="176"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="186"/>
       <c r="J11" s="181"/>
       <c r="K11" s="182"/>
       <c r="L11" s="182"/>
@@ -7415,21 +7414,21 @@
       <c r="AC11" s="182"/>
       <c r="AD11" s="182"/>
       <c r="AE11" s="183"/>
-      <c r="AF11" s="231"/>
-      <c r="AG11" s="232"/>
-      <c r="AH11" s="232"/>
-      <c r="AI11" s="233"/>
+      <c r="AF11" s="175"/>
+      <c r="AG11" s="176"/>
+      <c r="AH11" s="176"/>
+      <c r="AI11" s="177"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="176"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="186"/>
       <c r="J12" s="181"/>
       <c r="K12" s="182"/>
       <c r="L12" s="182"/>
@@ -7452,21 +7451,21 @@
       <c r="AC12" s="182"/>
       <c r="AD12" s="182"/>
       <c r="AE12" s="183"/>
-      <c r="AF12" s="231"/>
-      <c r="AG12" s="232"/>
-      <c r="AH12" s="232"/>
-      <c r="AI12" s="233"/>
+      <c r="AF12" s="175"/>
+      <c r="AG12" s="176"/>
+      <c r="AH12" s="176"/>
+      <c r="AI12" s="177"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="176"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="186"/>
       <c r="J13" s="181"/>
       <c r="K13" s="182"/>
       <c r="L13" s="182"/>
@@ -7489,28 +7488,28 @@
       <c r="AC13" s="182"/>
       <c r="AD13" s="182"/>
       <c r="AE13" s="183"/>
-      <c r="AF13" s="231"/>
-      <c r="AG13" s="232"/>
-      <c r="AH13" s="232"/>
-      <c r="AI13" s="233"/>
+      <c r="AF13" s="175"/>
+      <c r="AG13" s="176"/>
+      <c r="AH13" s="176"/>
+      <c r="AI13" s="177"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
-      <c r="B14" s="175"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="231"/>
-      <c r="K14" s="232"/>
-      <c r="L14" s="232"/>
-      <c r="M14" s="232"/>
-      <c r="N14" s="232"/>
-      <c r="O14" s="232"/>
-      <c r="P14" s="233"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="176"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="176"/>
+      <c r="O14" s="176"/>
+      <c r="P14" s="177"/>
       <c r="Q14" s="181"/>
       <c r="R14" s="182"/>
       <c r="S14" s="182"/>
@@ -7526,28 +7525,28 @@
       <c r="AC14" s="182"/>
       <c r="AD14" s="182"/>
       <c r="AE14" s="183"/>
-      <c r="AF14" s="231"/>
-      <c r="AG14" s="232"/>
-      <c r="AH14" s="232"/>
-      <c r="AI14" s="233"/>
+      <c r="AF14" s="175"/>
+      <c r="AG14" s="176"/>
+      <c r="AH14" s="176"/>
+      <c r="AI14" s="177"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="231"/>
-      <c r="K15" s="232"/>
-      <c r="L15" s="232"/>
-      <c r="M15" s="232"/>
-      <c r="N15" s="232"/>
-      <c r="O15" s="232"/>
-      <c r="P15" s="233"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="176"/>
+      <c r="M15" s="176"/>
+      <c r="N15" s="176"/>
+      <c r="O15" s="176"/>
+      <c r="P15" s="177"/>
       <c r="Q15" s="181"/>
       <c r="R15" s="182"/>
       <c r="S15" s="182"/>
@@ -7563,28 +7562,28 @@
       <c r="AC15" s="182"/>
       <c r="AD15" s="182"/>
       <c r="AE15" s="183"/>
-      <c r="AF15" s="231"/>
-      <c r="AG15" s="232"/>
-      <c r="AH15" s="232"/>
-      <c r="AI15" s="233"/>
+      <c r="AF15" s="175"/>
+      <c r="AG15" s="176"/>
+      <c r="AH15" s="176"/>
+      <c r="AI15" s="177"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="231"/>
-      <c r="K16" s="232"/>
-      <c r="L16" s="232"/>
-      <c r="M16" s="232"/>
-      <c r="N16" s="232"/>
-      <c r="O16" s="232"/>
-      <c r="P16" s="233"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="176"/>
+      <c r="M16" s="176"/>
+      <c r="N16" s="176"/>
+      <c r="O16" s="176"/>
+      <c r="P16" s="177"/>
       <c r="Q16" s="181"/>
       <c r="R16" s="182"/>
       <c r="S16" s="182"/>
@@ -7600,28 +7599,28 @@
       <c r="AC16" s="182"/>
       <c r="AD16" s="182"/>
       <c r="AE16" s="183"/>
-      <c r="AF16" s="231"/>
-      <c r="AG16" s="232"/>
-      <c r="AH16" s="232"/>
-      <c r="AI16" s="233"/>
+      <c r="AF16" s="175"/>
+      <c r="AG16" s="176"/>
+      <c r="AH16" s="176"/>
+      <c r="AI16" s="177"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="231"/>
-      <c r="K17" s="232"/>
-      <c r="L17" s="232"/>
-      <c r="M17" s="232"/>
-      <c r="N17" s="232"/>
-      <c r="O17" s="232"/>
-      <c r="P17" s="233"/>
+      <c r="B17" s="184"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="176"/>
+      <c r="M17" s="176"/>
+      <c r="N17" s="176"/>
+      <c r="O17" s="176"/>
+      <c r="P17" s="177"/>
       <c r="Q17" s="181"/>
       <c r="R17" s="182"/>
       <c r="S17" s="182"/>
@@ -7637,28 +7636,28 @@
       <c r="AC17" s="182"/>
       <c r="AD17" s="182"/>
       <c r="AE17" s="183"/>
-      <c r="AF17" s="231"/>
-      <c r="AG17" s="232"/>
-      <c r="AH17" s="232"/>
-      <c r="AI17" s="233"/>
+      <c r="AF17" s="175"/>
+      <c r="AG17" s="176"/>
+      <c r="AH17" s="176"/>
+      <c r="AI17" s="177"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="231"/>
-      <c r="K18" s="232"/>
-      <c r="L18" s="232"/>
-      <c r="M18" s="232"/>
-      <c r="N18" s="232"/>
-      <c r="O18" s="232"/>
-      <c r="P18" s="233"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="176"/>
+      <c r="L18" s="176"/>
+      <c r="M18" s="176"/>
+      <c r="N18" s="176"/>
+      <c r="O18" s="176"/>
+      <c r="P18" s="177"/>
       <c r="Q18" s="181"/>
       <c r="R18" s="182"/>
       <c r="S18" s="182"/>
@@ -7674,28 +7673,28 @@
       <c r="AC18" s="182"/>
       <c r="AD18" s="182"/>
       <c r="AE18" s="183"/>
-      <c r="AF18" s="231"/>
-      <c r="AG18" s="232"/>
-      <c r="AH18" s="232"/>
-      <c r="AI18" s="233"/>
+      <c r="AF18" s="175"/>
+      <c r="AG18" s="176"/>
+      <c r="AH18" s="176"/>
+      <c r="AI18" s="177"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="231"/>
-      <c r="K19" s="232"/>
-      <c r="L19" s="232"/>
-      <c r="M19" s="232"/>
-      <c r="N19" s="232"/>
-      <c r="O19" s="232"/>
-      <c r="P19" s="233"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="176"/>
+      <c r="L19" s="176"/>
+      <c r="M19" s="176"/>
+      <c r="N19" s="176"/>
+      <c r="O19" s="176"/>
+      <c r="P19" s="177"/>
       <c r="Q19" s="181"/>
       <c r="R19" s="182"/>
       <c r="S19" s="182"/>
@@ -7711,28 +7710,28 @@
       <c r="AC19" s="182"/>
       <c r="AD19" s="182"/>
       <c r="AE19" s="183"/>
-      <c r="AF19" s="231"/>
-      <c r="AG19" s="232"/>
-      <c r="AH19" s="232"/>
-      <c r="AI19" s="233"/>
+      <c r="AF19" s="175"/>
+      <c r="AG19" s="176"/>
+      <c r="AH19" s="176"/>
+      <c r="AI19" s="177"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="231"/>
-      <c r="K20" s="232"/>
-      <c r="L20" s="232"/>
-      <c r="M20" s="232"/>
-      <c r="N20" s="232"/>
-      <c r="O20" s="232"/>
-      <c r="P20" s="233"/>
+      <c r="B20" s="184"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="176"/>
+      <c r="L20" s="176"/>
+      <c r="M20" s="176"/>
+      <c r="N20" s="176"/>
+      <c r="O20" s="176"/>
+      <c r="P20" s="177"/>
       <c r="Q20" s="181"/>
       <c r="R20" s="182"/>
       <c r="S20" s="182"/>
@@ -7748,28 +7747,28 @@
       <c r="AC20" s="182"/>
       <c r="AD20" s="182"/>
       <c r="AE20" s="183"/>
-      <c r="AF20" s="231"/>
-      <c r="AG20" s="232"/>
-      <c r="AH20" s="232"/>
-      <c r="AI20" s="233"/>
+      <c r="AF20" s="175"/>
+      <c r="AG20" s="176"/>
+      <c r="AH20" s="176"/>
+      <c r="AI20" s="177"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
-      <c r="B21" s="175"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="231"/>
-      <c r="K21" s="232"/>
-      <c r="L21" s="232"/>
-      <c r="M21" s="232"/>
-      <c r="N21" s="232"/>
-      <c r="O21" s="232"/>
-      <c r="P21" s="233"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="176"/>
+      <c r="N21" s="176"/>
+      <c r="O21" s="176"/>
+      <c r="P21" s="177"/>
       <c r="Q21" s="181"/>
       <c r="R21" s="182"/>
       <c r="S21" s="182"/>
@@ -7785,28 +7784,28 @@
       <c r="AC21" s="182"/>
       <c r="AD21" s="182"/>
       <c r="AE21" s="183"/>
-      <c r="AF21" s="231"/>
-      <c r="AG21" s="232"/>
-      <c r="AH21" s="232"/>
-      <c r="AI21" s="233"/>
+      <c r="AF21" s="175"/>
+      <c r="AG21" s="176"/>
+      <c r="AH21" s="176"/>
+      <c r="AI21" s="177"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="231"/>
-      <c r="K22" s="232"/>
-      <c r="L22" s="232"/>
-      <c r="M22" s="232"/>
-      <c r="N22" s="232"/>
-      <c r="O22" s="232"/>
-      <c r="P22" s="233"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="176"/>
+      <c r="M22" s="176"/>
+      <c r="N22" s="176"/>
+      <c r="O22" s="176"/>
+      <c r="P22" s="177"/>
       <c r="Q22" s="181"/>
       <c r="R22" s="182"/>
       <c r="S22" s="182"/>
@@ -7822,28 +7821,28 @@
       <c r="AC22" s="182"/>
       <c r="AD22" s="182"/>
       <c r="AE22" s="183"/>
-      <c r="AF22" s="231"/>
-      <c r="AG22" s="232"/>
-      <c r="AH22" s="232"/>
-      <c r="AI22" s="233"/>
+      <c r="AF22" s="175"/>
+      <c r="AG22" s="176"/>
+      <c r="AH22" s="176"/>
+      <c r="AI22" s="177"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
-      <c r="B23" s="175"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="231"/>
-      <c r="K23" s="232"/>
-      <c r="L23" s="232"/>
-      <c r="M23" s="232"/>
-      <c r="N23" s="232"/>
-      <c r="O23" s="232"/>
-      <c r="P23" s="233"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="176"/>
+      <c r="M23" s="176"/>
+      <c r="N23" s="176"/>
+      <c r="O23" s="176"/>
+      <c r="P23" s="177"/>
       <c r="Q23" s="181"/>
       <c r="R23" s="182"/>
       <c r="S23" s="182"/>
@@ -7859,28 +7858,28 @@
       <c r="AC23" s="182"/>
       <c r="AD23" s="182"/>
       <c r="AE23" s="183"/>
-      <c r="AF23" s="231"/>
-      <c r="AG23" s="232"/>
-      <c r="AH23" s="232"/>
-      <c r="AI23" s="233"/>
+      <c r="AF23" s="175"/>
+      <c r="AG23" s="176"/>
+      <c r="AH23" s="176"/>
+      <c r="AI23" s="177"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
-      <c r="B24" s="175"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="231"/>
-      <c r="K24" s="232"/>
-      <c r="L24" s="232"/>
-      <c r="M24" s="232"/>
-      <c r="N24" s="232"/>
-      <c r="O24" s="232"/>
-      <c r="P24" s="233"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="189"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="176"/>
+      <c r="L24" s="176"/>
+      <c r="M24" s="176"/>
+      <c r="N24" s="176"/>
+      <c r="O24" s="176"/>
+      <c r="P24" s="177"/>
       <c r="Q24" s="181"/>
       <c r="R24" s="182"/>
       <c r="S24" s="182"/>
@@ -7896,28 +7895,28 @@
       <c r="AC24" s="182"/>
       <c r="AD24" s="182"/>
       <c r="AE24" s="183"/>
-      <c r="AF24" s="231"/>
-      <c r="AG24" s="232"/>
-      <c r="AH24" s="232"/>
-      <c r="AI24" s="233"/>
+      <c r="AF24" s="175"/>
+      <c r="AG24" s="176"/>
+      <c r="AH24" s="176"/>
+      <c r="AI24" s="177"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
-      <c r="B25" s="175"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="231"/>
-      <c r="K25" s="232"/>
-      <c r="L25" s="232"/>
-      <c r="M25" s="232"/>
-      <c r="N25" s="232"/>
-      <c r="O25" s="232"/>
-      <c r="P25" s="233"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="176"/>
+      <c r="L25" s="176"/>
+      <c r="M25" s="176"/>
+      <c r="N25" s="176"/>
+      <c r="O25" s="176"/>
+      <c r="P25" s="177"/>
       <c r="Q25" s="181"/>
       <c r="R25" s="182"/>
       <c r="S25" s="182"/>
@@ -7933,28 +7932,28 @@
       <c r="AC25" s="182"/>
       <c r="AD25" s="182"/>
       <c r="AE25" s="183"/>
-      <c r="AF25" s="231"/>
-      <c r="AG25" s="232"/>
-      <c r="AH25" s="232"/>
-      <c r="AI25" s="233"/>
+      <c r="AF25" s="175"/>
+      <c r="AG25" s="176"/>
+      <c r="AH25" s="176"/>
+      <c r="AI25" s="177"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="38"/>
-      <c r="B26" s="175"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="231"/>
-      <c r="K26" s="232"/>
-      <c r="L26" s="232"/>
-      <c r="M26" s="232"/>
-      <c r="N26" s="232"/>
-      <c r="O26" s="232"/>
-      <c r="P26" s="233"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="189"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="176"/>
+      <c r="N26" s="176"/>
+      <c r="O26" s="176"/>
+      <c r="P26" s="177"/>
       <c r="Q26" s="181"/>
       <c r="R26" s="182"/>
       <c r="S26" s="182"/>
@@ -7970,28 +7969,28 @@
       <c r="AC26" s="182"/>
       <c r="AD26" s="182"/>
       <c r="AE26" s="183"/>
-      <c r="AF26" s="231"/>
-      <c r="AG26" s="232"/>
-      <c r="AH26" s="232"/>
-      <c r="AI26" s="233"/>
+      <c r="AF26" s="175"/>
+      <c r="AG26" s="176"/>
+      <c r="AH26" s="176"/>
+      <c r="AI26" s="177"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
-      <c r="B27" s="175"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="231"/>
-      <c r="K27" s="232"/>
-      <c r="L27" s="232"/>
-      <c r="M27" s="232"/>
-      <c r="N27" s="232"/>
-      <c r="O27" s="232"/>
-      <c r="P27" s="233"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="176"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="176"/>
+      <c r="N27" s="176"/>
+      <c r="O27" s="176"/>
+      <c r="P27" s="177"/>
       <c r="Q27" s="181"/>
       <c r="R27" s="182"/>
       <c r="S27" s="182"/>
@@ -8007,28 +8006,28 @@
       <c r="AC27" s="182"/>
       <c r="AD27" s="182"/>
       <c r="AE27" s="183"/>
-      <c r="AF27" s="231"/>
-      <c r="AG27" s="232"/>
-      <c r="AH27" s="232"/>
-      <c r="AI27" s="233"/>
+      <c r="AF27" s="175"/>
+      <c r="AG27" s="176"/>
+      <c r="AH27" s="176"/>
+      <c r="AI27" s="177"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="38"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="231"/>
-      <c r="K28" s="232"/>
-      <c r="L28" s="232"/>
-      <c r="M28" s="232"/>
-      <c r="N28" s="232"/>
-      <c r="O28" s="232"/>
-      <c r="P28" s="233"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="176"/>
+      <c r="N28" s="176"/>
+      <c r="O28" s="176"/>
+      <c r="P28" s="177"/>
       <c r="Q28" s="181"/>
       <c r="R28" s="182"/>
       <c r="S28" s="182"/>
@@ -8044,28 +8043,28 @@
       <c r="AC28" s="182"/>
       <c r="AD28" s="182"/>
       <c r="AE28" s="183"/>
-      <c r="AF28" s="231"/>
-      <c r="AG28" s="232"/>
-      <c r="AH28" s="232"/>
-      <c r="AI28" s="233"/>
+      <c r="AF28" s="175"/>
+      <c r="AG28" s="176"/>
+      <c r="AH28" s="176"/>
+      <c r="AI28" s="177"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="38"/>
-      <c r="B29" s="175"/>
-      <c r="C29" s="176"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="231"/>
-      <c r="K29" s="232"/>
-      <c r="L29" s="232"/>
-      <c r="M29" s="232"/>
-      <c r="N29" s="232"/>
-      <c r="O29" s="232"/>
-      <c r="P29" s="233"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="176"/>
+      <c r="N29" s="176"/>
+      <c r="O29" s="176"/>
+      <c r="P29" s="177"/>
       <c r="Q29" s="181"/>
       <c r="R29" s="182"/>
       <c r="S29" s="182"/>
@@ -8081,28 +8080,28 @@
       <c r="AC29" s="182"/>
       <c r="AD29" s="182"/>
       <c r="AE29" s="183"/>
-      <c r="AF29" s="231"/>
-      <c r="AG29" s="232"/>
-      <c r="AH29" s="232"/>
-      <c r="AI29" s="233"/>
+      <c r="AF29" s="175"/>
+      <c r="AG29" s="176"/>
+      <c r="AH29" s="176"/>
+      <c r="AI29" s="177"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="38"/>
-      <c r="B30" s="175"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="231"/>
-      <c r="K30" s="232"/>
-      <c r="L30" s="232"/>
-      <c r="M30" s="232"/>
-      <c r="N30" s="232"/>
-      <c r="O30" s="232"/>
-      <c r="P30" s="233"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="176"/>
+      <c r="L30" s="176"/>
+      <c r="M30" s="176"/>
+      <c r="N30" s="176"/>
+      <c r="O30" s="176"/>
+      <c r="P30" s="177"/>
       <c r="Q30" s="181"/>
       <c r="R30" s="182"/>
       <c r="S30" s="182"/>
@@ -8118,28 +8117,28 @@
       <c r="AC30" s="182"/>
       <c r="AD30" s="182"/>
       <c r="AE30" s="183"/>
-      <c r="AF30" s="231"/>
-      <c r="AG30" s="232"/>
-      <c r="AH30" s="232"/>
-      <c r="AI30" s="233"/>
+      <c r="AF30" s="175"/>
+      <c r="AG30" s="176"/>
+      <c r="AH30" s="176"/>
+      <c r="AI30" s="177"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="38"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="231"/>
-      <c r="K31" s="232"/>
-      <c r="L31" s="232"/>
-      <c r="M31" s="232"/>
-      <c r="N31" s="232"/>
-      <c r="O31" s="232"/>
-      <c r="P31" s="233"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="176"/>
+      <c r="N31" s="176"/>
+      <c r="O31" s="176"/>
+      <c r="P31" s="177"/>
       <c r="Q31" s="181"/>
       <c r="R31" s="182"/>
       <c r="S31" s="182"/>
@@ -8155,28 +8154,28 @@
       <c r="AC31" s="182"/>
       <c r="AD31" s="182"/>
       <c r="AE31" s="183"/>
-      <c r="AF31" s="231"/>
-      <c r="AG31" s="232"/>
-      <c r="AH31" s="232"/>
-      <c r="AI31" s="233"/>
+      <c r="AF31" s="175"/>
+      <c r="AG31" s="176"/>
+      <c r="AH31" s="176"/>
+      <c r="AI31" s="177"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="38"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="231"/>
-      <c r="K32" s="232"/>
-      <c r="L32" s="232"/>
-      <c r="M32" s="232"/>
-      <c r="N32" s="232"/>
-      <c r="O32" s="232"/>
-      <c r="P32" s="233"/>
+      <c r="B32" s="184"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="176"/>
+      <c r="M32" s="176"/>
+      <c r="N32" s="176"/>
+      <c r="O32" s="176"/>
+      <c r="P32" s="177"/>
       <c r="Q32" s="181"/>
       <c r="R32" s="182"/>
       <c r="S32" s="182"/>
@@ -8192,28 +8191,28 @@
       <c r="AC32" s="182"/>
       <c r="AD32" s="182"/>
       <c r="AE32" s="183"/>
-      <c r="AF32" s="231"/>
-      <c r="AG32" s="232"/>
-      <c r="AH32" s="232"/>
-      <c r="AI32" s="233"/>
+      <c r="AF32" s="175"/>
+      <c r="AG32" s="176"/>
+      <c r="AH32" s="176"/>
+      <c r="AI32" s="177"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="38"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="231"/>
-      <c r="K33" s="232"/>
-      <c r="L33" s="232"/>
-      <c r="M33" s="232"/>
-      <c r="N33" s="232"/>
-      <c r="O33" s="232"/>
-      <c r="P33" s="233"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="187"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="176"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="176"/>
+      <c r="N33" s="176"/>
+      <c r="O33" s="176"/>
+      <c r="P33" s="177"/>
       <c r="Q33" s="181"/>
       <c r="R33" s="182"/>
       <c r="S33" s="182"/>
@@ -8229,24 +8228,157 @@
       <c r="AC33" s="182"/>
       <c r="AD33" s="182"/>
       <c r="AE33" s="183"/>
-      <c r="AF33" s="231"/>
-      <c r="AG33" s="232"/>
-      <c r="AH33" s="232"/>
-      <c r="AI33" s="233"/>
+      <c r="AF33" s="175"/>
+      <c r="AG33" s="176"/>
+      <c r="AH33" s="176"/>
+      <c r="AI33" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="Q23:AE23"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AF9:AI9"/>
     <mergeCell ref="AF10:AI10"/>
@@ -8271,150 +8403,17 @@
     <mergeCell ref="AF15:AI15"/>
     <mergeCell ref="AF16:AI16"/>
     <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF27:AI27"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -8570,12 +8569,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="39" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="239"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -8589,49 +8588,49 @@
       <c r="L1" s="241"/>
       <c r="M1" s="241"/>
       <c r="N1" s="242"/>
-      <c r="O1" s="249" t="s">
+      <c r="O1" s="243" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="258" t="str">
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="243" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="245" t="str">
+      <c r="AB1" s="239"/>
+      <c r="AC1" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="246"/>
-      <c r="AE1" s="246"/>
-      <c r="AF1" s="247"/>
-      <c r="AG1" s="237">
+      <c r="AD1" s="253"/>
+      <c r="AE1" s="253"/>
+      <c r="AF1" s="254"/>
+      <c r="AG1" s="264">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="239"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="266"/>
     </row>
     <row r="2" spans="1:35" s="39" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="244"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -8645,43 +8644,43 @@
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
       <c r="N2" s="242"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="253"/>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="243" t="s">
+      <c r="O2" s="246"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="245" t="str">
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="247"/>
-      <c r="AG2" s="237" t="str">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="254"/>
+      <c r="AG2" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="238"/>
-      <c r="AI2" s="239"/>
+      <c r="AH2" s="265"/>
+      <c r="AI2" s="266"/>
     </row>
     <row r="3" spans="1:35" s="39" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="244"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="239"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -8695,33 +8694,33 @@
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="242"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="257"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="245" t="str">
+      <c r="O3" s="249"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="237"/>
+      <c r="AB3" s="239"/>
+      <c r="AC3" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="246"/>
-      <c r="AE3" s="246"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="237" t="str">
+      <c r="AD3" s="253"/>
+      <c r="AE3" s="253"/>
+      <c r="AF3" s="254"/>
+      <c r="AG3" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="239"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="266"/>
     </row>
     <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="41"/>
@@ -9976,6 +9975,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -9987,12 +9992,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -10018,12 +10017,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="81" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="237" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="239"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -10037,49 +10036,49 @@
       <c r="L1" s="241"/>
       <c r="M1" s="241"/>
       <c r="N1" s="242"/>
-      <c r="O1" s="249" t="s">
+      <c r="O1" s="243" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="258" t="str">
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="243" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="237" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="245" t="str">
+      <c r="AB1" s="239"/>
+      <c r="AC1" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="246"/>
-      <c r="AE1" s="246"/>
-      <c r="AF1" s="247"/>
-      <c r="AG1" s="237">
+      <c r="AD1" s="253"/>
+      <c r="AE1" s="253"/>
+      <c r="AF1" s="254"/>
+      <c r="AG1" s="264">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="239"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="266"/>
     </row>
     <row r="2" spans="1:35" s="81" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="244"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -10093,43 +10092,43 @@
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
       <c r="N2" s="242"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="253"/>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="243" t="s">
+      <c r="O2" s="246"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="245" t="str">
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="247"/>
-      <c r="AG2" s="237" t="str">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="254"/>
+      <c r="AG2" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="238"/>
-      <c r="AI2" s="239"/>
+      <c r="AH2" s="265"/>
+      <c r="AI2" s="266"/>
     </row>
     <row r="3" spans="1:35" s="81" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="244"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="239"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -10143,33 +10142,33 @@
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="242"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="257"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="245" t="str">
+      <c r="O3" s="249"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="237"/>
+      <c r="AB3" s="239"/>
+      <c r="AC3" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="246"/>
-      <c r="AE3" s="246"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="237" t="str">
+      <c r="AD3" s="253"/>
+      <c r="AE3" s="253"/>
+      <c r="AF3" s="254"/>
+      <c r="AG3" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="239"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="266"/>
     </row>
     <row r="4" spans="1:35" s="81" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="82"/>
@@ -10191,12 +10190,12 @@
       <c r="C6" s="86"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="274" t="s">
+      <c r="A7" s="267" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="275"/>
-      <c r="C7" s="275"/>
-      <c r="D7" s="276"/>
+      <c r="B7" s="270"/>
+      <c r="C7" s="270"/>
+      <c r="D7" s="271"/>
       <c r="E7" s="87"/>
       <c r="F7" s="87"/>
       <c r="G7" s="87"/>
@@ -10209,82 +10208,82 @@
       <c r="N7" s="87"/>
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
-      <c r="Q7" s="298" t="s">
+      <c r="Q7" s="275" t="s">
         <v>157</v>
       </c>
-      <c r="R7" s="293"/>
-      <c r="S7" s="293"/>
-      <c r="T7" s="294"/>
-      <c r="U7" s="299" t="s">
+      <c r="R7" s="276"/>
+      <c r="S7" s="276"/>
+      <c r="T7" s="277"/>
+      <c r="U7" s="280" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="300"/>
-      <c r="W7" s="300"/>
-      <c r="X7" s="300"/>
-      <c r="Y7" s="300"/>
-      <c r="Z7" s="300"/>
-      <c r="AA7" s="300"/>
-      <c r="AB7" s="300"/>
-      <c r="AC7" s="300"/>
-      <c r="AD7" s="300"/>
-      <c r="AE7" s="300"/>
-      <c r="AF7" s="300"/>
-      <c r="AG7" s="300"/>
-      <c r="AH7" s="300"/>
-      <c r="AI7" s="301"/>
+      <c r="V7" s="281"/>
+      <c r="W7" s="281"/>
+      <c r="X7" s="281"/>
+      <c r="Y7" s="281"/>
+      <c r="Z7" s="281"/>
+      <c r="AA7" s="281"/>
+      <c r="AB7" s="281"/>
+      <c r="AC7" s="281"/>
+      <c r="AD7" s="281"/>
+      <c r="AE7" s="281"/>
+      <c r="AF7" s="281"/>
+      <c r="AG7" s="281"/>
+      <c r="AH7" s="281"/>
+      <c r="AI7" s="282"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="302" t="s">
+      <c r="A8" s="272" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="303"/>
-      <c r="C8" s="303"/>
-      <c r="D8" s="304"/>
-      <c r="E8" s="289" t="s">
+      <c r="B8" s="273"/>
+      <c r="C8" s="273"/>
+      <c r="D8" s="274"/>
+      <c r="E8" s="278" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="290"/>
-      <c r="G8" s="290"/>
-      <c r="H8" s="290"/>
-      <c r="I8" s="290"/>
-      <c r="J8" s="290"/>
-      <c r="K8" s="290"/>
-      <c r="L8" s="290"/>
-      <c r="M8" s="290"/>
-      <c r="N8" s="290"/>
-      <c r="O8" s="290"/>
-      <c r="P8" s="290"/>
-      <c r="Q8" s="274" t="s">
+      <c r="F8" s="279"/>
+      <c r="G8" s="279"/>
+      <c r="H8" s="279"/>
+      <c r="I8" s="279"/>
+      <c r="J8" s="279"/>
+      <c r="K8" s="279"/>
+      <c r="L8" s="279"/>
+      <c r="M8" s="279"/>
+      <c r="N8" s="279"/>
+      <c r="O8" s="279"/>
+      <c r="P8" s="279"/>
+      <c r="Q8" s="267" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="275"/>
-      <c r="S8" s="275"/>
-      <c r="T8" s="276"/>
-      <c r="U8" s="289" t="s">
+      <c r="R8" s="270"/>
+      <c r="S8" s="270"/>
+      <c r="T8" s="271"/>
+      <c r="U8" s="278" t="s">
         <v>56</v>
       </c>
-      <c r="V8" s="290"/>
-      <c r="W8" s="290"/>
-      <c r="X8" s="290"/>
-      <c r="Y8" s="290"/>
-      <c r="Z8" s="290"/>
-      <c r="AA8" s="290"/>
-      <c r="AB8" s="290"/>
-      <c r="AC8" s="290"/>
-      <c r="AD8" s="290"/>
-      <c r="AE8" s="290"/>
-      <c r="AF8" s="290"/>
-      <c r="AG8" s="290"/>
-      <c r="AH8" s="290"/>
-      <c r="AI8" s="291"/>
+      <c r="V8" s="279"/>
+      <c r="W8" s="279"/>
+      <c r="X8" s="279"/>
+      <c r="Y8" s="279"/>
+      <c r="Z8" s="279"/>
+      <c r="AA8" s="279"/>
+      <c r="AB8" s="279"/>
+      <c r="AC8" s="279"/>
+      <c r="AD8" s="279"/>
+      <c r="AE8" s="279"/>
+      <c r="AF8" s="279"/>
+      <c r="AG8" s="279"/>
+      <c r="AH8" s="279"/>
+      <c r="AI8" s="283"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="274" t="s">
+      <c r="A9" s="267" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="275"/>
-      <c r="C9" s="275"/>
-      <c r="D9" s="276"/>
+      <c r="B9" s="270"/>
+      <c r="C9" s="270"/>
+      <c r="D9" s="271"/>
       <c r="E9" s="89"/>
       <c r="F9" s="89"/>
       <c r="G9" s="89"/>
@@ -10470,7 +10469,7 @@
       <c r="AI13" s="101"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="274" t="s">
+      <c r="A14" s="267" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="268"/>
@@ -10624,12 +10623,12 @@
       <c r="AI17" s="101"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="286" t="s">
+      <c r="A18" s="284" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="287"/>
-      <c r="C18" s="287"/>
-      <c r="D18" s="288"/>
+      <c r="B18" s="285"/>
+      <c r="C18" s="285"/>
+      <c r="D18" s="286"/>
       <c r="E18" s="92"/>
       <c r="F18" s="103"/>
       <c r="G18" s="94"/>
@@ -10642,12 +10641,12 @@
       <c r="N18" s="94"/>
       <c r="O18" s="93"/>
       <c r="P18" s="94"/>
-      <c r="Q18" s="286" t="s">
+      <c r="Q18" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="R18" s="287"/>
-      <c r="S18" s="287"/>
-      <c r="T18" s="288"/>
+      <c r="R18" s="285"/>
+      <c r="S18" s="285"/>
+      <c r="T18" s="286"/>
       <c r="U18" s="93"/>
       <c r="V18" s="93"/>
       <c r="W18" s="93"/>
@@ -10749,12 +10748,12 @@
       <c r="AI20" s="95"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="274" t="s">
+      <c r="A21" s="267" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="275"/>
-      <c r="C21" s="275"/>
-      <c r="D21" s="276"/>
+      <c r="B21" s="270"/>
+      <c r="C21" s="270"/>
+      <c r="D21" s="271"/>
       <c r="E21" s="111" t="s">
         <v>69</v>
       </c>
@@ -10769,37 +10768,37 @@
       <c r="N21" s="87"/>
       <c r="O21" s="87"/>
       <c r="P21" s="87"/>
-      <c r="Q21" s="274" t="s">
+      <c r="Q21" s="267" t="s">
         <v>70</v>
       </c>
-      <c r="R21" s="275"/>
-      <c r="S21" s="275"/>
-      <c r="T21" s="276"/>
-      <c r="U21" s="289" t="s">
+      <c r="R21" s="270"/>
+      <c r="S21" s="270"/>
+      <c r="T21" s="271"/>
+      <c r="U21" s="278" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="290"/>
-      <c r="W21" s="290"/>
-      <c r="X21" s="290"/>
-      <c r="Y21" s="290"/>
-      <c r="Z21" s="290"/>
-      <c r="AA21" s="290"/>
-      <c r="AB21" s="290"/>
-      <c r="AC21" s="290"/>
-      <c r="AD21" s="290"/>
-      <c r="AE21" s="290"/>
-      <c r="AF21" s="290"/>
-      <c r="AG21" s="290"/>
-      <c r="AH21" s="290"/>
-      <c r="AI21" s="291"/>
+      <c r="V21" s="279"/>
+      <c r="W21" s="279"/>
+      <c r="X21" s="279"/>
+      <c r="Y21" s="279"/>
+      <c r="Z21" s="279"/>
+      <c r="AA21" s="279"/>
+      <c r="AB21" s="279"/>
+      <c r="AC21" s="279"/>
+      <c r="AD21" s="279"/>
+      <c r="AE21" s="279"/>
+      <c r="AF21" s="279"/>
+      <c r="AG21" s="279"/>
+      <c r="AH21" s="279"/>
+      <c r="AI21" s="283"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="292" t="s">
+      <c r="A22" s="287" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="293"/>
-      <c r="C22" s="293"/>
-      <c r="D22" s="294"/>
+      <c r="B22" s="276"/>
+      <c r="C22" s="276"/>
+      <c r="D22" s="277"/>
       <c r="E22" s="112"/>
       <c r="F22" s="113"/>
       <c r="G22" s="90"/>
@@ -10812,12 +10811,12 @@
       <c r="N22" s="90"/>
       <c r="O22" s="89"/>
       <c r="P22" s="90"/>
-      <c r="Q22" s="292" t="s">
+      <c r="Q22" s="287" t="s">
         <v>73</v>
       </c>
-      <c r="R22" s="293"/>
-      <c r="S22" s="293"/>
-      <c r="T22" s="294"/>
+      <c r="R22" s="276"/>
+      <c r="S22" s="276"/>
+      <c r="T22" s="277"/>
       <c r="U22" s="114"/>
       <c r="V22" s="90"/>
       <c r="W22" s="89"/>
@@ -10880,38 +10879,38 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="283" t="s">
+      <c r="A24" s="302" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="284"/>
-      <c r="C24" s="284"/>
-      <c r="D24" s="285"/>
-      <c r="E24" s="289" t="s">
+      <c r="B24" s="303"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="304"/>
+      <c r="E24" s="278" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="290"/>
-      <c r="G24" s="290"/>
-      <c r="H24" s="290"/>
-      <c r="I24" s="290"/>
-      <c r="J24" s="290"/>
-      <c r="K24" s="290"/>
-      <c r="L24" s="290"/>
-      <c r="M24" s="290"/>
-      <c r="N24" s="290"/>
-      <c r="O24" s="290"/>
-      <c r="P24" s="291"/>
-      <c r="Q24" s="295" t="s">
+      <c r="F24" s="279"/>
+      <c r="G24" s="279"/>
+      <c r="H24" s="279"/>
+      <c r="I24" s="279"/>
+      <c r="J24" s="279"/>
+      <c r="K24" s="279"/>
+      <c r="L24" s="279"/>
+      <c r="M24" s="279"/>
+      <c r="N24" s="279"/>
+      <c r="O24" s="279"/>
+      <c r="P24" s="283"/>
+      <c r="Q24" s="288" t="s">
         <v>76</v>
       </c>
-      <c r="R24" s="296"/>
-      <c r="S24" s="296"/>
-      <c r="T24" s="297"/>
-      <c r="U24" s="272">
+      <c r="R24" s="289"/>
+      <c r="S24" s="289"/>
+      <c r="T24" s="290"/>
+      <c r="U24" s="294">
         <v>3588</v>
       </c>
-      <c r="V24" s="273"/>
-      <c r="W24" s="273"/>
-      <c r="X24" s="273"/>
+      <c r="V24" s="295"/>
+      <c r="W24" s="295"/>
+      <c r="X24" s="295"/>
       <c r="Y24" s="117" t="s">
         <v>77</v>
       </c>
@@ -10927,28 +10926,28 @@
       <c r="AI24" s="119"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="279" t="s">
+      <c r="A25" s="298" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="280"/>
-      <c r="C25" s="280"/>
-      <c r="D25" s="281"/>
+      <c r="B25" s="299"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="300"/>
       <c r="E25" s="112"/>
       <c r="F25" s="120"/>
       <c r="G25" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="270" t="s">
+      <c r="H25" s="292" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="271"/>
-      <c r="J25" s="271"/>
-      <c r="K25" s="271"/>
-      <c r="L25" s="271"/>
-      <c r="M25" s="271"/>
-      <c r="N25" s="271"/>
-      <c r="O25" s="271"/>
-      <c r="P25" s="271"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="293"/>
+      <c r="M25" s="293"/>
+      <c r="N25" s="293"/>
+      <c r="O25" s="293"/>
+      <c r="P25" s="293"/>
       <c r="Q25" s="90" t="s">
         <v>67</v>
       </c>
@@ -10957,15 +10956,15 @@
       <c r="T25" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="U25" s="282"/>
-      <c r="V25" s="282"/>
-      <c r="W25" s="282"/>
-      <c r="X25" s="282"/>
-      <c r="Y25" s="282"/>
-      <c r="Z25" s="282"/>
-      <c r="AA25" s="282"/>
-      <c r="AB25" s="282"/>
-      <c r="AC25" s="282"/>
+      <c r="U25" s="301"/>
+      <c r="V25" s="301"/>
+      <c r="W25" s="301"/>
+      <c r="X25" s="301"/>
+      <c r="Y25" s="301"/>
+      <c r="Z25" s="301"/>
+      <c r="AA25" s="301"/>
+      <c r="AB25" s="301"/>
+      <c r="AC25" s="301"/>
       <c r="AD25" s="90" t="s">
         <v>67</v>
       </c>
@@ -10985,15 +10984,15 @@
       <c r="G26" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="278"/>
-      <c r="I26" s="278"/>
-      <c r="J26" s="278"/>
-      <c r="K26" s="278"/>
-      <c r="L26" s="278"/>
-      <c r="M26" s="278"/>
-      <c r="N26" s="278"/>
-      <c r="O26" s="278"/>
-      <c r="P26" s="278"/>
+      <c r="H26" s="297"/>
+      <c r="I26" s="297"/>
+      <c r="J26" s="297"/>
+      <c r="K26" s="297"/>
+      <c r="L26" s="297"/>
+      <c r="M26" s="297"/>
+      <c r="N26" s="297"/>
+      <c r="O26" s="297"/>
+      <c r="P26" s="297"/>
       <c r="Q26" s="94" t="s">
         <v>67</v>
       </c>
@@ -11002,15 +11001,15 @@
       <c r="T26" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="U26" s="278"/>
-      <c r="V26" s="278"/>
-      <c r="W26" s="278"/>
-      <c r="X26" s="278"/>
-      <c r="Y26" s="278"/>
-      <c r="Z26" s="278"/>
-      <c r="AA26" s="278"/>
-      <c r="AB26" s="278"/>
-      <c r="AC26" s="278"/>
+      <c r="U26" s="297"/>
+      <c r="V26" s="297"/>
+      <c r="W26" s="297"/>
+      <c r="X26" s="297"/>
+      <c r="Y26" s="297"/>
+      <c r="Z26" s="297"/>
+      <c r="AA26" s="297"/>
+      <c r="AB26" s="297"/>
+      <c r="AC26" s="297"/>
       <c r="AD26" s="94" t="s">
         <v>67</v>
       </c>
@@ -11030,15 +11029,15 @@
       <c r="G27" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="277"/>
-      <c r="I27" s="277"/>
-      <c r="J27" s="277"/>
-      <c r="K27" s="277"/>
-      <c r="L27" s="277"/>
-      <c r="M27" s="277"/>
-      <c r="N27" s="277"/>
-      <c r="O27" s="277"/>
-      <c r="P27" s="277"/>
+      <c r="H27" s="296"/>
+      <c r="I27" s="296"/>
+      <c r="J27" s="296"/>
+      <c r="K27" s="296"/>
+      <c r="L27" s="296"/>
+      <c r="M27" s="296"/>
+      <c r="N27" s="296"/>
+      <c r="O27" s="296"/>
+      <c r="P27" s="296"/>
       <c r="Q27" s="99" t="s">
         <v>67</v>
       </c>
@@ -11047,26 +11046,26 @@
       <c r="T27" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="U27" s="277"/>
-      <c r="V27" s="277"/>
-      <c r="W27" s="277"/>
-      <c r="X27" s="277"/>
-      <c r="Y27" s="277"/>
-      <c r="Z27" s="277"/>
-      <c r="AA27" s="277"/>
-      <c r="AB27" s="277"/>
-      <c r="AC27" s="277"/>
-      <c r="AD27" s="277"/>
-      <c r="AE27" s="277"/>
-      <c r="AF27" s="277"/>
-      <c r="AG27" s="277"/>
-      <c r="AH27" s="277"/>
+      <c r="U27" s="296"/>
+      <c r="V27" s="296"/>
+      <c r="W27" s="296"/>
+      <c r="X27" s="296"/>
+      <c r="Y27" s="296"/>
+      <c r="Z27" s="296"/>
+      <c r="AA27" s="296"/>
+      <c r="AB27" s="296"/>
+      <c r="AC27" s="296"/>
+      <c r="AD27" s="296"/>
+      <c r="AE27" s="296"/>
+      <c r="AF27" s="296"/>
+      <c r="AG27" s="296"/>
+      <c r="AH27" s="296"/>
       <c r="AI27" s="101" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="267" t="s">
+      <c r="A28" s="291" t="s">
         <v>158</v>
       </c>
       <c r="B28" s="268"/>
@@ -11254,31 +11253,14 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -11291,14 +11273,31 @@
     <mergeCell ref="H26:P26"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11845,12 +11844,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="130" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="239"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -11864,49 +11863,49 @@
       <c r="L1" s="241"/>
       <c r="M1" s="241"/>
       <c r="N1" s="242"/>
-      <c r="O1" s="249" t="s">
+      <c r="O1" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="258" t="str">
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="243" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="237" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="245" t="str">
+      <c r="AB1" s="239"/>
+      <c r="AC1" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="246"/>
-      <c r="AE1" s="246"/>
-      <c r="AF1" s="247"/>
-      <c r="AG1" s="237">
+      <c r="AD1" s="253"/>
+      <c r="AE1" s="253"/>
+      <c r="AF1" s="254"/>
+      <c r="AG1" s="264">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="239"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="266"/>
     </row>
     <row r="2" spans="1:43" s="130" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="244"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -11920,43 +11919,43 @@
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
       <c r="N2" s="242"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="253"/>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="243" t="s">
+      <c r="O2" s="246"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="237" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="245" t="str">
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="247"/>
-      <c r="AG2" s="237" t="str">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="254"/>
+      <c r="AG2" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="238"/>
-      <c r="AI2" s="239"/>
+      <c r="AH2" s="265"/>
+      <c r="AI2" s="266"/>
     </row>
     <row r="3" spans="1:43" s="130" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="237" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="244"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="239"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -11970,33 +11969,33 @@
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="242"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="257"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="245" t="str">
+      <c r="O3" s="249"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="237"/>
+      <c r="AB3" s="239"/>
+      <c r="AC3" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="246"/>
-      <c r="AE3" s="246"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="237" t="str">
+      <c r="AD3" s="253"/>
+      <c r="AE3" s="253"/>
+      <c r="AF3" s="254"/>
+      <c r="AG3" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="239"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="266"/>
     </row>
     <row r="4" spans="1:43" s="130" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="131"/>
@@ -12029,190 +12028,190 @@
       <c r="C6" s="136"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A7" s="360" t="s">
+      <c r="A7" s="305" t="s">
         <v>160</v>
       </c>
-      <c r="B7" s="361"/>
-      <c r="C7" s="361"/>
-      <c r="D7" s="361"/>
-      <c r="E7" s="361"/>
-      <c r="F7" s="361"/>
-      <c r="G7" s="361"/>
-      <c r="H7" s="361"/>
-      <c r="I7" s="361"/>
-      <c r="J7" s="361"/>
-      <c r="K7" s="361"/>
-      <c r="L7" s="361"/>
-      <c r="M7" s="361"/>
-      <c r="N7" s="361"/>
-      <c r="O7" s="361"/>
-      <c r="P7" s="361"/>
-      <c r="Q7" s="361"/>
-      <c r="R7" s="361"/>
-      <c r="S7" s="361"/>
-      <c r="T7" s="361"/>
-      <c r="U7" s="361"/>
-      <c r="V7" s="361"/>
-      <c r="W7" s="361"/>
-      <c r="X7" s="361"/>
-      <c r="Y7" s="361"/>
-      <c r="Z7" s="361"/>
-      <c r="AA7" s="361"/>
-      <c r="AB7" s="362"/>
-      <c r="AC7" s="375" t="s">
+      <c r="B7" s="306"/>
+      <c r="C7" s="306"/>
+      <c r="D7" s="306"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="306"/>
+      <c r="H7" s="306"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="306"/>
+      <c r="K7" s="306"/>
+      <c r="L7" s="306"/>
+      <c r="M7" s="306"/>
+      <c r="N7" s="306"/>
+      <c r="O7" s="306"/>
+      <c r="P7" s="306"/>
+      <c r="Q7" s="306"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="306"/>
+      <c r="V7" s="306"/>
+      <c r="W7" s="306"/>
+      <c r="X7" s="306"/>
+      <c r="Y7" s="306"/>
+      <c r="Z7" s="306"/>
+      <c r="AA7" s="306"/>
+      <c r="AB7" s="307"/>
+      <c r="AC7" s="320" t="s">
         <v>80</v>
       </c>
-      <c r="AD7" s="361"/>
-      <c r="AE7" s="361"/>
-      <c r="AF7" s="361"/>
-      <c r="AG7" s="361"/>
-      <c r="AH7" s="361"/>
-      <c r="AI7" s="376"/>
+      <c r="AD7" s="306"/>
+      <c r="AE7" s="306"/>
+      <c r="AF7" s="306"/>
+      <c r="AG7" s="306"/>
+      <c r="AH7" s="306"/>
+      <c r="AI7" s="321"/>
     </row>
     <row r="8" spans="1:43" s="139" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="363" t="s">
+      <c r="B8" s="308" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="364"/>
-      <c r="D8" s="364"/>
-      <c r="E8" s="364"/>
-      <c r="F8" s="365"/>
-      <c r="G8" s="363" t="s">
+      <c r="C8" s="309"/>
+      <c r="D8" s="309"/>
+      <c r="E8" s="309"/>
+      <c r="F8" s="310"/>
+      <c r="G8" s="308" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="366"/>
-      <c r="I8" s="368"/>
-      <c r="J8" s="363" t="s">
+      <c r="H8" s="311"/>
+      <c r="I8" s="313"/>
+      <c r="J8" s="308" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="366"/>
-      <c r="L8" s="366"/>
-      <c r="M8" s="366"/>
-      <c r="N8" s="366"/>
-      <c r="O8" s="366"/>
-      <c r="P8" s="368"/>
-      <c r="Q8" s="369" t="s">
+      <c r="K8" s="311"/>
+      <c r="L8" s="311"/>
+      <c r="M8" s="311"/>
+      <c r="N8" s="311"/>
+      <c r="O8" s="311"/>
+      <c r="P8" s="313"/>
+      <c r="Q8" s="314" t="s">
         <v>85</v>
       </c>
-      <c r="R8" s="371"/>
-      <c r="S8" s="369" t="s">
+      <c r="R8" s="316"/>
+      <c r="S8" s="314" t="s">
         <v>86</v>
       </c>
-      <c r="T8" s="370"/>
-      <c r="U8" s="371"/>
-      <c r="V8" s="363" t="s">
+      <c r="T8" s="315"/>
+      <c r="U8" s="316"/>
+      <c r="V8" s="308" t="s">
         <v>87</v>
       </c>
-      <c r="W8" s="366"/>
-      <c r="X8" s="366"/>
-      <c r="Y8" s="366"/>
-      <c r="Z8" s="366"/>
-      <c r="AA8" s="366"/>
-      <c r="AB8" s="367"/>
-      <c r="AC8" s="372" t="s">
+      <c r="W8" s="311"/>
+      <c r="X8" s="311"/>
+      <c r="Y8" s="311"/>
+      <c r="Z8" s="311"/>
+      <c r="AA8" s="311"/>
+      <c r="AB8" s="312"/>
+      <c r="AC8" s="317" t="s">
         <v>88</v>
       </c>
-      <c r="AD8" s="373"/>
-      <c r="AE8" s="373"/>
-      <c r="AF8" s="373"/>
-      <c r="AG8" s="373"/>
-      <c r="AH8" s="374" t="s">
+      <c r="AD8" s="318"/>
+      <c r="AE8" s="318"/>
+      <c r="AF8" s="318"/>
+      <c r="AG8" s="318"/>
+      <c r="AH8" s="319" t="s">
         <v>159</v>
       </c>
-      <c r="AI8" s="374"/>
+      <c r="AI8" s="319"/>
     </row>
     <row r="9" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="140">
         <v>1</v>
       </c>
-      <c r="B9" s="312" t="s">
+      <c r="B9" s="324" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="313"/>
-      <c r="D9" s="313"/>
-      <c r="E9" s="313"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="312" t="s">
+      <c r="C9" s="325"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="326"/>
+      <c r="G9" s="324" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="313"/>
-      <c r="I9" s="314"/>
-      <c r="J9" s="312" t="s">
+      <c r="H9" s="325"/>
+      <c r="I9" s="326"/>
+      <c r="J9" s="324" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="355"/>
-      <c r="L9" s="355"/>
-      <c r="M9" s="355"/>
-      <c r="N9" s="355"/>
-      <c r="O9" s="355"/>
-      <c r="P9" s="356"/>
-      <c r="Q9" s="319">
+      <c r="K9" s="332"/>
+      <c r="L9" s="332"/>
+      <c r="M9" s="332"/>
+      <c r="N9" s="332"/>
+      <c r="O9" s="332"/>
+      <c r="P9" s="333"/>
+      <c r="Q9" s="370">
         <v>3588</v>
       </c>
-      <c r="R9" s="320"/>
-      <c r="S9" s="323" t="s">
+      <c r="R9" s="371"/>
+      <c r="S9" s="374" t="s">
         <v>92</v>
       </c>
-      <c r="T9" s="324"/>
-      <c r="U9" s="325"/>
-      <c r="V9" s="312" t="s">
+      <c r="T9" s="375"/>
+      <c r="U9" s="376"/>
+      <c r="V9" s="324" t="s">
         <v>93</v>
       </c>
-      <c r="W9" s="313"/>
-      <c r="X9" s="313"/>
-      <c r="Y9" s="313"/>
-      <c r="Z9" s="313"/>
-      <c r="AA9" s="313"/>
-      <c r="AB9" s="354"/>
-      <c r="AC9" s="357"/>
-      <c r="AD9" s="312"/>
-      <c r="AE9" s="313"/>
-      <c r="AF9" s="313"/>
-      <c r="AG9" s="314"/>
-      <c r="AH9" s="321"/>
-      <c r="AI9" s="322"/>
+      <c r="W9" s="325"/>
+      <c r="X9" s="325"/>
+      <c r="Y9" s="325"/>
+      <c r="Z9" s="325"/>
+      <c r="AA9" s="325"/>
+      <c r="AB9" s="330"/>
+      <c r="AC9" s="336"/>
+      <c r="AD9" s="324"/>
+      <c r="AE9" s="325"/>
+      <c r="AF9" s="325"/>
+      <c r="AG9" s="326"/>
+      <c r="AH9" s="372"/>
+      <c r="AI9" s="373"/>
     </row>
     <row r="10" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="140">
         <v>2</v>
       </c>
-      <c r="B10" s="307"/>
-      <c r="C10" s="308"/>
-      <c r="D10" s="308"/>
-      <c r="E10" s="308"/>
-      <c r="F10" s="309"/>
-      <c r="G10" s="307"/>
-      <c r="H10" s="308"/>
-      <c r="I10" s="309"/>
-      <c r="J10" s="307"/>
-      <c r="K10" s="316"/>
-      <c r="L10" s="316"/>
-      <c r="M10" s="316"/>
-      <c r="N10" s="316"/>
-      <c r="O10" s="316"/>
-      <c r="P10" s="317"/>
-      <c r="Q10" s="310"/>
-      <c r="R10" s="311"/>
-      <c r="S10" s="326"/>
-      <c r="T10" s="327"/>
-      <c r="U10" s="328"/>
-      <c r="V10" s="307"/>
-      <c r="W10" s="308"/>
-      <c r="X10" s="308"/>
-      <c r="Y10" s="308"/>
-      <c r="Z10" s="308"/>
-      <c r="AA10" s="308"/>
-      <c r="AB10" s="318"/>
-      <c r="AC10" s="358"/>
-      <c r="AD10" s="307"/>
-      <c r="AE10" s="308"/>
-      <c r="AF10" s="308"/>
-      <c r="AG10" s="309"/>
-      <c r="AH10" s="305"/>
-      <c r="AI10" s="306"/>
+      <c r="B10" s="327"/>
+      <c r="C10" s="328"/>
+      <c r="D10" s="328"/>
+      <c r="E10" s="328"/>
+      <c r="F10" s="329"/>
+      <c r="G10" s="327"/>
+      <c r="H10" s="328"/>
+      <c r="I10" s="329"/>
+      <c r="J10" s="327"/>
+      <c r="K10" s="334"/>
+      <c r="L10" s="334"/>
+      <c r="M10" s="334"/>
+      <c r="N10" s="334"/>
+      <c r="O10" s="334"/>
+      <c r="P10" s="335"/>
+      <c r="Q10" s="342"/>
+      <c r="R10" s="343"/>
+      <c r="S10" s="347"/>
+      <c r="T10" s="348"/>
+      <c r="U10" s="349"/>
+      <c r="V10" s="327"/>
+      <c r="W10" s="328"/>
+      <c r="X10" s="328"/>
+      <c r="Y10" s="328"/>
+      <c r="Z10" s="328"/>
+      <c r="AA10" s="328"/>
+      <c r="AB10" s="331"/>
+      <c r="AC10" s="337"/>
+      <c r="AD10" s="327"/>
+      <c r="AE10" s="328"/>
+      <c r="AF10" s="328"/>
+      <c r="AG10" s="329"/>
+      <c r="AH10" s="322"/>
+      <c r="AI10" s="323"/>
       <c r="AM10" s="141"/>
       <c r="AN10" s="141"/>
       <c r="AO10" s="141"/>
@@ -12223,40 +12222,40 @@
       <c r="A11" s="140">
         <v>3</v>
       </c>
-      <c r="B11" s="307"/>
-      <c r="C11" s="308"/>
-      <c r="D11" s="308"/>
-      <c r="E11" s="308"/>
-      <c r="F11" s="309"/>
-      <c r="G11" s="331"/>
-      <c r="H11" s="332"/>
-      <c r="I11" s="333"/>
-      <c r="J11" s="307"/>
-      <c r="K11" s="316"/>
-      <c r="L11" s="316"/>
-      <c r="M11" s="316"/>
-      <c r="N11" s="316"/>
-      <c r="O11" s="316"/>
-      <c r="P11" s="317"/>
-      <c r="Q11" s="310"/>
-      <c r="R11" s="311"/>
-      <c r="S11" s="326"/>
-      <c r="T11" s="327"/>
-      <c r="U11" s="328"/>
-      <c r="V11" s="307"/>
-      <c r="W11" s="308"/>
-      <c r="X11" s="308"/>
-      <c r="Y11" s="308"/>
-      <c r="Z11" s="308"/>
-      <c r="AA11" s="308"/>
-      <c r="AB11" s="318"/>
-      <c r="AC11" s="358"/>
-      <c r="AD11" s="315"/>
-      <c r="AE11" s="316"/>
-      <c r="AF11" s="316"/>
-      <c r="AG11" s="317"/>
-      <c r="AH11" s="305"/>
-      <c r="AI11" s="306"/>
+      <c r="B11" s="327"/>
+      <c r="C11" s="328"/>
+      <c r="D11" s="328"/>
+      <c r="E11" s="328"/>
+      <c r="F11" s="329"/>
+      <c r="G11" s="344"/>
+      <c r="H11" s="345"/>
+      <c r="I11" s="346"/>
+      <c r="J11" s="327"/>
+      <c r="K11" s="334"/>
+      <c r="L11" s="334"/>
+      <c r="M11" s="334"/>
+      <c r="N11" s="334"/>
+      <c r="O11" s="334"/>
+      <c r="P11" s="335"/>
+      <c r="Q11" s="342"/>
+      <c r="R11" s="343"/>
+      <c r="S11" s="347"/>
+      <c r="T11" s="348"/>
+      <c r="U11" s="349"/>
+      <c r="V11" s="327"/>
+      <c r="W11" s="328"/>
+      <c r="X11" s="328"/>
+      <c r="Y11" s="328"/>
+      <c r="Z11" s="328"/>
+      <c r="AA11" s="328"/>
+      <c r="AB11" s="331"/>
+      <c r="AC11" s="337"/>
+      <c r="AD11" s="364"/>
+      <c r="AE11" s="334"/>
+      <c r="AF11" s="334"/>
+      <c r="AG11" s="335"/>
+      <c r="AH11" s="322"/>
+      <c r="AI11" s="323"/>
       <c r="AM11" s="94"/>
       <c r="AN11" s="94"/>
       <c r="AO11" s="94"/>
@@ -12267,40 +12266,40 @@
       <c r="A12" s="140">
         <v>4</v>
       </c>
-      <c r="B12" s="307"/>
-      <c r="C12" s="308"/>
-      <c r="D12" s="308"/>
-      <c r="E12" s="308"/>
-      <c r="F12" s="309"/>
-      <c r="G12" s="331"/>
-      <c r="H12" s="332"/>
-      <c r="I12" s="333"/>
-      <c r="J12" s="307"/>
-      <c r="K12" s="316"/>
-      <c r="L12" s="316"/>
-      <c r="M12" s="316"/>
-      <c r="N12" s="316"/>
-      <c r="O12" s="316"/>
-      <c r="P12" s="317"/>
-      <c r="Q12" s="310"/>
-      <c r="R12" s="311"/>
-      <c r="S12" s="326"/>
-      <c r="T12" s="327"/>
-      <c r="U12" s="328"/>
-      <c r="V12" s="307"/>
-      <c r="W12" s="308"/>
-      <c r="X12" s="308"/>
-      <c r="Y12" s="308"/>
-      <c r="Z12" s="308"/>
-      <c r="AA12" s="308"/>
-      <c r="AB12" s="318"/>
-      <c r="AC12" s="358"/>
-      <c r="AD12" s="315"/>
-      <c r="AE12" s="316"/>
-      <c r="AF12" s="316"/>
-      <c r="AG12" s="317"/>
-      <c r="AH12" s="305"/>
-      <c r="AI12" s="306"/>
+      <c r="B12" s="327"/>
+      <c r="C12" s="328"/>
+      <c r="D12" s="328"/>
+      <c r="E12" s="328"/>
+      <c r="F12" s="329"/>
+      <c r="G12" s="344"/>
+      <c r="H12" s="345"/>
+      <c r="I12" s="346"/>
+      <c r="J12" s="327"/>
+      <c r="K12" s="334"/>
+      <c r="L12" s="334"/>
+      <c r="M12" s="334"/>
+      <c r="N12" s="334"/>
+      <c r="O12" s="334"/>
+      <c r="P12" s="335"/>
+      <c r="Q12" s="342"/>
+      <c r="R12" s="343"/>
+      <c r="S12" s="347"/>
+      <c r="T12" s="348"/>
+      <c r="U12" s="349"/>
+      <c r="V12" s="327"/>
+      <c r="W12" s="328"/>
+      <c r="X12" s="328"/>
+      <c r="Y12" s="328"/>
+      <c r="Z12" s="328"/>
+      <c r="AA12" s="328"/>
+      <c r="AB12" s="331"/>
+      <c r="AC12" s="337"/>
+      <c r="AD12" s="364"/>
+      <c r="AE12" s="334"/>
+      <c r="AF12" s="334"/>
+      <c r="AG12" s="335"/>
+      <c r="AH12" s="322"/>
+      <c r="AI12" s="323"/>
       <c r="AM12" s="94"/>
       <c r="AN12" s="94"/>
       <c r="AO12" s="94"/>
@@ -12311,40 +12310,40 @@
       <c r="A13" s="140">
         <v>5</v>
       </c>
-      <c r="B13" s="343"/>
-      <c r="C13" s="344"/>
-      <c r="D13" s="344"/>
-      <c r="E13" s="344"/>
-      <c r="F13" s="345"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="308"/>
-      <c r="I13" s="309"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="308"/>
-      <c r="L13" s="308"/>
-      <c r="M13" s="308"/>
-      <c r="N13" s="308"/>
-      <c r="O13" s="308"/>
-      <c r="P13" s="309"/>
-      <c r="Q13" s="310"/>
-      <c r="R13" s="311"/>
-      <c r="S13" s="307"/>
-      <c r="T13" s="308"/>
-      <c r="U13" s="309"/>
-      <c r="V13" s="307"/>
-      <c r="W13" s="308"/>
-      <c r="X13" s="308"/>
-      <c r="Y13" s="308"/>
-      <c r="Z13" s="308"/>
-      <c r="AA13" s="308"/>
-      <c r="AB13" s="318"/>
-      <c r="AC13" s="358"/>
-      <c r="AD13" s="315"/>
-      <c r="AE13" s="316"/>
-      <c r="AF13" s="316"/>
-      <c r="AG13" s="317"/>
-      <c r="AH13" s="305"/>
-      <c r="AI13" s="306"/>
+      <c r="B13" s="339"/>
+      <c r="C13" s="340"/>
+      <c r="D13" s="340"/>
+      <c r="E13" s="340"/>
+      <c r="F13" s="341"/>
+      <c r="G13" s="327"/>
+      <c r="H13" s="328"/>
+      <c r="I13" s="329"/>
+      <c r="J13" s="327"/>
+      <c r="K13" s="328"/>
+      <c r="L13" s="328"/>
+      <c r="M13" s="328"/>
+      <c r="N13" s="328"/>
+      <c r="O13" s="328"/>
+      <c r="P13" s="329"/>
+      <c r="Q13" s="342"/>
+      <c r="R13" s="343"/>
+      <c r="S13" s="327"/>
+      <c r="T13" s="328"/>
+      <c r="U13" s="329"/>
+      <c r="V13" s="327"/>
+      <c r="W13" s="328"/>
+      <c r="X13" s="328"/>
+      <c r="Y13" s="328"/>
+      <c r="Z13" s="328"/>
+      <c r="AA13" s="328"/>
+      <c r="AB13" s="331"/>
+      <c r="AC13" s="337"/>
+      <c r="AD13" s="364"/>
+      <c r="AE13" s="334"/>
+      <c r="AF13" s="334"/>
+      <c r="AG13" s="335"/>
+      <c r="AH13" s="322"/>
+      <c r="AI13" s="323"/>
       <c r="AM13" s="142"/>
       <c r="AN13" s="142"/>
       <c r="AO13" s="142"/>
@@ -12355,165 +12354,165 @@
       <c r="A14" s="140">
         <v>6</v>
       </c>
-      <c r="B14" s="343"/>
-      <c r="C14" s="344"/>
-      <c r="D14" s="344"/>
-      <c r="E14" s="344"/>
-      <c r="F14" s="345"/>
-      <c r="G14" s="307"/>
-      <c r="H14" s="308"/>
-      <c r="I14" s="309"/>
-      <c r="J14" s="307"/>
-      <c r="K14" s="308"/>
-      <c r="L14" s="308"/>
-      <c r="M14" s="308"/>
-      <c r="N14" s="308"/>
-      <c r="O14" s="308"/>
-      <c r="P14" s="309"/>
-      <c r="Q14" s="310"/>
-      <c r="R14" s="311"/>
-      <c r="S14" s="307"/>
-      <c r="T14" s="308"/>
-      <c r="U14" s="309"/>
-      <c r="V14" s="307"/>
-      <c r="W14" s="308"/>
-      <c r="X14" s="308"/>
-      <c r="Y14" s="308"/>
-      <c r="Z14" s="308"/>
-      <c r="AA14" s="308"/>
-      <c r="AB14" s="318"/>
-      <c r="AC14" s="358"/>
-      <c r="AD14" s="315"/>
-      <c r="AE14" s="316"/>
-      <c r="AF14" s="316"/>
-      <c r="AG14" s="317"/>
-      <c r="AH14" s="305"/>
-      <c r="AI14" s="306"/>
+      <c r="B14" s="339"/>
+      <c r="C14" s="340"/>
+      <c r="D14" s="340"/>
+      <c r="E14" s="340"/>
+      <c r="F14" s="341"/>
+      <c r="G14" s="327"/>
+      <c r="H14" s="328"/>
+      <c r="I14" s="329"/>
+      <c r="J14" s="327"/>
+      <c r="K14" s="328"/>
+      <c r="L14" s="328"/>
+      <c r="M14" s="328"/>
+      <c r="N14" s="328"/>
+      <c r="O14" s="328"/>
+      <c r="P14" s="329"/>
+      <c r="Q14" s="342"/>
+      <c r="R14" s="343"/>
+      <c r="S14" s="327"/>
+      <c r="T14" s="328"/>
+      <c r="U14" s="329"/>
+      <c r="V14" s="327"/>
+      <c r="W14" s="328"/>
+      <c r="X14" s="328"/>
+      <c r="Y14" s="328"/>
+      <c r="Z14" s="328"/>
+      <c r="AA14" s="328"/>
+      <c r="AB14" s="331"/>
+      <c r="AC14" s="337"/>
+      <c r="AD14" s="364"/>
+      <c r="AE14" s="334"/>
+      <c r="AF14" s="334"/>
+      <c r="AG14" s="335"/>
+      <c r="AH14" s="322"/>
+      <c r="AI14" s="323"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="143">
         <v>7</v>
       </c>
-      <c r="B15" s="343"/>
-      <c r="C15" s="344"/>
-      <c r="D15" s="344"/>
-      <c r="E15" s="344"/>
-      <c r="F15" s="345"/>
-      <c r="G15" s="307"/>
-      <c r="H15" s="308"/>
-      <c r="I15" s="309"/>
-      <c r="J15" s="307"/>
-      <c r="K15" s="308"/>
-      <c r="L15" s="308"/>
-      <c r="M15" s="308"/>
-      <c r="N15" s="308"/>
-      <c r="O15" s="308"/>
-      <c r="P15" s="309"/>
-      <c r="Q15" s="310"/>
-      <c r="R15" s="311"/>
-      <c r="S15" s="307"/>
-      <c r="T15" s="308"/>
-      <c r="U15" s="309"/>
-      <c r="V15" s="307"/>
-      <c r="W15" s="308"/>
-      <c r="X15" s="308"/>
-      <c r="Y15" s="308"/>
-      <c r="Z15" s="308"/>
-      <c r="AA15" s="308"/>
-      <c r="AB15" s="318"/>
-      <c r="AC15" s="358"/>
-      <c r="AD15" s="315"/>
-      <c r="AE15" s="316"/>
-      <c r="AF15" s="316"/>
-      <c r="AG15" s="317"/>
-      <c r="AH15" s="305"/>
-      <c r="AI15" s="306"/>
+      <c r="B15" s="339"/>
+      <c r="C15" s="340"/>
+      <c r="D15" s="340"/>
+      <c r="E15" s="340"/>
+      <c r="F15" s="341"/>
+      <c r="G15" s="327"/>
+      <c r="H15" s="328"/>
+      <c r="I15" s="329"/>
+      <c r="J15" s="327"/>
+      <c r="K15" s="328"/>
+      <c r="L15" s="328"/>
+      <c r="M15" s="328"/>
+      <c r="N15" s="328"/>
+      <c r="O15" s="328"/>
+      <c r="P15" s="329"/>
+      <c r="Q15" s="342"/>
+      <c r="R15" s="343"/>
+      <c r="S15" s="327"/>
+      <c r="T15" s="328"/>
+      <c r="U15" s="329"/>
+      <c r="V15" s="327"/>
+      <c r="W15" s="328"/>
+      <c r="X15" s="328"/>
+      <c r="Y15" s="328"/>
+      <c r="Z15" s="328"/>
+      <c r="AA15" s="328"/>
+      <c r="AB15" s="331"/>
+      <c r="AC15" s="337"/>
+      <c r="AD15" s="364"/>
+      <c r="AE15" s="334"/>
+      <c r="AF15" s="334"/>
+      <c r="AG15" s="335"/>
+      <c r="AH15" s="322"/>
+      <c r="AI15" s="323"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="143">
         <v>8</v>
       </c>
-      <c r="B16" s="343"/>
-      <c r="C16" s="344"/>
-      <c r="D16" s="344"/>
-      <c r="E16" s="344"/>
-      <c r="F16" s="345"/>
-      <c r="G16" s="307"/>
-      <c r="H16" s="308"/>
-      <c r="I16" s="309"/>
-      <c r="J16" s="307"/>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
-      <c r="M16" s="308"/>
-      <c r="N16" s="308"/>
-      <c r="O16" s="308"/>
-      <c r="P16" s="309"/>
-      <c r="Q16" s="310"/>
-      <c r="R16" s="311"/>
-      <c r="S16" s="307"/>
-      <c r="T16" s="308"/>
-      <c r="U16" s="309"/>
-      <c r="V16" s="307"/>
-      <c r="W16" s="308"/>
-      <c r="X16" s="308"/>
-      <c r="Y16" s="308"/>
-      <c r="Z16" s="308"/>
-      <c r="AA16" s="308"/>
-      <c r="AB16" s="318"/>
-      <c r="AC16" s="358"/>
-      <c r="AD16" s="315"/>
-      <c r="AE16" s="316"/>
-      <c r="AF16" s="316"/>
-      <c r="AG16" s="317"/>
-      <c r="AH16" s="305"/>
-      <c r="AI16" s="306"/>
+      <c r="B16" s="339"/>
+      <c r="C16" s="340"/>
+      <c r="D16" s="340"/>
+      <c r="E16" s="340"/>
+      <c r="F16" s="341"/>
+      <c r="G16" s="327"/>
+      <c r="H16" s="328"/>
+      <c r="I16" s="329"/>
+      <c r="J16" s="327"/>
+      <c r="K16" s="328"/>
+      <c r="L16" s="328"/>
+      <c r="M16" s="328"/>
+      <c r="N16" s="328"/>
+      <c r="O16" s="328"/>
+      <c r="P16" s="329"/>
+      <c r="Q16" s="342"/>
+      <c r="R16" s="343"/>
+      <c r="S16" s="327"/>
+      <c r="T16" s="328"/>
+      <c r="U16" s="329"/>
+      <c r="V16" s="327"/>
+      <c r="W16" s="328"/>
+      <c r="X16" s="328"/>
+      <c r="Y16" s="328"/>
+      <c r="Z16" s="328"/>
+      <c r="AA16" s="328"/>
+      <c r="AB16" s="331"/>
+      <c r="AC16" s="337"/>
+      <c r="AD16" s="364"/>
+      <c r="AE16" s="334"/>
+      <c r="AF16" s="334"/>
+      <c r="AG16" s="335"/>
+      <c r="AH16" s="322"/>
+      <c r="AI16" s="323"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17" s="144">
         <v>9</v>
       </c>
-      <c r="B17" s="346"/>
-      <c r="C17" s="347"/>
-      <c r="D17" s="347"/>
-      <c r="E17" s="347"/>
-      <c r="F17" s="348"/>
-      <c r="G17" s="335"/>
-      <c r="H17" s="336"/>
-      <c r="I17" s="340"/>
-      <c r="J17" s="335"/>
-      <c r="K17" s="336"/>
-      <c r="L17" s="336"/>
-      <c r="M17" s="336"/>
-      <c r="N17" s="336"/>
-      <c r="O17" s="336"/>
-      <c r="P17" s="340"/>
-      <c r="Q17" s="341"/>
-      <c r="R17" s="342"/>
-      <c r="S17" s="335"/>
-      <c r="T17" s="336"/>
-      <c r="U17" s="340"/>
-      <c r="V17" s="335"/>
-      <c r="W17" s="336"/>
-      <c r="X17" s="336"/>
-      <c r="Y17" s="336"/>
-      <c r="Z17" s="336"/>
-      <c r="AA17" s="336"/>
-      <c r="AB17" s="337"/>
-      <c r="AC17" s="359"/>
-      <c r="AD17" s="349"/>
-      <c r="AE17" s="350"/>
-      <c r="AF17" s="350"/>
-      <c r="AG17" s="351"/>
-      <c r="AH17" s="352"/>
-      <c r="AI17" s="353"/>
+      <c r="B17" s="361"/>
+      <c r="C17" s="362"/>
+      <c r="D17" s="362"/>
+      <c r="E17" s="362"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="353"/>
+      <c r="H17" s="354"/>
+      <c r="I17" s="358"/>
+      <c r="J17" s="353"/>
+      <c r="K17" s="354"/>
+      <c r="L17" s="354"/>
+      <c r="M17" s="354"/>
+      <c r="N17" s="354"/>
+      <c r="O17" s="354"/>
+      <c r="P17" s="358"/>
+      <c r="Q17" s="359"/>
+      <c r="R17" s="360"/>
+      <c r="S17" s="353"/>
+      <c r="T17" s="354"/>
+      <c r="U17" s="358"/>
+      <c r="V17" s="353"/>
+      <c r="W17" s="354"/>
+      <c r="X17" s="354"/>
+      <c r="Y17" s="354"/>
+      <c r="Z17" s="354"/>
+      <c r="AA17" s="354"/>
+      <c r="AB17" s="355"/>
+      <c r="AC17" s="338"/>
+      <c r="AD17" s="365"/>
+      <c r="AE17" s="366"/>
+      <c r="AF17" s="366"/>
+      <c r="AG17" s="367"/>
+      <c r="AH17" s="368"/>
+      <c r="AI17" s="369"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="338"/>
-      <c r="B18" s="339"/>
-      <c r="C18" s="339"/>
-      <c r="D18" s="339"/>
-      <c r="E18" s="339"/>
-      <c r="F18" s="339"/>
+      <c r="A18" s="356"/>
+      <c r="B18" s="357"/>
+      <c r="C18" s="357"/>
+      <c r="D18" s="357"/>
+      <c r="E18" s="357"/>
+      <c r="F18" s="357"/>
       <c r="G18" s="145"/>
       <c r="H18" s="145"/>
       <c r="I18" s="145"/>
@@ -12537,23 +12536,23 @@
       <c r="AA18" s="145"/>
       <c r="AB18" s="145"/>
       <c r="AC18" s="82"/>
-      <c r="AD18" s="334"/>
-      <c r="AE18" s="334"/>
-      <c r="AF18" s="334"/>
-      <c r="AG18" s="334"/>
-      <c r="AH18" s="334"/>
+      <c r="AD18" s="352"/>
+      <c r="AE18" s="352"/>
+      <c r="AF18" s="352"/>
+      <c r="AG18" s="352"/>
+      <c r="AH18" s="352"/>
       <c r="AI18" s="83"/>
       <c r="AJ18" s="141"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="329" t="s">
+      <c r="A19" s="350" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="330"/>
-      <c r="C19" s="330"/>
-      <c r="D19" s="330"/>
-      <c r="E19" s="330"/>
-      <c r="F19" s="330"/>
+      <c r="B19" s="351"/>
+      <c r="C19" s="351"/>
+      <c r="D19" s="351"/>
+      <c r="E19" s="351"/>
+      <c r="F19" s="351"/>
       <c r="G19" s="146"/>
       <c r="H19" s="145"/>
       <c r="I19" s="145"/>
@@ -13037,23 +13036,68 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="AH11:AI11"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="A3:D3"/>
@@ -13078,68 +13122,23 @@
     <mergeCell ref="AH12:AI12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="AC7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -13182,12 +13181,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:121" s="45" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="237" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="244"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="239"/>
       <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -13201,49 +13200,49 @@
       <c r="L1" s="241"/>
       <c r="M1" s="241"/>
       <c r="N1" s="242"/>
-      <c r="O1" s="249" t="s">
+      <c r="O1" s="243" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="258" t="str">
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="243" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="237" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="245" t="str">
+      <c r="AB1" s="239"/>
+      <c r="AC1" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="246"/>
-      <c r="AE1" s="246"/>
-      <c r="AF1" s="247"/>
-      <c r="AG1" s="380">
+      <c r="AD1" s="253"/>
+      <c r="AE1" s="253"/>
+      <c r="AF1" s="254"/>
+      <c r="AG1" s="396">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="381"/>
-      <c r="AI1" s="382"/>
+      <c r="AH1" s="397"/>
+      <c r="AI1" s="398"/>
     </row>
     <row r="2" spans="1:121" s="45" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="244"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
       <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -13257,43 +13256,43 @@
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
       <c r="N2" s="242"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="253"/>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="243" t="s">
+      <c r="O2" s="246"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="245" t="str">
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="247"/>
-      <c r="AG2" s="380" t="str">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="254"/>
+      <c r="AG2" s="396" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="381"/>
-      <c r="AI2" s="382"/>
+      <c r="AH2" s="397"/>
+      <c r="AI2" s="398"/>
     </row>
     <row r="3" spans="1:121" s="45" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="237" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="244"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="239"/>
       <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -13307,33 +13306,33 @@
       <c r="L3" s="241"/>
       <c r="M3" s="241"/>
       <c r="N3" s="242"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="257"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="243"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="245" t="str">
+      <c r="O3" s="249"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="237"/>
+      <c r="AB3" s="239"/>
+      <c r="AC3" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="246"/>
-      <c r="AE3" s="246"/>
-      <c r="AF3" s="247"/>
-      <c r="AG3" s="380" t="str">
+      <c r="AD3" s="253"/>
+      <c r="AE3" s="253"/>
+      <c r="AF3" s="254"/>
+      <c r="AG3" s="396" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="381"/>
-      <c r="AI3" s="382"/>
+      <c r="AH3" s="397"/>
+      <c r="AI3" s="398"/>
     </row>
     <row r="4" spans="1:121" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:121" ht="12" x14ac:dyDescent="0.2">
@@ -13354,69 +13353,69 @@
       <c r="A7" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="377" t="s">
+      <c r="B7" s="388" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="378"/>
-      <c r="D7" s="378"/>
-      <c r="E7" s="378"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="377" t="s">
+      <c r="C7" s="389"/>
+      <c r="D7" s="389"/>
+      <c r="E7" s="389"/>
+      <c r="F7" s="390"/>
+      <c r="G7" s="388" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="378"/>
-      <c r="I7" s="378"/>
-      <c r="J7" s="378"/>
-      <c r="K7" s="379"/>
-      <c r="L7" s="377" t="s">
+      <c r="H7" s="389"/>
+      <c r="I7" s="389"/>
+      <c r="J7" s="389"/>
+      <c r="K7" s="390"/>
+      <c r="L7" s="388" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="378"/>
-      <c r="N7" s="378"/>
-      <c r="O7" s="378"/>
-      <c r="P7" s="379"/>
+      <c r="M7" s="389"/>
+      <c r="N7" s="389"/>
+      <c r="O7" s="389"/>
+      <c r="P7" s="390"/>
       <c r="Q7" s="161" t="s">
         <v>165</v>
       </c>
-      <c r="R7" s="392" t="s">
+      <c r="R7" s="391" t="s">
         <v>98</v>
       </c>
-      <c r="S7" s="392"/>
-      <c r="T7" s="392"/>
-      <c r="U7" s="392"/>
-      <c r="V7" s="383" t="s">
+      <c r="S7" s="391"/>
+      <c r="T7" s="391"/>
+      <c r="U7" s="391"/>
+      <c r="V7" s="399" t="s">
         <v>99</v>
       </c>
-      <c r="W7" s="383"/>
-      <c r="X7" s="384" t="s">
+      <c r="W7" s="399"/>
+      <c r="X7" s="400" t="s">
         <v>100</v>
       </c>
-      <c r="Y7" s="385"/>
-      <c r="Z7" s="377" t="s">
+      <c r="Y7" s="401"/>
+      <c r="Z7" s="388" t="s">
         <v>101</v>
       </c>
-      <c r="AA7" s="379"/>
-      <c r="AB7" s="377" t="s">
+      <c r="AA7" s="390"/>
+      <c r="AB7" s="388" t="s">
         <v>102</v>
       </c>
-      <c r="AC7" s="379"/>
-      <c r="AD7" s="377" t="s">
+      <c r="AC7" s="390"/>
+      <c r="AD7" s="388" t="s">
         <v>103</v>
       </c>
-      <c r="AE7" s="379"/>
-      <c r="AF7" s="377" t="s">
+      <c r="AE7" s="390"/>
+      <c r="AF7" s="388" t="s">
         <v>104</v>
       </c>
-      <c r="AG7" s="378"/>
-      <c r="AH7" s="379"/>
-      <c r="AI7" s="377" t="s">
+      <c r="AG7" s="389"/>
+      <c r="AH7" s="390"/>
+      <c r="AI7" s="388" t="s">
         <v>105</v>
       </c>
-      <c r="AJ7" s="378"/>
-      <c r="AK7" s="378"/>
-      <c r="AL7" s="378"/>
-      <c r="AM7" s="378"/>
-      <c r="AN7" s="379"/>
+      <c r="AJ7" s="389"/>
+      <c r="AK7" s="389"/>
+      <c r="AL7" s="389"/>
+      <c r="AM7" s="389"/>
+      <c r="AN7" s="390"/>
       <c r="BN7" s="163"/>
       <c r="BO7" s="163"/>
       <c r="BP7" s="163"/>
@@ -13478,69 +13477,69 @@
       <c r="A8" s="165">
         <v>1</v>
       </c>
-      <c r="B8" s="389" t="s">
+      <c r="B8" s="378" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="390"/>
-      <c r="D8" s="390"/>
-      <c r="E8" s="390"/>
-      <c r="F8" s="391"/>
-      <c r="G8" s="388" t="s">
+      <c r="C8" s="379"/>
+      <c r="D8" s="379"/>
+      <c r="E8" s="379"/>
+      <c r="F8" s="380"/>
+      <c r="G8" s="377" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="364"/>
-      <c r="I8" s="364"/>
-      <c r="J8" s="364"/>
-      <c r="K8" s="365"/>
-      <c r="L8" s="388" t="s">
+      <c r="H8" s="309"/>
+      <c r="I8" s="309"/>
+      <c r="J8" s="309"/>
+      <c r="K8" s="310"/>
+      <c r="L8" s="377" t="s">
         <v>108</v>
       </c>
-      <c r="M8" s="364"/>
-      <c r="N8" s="364"/>
-      <c r="O8" s="364"/>
-      <c r="P8" s="365"/>
+      <c r="M8" s="309"/>
+      <c r="N8" s="309"/>
+      <c r="O8" s="309"/>
+      <c r="P8" s="310"/>
       <c r="Q8" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R8" s="388" t="s">
+      <c r="R8" s="377" t="s">
         <v>109</v>
       </c>
-      <c r="S8" s="364"/>
-      <c r="T8" s="364"/>
-      <c r="U8" s="365"/>
-      <c r="V8" s="400">
+      <c r="S8" s="309"/>
+      <c r="T8" s="309"/>
+      <c r="U8" s="310"/>
+      <c r="V8" s="381">
         <v>10</v>
       </c>
-      <c r="W8" s="401"/>
-      <c r="X8" s="386" t="s">
+      <c r="W8" s="382"/>
+      <c r="X8" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="387"/>
-      <c r="Z8" s="388" t="s">
+      <c r="Y8" s="384"/>
+      <c r="Z8" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA8" s="365"/>
-      <c r="AB8" s="388" t="s">
+      <c r="AA8" s="310"/>
+      <c r="AB8" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC8" s="365"/>
-      <c r="AD8" s="386" t="s">
+      <c r="AC8" s="310"/>
+      <c r="AD8" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE8" s="387"/>
-      <c r="AF8" s="388" t="s">
+      <c r="AE8" s="384"/>
+      <c r="AF8" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG8" s="364"/>
-      <c r="AH8" s="365"/>
-      <c r="AI8" s="389" t="s">
+      <c r="AG8" s="309"/>
+      <c r="AH8" s="310"/>
+      <c r="AI8" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ8" s="390"/>
-      <c r="AK8" s="390"/>
-      <c r="AL8" s="390"/>
-      <c r="AM8" s="390"/>
-      <c r="AN8" s="391"/>
+      <c r="AJ8" s="379"/>
+      <c r="AK8" s="379"/>
+      <c r="AL8" s="379"/>
+      <c r="AM8" s="379"/>
+      <c r="AN8" s="380"/>
       <c r="AS8" s="167"/>
       <c r="AT8" s="167"/>
       <c r="AU8" s="168"/>
@@ -13606,70 +13605,70 @@
       <c r="A9" s="165">
         <v>2</v>
       </c>
-      <c r="B9" s="389" t="s">
+      <c r="B9" s="378" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="390"/>
-      <c r="D9" s="390"/>
-      <c r="E9" s="390"/>
-      <c r="F9" s="391"/>
-      <c r="G9" s="388" t="s">
+      <c r="C9" s="379"/>
+      <c r="D9" s="379"/>
+      <c r="E9" s="379"/>
+      <c r="F9" s="380"/>
+      <c r="G9" s="377" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="364"/>
-      <c r="I9" s="364"/>
-      <c r="J9" s="364"/>
-      <c r="K9" s="365"/>
-      <c r="L9" s="388" t="s">
+      <c r="H9" s="309"/>
+      <c r="I9" s="309"/>
+      <c r="J9" s="309"/>
+      <c r="K9" s="310"/>
+      <c r="L9" s="377" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="364"/>
-      <c r="N9" s="364"/>
-      <c r="O9" s="364"/>
-      <c r="P9" s="365"/>
+      <c r="M9" s="309"/>
+      <c r="N9" s="309"/>
+      <c r="O9" s="309"/>
+      <c r="P9" s="310"/>
       <c r="Q9" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R9" s="388" t="s">
+      <c r="R9" s="377" t="s">
         <v>112</v>
       </c>
-      <c r="S9" s="364"/>
-      <c r="T9" s="364"/>
-      <c r="U9" s="365"/>
-      <c r="V9" s="400">
+      <c r="S9" s="309"/>
+      <c r="T9" s="309"/>
+      <c r="U9" s="310"/>
+      <c r="V9" s="381">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W9" s="401"/>
-      <c r="X9" s="386" t="s">
+      <c r="W9" s="382"/>
+      <c r="X9" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="387"/>
-      <c r="Z9" s="388" t="s">
+      <c r="Y9" s="384"/>
+      <c r="Z9" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA9" s="365"/>
-      <c r="AB9" s="388" t="s">
+      <c r="AA9" s="310"/>
+      <c r="AB9" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC9" s="365"/>
-      <c r="AD9" s="386" t="s">
+      <c r="AC9" s="310"/>
+      <c r="AD9" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE9" s="387"/>
-      <c r="AF9" s="388" t="s">
+      <c r="AE9" s="384"/>
+      <c r="AF9" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG9" s="364"/>
-      <c r="AH9" s="365"/>
-      <c r="AI9" s="389" t="s">
+      <c r="AG9" s="309"/>
+      <c r="AH9" s="310"/>
+      <c r="AI9" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ9" s="390"/>
-      <c r="AK9" s="390"/>
-      <c r="AL9" s="390"/>
-      <c r="AM9" s="390"/>
-      <c r="AN9" s="391"/>
+      <c r="AJ9" s="379"/>
+      <c r="AK9" s="379"/>
+      <c r="AL9" s="379"/>
+      <c r="AM9" s="379"/>
+      <c r="AN9" s="380"/>
       <c r="AS9" s="167"/>
       <c r="AT9" s="167"/>
       <c r="AU9" s="168"/>
@@ -13735,70 +13734,70 @@
       <c r="A10" s="165">
         <v>3</v>
       </c>
-      <c r="B10" s="389" t="s">
+      <c r="B10" s="378" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="390"/>
-      <c r="D10" s="390"/>
-      <c r="E10" s="390"/>
-      <c r="F10" s="391"/>
-      <c r="G10" s="388" t="s">
+      <c r="C10" s="379"/>
+      <c r="D10" s="379"/>
+      <c r="E10" s="379"/>
+      <c r="F10" s="380"/>
+      <c r="G10" s="377" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="364"/>
-      <c r="I10" s="364"/>
-      <c r="J10" s="364"/>
-      <c r="K10" s="365"/>
-      <c r="L10" s="388" t="s">
+      <c r="H10" s="309"/>
+      <c r="I10" s="309"/>
+      <c r="J10" s="309"/>
+      <c r="K10" s="310"/>
+      <c r="L10" s="377" t="s">
         <v>113</v>
       </c>
-      <c r="M10" s="364"/>
-      <c r="N10" s="364"/>
-      <c r="O10" s="364"/>
-      <c r="P10" s="365"/>
+      <c r="M10" s="309"/>
+      <c r="N10" s="309"/>
+      <c r="O10" s="309"/>
+      <c r="P10" s="310"/>
       <c r="Q10" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R10" s="388" t="s">
+      <c r="R10" s="377" t="s">
         <v>112</v>
       </c>
-      <c r="S10" s="364"/>
-      <c r="T10" s="364"/>
-      <c r="U10" s="365"/>
-      <c r="V10" s="400">
+      <c r="S10" s="309"/>
+      <c r="T10" s="309"/>
+      <c r="U10" s="310"/>
+      <c r="V10" s="381">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W10" s="401"/>
-      <c r="X10" s="386" t="s">
+      <c r="W10" s="382"/>
+      <c r="X10" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y10" s="387"/>
-      <c r="Z10" s="388" t="s">
+      <c r="Y10" s="384"/>
+      <c r="Z10" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA10" s="365"/>
-      <c r="AB10" s="388" t="s">
+      <c r="AA10" s="310"/>
+      <c r="AB10" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC10" s="365"/>
-      <c r="AD10" s="386" t="s">
+      <c r="AC10" s="310"/>
+      <c r="AD10" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE10" s="387"/>
-      <c r="AF10" s="388" t="s">
+      <c r="AE10" s="384"/>
+      <c r="AF10" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG10" s="364"/>
-      <c r="AH10" s="365"/>
-      <c r="AI10" s="389" t="s">
+      <c r="AG10" s="309"/>
+      <c r="AH10" s="310"/>
+      <c r="AI10" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ10" s="390"/>
-      <c r="AK10" s="390"/>
-      <c r="AL10" s="390"/>
-      <c r="AM10" s="390"/>
-      <c r="AN10" s="391"/>
+      <c r="AJ10" s="379"/>
+      <c r="AK10" s="379"/>
+      <c r="AL10" s="379"/>
+      <c r="AM10" s="379"/>
+      <c r="AN10" s="380"/>
       <c r="AS10" s="167"/>
       <c r="AT10" s="167"/>
       <c r="AU10" s="168"/>
@@ -13864,70 +13863,70 @@
       <c r="A11" s="165">
         <v>4</v>
       </c>
-      <c r="B11" s="389" t="s">
+      <c r="B11" s="378" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="390"/>
-      <c r="D11" s="390"/>
-      <c r="E11" s="390"/>
-      <c r="F11" s="391"/>
-      <c r="G11" s="388" t="s">
+      <c r="C11" s="379"/>
+      <c r="D11" s="379"/>
+      <c r="E11" s="379"/>
+      <c r="F11" s="380"/>
+      <c r="G11" s="377" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="364"/>
-      <c r="I11" s="364"/>
-      <c r="J11" s="364"/>
-      <c r="K11" s="365"/>
-      <c r="L11" s="388" t="s">
+      <c r="H11" s="309"/>
+      <c r="I11" s="309"/>
+      <c r="J11" s="309"/>
+      <c r="K11" s="310"/>
+      <c r="L11" s="377" t="s">
         <v>115</v>
       </c>
-      <c r="M11" s="364"/>
-      <c r="N11" s="364"/>
-      <c r="O11" s="364"/>
-      <c r="P11" s="365"/>
+      <c r="M11" s="309"/>
+      <c r="N11" s="309"/>
+      <c r="O11" s="309"/>
+      <c r="P11" s="310"/>
       <c r="Q11" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R11" s="388" t="s">
+      <c r="R11" s="377" t="s">
         <v>112</v>
       </c>
-      <c r="S11" s="364"/>
-      <c r="T11" s="364"/>
-      <c r="U11" s="365"/>
-      <c r="V11" s="400">
+      <c r="S11" s="309"/>
+      <c r="T11" s="309"/>
+      <c r="U11" s="310"/>
+      <c r="V11" s="381">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W11" s="401"/>
-      <c r="X11" s="386" t="s">
+      <c r="W11" s="382"/>
+      <c r="X11" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y11" s="387"/>
-      <c r="Z11" s="388" t="s">
+      <c r="Y11" s="384"/>
+      <c r="Z11" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA11" s="365"/>
-      <c r="AB11" s="388" t="s">
+      <c r="AA11" s="310"/>
+      <c r="AB11" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC11" s="365"/>
-      <c r="AD11" s="386" t="s">
+      <c r="AC11" s="310"/>
+      <c r="AD11" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" s="387"/>
-      <c r="AF11" s="388" t="s">
+      <c r="AE11" s="384"/>
+      <c r="AF11" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG11" s="364"/>
-      <c r="AH11" s="365"/>
-      <c r="AI11" s="389" t="s">
+      <c r="AG11" s="309"/>
+      <c r="AH11" s="310"/>
+      <c r="AI11" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ11" s="390"/>
-      <c r="AK11" s="390"/>
-      <c r="AL11" s="390"/>
-      <c r="AM11" s="390"/>
-      <c r="AN11" s="391"/>
+      <c r="AJ11" s="379"/>
+      <c r="AK11" s="379"/>
+      <c r="AL11" s="379"/>
+      <c r="AM11" s="379"/>
+      <c r="AN11" s="380"/>
       <c r="AS11" s="167"/>
       <c r="AT11" s="167"/>
       <c r="AU11" s="168"/>
@@ -13993,69 +13992,69 @@
       <c r="A12" s="165">
         <v>5</v>
       </c>
-      <c r="B12" s="389" t="s">
+      <c r="B12" s="378" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="390"/>
-      <c r="D12" s="390"/>
-      <c r="E12" s="390"/>
-      <c r="F12" s="391"/>
-      <c r="G12" s="388" t="s">
+      <c r="C12" s="379"/>
+      <c r="D12" s="379"/>
+      <c r="E12" s="379"/>
+      <c r="F12" s="380"/>
+      <c r="G12" s="377" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="364"/>
-      <c r="I12" s="364"/>
-      <c r="J12" s="364"/>
-      <c r="K12" s="365"/>
-      <c r="L12" s="388" t="s">
+      <c r="H12" s="309"/>
+      <c r="I12" s="309"/>
+      <c r="J12" s="309"/>
+      <c r="K12" s="310"/>
+      <c r="L12" s="377" t="s">
         <v>119</v>
       </c>
-      <c r="M12" s="364"/>
-      <c r="N12" s="364"/>
-      <c r="O12" s="364"/>
-      <c r="P12" s="365"/>
+      <c r="M12" s="309"/>
+      <c r="N12" s="309"/>
+      <c r="O12" s="309"/>
+      <c r="P12" s="310"/>
       <c r="Q12" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R12" s="388" t="s">
+      <c r="R12" s="377" t="s">
         <v>120</v>
       </c>
-      <c r="S12" s="364"/>
-      <c r="T12" s="364"/>
-      <c r="U12" s="365"/>
-      <c r="V12" s="400">
+      <c r="S12" s="309"/>
+      <c r="T12" s="309"/>
+      <c r="U12" s="310"/>
+      <c r="V12" s="381">
         <v>10</v>
       </c>
-      <c r="W12" s="401"/>
-      <c r="X12" s="386" t="s">
+      <c r="W12" s="382"/>
+      <c r="X12" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" s="387"/>
-      <c r="Z12" s="388" t="s">
+      <c r="Y12" s="384"/>
+      <c r="Z12" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA12" s="365"/>
-      <c r="AB12" s="388" t="s">
+      <c r="AA12" s="310"/>
+      <c r="AB12" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC12" s="365"/>
-      <c r="AD12" s="386" t="s">
+      <c r="AC12" s="310"/>
+      <c r="AD12" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE12" s="387"/>
-      <c r="AF12" s="388" t="s">
+      <c r="AE12" s="384"/>
+      <c r="AF12" s="377" t="s">
         <v>121</v>
       </c>
-      <c r="AG12" s="364"/>
-      <c r="AH12" s="365"/>
-      <c r="AI12" s="389" t="s">
+      <c r="AG12" s="309"/>
+      <c r="AH12" s="310"/>
+      <c r="AI12" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ12" s="390"/>
-      <c r="AK12" s="390"/>
-      <c r="AL12" s="390"/>
-      <c r="AM12" s="390"/>
-      <c r="AN12" s="391"/>
+      <c r="AJ12" s="379"/>
+      <c r="AK12" s="379"/>
+      <c r="AL12" s="379"/>
+      <c r="AM12" s="379"/>
+      <c r="AN12" s="380"/>
       <c r="AS12" s="167"/>
       <c r="AT12" s="167"/>
       <c r="AU12" s="168"/>
@@ -14121,69 +14120,69 @@
       <c r="A13" s="165">
         <v>6</v>
       </c>
-      <c r="B13" s="389" t="s">
+      <c r="B13" s="378" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="390"/>
-      <c r="D13" s="390"/>
-      <c r="E13" s="390"/>
-      <c r="F13" s="391"/>
-      <c r="G13" s="388" t="s">
+      <c r="C13" s="379"/>
+      <c r="D13" s="379"/>
+      <c r="E13" s="379"/>
+      <c r="F13" s="380"/>
+      <c r="G13" s="377" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="364"/>
-      <c r="I13" s="364"/>
-      <c r="J13" s="364"/>
-      <c r="K13" s="365"/>
-      <c r="L13" s="388" t="s">
+      <c r="H13" s="309"/>
+      <c r="I13" s="309"/>
+      <c r="J13" s="309"/>
+      <c r="K13" s="310"/>
+      <c r="L13" s="377" t="s">
         <v>119</v>
       </c>
-      <c r="M13" s="364"/>
-      <c r="N13" s="364"/>
-      <c r="O13" s="364"/>
-      <c r="P13" s="365"/>
+      <c r="M13" s="309"/>
+      <c r="N13" s="309"/>
+      <c r="O13" s="309"/>
+      <c r="P13" s="310"/>
       <c r="Q13" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R13" s="388" t="s">
+      <c r="R13" s="377" t="s">
         <v>120</v>
       </c>
-      <c r="S13" s="364"/>
-      <c r="T13" s="364"/>
-      <c r="U13" s="365"/>
-      <c r="V13" s="400">
+      <c r="S13" s="309"/>
+      <c r="T13" s="309"/>
+      <c r="U13" s="310"/>
+      <c r="V13" s="381">
         <v>10</v>
       </c>
-      <c r="W13" s="401"/>
-      <c r="X13" s="386" t="s">
+      <c r="W13" s="382"/>
+      <c r="X13" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y13" s="387"/>
-      <c r="Z13" s="388" t="s">
+      <c r="Y13" s="384"/>
+      <c r="Z13" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA13" s="365"/>
-      <c r="AB13" s="388" t="s">
+      <c r="AA13" s="310"/>
+      <c r="AB13" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC13" s="365"/>
-      <c r="AD13" s="386" t="s">
+      <c r="AC13" s="310"/>
+      <c r="AD13" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE13" s="387"/>
-      <c r="AF13" s="388" t="s">
+      <c r="AE13" s="384"/>
+      <c r="AF13" s="377" t="s">
         <v>121</v>
       </c>
-      <c r="AG13" s="364"/>
-      <c r="AH13" s="365"/>
-      <c r="AI13" s="389" t="s">
+      <c r="AG13" s="309"/>
+      <c r="AH13" s="310"/>
+      <c r="AI13" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ13" s="390"/>
-      <c r="AK13" s="390"/>
-      <c r="AL13" s="390"/>
-      <c r="AM13" s="390"/>
-      <c r="AN13" s="391"/>
+      <c r="AJ13" s="379"/>
+      <c r="AK13" s="379"/>
+      <c r="AL13" s="379"/>
+      <c r="AM13" s="379"/>
+      <c r="AN13" s="380"/>
       <c r="AS13" s="167"/>
       <c r="AT13" s="167"/>
       <c r="AU13" s="168"/>
@@ -14249,69 +14248,69 @@
       <c r="A14" s="165">
         <v>7</v>
       </c>
-      <c r="B14" s="389" t="s">
+      <c r="B14" s="378" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="390"/>
-      <c r="D14" s="390"/>
-      <c r="E14" s="390"/>
-      <c r="F14" s="391"/>
-      <c r="G14" s="388" t="s">
+      <c r="C14" s="379"/>
+      <c r="D14" s="379"/>
+      <c r="E14" s="379"/>
+      <c r="F14" s="380"/>
+      <c r="G14" s="377" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="364"/>
-      <c r="I14" s="364"/>
-      <c r="J14" s="364"/>
-      <c r="K14" s="365"/>
-      <c r="L14" s="388" t="s">
+      <c r="H14" s="309"/>
+      <c r="I14" s="309"/>
+      <c r="J14" s="309"/>
+      <c r="K14" s="310"/>
+      <c r="L14" s="377" t="s">
         <v>108</v>
       </c>
-      <c r="M14" s="364"/>
-      <c r="N14" s="364"/>
-      <c r="O14" s="364"/>
-      <c r="P14" s="365"/>
+      <c r="M14" s="309"/>
+      <c r="N14" s="309"/>
+      <c r="O14" s="309"/>
+      <c r="P14" s="310"/>
       <c r="Q14" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R14" s="388" t="s">
+      <c r="R14" s="377" t="s">
         <v>109</v>
       </c>
-      <c r="S14" s="364"/>
-      <c r="T14" s="364"/>
-      <c r="U14" s="365"/>
-      <c r="V14" s="400">
+      <c r="S14" s="309"/>
+      <c r="T14" s="309"/>
+      <c r="U14" s="310"/>
+      <c r="V14" s="381">
         <v>11</v>
       </c>
-      <c r="W14" s="401"/>
-      <c r="X14" s="386" t="s">
+      <c r="W14" s="382"/>
+      <c r="X14" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y14" s="387"/>
-      <c r="Z14" s="388" t="s">
+      <c r="Y14" s="384"/>
+      <c r="Z14" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA14" s="365"/>
-      <c r="AB14" s="388" t="s">
+      <c r="AA14" s="310"/>
+      <c r="AB14" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC14" s="365"/>
-      <c r="AD14" s="386" t="s">
+      <c r="AC14" s="310"/>
+      <c r="AD14" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE14" s="387"/>
-      <c r="AF14" s="388" t="s">
+      <c r="AE14" s="384"/>
+      <c r="AF14" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG14" s="364"/>
-      <c r="AH14" s="365"/>
-      <c r="AI14" s="389" t="s">
+      <c r="AG14" s="309"/>
+      <c r="AH14" s="310"/>
+      <c r="AI14" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ14" s="390"/>
-      <c r="AK14" s="390"/>
-      <c r="AL14" s="390"/>
-      <c r="AM14" s="390"/>
-      <c r="AN14" s="391"/>
+      <c r="AJ14" s="379"/>
+      <c r="AK14" s="379"/>
+      <c r="AL14" s="379"/>
+      <c r="AM14" s="379"/>
+      <c r="AN14" s="380"/>
       <c r="AS14" s="167"/>
       <c r="AT14" s="167"/>
       <c r="AU14" s="168"/>
@@ -14377,69 +14376,69 @@
       <c r="A15" s="165">
         <v>8</v>
       </c>
-      <c r="B15" s="389" t="s">
+      <c r="B15" s="378" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="390"/>
-      <c r="D15" s="390"/>
-      <c r="E15" s="390"/>
-      <c r="F15" s="391"/>
-      <c r="G15" s="388" t="s">
+      <c r="C15" s="379"/>
+      <c r="D15" s="379"/>
+      <c r="E15" s="379"/>
+      <c r="F15" s="380"/>
+      <c r="G15" s="377" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="364"/>
-      <c r="I15" s="364"/>
-      <c r="J15" s="364"/>
-      <c r="K15" s="365"/>
-      <c r="L15" s="388" t="s">
+      <c r="H15" s="309"/>
+      <c r="I15" s="309"/>
+      <c r="J15" s="309"/>
+      <c r="K15" s="310"/>
+      <c r="L15" s="377" t="s">
         <v>108</v>
       </c>
-      <c r="M15" s="364"/>
-      <c r="N15" s="364"/>
-      <c r="O15" s="364"/>
-      <c r="P15" s="365"/>
+      <c r="M15" s="309"/>
+      <c r="N15" s="309"/>
+      <c r="O15" s="309"/>
+      <c r="P15" s="310"/>
       <c r="Q15" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R15" s="388" t="s">
+      <c r="R15" s="377" t="s">
         <v>109</v>
       </c>
-      <c r="S15" s="364"/>
-      <c r="T15" s="364"/>
-      <c r="U15" s="365"/>
-      <c r="V15" s="400">
+      <c r="S15" s="309"/>
+      <c r="T15" s="309"/>
+      <c r="U15" s="310"/>
+      <c r="V15" s="381">
         <v>11</v>
       </c>
-      <c r="W15" s="401"/>
-      <c r="X15" s="386" t="s">
+      <c r="W15" s="382"/>
+      <c r="X15" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y15" s="387"/>
-      <c r="Z15" s="388" t="s">
+      <c r="Y15" s="384"/>
+      <c r="Z15" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA15" s="365"/>
-      <c r="AB15" s="388" t="s">
+      <c r="AA15" s="310"/>
+      <c r="AB15" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC15" s="365"/>
-      <c r="AD15" s="386" t="s">
+      <c r="AC15" s="310"/>
+      <c r="AD15" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE15" s="387"/>
-      <c r="AF15" s="388" t="s">
+      <c r="AE15" s="384"/>
+      <c r="AF15" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG15" s="364"/>
-      <c r="AH15" s="365"/>
-      <c r="AI15" s="389" t="s">
+      <c r="AG15" s="309"/>
+      <c r="AH15" s="310"/>
+      <c r="AI15" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ15" s="390"/>
-      <c r="AK15" s="390"/>
-      <c r="AL15" s="390"/>
-      <c r="AM15" s="390"/>
-      <c r="AN15" s="391"/>
+      <c r="AJ15" s="379"/>
+      <c r="AK15" s="379"/>
+      <c r="AL15" s="379"/>
+      <c r="AM15" s="379"/>
+      <c r="AN15" s="380"/>
       <c r="AS15" s="167"/>
       <c r="AT15" s="167"/>
       <c r="AU15" s="168"/>
@@ -14505,70 +14504,70 @@
       <c r="A16" s="165">
         <v>9</v>
       </c>
-      <c r="B16" s="389" t="s">
+      <c r="B16" s="378" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="390"/>
-      <c r="D16" s="390"/>
-      <c r="E16" s="390"/>
-      <c r="F16" s="391"/>
-      <c r="G16" s="388" t="s">
+      <c r="C16" s="379"/>
+      <c r="D16" s="379"/>
+      <c r="E16" s="379"/>
+      <c r="F16" s="380"/>
+      <c r="G16" s="377" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="364"/>
-      <c r="I16" s="364"/>
-      <c r="J16" s="364"/>
-      <c r="K16" s="365"/>
-      <c r="L16" s="388" t="s">
+      <c r="H16" s="309"/>
+      <c r="I16" s="309"/>
+      <c r="J16" s="309"/>
+      <c r="K16" s="310"/>
+      <c r="L16" s="377" t="s">
         <v>130</v>
       </c>
-      <c r="M16" s="364"/>
-      <c r="N16" s="364"/>
-      <c r="O16" s="364"/>
-      <c r="P16" s="365"/>
+      <c r="M16" s="309"/>
+      <c r="N16" s="309"/>
+      <c r="O16" s="309"/>
+      <c r="P16" s="310"/>
       <c r="Q16" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R16" s="388" t="s">
+      <c r="R16" s="377" t="s">
         <v>112</v>
       </c>
-      <c r="S16" s="364"/>
-      <c r="T16" s="364"/>
-      <c r="U16" s="365"/>
-      <c r="V16" s="400">
+      <c r="S16" s="309"/>
+      <c r="T16" s="309"/>
+      <c r="U16" s="310"/>
+      <c r="V16" s="381">
         <f t="shared" ref="V16:V17" si="0">128*3</f>
         <v>384</v>
       </c>
-      <c r="W16" s="401"/>
-      <c r="X16" s="386" t="s">
+      <c r="W16" s="382"/>
+      <c r="X16" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y16" s="387"/>
-      <c r="Z16" s="388" t="s">
+      <c r="Y16" s="384"/>
+      <c r="Z16" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA16" s="365"/>
-      <c r="AB16" s="388" t="s">
+      <c r="AA16" s="310"/>
+      <c r="AB16" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC16" s="365"/>
-      <c r="AD16" s="386" t="s">
+      <c r="AC16" s="310"/>
+      <c r="AD16" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE16" s="387"/>
-      <c r="AF16" s="388" t="s">
+      <c r="AE16" s="384"/>
+      <c r="AF16" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG16" s="364"/>
-      <c r="AH16" s="365"/>
-      <c r="AI16" s="389" t="s">
+      <c r="AG16" s="309"/>
+      <c r="AH16" s="310"/>
+      <c r="AI16" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ16" s="390"/>
-      <c r="AK16" s="390"/>
-      <c r="AL16" s="390"/>
-      <c r="AM16" s="390"/>
-      <c r="AN16" s="391"/>
+      <c r="AJ16" s="379"/>
+      <c r="AK16" s="379"/>
+      <c r="AL16" s="379"/>
+      <c r="AM16" s="379"/>
+      <c r="AN16" s="380"/>
       <c r="AS16" s="167"/>
       <c r="AT16" s="167"/>
       <c r="AU16" s="168"/>
@@ -14634,70 +14633,70 @@
       <c r="A17" s="165">
         <v>10</v>
       </c>
-      <c r="B17" s="389" t="s">
+      <c r="B17" s="378" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="390"/>
-      <c r="D17" s="390"/>
-      <c r="E17" s="390"/>
-      <c r="F17" s="391"/>
-      <c r="G17" s="388" t="s">
+      <c r="C17" s="379"/>
+      <c r="D17" s="379"/>
+      <c r="E17" s="379"/>
+      <c r="F17" s="380"/>
+      <c r="G17" s="377" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="364"/>
-      <c r="I17" s="364"/>
-      <c r="J17" s="364"/>
-      <c r="K17" s="365"/>
-      <c r="L17" s="388" t="s">
+      <c r="H17" s="309"/>
+      <c r="I17" s="309"/>
+      <c r="J17" s="309"/>
+      <c r="K17" s="310"/>
+      <c r="L17" s="377" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="364"/>
-      <c r="N17" s="364"/>
-      <c r="O17" s="364"/>
-      <c r="P17" s="365"/>
+      <c r="M17" s="309"/>
+      <c r="N17" s="309"/>
+      <c r="O17" s="309"/>
+      <c r="P17" s="310"/>
       <c r="Q17" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R17" s="388" t="s">
+      <c r="R17" s="377" t="s">
         <v>112</v>
       </c>
-      <c r="S17" s="364"/>
-      <c r="T17" s="364"/>
-      <c r="U17" s="365"/>
-      <c r="V17" s="400">
+      <c r="S17" s="309"/>
+      <c r="T17" s="309"/>
+      <c r="U17" s="310"/>
+      <c r="V17" s="381">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
-      <c r="W17" s="401"/>
-      <c r="X17" s="386" t="s">
+      <c r="W17" s="382"/>
+      <c r="X17" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="387"/>
-      <c r="Z17" s="388" t="s">
+      <c r="Y17" s="384"/>
+      <c r="Z17" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA17" s="365"/>
-      <c r="AB17" s="388" t="s">
+      <c r="AA17" s="310"/>
+      <c r="AB17" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC17" s="365"/>
-      <c r="AD17" s="386" t="s">
+      <c r="AC17" s="310"/>
+      <c r="AD17" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE17" s="387"/>
-      <c r="AF17" s="388" t="s">
+      <c r="AE17" s="384"/>
+      <c r="AF17" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG17" s="364"/>
-      <c r="AH17" s="365"/>
-      <c r="AI17" s="389" t="s">
+      <c r="AG17" s="309"/>
+      <c r="AH17" s="310"/>
+      <c r="AI17" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ17" s="390"/>
-      <c r="AK17" s="390"/>
-      <c r="AL17" s="390"/>
-      <c r="AM17" s="390"/>
-      <c r="AN17" s="391"/>
+      <c r="AJ17" s="379"/>
+      <c r="AK17" s="379"/>
+      <c r="AL17" s="379"/>
+      <c r="AM17" s="379"/>
+      <c r="AN17" s="380"/>
       <c r="AS17" s="167"/>
       <c r="AT17" s="167"/>
       <c r="AU17" s="168"/>
@@ -14763,70 +14762,70 @@
       <c r="A18" s="165">
         <v>11</v>
       </c>
-      <c r="B18" s="389" t="s">
+      <c r="B18" s="378" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="390"/>
-      <c r="D18" s="390"/>
-      <c r="E18" s="390"/>
-      <c r="F18" s="391"/>
-      <c r="G18" s="388" t="s">
+      <c r="C18" s="379"/>
+      <c r="D18" s="379"/>
+      <c r="E18" s="379"/>
+      <c r="F18" s="380"/>
+      <c r="G18" s="377" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="364"/>
-      <c r="I18" s="364"/>
-      <c r="J18" s="364"/>
-      <c r="K18" s="365"/>
-      <c r="L18" s="388" t="s">
+      <c r="H18" s="309"/>
+      <c r="I18" s="309"/>
+      <c r="J18" s="309"/>
+      <c r="K18" s="310"/>
+      <c r="L18" s="377" t="s">
         <v>105</v>
       </c>
-      <c r="M18" s="364"/>
-      <c r="N18" s="364"/>
-      <c r="O18" s="364"/>
-      <c r="P18" s="365"/>
+      <c r="M18" s="309"/>
+      <c r="N18" s="309"/>
+      <c r="O18" s="309"/>
+      <c r="P18" s="310"/>
       <c r="Q18" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R18" s="388" t="s">
+      <c r="R18" s="377" t="s">
         <v>112</v>
       </c>
-      <c r="S18" s="364"/>
-      <c r="T18" s="364"/>
-      <c r="U18" s="365"/>
-      <c r="V18" s="400">
+      <c r="S18" s="309"/>
+      <c r="T18" s="309"/>
+      <c r="U18" s="310"/>
+      <c r="V18" s="381">
         <f>512*3</f>
         <v>1536</v>
       </c>
-      <c r="W18" s="401"/>
-      <c r="X18" s="386" t="s">
+      <c r="W18" s="382"/>
+      <c r="X18" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y18" s="387"/>
-      <c r="Z18" s="388" t="s">
+      <c r="Y18" s="384"/>
+      <c r="Z18" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA18" s="365"/>
-      <c r="AB18" s="388" t="s">
+      <c r="AA18" s="310"/>
+      <c r="AB18" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC18" s="365"/>
-      <c r="AD18" s="386" t="s">
+      <c r="AC18" s="310"/>
+      <c r="AD18" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" s="387"/>
-      <c r="AF18" s="388" t="s">
+      <c r="AE18" s="384"/>
+      <c r="AF18" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG18" s="364"/>
-      <c r="AH18" s="365"/>
-      <c r="AI18" s="389" t="s">
+      <c r="AG18" s="309"/>
+      <c r="AH18" s="310"/>
+      <c r="AI18" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ18" s="390"/>
-      <c r="AK18" s="390"/>
-      <c r="AL18" s="390"/>
-      <c r="AM18" s="390"/>
-      <c r="AN18" s="391"/>
+      <c r="AJ18" s="379"/>
+      <c r="AK18" s="379"/>
+      <c r="AL18" s="379"/>
+      <c r="AM18" s="379"/>
+      <c r="AN18" s="380"/>
       <c r="AS18" s="167"/>
       <c r="AT18" s="167"/>
       <c r="AU18" s="168"/>
@@ -14892,69 +14891,69 @@
       <c r="A19" s="165">
         <v>12</v>
       </c>
-      <c r="B19" s="389" t="s">
+      <c r="B19" s="378" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="390"/>
-      <c r="D19" s="390"/>
-      <c r="E19" s="390"/>
-      <c r="F19" s="391"/>
-      <c r="G19" s="388" t="s">
+      <c r="C19" s="379"/>
+      <c r="D19" s="379"/>
+      <c r="E19" s="379"/>
+      <c r="F19" s="380"/>
+      <c r="G19" s="377" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="364"/>
-      <c r="I19" s="364"/>
-      <c r="J19" s="364"/>
-      <c r="K19" s="365"/>
-      <c r="L19" s="388" t="s">
+      <c r="H19" s="309"/>
+      <c r="I19" s="309"/>
+      <c r="J19" s="309"/>
+      <c r="K19" s="310"/>
+      <c r="L19" s="377" t="s">
         <v>134</v>
       </c>
-      <c r="M19" s="364"/>
-      <c r="N19" s="364"/>
-      <c r="O19" s="364"/>
-      <c r="P19" s="365"/>
+      <c r="M19" s="309"/>
+      <c r="N19" s="309"/>
+      <c r="O19" s="309"/>
+      <c r="P19" s="310"/>
       <c r="Q19" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R19" s="388" t="s">
+      <c r="R19" s="377" t="s">
         <v>109</v>
       </c>
-      <c r="S19" s="364"/>
-      <c r="T19" s="364"/>
-      <c r="U19" s="365"/>
-      <c r="V19" s="400">
+      <c r="S19" s="309"/>
+      <c r="T19" s="309"/>
+      <c r="U19" s="310"/>
+      <c r="V19" s="381">
         <v>11</v>
       </c>
-      <c r="W19" s="401"/>
-      <c r="X19" s="386" t="s">
+      <c r="W19" s="382"/>
+      <c r="X19" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y19" s="387"/>
-      <c r="Z19" s="388" t="s">
+      <c r="Y19" s="384"/>
+      <c r="Z19" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA19" s="365"/>
-      <c r="AB19" s="388" t="s">
+      <c r="AA19" s="310"/>
+      <c r="AB19" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC19" s="365"/>
-      <c r="AD19" s="386" t="s">
+      <c r="AC19" s="310"/>
+      <c r="AD19" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE19" s="387"/>
-      <c r="AF19" s="388" t="s">
+      <c r="AE19" s="384"/>
+      <c r="AF19" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG19" s="364"/>
-      <c r="AH19" s="365"/>
-      <c r="AI19" s="389" t="s">
+      <c r="AG19" s="309"/>
+      <c r="AH19" s="310"/>
+      <c r="AI19" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ19" s="390"/>
-      <c r="AK19" s="390"/>
-      <c r="AL19" s="390"/>
-      <c r="AM19" s="390"/>
-      <c r="AN19" s="391"/>
+      <c r="AJ19" s="379"/>
+      <c r="AK19" s="379"/>
+      <c r="AL19" s="379"/>
+      <c r="AM19" s="379"/>
+      <c r="AN19" s="380"/>
       <c r="AS19" s="167"/>
       <c r="AT19" s="167"/>
       <c r="AU19" s="168"/>
@@ -15020,69 +15019,69 @@
       <c r="A20" s="165">
         <v>13</v>
       </c>
-      <c r="B20" s="389" t="s">
+      <c r="B20" s="378" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="390"/>
-      <c r="D20" s="390"/>
-      <c r="E20" s="390"/>
-      <c r="F20" s="391"/>
-      <c r="G20" s="388" t="s">
+      <c r="C20" s="379"/>
+      <c r="D20" s="379"/>
+      <c r="E20" s="379"/>
+      <c r="F20" s="380"/>
+      <c r="G20" s="377" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="364"/>
-      <c r="I20" s="364"/>
-      <c r="J20" s="364"/>
-      <c r="K20" s="365"/>
-      <c r="L20" s="388" t="s">
+      <c r="H20" s="309"/>
+      <c r="I20" s="309"/>
+      <c r="J20" s="309"/>
+      <c r="K20" s="310"/>
+      <c r="L20" s="377" t="s">
         <v>136</v>
       </c>
-      <c r="M20" s="364"/>
-      <c r="N20" s="364"/>
-      <c r="O20" s="364"/>
-      <c r="P20" s="365"/>
+      <c r="M20" s="309"/>
+      <c r="N20" s="309"/>
+      <c r="O20" s="309"/>
+      <c r="P20" s="310"/>
       <c r="Q20" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="R20" s="388" t="s">
+      <c r="R20" s="377" t="s">
         <v>109</v>
       </c>
-      <c r="S20" s="364"/>
-      <c r="T20" s="364"/>
-      <c r="U20" s="365"/>
-      <c r="V20" s="400">
+      <c r="S20" s="309"/>
+      <c r="T20" s="309"/>
+      <c r="U20" s="310"/>
+      <c r="V20" s="381">
         <v>11</v>
       </c>
-      <c r="W20" s="401"/>
-      <c r="X20" s="386" t="s">
+      <c r="W20" s="382"/>
+      <c r="X20" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="Y20" s="387"/>
-      <c r="Z20" s="388" t="s">
+      <c r="Y20" s="384"/>
+      <c r="Z20" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AA20" s="365"/>
-      <c r="AB20" s="388" t="s">
+      <c r="AA20" s="310"/>
+      <c r="AB20" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AC20" s="365"/>
-      <c r="AD20" s="386" t="s">
+      <c r="AC20" s="310"/>
+      <c r="AD20" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="AE20" s="387"/>
-      <c r="AF20" s="388" t="s">
+      <c r="AE20" s="384"/>
+      <c r="AF20" s="377" t="s">
         <v>46</v>
       </c>
-      <c r="AG20" s="364"/>
-      <c r="AH20" s="365"/>
-      <c r="AI20" s="389" t="s">
+      <c r="AG20" s="309"/>
+      <c r="AH20" s="310"/>
+      <c r="AI20" s="378" t="s">
         <v>46</v>
       </c>
-      <c r="AJ20" s="390"/>
-      <c r="AK20" s="390"/>
-      <c r="AL20" s="390"/>
-      <c r="AM20" s="390"/>
-      <c r="AN20" s="391"/>
+      <c r="AJ20" s="379"/>
+      <c r="AK20" s="379"/>
+      <c r="AL20" s="379"/>
+      <c r="AM20" s="379"/>
+      <c r="AN20" s="380"/>
       <c r="AS20" s="167"/>
       <c r="AT20" s="167"/>
       <c r="AU20" s="168"/>
@@ -15146,45 +15145,45 @@
     </row>
     <row r="21" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="165"/>
-      <c r="B21" s="389"/>
-      <c r="C21" s="390"/>
-      <c r="D21" s="390"/>
-      <c r="E21" s="390"/>
-      <c r="F21" s="391"/>
-      <c r="G21" s="397"/>
-      <c r="H21" s="398"/>
-      <c r="I21" s="398"/>
-      <c r="J21" s="398"/>
-      <c r="K21" s="399"/>
-      <c r="L21" s="389"/>
-      <c r="M21" s="390"/>
-      <c r="N21" s="390"/>
-      <c r="O21" s="390"/>
-      <c r="P21" s="391"/>
+      <c r="B21" s="378"/>
+      <c r="C21" s="379"/>
+      <c r="D21" s="379"/>
+      <c r="E21" s="379"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="385"/>
+      <c r="H21" s="386"/>
+      <c r="I21" s="386"/>
+      <c r="J21" s="386"/>
+      <c r="K21" s="387"/>
+      <c r="L21" s="378"/>
+      <c r="M21" s="379"/>
+      <c r="N21" s="379"/>
+      <c r="O21" s="379"/>
+      <c r="P21" s="380"/>
       <c r="Q21" s="166"/>
-      <c r="R21" s="388"/>
-      <c r="S21" s="364"/>
-      <c r="T21" s="364"/>
-      <c r="U21" s="365"/>
-      <c r="V21" s="400"/>
-      <c r="W21" s="401"/>
-      <c r="X21" s="386"/>
-      <c r="Y21" s="387"/>
-      <c r="Z21" s="388"/>
-      <c r="AA21" s="365"/>
-      <c r="AB21" s="388"/>
-      <c r="AC21" s="365"/>
-      <c r="AD21" s="386"/>
-      <c r="AE21" s="387"/>
-      <c r="AF21" s="388"/>
-      <c r="AG21" s="364"/>
-      <c r="AH21" s="365"/>
-      <c r="AI21" s="389"/>
-      <c r="AJ21" s="390"/>
-      <c r="AK21" s="390"/>
-      <c r="AL21" s="390"/>
-      <c r="AM21" s="390"/>
-      <c r="AN21" s="391"/>
+      <c r="R21" s="377"/>
+      <c r="S21" s="309"/>
+      <c r="T21" s="309"/>
+      <c r="U21" s="310"/>
+      <c r="V21" s="381"/>
+      <c r="W21" s="382"/>
+      <c r="X21" s="383"/>
+      <c r="Y21" s="384"/>
+      <c r="Z21" s="377"/>
+      <c r="AA21" s="310"/>
+      <c r="AB21" s="377"/>
+      <c r="AC21" s="310"/>
+      <c r="AD21" s="383"/>
+      <c r="AE21" s="384"/>
+      <c r="AF21" s="377"/>
+      <c r="AG21" s="309"/>
+      <c r="AH21" s="310"/>
+      <c r="AI21" s="378"/>
+      <c r="AJ21" s="379"/>
+      <c r="AK21" s="379"/>
+      <c r="AL21" s="379"/>
+      <c r="AM21" s="379"/>
+      <c r="AN21" s="380"/>
       <c r="AS21" s="167"/>
       <c r="AT21" s="167"/>
       <c r="AU21" s="168"/>
@@ -15248,45 +15247,45 @@
     </row>
     <row r="22" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="165"/>
-      <c r="B22" s="389"/>
-      <c r="C22" s="390"/>
-      <c r="D22" s="390"/>
-      <c r="E22" s="390"/>
-      <c r="F22" s="391"/>
-      <c r="G22" s="397"/>
-      <c r="H22" s="398"/>
-      <c r="I22" s="398"/>
-      <c r="J22" s="398"/>
-      <c r="K22" s="399"/>
-      <c r="L22" s="389"/>
-      <c r="M22" s="390"/>
-      <c r="N22" s="390"/>
-      <c r="O22" s="390"/>
-      <c r="P22" s="391"/>
+      <c r="B22" s="378"/>
+      <c r="C22" s="379"/>
+      <c r="D22" s="379"/>
+      <c r="E22" s="379"/>
+      <c r="F22" s="380"/>
+      <c r="G22" s="385"/>
+      <c r="H22" s="386"/>
+      <c r="I22" s="386"/>
+      <c r="J22" s="386"/>
+      <c r="K22" s="387"/>
+      <c r="L22" s="378"/>
+      <c r="M22" s="379"/>
+      <c r="N22" s="379"/>
+      <c r="O22" s="379"/>
+      <c r="P22" s="380"/>
       <c r="Q22" s="166"/>
-      <c r="R22" s="388"/>
-      <c r="S22" s="364"/>
-      <c r="T22" s="364"/>
-      <c r="U22" s="365"/>
-      <c r="V22" s="400"/>
-      <c r="W22" s="401"/>
-      <c r="X22" s="386"/>
-      <c r="Y22" s="387"/>
-      <c r="Z22" s="388"/>
-      <c r="AA22" s="365"/>
-      <c r="AB22" s="388"/>
-      <c r="AC22" s="365"/>
-      <c r="AD22" s="386"/>
-      <c r="AE22" s="387"/>
-      <c r="AF22" s="388"/>
-      <c r="AG22" s="364"/>
-      <c r="AH22" s="365"/>
-      <c r="AI22" s="389"/>
-      <c r="AJ22" s="390"/>
-      <c r="AK22" s="390"/>
-      <c r="AL22" s="390"/>
-      <c r="AM22" s="390"/>
-      <c r="AN22" s="391"/>
+      <c r="R22" s="377"/>
+      <c r="S22" s="309"/>
+      <c r="T22" s="309"/>
+      <c r="U22" s="310"/>
+      <c r="V22" s="381"/>
+      <c r="W22" s="382"/>
+      <c r="X22" s="383"/>
+      <c r="Y22" s="384"/>
+      <c r="Z22" s="377"/>
+      <c r="AA22" s="310"/>
+      <c r="AB22" s="377"/>
+      <c r="AC22" s="310"/>
+      <c r="AD22" s="383"/>
+      <c r="AE22" s="384"/>
+      <c r="AF22" s="377"/>
+      <c r="AG22" s="309"/>
+      <c r="AH22" s="310"/>
+      <c r="AI22" s="378"/>
+      <c r="AJ22" s="379"/>
+      <c r="AK22" s="379"/>
+      <c r="AL22" s="379"/>
+      <c r="AM22" s="379"/>
+      <c r="AN22" s="380"/>
       <c r="AS22" s="167"/>
       <c r="AT22" s="167"/>
       <c r="AU22" s="168"/>
@@ -15350,45 +15349,45 @@
     </row>
     <row r="23" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="165"/>
-      <c r="B23" s="389"/>
-      <c r="C23" s="390"/>
-      <c r="D23" s="390"/>
-      <c r="E23" s="390"/>
-      <c r="F23" s="391"/>
-      <c r="G23" s="389"/>
-      <c r="H23" s="390"/>
-      <c r="I23" s="390"/>
-      <c r="J23" s="390"/>
-      <c r="K23" s="391"/>
-      <c r="L23" s="389"/>
-      <c r="M23" s="390"/>
-      <c r="N23" s="390"/>
-      <c r="O23" s="390"/>
-      <c r="P23" s="391"/>
+      <c r="B23" s="378"/>
+      <c r="C23" s="379"/>
+      <c r="D23" s="379"/>
+      <c r="E23" s="379"/>
+      <c r="F23" s="380"/>
+      <c r="G23" s="378"/>
+      <c r="H23" s="379"/>
+      <c r="I23" s="379"/>
+      <c r="J23" s="379"/>
+      <c r="K23" s="380"/>
+      <c r="L23" s="378"/>
+      <c r="M23" s="379"/>
+      <c r="N23" s="379"/>
+      <c r="O23" s="379"/>
+      <c r="P23" s="380"/>
       <c r="Q23" s="166"/>
-      <c r="R23" s="388"/>
-      <c r="S23" s="364"/>
-      <c r="T23" s="364"/>
-      <c r="U23" s="365"/>
-      <c r="V23" s="393"/>
-      <c r="W23" s="394"/>
-      <c r="X23" s="395"/>
-      <c r="Y23" s="396"/>
-      <c r="Z23" s="386"/>
-      <c r="AA23" s="387"/>
-      <c r="AB23" s="388"/>
-      <c r="AC23" s="365"/>
-      <c r="AD23" s="386"/>
-      <c r="AE23" s="387"/>
-      <c r="AF23" s="388"/>
-      <c r="AG23" s="364"/>
-      <c r="AH23" s="365"/>
-      <c r="AI23" s="389"/>
-      <c r="AJ23" s="390"/>
-      <c r="AK23" s="390"/>
-      <c r="AL23" s="390"/>
-      <c r="AM23" s="390"/>
-      <c r="AN23" s="391"/>
+      <c r="R23" s="377"/>
+      <c r="S23" s="309"/>
+      <c r="T23" s="309"/>
+      <c r="U23" s="310"/>
+      <c r="V23" s="392"/>
+      <c r="W23" s="393"/>
+      <c r="X23" s="394"/>
+      <c r="Y23" s="395"/>
+      <c r="Z23" s="383"/>
+      <c r="AA23" s="384"/>
+      <c r="AB23" s="377"/>
+      <c r="AC23" s="310"/>
+      <c r="AD23" s="383"/>
+      <c r="AE23" s="384"/>
+      <c r="AF23" s="377"/>
+      <c r="AG23" s="309"/>
+      <c r="AH23" s="310"/>
+      <c r="AI23" s="378"/>
+      <c r="AJ23" s="379"/>
+      <c r="AK23" s="379"/>
+      <c r="AL23" s="379"/>
+      <c r="AM23" s="379"/>
+      <c r="AN23" s="380"/>
       <c r="AS23" s="167"/>
       <c r="AT23" s="167"/>
       <c r="AU23" s="168"/>
@@ -15452,117 +15451,75 @@
     </row>
   </sheetData>
   <mergeCells count="204">
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AI8:AN8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="AI9:AN9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AI11:AN11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AI14:AN14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AI15:AN15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AI16:AN16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AI17:AN17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AI7:AN7"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AI23:AN23"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AI22:AN22"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="AI20:AN20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AI21:AN21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
     <mergeCell ref="Z20:AA20"/>
     <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="AD20:AE20"/>
@@ -15587,75 +15544,117 @@
     <mergeCell ref="X18:Y18"/>
     <mergeCell ref="Z18:AA18"/>
     <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="AI20:AN20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AI21:AN21"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AI23:AN23"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AI22:AN22"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AI7:AN7"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AI16:AN16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AI17:AN17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AI15:AN15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AI11:AN11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AI8:AN8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="AI9:AN9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document(I／F_files)_N21AA002／List_of_Projects_in_Period.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document(I／F_files)_N21AA002／List_of_Projects_in_Period.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444414BF-0B6A-4EEF-8324-E26BB1CCBD3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E170A01D-388D-417A-943E-66B071269124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
             <rFont val="Times New Roman"/>
             <family val="1"/>
           </rPr>
-          <t>In the case of the input interface, enter "O" if it is a required item. In the case of the output interface, enter "O" if the value is always set.</t>
+          <t>In the case of the input interface, enter "O" if it is a required item. In the case of the output interface, enter "X" if the value is always set.</t>
         </r>
       </text>
     </comment>
@@ -2614,6 +2614,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2628,16 +2658,118 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2665,15 +2797,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2682,129 +2805,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2820,15 +2820,84 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2841,15 +2910,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2877,65 +2937,50 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2943,6 +2988,15 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2952,32 +3006,125 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -3000,152 +3147,26 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3156,6 +3177,21 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3173,42 +3209,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6986,154 +6986,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="203" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="200" t="s">
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="192" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="214" t="s">
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="206" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="216"/>
-      <c r="S1" s="223" t="s">
+      <c r="P1" s="207"/>
+      <c r="Q1" s="207"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="215" t="s">
         <v>136</v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="211" t="s">
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="203" t="s">
         <v>133</v>
       </c>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="194" t="s">
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="197">
+      <c r="AD1" s="187"/>
+      <c r="AE1" s="187"/>
+      <c r="AF1" s="188"/>
+      <c r="AG1" s="189">
         <f>IF(D8="","",D8)</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="190"/>
+      <c r="AI1" s="191"/>
       <c r="AK1" s="161"/>
       <c r="AL1" s="161"/>
       <c r="AM1" s="161"/>
       <c r="AN1" s="162"/>
     </row>
     <row r="2" spans="1:40" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="200" t="s">
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="192" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="219"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="227"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="211" t="s">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="203" t="str">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="195" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="204"/>
-      <c r="AE2" s="204"/>
-      <c r="AF2" s="205"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="189" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="190"/>
+      <c r="AI2" s="191"/>
       <c r="AK2" s="161"/>
       <c r="AL2" s="161"/>
       <c r="AM2" s="161"/>
       <c r="AN2" s="161"/>
     </row>
     <row r="3" spans="1:40" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="203" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="200" t="s">
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="192" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="220"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="222"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="230"/>
-      <c r="U3" s="230"/>
-      <c r="V3" s="230"/>
-      <c r="W3" s="230"/>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="231"/>
-      <c r="AA3" s="211"/>
-      <c r="AB3" s="213"/>
-      <c r="AC3" s="194"/>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="197"/>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="222"/>
+      <c r="U3" s="222"/>
+      <c r="V3" s="222"/>
+      <c r="W3" s="222"/>
+      <c r="X3" s="222"/>
+      <c r="Y3" s="222"/>
+      <c r="Z3" s="223"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="205"/>
+      <c r="AC3" s="186"/>
+      <c r="AD3" s="187"/>
+      <c r="AE3" s="187"/>
+      <c r="AF3" s="188"/>
+      <c r="AG3" s="189"/>
+      <c r="AH3" s="190"/>
+      <c r="AI3" s="191"/>
       <c r="AK3" s="161"/>
       <c r="AL3" s="161"/>
       <c r="AM3" s="161"/>
@@ -7180,116 +7180,116 @@
       <c r="A7" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="198" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="208" t="s">
+      <c r="C7" s="199"/>
+      <c r="D7" s="200" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="209"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="208" t="s">
+      <c r="E7" s="201"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="200" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="209"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="208" t="s">
+      <c r="H7" s="201"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="200" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="209"/>
-      <c r="L7" s="209"/>
-      <c r="M7" s="209"/>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="210"/>
-      <c r="Q7" s="208" t="s">
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="200" t="s">
         <v>141</v>
       </c>
-      <c r="R7" s="209"/>
-      <c r="S7" s="209"/>
-      <c r="T7" s="209"/>
-      <c r="U7" s="209"/>
-      <c r="V7" s="209"/>
-      <c r="W7" s="209"/>
-      <c r="X7" s="209"/>
-      <c r="Y7" s="209"/>
-      <c r="Z7" s="209"/>
-      <c r="AA7" s="209"/>
-      <c r="AB7" s="209"/>
-      <c r="AC7" s="209"/>
-      <c r="AD7" s="209"/>
-      <c r="AE7" s="210"/>
-      <c r="AF7" s="208" t="s">
+      <c r="R7" s="201"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="201"/>
+      <c r="U7" s="201"/>
+      <c r="V7" s="201"/>
+      <c r="W7" s="201"/>
+      <c r="X7" s="201"/>
+      <c r="Y7" s="201"/>
+      <c r="Z7" s="201"/>
+      <c r="AA7" s="201"/>
+      <c r="AB7" s="201"/>
+      <c r="AC7" s="201"/>
+      <c r="AD7" s="201"/>
+      <c r="AE7" s="202"/>
+      <c r="AF7" s="200" t="s">
         <v>142</v>
       </c>
-      <c r="AG7" s="209"/>
-      <c r="AH7" s="209"/>
-      <c r="AI7" s="210"/>
+      <c r="AG7" s="201"/>
+      <c r="AH7" s="201"/>
+      <c r="AI7" s="202"/>
       <c r="AJ7" s="167"/>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="169">
         <v>1</v>
       </c>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="224" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="181"/>
-      <c r="D8" s="182">
+      <c r="C8" s="225"/>
+      <c r="D8" s="226">
         <v>43580</v>
       </c>
-      <c r="E8" s="183"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="185" t="s">
+      <c r="E8" s="227"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="186"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="188" t="s">
+      <c r="H8" s="230"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="189"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="189"/>
-      <c r="N8" s="189"/>
-      <c r="O8" s="189"/>
-      <c r="P8" s="190"/>
-      <c r="Q8" s="191" t="s">
+      <c r="K8" s="175"/>
+      <c r="L8" s="175"/>
+      <c r="M8" s="175"/>
+      <c r="N8" s="175"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="232" t="s">
         <v>144</v>
       </c>
-      <c r="R8" s="192"/>
-      <c r="S8" s="192"/>
-      <c r="T8" s="192"/>
-      <c r="U8" s="192"/>
-      <c r="V8" s="192"/>
-      <c r="W8" s="192"/>
-      <c r="X8" s="192"/>
-      <c r="Y8" s="192"/>
-      <c r="Z8" s="192"/>
-      <c r="AA8" s="192"/>
-      <c r="AB8" s="192"/>
-      <c r="AC8" s="192"/>
-      <c r="AD8" s="192"/>
-      <c r="AE8" s="193"/>
-      <c r="AF8" s="188" t="s">
+      <c r="R8" s="233"/>
+      <c r="S8" s="233"/>
+      <c r="T8" s="233"/>
+      <c r="U8" s="233"/>
+      <c r="V8" s="233"/>
+      <c r="W8" s="233"/>
+      <c r="X8" s="233"/>
+      <c r="Y8" s="233"/>
+      <c r="Z8" s="233"/>
+      <c r="AA8" s="233"/>
+      <c r="AB8" s="233"/>
+      <c r="AC8" s="233"/>
+      <c r="AD8" s="233"/>
+      <c r="AE8" s="234"/>
+      <c r="AF8" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="AG8" s="189"/>
-      <c r="AH8" s="189"/>
-      <c r="AI8" s="190"/>
+      <c r="AG8" s="175"/>
+      <c r="AH8" s="175"/>
+      <c r="AI8" s="176"/>
       <c r="AJ8" s="167"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="152"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="172"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="182"/>
       <c r="J9" s="177"/>
       <c r="K9" s="178"/>
       <c r="L9" s="178"/>
@@ -7312,22 +7312,22 @@
       <c r="AC9" s="178"/>
       <c r="AD9" s="178"/>
       <c r="AE9" s="179"/>
-      <c r="AF9" s="232"/>
-      <c r="AG9" s="233"/>
-      <c r="AH9" s="233"/>
-      <c r="AI9" s="234"/>
+      <c r="AF9" s="171"/>
+      <c r="AG9" s="172"/>
+      <c r="AH9" s="172"/>
+      <c r="AI9" s="173"/>
       <c r="AJ9" s="123"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="152"/>
-      <c r="B10" s="171"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="172"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="182"/>
       <c r="J10" s="177"/>
       <c r="K10" s="178"/>
       <c r="L10" s="178"/>
@@ -7350,21 +7350,21 @@
       <c r="AC10" s="178"/>
       <c r="AD10" s="178"/>
       <c r="AE10" s="179"/>
-      <c r="AF10" s="232"/>
-      <c r="AG10" s="233"/>
-      <c r="AH10" s="233"/>
-      <c r="AI10" s="234"/>
+      <c r="AF10" s="171"/>
+      <c r="AG10" s="172"/>
+      <c r="AH10" s="172"/>
+      <c r="AI10" s="173"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="152"/>
-      <c r="B11" s="171"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="172"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="182"/>
       <c r="J11" s="177"/>
       <c r="K11" s="178"/>
       <c r="L11" s="178"/>
@@ -7387,21 +7387,21 @@
       <c r="AC11" s="178"/>
       <c r="AD11" s="178"/>
       <c r="AE11" s="179"/>
-      <c r="AF11" s="232"/>
-      <c r="AG11" s="233"/>
-      <c r="AH11" s="233"/>
-      <c r="AI11" s="234"/>
+      <c r="AF11" s="171"/>
+      <c r="AG11" s="172"/>
+      <c r="AH11" s="172"/>
+      <c r="AI11" s="173"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="152"/>
-      <c r="B12" s="171"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="172"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="182"/>
       <c r="J12" s="177"/>
       <c r="K12" s="178"/>
       <c r="L12" s="178"/>
@@ -7424,21 +7424,21 @@
       <c r="AC12" s="178"/>
       <c r="AD12" s="178"/>
       <c r="AE12" s="179"/>
-      <c r="AF12" s="232"/>
-      <c r="AG12" s="233"/>
-      <c r="AH12" s="233"/>
-      <c r="AI12" s="234"/>
+      <c r="AF12" s="171"/>
+      <c r="AG12" s="172"/>
+      <c r="AH12" s="172"/>
+      <c r="AI12" s="173"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="152"/>
-      <c r="B13" s="171"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="172"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="182"/>
       <c r="J13" s="177"/>
       <c r="K13" s="178"/>
       <c r="L13" s="178"/>
@@ -7461,28 +7461,28 @@
       <c r="AC13" s="178"/>
       <c r="AD13" s="178"/>
       <c r="AE13" s="179"/>
-      <c r="AF13" s="232"/>
-      <c r="AG13" s="233"/>
-      <c r="AH13" s="233"/>
-      <c r="AI13" s="234"/>
+      <c r="AF13" s="171"/>
+      <c r="AG13" s="172"/>
+      <c r="AH13" s="172"/>
+      <c r="AI13" s="173"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="152"/>
-      <c r="B14" s="171"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="233"/>
-      <c r="L14" s="233"/>
-      <c r="M14" s="233"/>
-      <c r="N14" s="233"/>
-      <c r="O14" s="233"/>
-      <c r="P14" s="234"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="172"/>
+      <c r="N14" s="172"/>
+      <c r="O14" s="172"/>
+      <c r="P14" s="173"/>
       <c r="Q14" s="177"/>
       <c r="R14" s="178"/>
       <c r="S14" s="178"/>
@@ -7498,28 +7498,28 @@
       <c r="AC14" s="178"/>
       <c r="AD14" s="178"/>
       <c r="AE14" s="179"/>
-      <c r="AF14" s="232"/>
-      <c r="AG14" s="233"/>
-      <c r="AH14" s="233"/>
-      <c r="AI14" s="234"/>
+      <c r="AF14" s="171"/>
+      <c r="AG14" s="172"/>
+      <c r="AH14" s="172"/>
+      <c r="AI14" s="173"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="152"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="232"/>
-      <c r="K15" s="233"/>
-      <c r="L15" s="233"/>
-      <c r="M15" s="233"/>
-      <c r="N15" s="233"/>
-      <c r="O15" s="233"/>
-      <c r="P15" s="234"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="172"/>
+      <c r="N15" s="172"/>
+      <c r="O15" s="172"/>
+      <c r="P15" s="173"/>
       <c r="Q15" s="177"/>
       <c r="R15" s="178"/>
       <c r="S15" s="178"/>
@@ -7535,28 +7535,28 @@
       <c r="AC15" s="178"/>
       <c r="AD15" s="178"/>
       <c r="AE15" s="179"/>
-      <c r="AF15" s="232"/>
-      <c r="AG15" s="233"/>
-      <c r="AH15" s="233"/>
-      <c r="AI15" s="234"/>
+      <c r="AF15" s="171"/>
+      <c r="AG15" s="172"/>
+      <c r="AH15" s="172"/>
+      <c r="AI15" s="173"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="152"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="232"/>
-      <c r="K16" s="233"/>
-      <c r="L16" s="233"/>
-      <c r="M16" s="233"/>
-      <c r="N16" s="233"/>
-      <c r="O16" s="233"/>
-      <c r="P16" s="234"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="172"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="173"/>
       <c r="Q16" s="177"/>
       <c r="R16" s="178"/>
       <c r="S16" s="178"/>
@@ -7572,28 +7572,28 @@
       <c r="AC16" s="178"/>
       <c r="AD16" s="178"/>
       <c r="AE16" s="179"/>
-      <c r="AF16" s="232"/>
-      <c r="AG16" s="233"/>
-      <c r="AH16" s="233"/>
-      <c r="AI16" s="234"/>
+      <c r="AF16" s="171"/>
+      <c r="AG16" s="172"/>
+      <c r="AH16" s="172"/>
+      <c r="AI16" s="173"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="152"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="232"/>
-      <c r="K17" s="233"/>
-      <c r="L17" s="233"/>
-      <c r="M17" s="233"/>
-      <c r="N17" s="233"/>
-      <c r="O17" s="233"/>
-      <c r="P17" s="234"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="172"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="173"/>
       <c r="Q17" s="177"/>
       <c r="R17" s="178"/>
       <c r="S17" s="178"/>
@@ -7609,28 +7609,28 @@
       <c r="AC17" s="178"/>
       <c r="AD17" s="178"/>
       <c r="AE17" s="179"/>
-      <c r="AF17" s="232"/>
-      <c r="AG17" s="233"/>
-      <c r="AH17" s="233"/>
-      <c r="AI17" s="234"/>
+      <c r="AF17" s="171"/>
+      <c r="AG17" s="172"/>
+      <c r="AH17" s="172"/>
+      <c r="AI17" s="173"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="152"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="232"/>
-      <c r="K18" s="233"/>
-      <c r="L18" s="233"/>
-      <c r="M18" s="233"/>
-      <c r="N18" s="233"/>
-      <c r="O18" s="233"/>
-      <c r="P18" s="234"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+      <c r="P18" s="173"/>
       <c r="Q18" s="177"/>
       <c r="R18" s="178"/>
       <c r="S18" s="178"/>
@@ -7646,28 +7646,28 @@
       <c r="AC18" s="178"/>
       <c r="AD18" s="178"/>
       <c r="AE18" s="179"/>
-      <c r="AF18" s="232"/>
-      <c r="AG18" s="233"/>
-      <c r="AH18" s="233"/>
-      <c r="AI18" s="234"/>
+      <c r="AF18" s="171"/>
+      <c r="AG18" s="172"/>
+      <c r="AH18" s="172"/>
+      <c r="AI18" s="173"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="152"/>
-      <c r="B19" s="171"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="233"/>
-      <c r="L19" s="233"/>
-      <c r="M19" s="233"/>
-      <c r="N19" s="233"/>
-      <c r="O19" s="233"/>
-      <c r="P19" s="234"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="172"/>
+      <c r="O19" s="172"/>
+      <c r="P19" s="173"/>
       <c r="Q19" s="177"/>
       <c r="R19" s="178"/>
       <c r="S19" s="178"/>
@@ -7683,28 +7683,28 @@
       <c r="AC19" s="178"/>
       <c r="AD19" s="178"/>
       <c r="AE19" s="179"/>
-      <c r="AF19" s="232"/>
-      <c r="AG19" s="233"/>
-      <c r="AH19" s="233"/>
-      <c r="AI19" s="234"/>
+      <c r="AF19" s="171"/>
+      <c r="AG19" s="172"/>
+      <c r="AH19" s="172"/>
+      <c r="AI19" s="173"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="152"/>
-      <c r="B20" s="171"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="232"/>
-      <c r="K20" s="233"/>
-      <c r="L20" s="233"/>
-      <c r="M20" s="233"/>
-      <c r="N20" s="233"/>
-      <c r="O20" s="233"/>
-      <c r="P20" s="234"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
+      <c r="P20" s="173"/>
       <c r="Q20" s="177"/>
       <c r="R20" s="178"/>
       <c r="S20" s="178"/>
@@ -7720,28 +7720,28 @@
       <c r="AC20" s="178"/>
       <c r="AD20" s="178"/>
       <c r="AE20" s="179"/>
-      <c r="AF20" s="232"/>
-      <c r="AG20" s="233"/>
-      <c r="AH20" s="233"/>
-      <c r="AI20" s="234"/>
+      <c r="AF20" s="171"/>
+      <c r="AG20" s="172"/>
+      <c r="AH20" s="172"/>
+      <c r="AI20" s="173"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="152"/>
-      <c r="B21" s="171"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="232"/>
-      <c r="K21" s="233"/>
-      <c r="L21" s="233"/>
-      <c r="M21" s="233"/>
-      <c r="N21" s="233"/>
-      <c r="O21" s="233"/>
-      <c r="P21" s="234"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="172"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="172"/>
+      <c r="P21" s="173"/>
       <c r="Q21" s="177"/>
       <c r="R21" s="178"/>
       <c r="S21" s="178"/>
@@ -7757,28 +7757,28 @@
       <c r="AC21" s="178"/>
       <c r="AD21" s="178"/>
       <c r="AE21" s="179"/>
-      <c r="AF21" s="232"/>
-      <c r="AG21" s="233"/>
-      <c r="AH21" s="233"/>
-      <c r="AI21" s="234"/>
+      <c r="AF21" s="171"/>
+      <c r="AG21" s="172"/>
+      <c r="AH21" s="172"/>
+      <c r="AI21" s="173"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="152"/>
-      <c r="B22" s="171"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="232"/>
-      <c r="K22" s="233"/>
-      <c r="L22" s="233"/>
-      <c r="M22" s="233"/>
-      <c r="N22" s="233"/>
-      <c r="O22" s="233"/>
-      <c r="P22" s="234"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="172"/>
+      <c r="L22" s="172"/>
+      <c r="M22" s="172"/>
+      <c r="N22" s="172"/>
+      <c r="O22" s="172"/>
+      <c r="P22" s="173"/>
       <c r="Q22" s="177"/>
       <c r="R22" s="178"/>
       <c r="S22" s="178"/>
@@ -7794,28 +7794,28 @@
       <c r="AC22" s="178"/>
       <c r="AD22" s="178"/>
       <c r="AE22" s="179"/>
-      <c r="AF22" s="232"/>
-      <c r="AG22" s="233"/>
-      <c r="AH22" s="233"/>
-      <c r="AI22" s="234"/>
+      <c r="AF22" s="171"/>
+      <c r="AG22" s="172"/>
+      <c r="AH22" s="172"/>
+      <c r="AI22" s="173"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="152"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="176"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="232"/>
-      <c r="K23" s="233"/>
-      <c r="L23" s="233"/>
-      <c r="M23" s="233"/>
-      <c r="N23" s="233"/>
-      <c r="O23" s="233"/>
-      <c r="P23" s="234"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="172"/>
+      <c r="L23" s="172"/>
+      <c r="M23" s="172"/>
+      <c r="N23" s="172"/>
+      <c r="O23" s="172"/>
+      <c r="P23" s="173"/>
       <c r="Q23" s="177"/>
       <c r="R23" s="178"/>
       <c r="S23" s="178"/>
@@ -7831,28 +7831,28 @@
       <c r="AC23" s="178"/>
       <c r="AD23" s="178"/>
       <c r="AE23" s="179"/>
-      <c r="AF23" s="232"/>
-      <c r="AG23" s="233"/>
-      <c r="AH23" s="233"/>
-      <c r="AI23" s="234"/>
+      <c r="AF23" s="171"/>
+      <c r="AG23" s="172"/>
+      <c r="AH23" s="172"/>
+      <c r="AI23" s="173"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="152"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="232"/>
-      <c r="K24" s="233"/>
-      <c r="L24" s="233"/>
-      <c r="M24" s="233"/>
-      <c r="N24" s="233"/>
-      <c r="O24" s="233"/>
-      <c r="P24" s="234"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="182"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="172"/>
+      <c r="L24" s="172"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="172"/>
+      <c r="O24" s="172"/>
+      <c r="P24" s="173"/>
       <c r="Q24" s="177"/>
       <c r="R24" s="178"/>
       <c r="S24" s="178"/>
@@ -7868,28 +7868,28 @@
       <c r="AC24" s="178"/>
       <c r="AD24" s="178"/>
       <c r="AE24" s="179"/>
-      <c r="AF24" s="232"/>
-      <c r="AG24" s="233"/>
-      <c r="AH24" s="233"/>
-      <c r="AI24" s="234"/>
+      <c r="AF24" s="171"/>
+      <c r="AG24" s="172"/>
+      <c r="AH24" s="172"/>
+      <c r="AI24" s="173"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="152"/>
-      <c r="B25" s="171"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="176"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="232"/>
-      <c r="K25" s="233"/>
-      <c r="L25" s="233"/>
-      <c r="M25" s="233"/>
-      <c r="N25" s="233"/>
-      <c r="O25" s="233"/>
-      <c r="P25" s="234"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="172"/>
+      <c r="L25" s="172"/>
+      <c r="M25" s="172"/>
+      <c r="N25" s="172"/>
+      <c r="O25" s="172"/>
+      <c r="P25" s="173"/>
       <c r="Q25" s="177"/>
       <c r="R25" s="178"/>
       <c r="S25" s="178"/>
@@ -7905,28 +7905,28 @@
       <c r="AC25" s="178"/>
       <c r="AD25" s="178"/>
       <c r="AE25" s="179"/>
-      <c r="AF25" s="232"/>
-      <c r="AG25" s="233"/>
-      <c r="AH25" s="233"/>
-      <c r="AI25" s="234"/>
+      <c r="AF25" s="171"/>
+      <c r="AG25" s="172"/>
+      <c r="AH25" s="172"/>
+      <c r="AI25" s="173"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="152"/>
-      <c r="B26" s="171"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="232"/>
-      <c r="K26" s="233"/>
-      <c r="L26" s="233"/>
-      <c r="M26" s="233"/>
-      <c r="N26" s="233"/>
-      <c r="O26" s="233"/>
-      <c r="P26" s="234"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="172"/>
+      <c r="L26" s="172"/>
+      <c r="M26" s="172"/>
+      <c r="N26" s="172"/>
+      <c r="O26" s="172"/>
+      <c r="P26" s="173"/>
       <c r="Q26" s="177"/>
       <c r="R26" s="178"/>
       <c r="S26" s="178"/>
@@ -7942,28 +7942,28 @@
       <c r="AC26" s="178"/>
       <c r="AD26" s="178"/>
       <c r="AE26" s="179"/>
-      <c r="AF26" s="232"/>
-      <c r="AG26" s="233"/>
-      <c r="AH26" s="233"/>
-      <c r="AI26" s="234"/>
+      <c r="AF26" s="171"/>
+      <c r="AG26" s="172"/>
+      <c r="AH26" s="172"/>
+      <c r="AI26" s="173"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="152"/>
-      <c r="B27" s="171"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="232"/>
-      <c r="K27" s="233"/>
-      <c r="L27" s="233"/>
-      <c r="M27" s="233"/>
-      <c r="N27" s="233"/>
-      <c r="O27" s="233"/>
-      <c r="P27" s="234"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="185"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="172"/>
+      <c r="L27" s="172"/>
+      <c r="M27" s="172"/>
+      <c r="N27" s="172"/>
+      <c r="O27" s="172"/>
+      <c r="P27" s="173"/>
       <c r="Q27" s="177"/>
       <c r="R27" s="178"/>
       <c r="S27" s="178"/>
@@ -7979,28 +7979,28 @@
       <c r="AC27" s="178"/>
       <c r="AD27" s="178"/>
       <c r="AE27" s="179"/>
-      <c r="AF27" s="232"/>
-      <c r="AG27" s="233"/>
-      <c r="AH27" s="233"/>
-      <c r="AI27" s="234"/>
+      <c r="AF27" s="171"/>
+      <c r="AG27" s="172"/>
+      <c r="AH27" s="172"/>
+      <c r="AI27" s="173"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="152"/>
-      <c r="B28" s="171"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="232"/>
-      <c r="K28" s="233"/>
-      <c r="L28" s="233"/>
-      <c r="M28" s="233"/>
-      <c r="N28" s="233"/>
-      <c r="O28" s="233"/>
-      <c r="P28" s="234"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="172"/>
+      <c r="L28" s="172"/>
+      <c r="M28" s="172"/>
+      <c r="N28" s="172"/>
+      <c r="O28" s="172"/>
+      <c r="P28" s="173"/>
       <c r="Q28" s="177"/>
       <c r="R28" s="178"/>
       <c r="S28" s="178"/>
@@ -8016,28 +8016,28 @@
       <c r="AC28" s="178"/>
       <c r="AD28" s="178"/>
       <c r="AE28" s="179"/>
-      <c r="AF28" s="232"/>
-      <c r="AG28" s="233"/>
-      <c r="AH28" s="233"/>
-      <c r="AI28" s="234"/>
+      <c r="AF28" s="171"/>
+      <c r="AG28" s="172"/>
+      <c r="AH28" s="172"/>
+      <c r="AI28" s="173"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="152"/>
-      <c r="B29" s="171"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="232"/>
-      <c r="K29" s="233"/>
-      <c r="L29" s="233"/>
-      <c r="M29" s="233"/>
-      <c r="N29" s="233"/>
-      <c r="O29" s="233"/>
-      <c r="P29" s="234"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="172"/>
+      <c r="M29" s="172"/>
+      <c r="N29" s="172"/>
+      <c r="O29" s="172"/>
+      <c r="P29" s="173"/>
       <c r="Q29" s="177"/>
       <c r="R29" s="178"/>
       <c r="S29" s="178"/>
@@ -8053,28 +8053,28 @@
       <c r="AC29" s="178"/>
       <c r="AD29" s="178"/>
       <c r="AE29" s="179"/>
-      <c r="AF29" s="232"/>
-      <c r="AG29" s="233"/>
-      <c r="AH29" s="233"/>
-      <c r="AI29" s="234"/>
+      <c r="AF29" s="171"/>
+      <c r="AG29" s="172"/>
+      <c r="AH29" s="172"/>
+      <c r="AI29" s="173"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="152"/>
-      <c r="B30" s="171"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="232"/>
-      <c r="K30" s="233"/>
-      <c r="L30" s="233"/>
-      <c r="M30" s="233"/>
-      <c r="N30" s="233"/>
-      <c r="O30" s="233"/>
-      <c r="P30" s="234"/>
+      <c r="B30" s="180"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="180"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="172"/>
+      <c r="L30" s="172"/>
+      <c r="M30" s="172"/>
+      <c r="N30" s="172"/>
+      <c r="O30" s="172"/>
+      <c r="P30" s="173"/>
       <c r="Q30" s="177"/>
       <c r="R30" s="178"/>
       <c r="S30" s="178"/>
@@ -8090,28 +8090,28 @@
       <c r="AC30" s="178"/>
       <c r="AD30" s="178"/>
       <c r="AE30" s="179"/>
-      <c r="AF30" s="232"/>
-      <c r="AG30" s="233"/>
-      <c r="AH30" s="233"/>
-      <c r="AI30" s="234"/>
+      <c r="AF30" s="171"/>
+      <c r="AG30" s="172"/>
+      <c r="AH30" s="172"/>
+      <c r="AI30" s="173"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="152"/>
-      <c r="B31" s="171"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="232"/>
-      <c r="K31" s="233"/>
-      <c r="L31" s="233"/>
-      <c r="M31" s="233"/>
-      <c r="N31" s="233"/>
-      <c r="O31" s="233"/>
-      <c r="P31" s="234"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="172"/>
+      <c r="L31" s="172"/>
+      <c r="M31" s="172"/>
+      <c r="N31" s="172"/>
+      <c r="O31" s="172"/>
+      <c r="P31" s="173"/>
       <c r="Q31" s="177"/>
       <c r="R31" s="178"/>
       <c r="S31" s="178"/>
@@ -8127,28 +8127,28 @@
       <c r="AC31" s="178"/>
       <c r="AD31" s="178"/>
       <c r="AE31" s="179"/>
-      <c r="AF31" s="232"/>
-      <c r="AG31" s="233"/>
-      <c r="AH31" s="233"/>
-      <c r="AI31" s="234"/>
+      <c r="AF31" s="171"/>
+      <c r="AG31" s="172"/>
+      <c r="AH31" s="172"/>
+      <c r="AI31" s="173"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="152"/>
-      <c r="B32" s="171"/>
-      <c r="C32" s="172"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="232"/>
-      <c r="K32" s="233"/>
-      <c r="L32" s="233"/>
-      <c r="M32" s="233"/>
-      <c r="N32" s="233"/>
-      <c r="O32" s="233"/>
-      <c r="P32" s="234"/>
+      <c r="B32" s="180"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="171"/>
+      <c r="K32" s="172"/>
+      <c r="L32" s="172"/>
+      <c r="M32" s="172"/>
+      <c r="N32" s="172"/>
+      <c r="O32" s="172"/>
+      <c r="P32" s="173"/>
       <c r="Q32" s="177"/>
       <c r="R32" s="178"/>
       <c r="S32" s="178"/>
@@ -8164,28 +8164,28 @@
       <c r="AC32" s="178"/>
       <c r="AD32" s="178"/>
       <c r="AE32" s="179"/>
-      <c r="AF32" s="232"/>
-      <c r="AG32" s="233"/>
-      <c r="AH32" s="233"/>
-      <c r="AI32" s="234"/>
+      <c r="AF32" s="171"/>
+      <c r="AG32" s="172"/>
+      <c r="AH32" s="172"/>
+      <c r="AI32" s="173"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="152"/>
-      <c r="B33" s="171"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="232"/>
-      <c r="K33" s="233"/>
-      <c r="L33" s="233"/>
-      <c r="M33" s="233"/>
-      <c r="N33" s="233"/>
-      <c r="O33" s="233"/>
-      <c r="P33" s="234"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="180"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="172"/>
+      <c r="L33" s="172"/>
+      <c r="M33" s="172"/>
+      <c r="N33" s="172"/>
+      <c r="O33" s="172"/>
+      <c r="P33" s="173"/>
       <c r="Q33" s="177"/>
       <c r="R33" s="178"/>
       <c r="S33" s="178"/>
@@ -8201,24 +8201,157 @@
       <c r="AC33" s="178"/>
       <c r="AD33" s="178"/>
       <c r="AE33" s="179"/>
-      <c r="AF33" s="232"/>
-      <c r="AG33" s="233"/>
-      <c r="AH33" s="233"/>
-      <c r="AI33" s="234"/>
+      <c r="AF33" s="171"/>
+      <c r="AG33" s="172"/>
+      <c r="AH33" s="172"/>
+      <c r="AI33" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="Q23:AE23"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AF9:AI9"/>
     <mergeCell ref="AF10:AI10"/>
@@ -8243,150 +8376,17 @@
     <mergeCell ref="AF15:AI15"/>
     <mergeCell ref="AF16:AI16"/>
     <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF27:AI27"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -8542,54 +8542,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="203" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="200" t="str">
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="214" t="s">
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="206" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="216"/>
-      <c r="S1" s="223" t="str">
+      <c r="P1" s="207"/>
+      <c r="Q1" s="207"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="215" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design Document(I／F files)
 N21AA002/Project list in the period</v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="211" t="s">
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="203" t="s">
         <v>133</v>
       </c>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="186" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
+      <c r="AD1" s="187"/>
+      <c r="AE1" s="187"/>
+      <c r="AF1" s="188"/>
       <c r="AG1" s="235">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43580</v>
@@ -8598,48 +8598,48 @@
       <c r="AI1" s="237"/>
     </row>
     <row r="2" spans="1:35" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="200" t="str">
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="219"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="227"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="211" t="s">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="186" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="188"/>
       <c r="AG2" s="235" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
@@ -8648,46 +8648,46 @@
       <c r="AI2" s="237"/>
     </row>
     <row r="3" spans="1:35" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="203" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="200" t="str">
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="220"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="222"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="230"/>
-      <c r="U3" s="230"/>
-      <c r="V3" s="230"/>
-      <c r="W3" s="230"/>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="231"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="222"/>
+      <c r="U3" s="222"/>
+      <c r="V3" s="222"/>
+      <c r="W3" s="222"/>
+      <c r="X3" s="222"/>
+      <c r="Y3" s="222"/>
+      <c r="Z3" s="223"/>
       <c r="AA3" s="238"/>
       <c r="AB3" s="239"/>
-      <c r="AC3" s="194" t="str">
+      <c r="AC3" s="186" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
+      <c r="AD3" s="187"/>
+      <c r="AE3" s="187"/>
+      <c r="AF3" s="188"/>
       <c r="AG3" s="235" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
@@ -9948,6 +9948,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -9959,12 +9965,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -9990,54 +9990,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="203" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="200" t="str">
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="214" t="s">
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="206" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="216"/>
-      <c r="S1" s="223" t="str">
+      <c r="P1" s="207"/>
+      <c r="Q1" s="207"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="215" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design Document(I／F files)
 N21AA002/Project list in the period</v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="211" t="s">
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="203" t="s">
         <v>133</v>
       </c>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="186" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
+      <c r="AD1" s="187"/>
+      <c r="AE1" s="187"/>
+      <c r="AF1" s="188"/>
       <c r="AG1" s="235">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43580</v>
@@ -10046,48 +10046,48 @@
       <c r="AI1" s="237"/>
     </row>
     <row r="2" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="200" t="str">
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="219"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="227"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="211" t="s">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="186" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="188"/>
       <c r="AG2" s="235" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
@@ -10096,46 +10096,46 @@
       <c r="AI2" s="237"/>
     </row>
     <row r="3" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="203" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="200" t="str">
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="220"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="222"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="230"/>
-      <c r="U3" s="230"/>
-      <c r="V3" s="230"/>
-      <c r="W3" s="230"/>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="231"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="222"/>
+      <c r="U3" s="222"/>
+      <c r="V3" s="222"/>
+      <c r="W3" s="222"/>
+      <c r="X3" s="222"/>
+      <c r="Y3" s="222"/>
+      <c r="Z3" s="223"/>
       <c r="AA3" s="238"/>
       <c r="AB3" s="239"/>
-      <c r="AC3" s="194" t="str">
+      <c r="AC3" s="186" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
+      <c r="AD3" s="187"/>
+      <c r="AE3" s="187"/>
+      <c r="AF3" s="188"/>
       <c r="AG3" s="235" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
@@ -10163,12 +10163,12 @@
       <c r="C6" s="73"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="249"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="244"/>
       <c r="E7" s="74"/>
       <c r="F7" s="74"/>
       <c r="G7" s="74"/>
@@ -10181,82 +10181,82 @@
       <c r="N7" s="74"/>
       <c r="O7" s="74"/>
       <c r="P7" s="74"/>
-      <c r="Q7" s="271" t="s">
+      <c r="Q7" s="248" t="s">
         <v>110</v>
       </c>
-      <c r="R7" s="266"/>
-      <c r="S7" s="266"/>
-      <c r="T7" s="267"/>
-      <c r="U7" s="273" t="s">
+      <c r="R7" s="249"/>
+      <c r="S7" s="249"/>
+      <c r="T7" s="250"/>
+      <c r="U7" s="253" t="s">
         <v>7</v>
       </c>
-      <c r="V7" s="274"/>
-      <c r="W7" s="274"/>
-      <c r="X7" s="274"/>
-      <c r="Y7" s="274"/>
-      <c r="Z7" s="274"/>
-      <c r="AA7" s="274"/>
-      <c r="AB7" s="274"/>
-      <c r="AC7" s="274"/>
-      <c r="AD7" s="274"/>
-      <c r="AE7" s="274"/>
-      <c r="AF7" s="274"/>
-      <c r="AG7" s="274"/>
-      <c r="AH7" s="274"/>
-      <c r="AI7" s="275"/>
+      <c r="V7" s="254"/>
+      <c r="W7" s="254"/>
+      <c r="X7" s="254"/>
+      <c r="Y7" s="254"/>
+      <c r="Z7" s="254"/>
+      <c r="AA7" s="254"/>
+      <c r="AB7" s="254"/>
+      <c r="AC7" s="254"/>
+      <c r="AD7" s="254"/>
+      <c r="AE7" s="254"/>
+      <c r="AF7" s="254"/>
+      <c r="AG7" s="254"/>
+      <c r="AH7" s="254"/>
+      <c r="AI7" s="255"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="276" t="s">
+      <c r="A8" s="245" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="277"/>
-      <c r="C8" s="277"/>
-      <c r="D8" s="278"/>
-      <c r="E8" s="272" t="s">
+      <c r="B8" s="246"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="247"/>
+      <c r="E8" s="251" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="263"/>
-      <c r="G8" s="263"/>
-      <c r="H8" s="263"/>
-      <c r="I8" s="263"/>
-      <c r="J8" s="263"/>
-      <c r="K8" s="263"/>
-      <c r="L8" s="263"/>
-      <c r="M8" s="263"/>
-      <c r="N8" s="263"/>
-      <c r="O8" s="263"/>
-      <c r="P8" s="263"/>
-      <c r="Q8" s="247" t="s">
+      <c r="F8" s="252"/>
+      <c r="G8" s="252"/>
+      <c r="H8" s="252"/>
+      <c r="I8" s="252"/>
+      <c r="J8" s="252"/>
+      <c r="K8" s="252"/>
+      <c r="L8" s="252"/>
+      <c r="M8" s="252"/>
+      <c r="N8" s="252"/>
+      <c r="O8" s="252"/>
+      <c r="P8" s="252"/>
+      <c r="Q8" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="248"/>
-      <c r="S8" s="248"/>
-      <c r="T8" s="249"/>
-      <c r="U8" s="262" t="s">
+      <c r="R8" s="243"/>
+      <c r="S8" s="243"/>
+      <c r="T8" s="244"/>
+      <c r="U8" s="256" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="263"/>
-      <c r="W8" s="263"/>
-      <c r="X8" s="263"/>
-      <c r="Y8" s="263"/>
-      <c r="Z8" s="263"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="263"/>
-      <c r="AC8" s="263"/>
-      <c r="AD8" s="263"/>
-      <c r="AE8" s="263"/>
-      <c r="AF8" s="263"/>
-      <c r="AG8" s="263"/>
-      <c r="AH8" s="263"/>
-      <c r="AI8" s="264"/>
+      <c r="V8" s="252"/>
+      <c r="W8" s="252"/>
+      <c r="X8" s="252"/>
+      <c r="Y8" s="252"/>
+      <c r="Z8" s="252"/>
+      <c r="AA8" s="252"/>
+      <c r="AB8" s="252"/>
+      <c r="AC8" s="252"/>
+      <c r="AD8" s="252"/>
+      <c r="AE8" s="252"/>
+      <c r="AF8" s="252"/>
+      <c r="AG8" s="252"/>
+      <c r="AH8" s="252"/>
+      <c r="AI8" s="257"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="247" t="s">
+      <c r="A9" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="248"/>
-      <c r="C9" s="248"/>
-      <c r="D9" s="249"/>
+      <c r="B9" s="243"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="244"/>
       <c r="E9" s="76"/>
       <c r="F9" s="76"/>
       <c r="G9" s="76"/>
@@ -10442,7 +10442,7 @@
       <c r="AI13" s="88"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="247" t="s">
+      <c r="A14" s="240" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="241"/>
@@ -10596,12 +10596,12 @@
       <c r="AI17" s="88"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="259" t="s">
+      <c r="A18" s="258" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="260"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="261"/>
+      <c r="B18" s="259"/>
+      <c r="C18" s="259"/>
+      <c r="D18" s="260"/>
       <c r="E18" s="79"/>
       <c r="F18" s="90"/>
       <c r="G18" s="81"/>
@@ -10614,12 +10614,12 @@
       <c r="N18" s="81"/>
       <c r="O18" s="80"/>
       <c r="P18" s="81"/>
-      <c r="Q18" s="259" t="s">
+      <c r="Q18" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="260"/>
-      <c r="S18" s="260"/>
-      <c r="T18" s="261"/>
+      <c r="R18" s="259"/>
+      <c r="S18" s="259"/>
+      <c r="T18" s="260"/>
       <c r="U18" s="80"/>
       <c r="V18" s="80"/>
       <c r="W18" s="80"/>
@@ -10721,12 +10721,12 @@
       <c r="AI20" s="82"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="247" t="s">
+      <c r="A21" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="248"/>
-      <c r="C21" s="248"/>
-      <c r="D21" s="249"/>
+      <c r="B21" s="243"/>
+      <c r="C21" s="243"/>
+      <c r="D21" s="244"/>
       <c r="E21" s="98" t="s">
         <v>22</v>
       </c>
@@ -10741,37 +10741,37 @@
       <c r="N21" s="74"/>
       <c r="O21" s="74"/>
       <c r="P21" s="74"/>
-      <c r="Q21" s="247" t="s">
+      <c r="Q21" s="240" t="s">
         <v>23</v>
       </c>
-      <c r="R21" s="248"/>
-      <c r="S21" s="248"/>
-      <c r="T21" s="249"/>
-      <c r="U21" s="262" t="s">
+      <c r="R21" s="243"/>
+      <c r="S21" s="243"/>
+      <c r="T21" s="244"/>
+      <c r="U21" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="V21" s="263"/>
-      <c r="W21" s="263"/>
-      <c r="X21" s="263"/>
-      <c r="Y21" s="263"/>
-      <c r="Z21" s="263"/>
-      <c r="AA21" s="263"/>
-      <c r="AB21" s="263"/>
-      <c r="AC21" s="263"/>
-      <c r="AD21" s="263"/>
-      <c r="AE21" s="263"/>
-      <c r="AF21" s="263"/>
-      <c r="AG21" s="263"/>
-      <c r="AH21" s="263"/>
-      <c r="AI21" s="264"/>
+      <c r="V21" s="252"/>
+      <c r="W21" s="252"/>
+      <c r="X21" s="252"/>
+      <c r="Y21" s="252"/>
+      <c r="Z21" s="252"/>
+      <c r="AA21" s="252"/>
+      <c r="AB21" s="252"/>
+      <c r="AC21" s="252"/>
+      <c r="AD21" s="252"/>
+      <c r="AE21" s="252"/>
+      <c r="AF21" s="252"/>
+      <c r="AG21" s="252"/>
+      <c r="AH21" s="252"/>
+      <c r="AI21" s="257"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="265" t="s">
+      <c r="A22" s="261" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="266"/>
-      <c r="C22" s="266"/>
-      <c r="D22" s="267"/>
+      <c r="B22" s="249"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="250"/>
       <c r="E22" s="99"/>
       <c r="F22" s="100"/>
       <c r="G22" s="77"/>
@@ -10784,12 +10784,12 @@
       <c r="N22" s="77"/>
       <c r="O22" s="76"/>
       <c r="P22" s="77"/>
-      <c r="Q22" s="265" t="s">
+      <c r="Q22" s="261" t="s">
         <v>26</v>
       </c>
-      <c r="R22" s="266"/>
-      <c r="S22" s="266"/>
-      <c r="T22" s="267"/>
+      <c r="R22" s="249"/>
+      <c r="S22" s="249"/>
+      <c r="T22" s="250"/>
       <c r="U22" s="101"/>
       <c r="V22" s="77"/>
       <c r="W22" s="76"/>
@@ -10852,38 +10852,38 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="256" t="s">
+      <c r="A24" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="257"/>
-      <c r="C24" s="257"/>
-      <c r="D24" s="258"/>
-      <c r="E24" s="262" t="s">
+      <c r="B24" s="277"/>
+      <c r="C24" s="277"/>
+      <c r="D24" s="278"/>
+      <c r="E24" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="263"/>
-      <c r="G24" s="263"/>
-      <c r="H24" s="263"/>
-      <c r="I24" s="263"/>
-      <c r="J24" s="263"/>
-      <c r="K24" s="263"/>
-      <c r="L24" s="263"/>
-      <c r="M24" s="263"/>
-      <c r="N24" s="263"/>
-      <c r="O24" s="263"/>
-      <c r="P24" s="264"/>
-      <c r="Q24" s="268" t="s">
+      <c r="F24" s="252"/>
+      <c r="G24" s="252"/>
+      <c r="H24" s="252"/>
+      <c r="I24" s="252"/>
+      <c r="J24" s="252"/>
+      <c r="K24" s="252"/>
+      <c r="L24" s="252"/>
+      <c r="M24" s="252"/>
+      <c r="N24" s="252"/>
+      <c r="O24" s="252"/>
+      <c r="P24" s="257"/>
+      <c r="Q24" s="262" t="s">
         <v>29</v>
       </c>
-      <c r="R24" s="269"/>
-      <c r="S24" s="269"/>
-      <c r="T24" s="270"/>
-      <c r="U24" s="245">
+      <c r="R24" s="263"/>
+      <c r="S24" s="263"/>
+      <c r="T24" s="264"/>
+      <c r="U24" s="268">
         <v>3588</v>
       </c>
-      <c r="V24" s="246"/>
-      <c r="W24" s="246"/>
-      <c r="X24" s="246"/>
+      <c r="V24" s="269"/>
+      <c r="W24" s="269"/>
+      <c r="X24" s="269"/>
       <c r="Y24" s="104" t="s">
         <v>30</v>
       </c>
@@ -10899,28 +10899,28 @@
       <c r="AI24" s="106"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="252" t="s">
+      <c r="A25" s="272" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="253"/>
-      <c r="C25" s="253"/>
-      <c r="D25" s="254"/>
+      <c r="B25" s="273"/>
+      <c r="C25" s="273"/>
+      <c r="D25" s="274"/>
       <c r="E25" s="99"/>
       <c r="F25" s="107"/>
       <c r="G25" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="243" t="s">
+      <c r="H25" s="266" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="244"/>
-      <c r="J25" s="244"/>
-      <c r="K25" s="244"/>
-      <c r="L25" s="244"/>
-      <c r="M25" s="244"/>
-      <c r="N25" s="244"/>
-      <c r="O25" s="244"/>
-      <c r="P25" s="244"/>
+      <c r="I25" s="267"/>
+      <c r="J25" s="267"/>
+      <c r="K25" s="267"/>
+      <c r="L25" s="267"/>
+      <c r="M25" s="267"/>
+      <c r="N25" s="267"/>
+      <c r="O25" s="267"/>
+      <c r="P25" s="267"/>
       <c r="Q25" s="77" t="s">
         <v>20</v>
       </c>
@@ -10929,15 +10929,15 @@
       <c r="T25" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="U25" s="255"/>
-      <c r="V25" s="255"/>
-      <c r="W25" s="255"/>
-      <c r="X25" s="255"/>
-      <c r="Y25" s="255"/>
-      <c r="Z25" s="255"/>
-      <c r="AA25" s="255"/>
-      <c r="AB25" s="255"/>
-      <c r="AC25" s="255"/>
+      <c r="U25" s="275"/>
+      <c r="V25" s="275"/>
+      <c r="W25" s="275"/>
+      <c r="X25" s="275"/>
+      <c r="Y25" s="275"/>
+      <c r="Z25" s="275"/>
+      <c r="AA25" s="275"/>
+      <c r="AB25" s="275"/>
+      <c r="AC25" s="275"/>
       <c r="AD25" s="77" t="s">
         <v>20</v>
       </c>
@@ -10957,15 +10957,15 @@
       <c r="G26" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="251"/>
-      <c r="I26" s="251"/>
-      <c r="J26" s="251"/>
-      <c r="K26" s="251"/>
-      <c r="L26" s="251"/>
-      <c r="M26" s="251"/>
-      <c r="N26" s="251"/>
-      <c r="O26" s="251"/>
-      <c r="P26" s="251"/>
+      <c r="H26" s="271"/>
+      <c r="I26" s="271"/>
+      <c r="J26" s="271"/>
+      <c r="K26" s="271"/>
+      <c r="L26" s="271"/>
+      <c r="M26" s="271"/>
+      <c r="N26" s="271"/>
+      <c r="O26" s="271"/>
+      <c r="P26" s="271"/>
       <c r="Q26" s="81" t="s">
         <v>20</v>
       </c>
@@ -10974,15 +10974,15 @@
       <c r="T26" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="U26" s="251"/>
-      <c r="V26" s="251"/>
-      <c r="W26" s="251"/>
-      <c r="X26" s="251"/>
-      <c r="Y26" s="251"/>
-      <c r="Z26" s="251"/>
-      <c r="AA26" s="251"/>
-      <c r="AB26" s="251"/>
-      <c r="AC26" s="251"/>
+      <c r="U26" s="271"/>
+      <c r="V26" s="271"/>
+      <c r="W26" s="271"/>
+      <c r="X26" s="271"/>
+      <c r="Y26" s="271"/>
+      <c r="Z26" s="271"/>
+      <c r="AA26" s="271"/>
+      <c r="AB26" s="271"/>
+      <c r="AC26" s="271"/>
       <c r="AD26" s="81" t="s">
         <v>20</v>
       </c>
@@ -11002,15 +11002,15 @@
       <c r="G27" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="250"/>
-      <c r="I27" s="250"/>
-      <c r="J27" s="250"/>
-      <c r="K27" s="250"/>
-      <c r="L27" s="250"/>
-      <c r="M27" s="250"/>
-      <c r="N27" s="250"/>
-      <c r="O27" s="250"/>
-      <c r="P27" s="250"/>
+      <c r="H27" s="270"/>
+      <c r="I27" s="270"/>
+      <c r="J27" s="270"/>
+      <c r="K27" s="270"/>
+      <c r="L27" s="270"/>
+      <c r="M27" s="270"/>
+      <c r="N27" s="270"/>
+      <c r="O27" s="270"/>
+      <c r="P27" s="270"/>
       <c r="Q27" s="86" t="s">
         <v>20</v>
       </c>
@@ -11019,26 +11019,26 @@
       <c r="T27" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="U27" s="250"/>
-      <c r="V27" s="250"/>
-      <c r="W27" s="250"/>
-      <c r="X27" s="250"/>
-      <c r="Y27" s="250"/>
-      <c r="Z27" s="250"/>
-      <c r="AA27" s="250"/>
-      <c r="AB27" s="250"/>
-      <c r="AC27" s="250"/>
-      <c r="AD27" s="250"/>
-      <c r="AE27" s="250"/>
-      <c r="AF27" s="250"/>
-      <c r="AG27" s="250"/>
-      <c r="AH27" s="250"/>
+      <c r="U27" s="270"/>
+      <c r="V27" s="270"/>
+      <c r="W27" s="270"/>
+      <c r="X27" s="270"/>
+      <c r="Y27" s="270"/>
+      <c r="Z27" s="270"/>
+      <c r="AA27" s="270"/>
+      <c r="AB27" s="270"/>
+      <c r="AC27" s="270"/>
+      <c r="AD27" s="270"/>
+      <c r="AE27" s="270"/>
+      <c r="AF27" s="270"/>
+      <c r="AG27" s="270"/>
+      <c r="AH27" s="270"/>
       <c r="AI27" s="88" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="240" t="s">
+      <c r="A28" s="265" t="s">
         <v>111</v>
       </c>
       <c r="B28" s="241"/>
@@ -11226,31 +11226,14 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -11263,14 +11246,31 @@
     <mergeCell ref="H26:P26"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11817,54 +11817,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="117" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="203" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="200" t="str">
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="214" t="s">
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="206" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="216"/>
-      <c r="S1" s="223" t="str">
+      <c r="P1" s="207"/>
+      <c r="Q1" s="207"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="215" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design Document(I／F files)
 N21AA002/Project list in the period</v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="211" t="s">
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="203" t="s">
         <v>133</v>
       </c>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="186" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
+      <c r="AD1" s="187"/>
+      <c r="AE1" s="187"/>
+      <c r="AF1" s="188"/>
       <c r="AG1" s="235">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43580</v>
@@ -11873,48 +11873,48 @@
       <c r="AI1" s="237"/>
     </row>
     <row r="2" spans="1:43" s="117" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="200" t="str">
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="219"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="227"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="211" t="s">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="186" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="188"/>
       <c r="AG2" s="235" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
@@ -11923,46 +11923,46 @@
       <c r="AI2" s="237"/>
     </row>
     <row r="3" spans="1:43" s="117" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="203" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="200" t="str">
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="220"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="222"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="230"/>
-      <c r="U3" s="230"/>
-      <c r="V3" s="230"/>
-      <c r="W3" s="230"/>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="231"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="222"/>
+      <c r="U3" s="222"/>
+      <c r="V3" s="222"/>
+      <c r="W3" s="222"/>
+      <c r="X3" s="222"/>
+      <c r="Y3" s="222"/>
+      <c r="Z3" s="223"/>
       <c r="AA3" s="238"/>
       <c r="AB3" s="239"/>
-      <c r="AC3" s="194" t="str">
+      <c r="AC3" s="186" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
+      <c r="AD3" s="187"/>
+      <c r="AE3" s="187"/>
+      <c r="AF3" s="188"/>
       <c r="AG3" s="235" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
@@ -12001,190 +12001,190 @@
       <c r="C6" s="123"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="334" t="s">
+      <c r="A7" s="279" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="335"/>
-      <c r="C7" s="335"/>
-      <c r="D7" s="335"/>
-      <c r="E7" s="335"/>
-      <c r="F7" s="335"/>
-      <c r="G7" s="335"/>
-      <c r="H7" s="335"/>
-      <c r="I7" s="335"/>
-      <c r="J7" s="335"/>
-      <c r="K7" s="335"/>
-      <c r="L7" s="335"/>
-      <c r="M7" s="335"/>
-      <c r="N7" s="335"/>
-      <c r="O7" s="335"/>
-      <c r="P7" s="335"/>
-      <c r="Q7" s="335"/>
-      <c r="R7" s="335"/>
-      <c r="S7" s="335"/>
-      <c r="T7" s="335"/>
-      <c r="U7" s="335"/>
-      <c r="V7" s="335"/>
-      <c r="W7" s="335"/>
-      <c r="X7" s="335"/>
-      <c r="Y7" s="335"/>
-      <c r="Z7" s="335"/>
-      <c r="AA7" s="335"/>
-      <c r="AB7" s="336"/>
-      <c r="AC7" s="347" t="s">
+      <c r="B7" s="280"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="280"/>
+      <c r="J7" s="280"/>
+      <c r="K7" s="280"/>
+      <c r="L7" s="280"/>
+      <c r="M7" s="280"/>
+      <c r="N7" s="280"/>
+      <c r="O7" s="280"/>
+      <c r="P7" s="280"/>
+      <c r="Q7" s="280"/>
+      <c r="R7" s="280"/>
+      <c r="S7" s="280"/>
+      <c r="T7" s="280"/>
+      <c r="U7" s="280"/>
+      <c r="V7" s="280"/>
+      <c r="W7" s="280"/>
+      <c r="X7" s="280"/>
+      <c r="Y7" s="280"/>
+      <c r="Z7" s="280"/>
+      <c r="AA7" s="280"/>
+      <c r="AB7" s="281"/>
+      <c r="AC7" s="292" t="s">
         <v>33</v>
       </c>
-      <c r="AD7" s="335"/>
-      <c r="AE7" s="335"/>
-      <c r="AF7" s="335"/>
-      <c r="AG7" s="335"/>
-      <c r="AH7" s="335"/>
-      <c r="AI7" s="348"/>
+      <c r="AD7" s="280"/>
+      <c r="AE7" s="280"/>
+      <c r="AF7" s="280"/>
+      <c r="AG7" s="280"/>
+      <c r="AH7" s="280"/>
+      <c r="AI7" s="293"/>
     </row>
     <row r="8" spans="1:43" s="126" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="337" t="s">
+      <c r="B8" s="282" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="178"/>
       <c r="D8" s="178"/>
       <c r="E8" s="178"/>
       <c r="F8" s="179"/>
-      <c r="G8" s="337" t="s">
+      <c r="G8" s="282" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="338"/>
-      <c r="I8" s="340"/>
-      <c r="J8" s="337" t="s">
+      <c r="H8" s="283"/>
+      <c r="I8" s="285"/>
+      <c r="J8" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="338"/>
-      <c r="L8" s="338"/>
-      <c r="M8" s="338"/>
-      <c r="N8" s="338"/>
-      <c r="O8" s="338"/>
-      <c r="P8" s="340"/>
-      <c r="Q8" s="341" t="s">
+      <c r="K8" s="283"/>
+      <c r="L8" s="283"/>
+      <c r="M8" s="283"/>
+      <c r="N8" s="283"/>
+      <c r="O8" s="283"/>
+      <c r="P8" s="285"/>
+      <c r="Q8" s="286" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="343"/>
-      <c r="S8" s="341" t="s">
+      <c r="R8" s="288"/>
+      <c r="S8" s="286" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="342"/>
-      <c r="U8" s="343"/>
-      <c r="V8" s="337" t="s">
+      <c r="T8" s="287"/>
+      <c r="U8" s="288"/>
+      <c r="V8" s="282" t="s">
         <v>40</v>
       </c>
-      <c r="W8" s="338"/>
-      <c r="X8" s="338"/>
-      <c r="Y8" s="338"/>
-      <c r="Z8" s="338"/>
-      <c r="AA8" s="338"/>
-      <c r="AB8" s="339"/>
-      <c r="AC8" s="344" t="s">
+      <c r="W8" s="283"/>
+      <c r="X8" s="283"/>
+      <c r="Y8" s="283"/>
+      <c r="Z8" s="283"/>
+      <c r="AA8" s="283"/>
+      <c r="AB8" s="284"/>
+      <c r="AC8" s="289" t="s">
         <v>41</v>
       </c>
-      <c r="AD8" s="345"/>
-      <c r="AE8" s="345"/>
-      <c r="AF8" s="345"/>
-      <c r="AG8" s="345"/>
-      <c r="AH8" s="346" t="s">
+      <c r="AD8" s="290"/>
+      <c r="AE8" s="290"/>
+      <c r="AF8" s="290"/>
+      <c r="AG8" s="290"/>
+      <c r="AH8" s="291" t="s">
         <v>112</v>
       </c>
-      <c r="AI8" s="346"/>
+      <c r="AI8" s="291"/>
     </row>
     <row r="9" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="127">
         <v>1</v>
       </c>
-      <c r="B9" s="286" t="s">
+      <c r="B9" s="296" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="287"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="287"/>
-      <c r="F9" s="288"/>
-      <c r="G9" s="286" t="s">
+      <c r="C9" s="297"/>
+      <c r="D9" s="297"/>
+      <c r="E9" s="297"/>
+      <c r="F9" s="298"/>
+      <c r="G9" s="296" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="287"/>
-      <c r="I9" s="288"/>
-      <c r="J9" s="286" t="s">
+      <c r="H9" s="297"/>
+      <c r="I9" s="298"/>
+      <c r="J9" s="296" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="329"/>
-      <c r="L9" s="329"/>
-      <c r="M9" s="329"/>
-      <c r="N9" s="329"/>
-      <c r="O9" s="329"/>
-      <c r="P9" s="330"/>
-      <c r="Q9" s="293">
+      <c r="K9" s="304"/>
+      <c r="L9" s="304"/>
+      <c r="M9" s="304"/>
+      <c r="N9" s="304"/>
+      <c r="O9" s="304"/>
+      <c r="P9" s="305"/>
+      <c r="Q9" s="342">
         <v>3588</v>
       </c>
-      <c r="R9" s="294"/>
-      <c r="S9" s="297" t="s">
+      <c r="R9" s="343"/>
+      <c r="S9" s="346" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="298"/>
-      <c r="U9" s="299"/>
-      <c r="V9" s="286" t="s">
+      <c r="T9" s="347"/>
+      <c r="U9" s="348"/>
+      <c r="V9" s="296" t="s">
         <v>46</v>
       </c>
-      <c r="W9" s="287"/>
-      <c r="X9" s="287"/>
-      <c r="Y9" s="287"/>
-      <c r="Z9" s="287"/>
-      <c r="AA9" s="287"/>
-      <c r="AB9" s="328"/>
-      <c r="AC9" s="331"/>
-      <c r="AD9" s="286"/>
-      <c r="AE9" s="287"/>
-      <c r="AF9" s="287"/>
-      <c r="AG9" s="288"/>
-      <c r="AH9" s="295"/>
-      <c r="AI9" s="296"/>
+      <c r="W9" s="297"/>
+      <c r="X9" s="297"/>
+      <c r="Y9" s="297"/>
+      <c r="Z9" s="297"/>
+      <c r="AA9" s="297"/>
+      <c r="AB9" s="302"/>
+      <c r="AC9" s="308"/>
+      <c r="AD9" s="296"/>
+      <c r="AE9" s="297"/>
+      <c r="AF9" s="297"/>
+      <c r="AG9" s="298"/>
+      <c r="AH9" s="344"/>
+      <c r="AI9" s="345"/>
     </row>
     <row r="10" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="127">
         <v>2</v>
       </c>
-      <c r="B10" s="281"/>
-      <c r="C10" s="282"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="283"/>
-      <c r="G10" s="281"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="283"/>
-      <c r="J10" s="281"/>
-      <c r="K10" s="290"/>
-      <c r="L10" s="290"/>
-      <c r="M10" s="290"/>
-      <c r="N10" s="290"/>
-      <c r="O10" s="290"/>
-      <c r="P10" s="291"/>
-      <c r="Q10" s="284"/>
-      <c r="R10" s="285"/>
-      <c r="S10" s="300"/>
-      <c r="T10" s="301"/>
-      <c r="U10" s="302"/>
-      <c r="V10" s="281"/>
-      <c r="W10" s="282"/>
-      <c r="X10" s="282"/>
-      <c r="Y10" s="282"/>
-      <c r="Z10" s="282"/>
-      <c r="AA10" s="282"/>
-      <c r="AB10" s="292"/>
-      <c r="AC10" s="332"/>
-      <c r="AD10" s="281"/>
-      <c r="AE10" s="282"/>
-      <c r="AF10" s="282"/>
-      <c r="AG10" s="283"/>
-      <c r="AH10" s="279"/>
-      <c r="AI10" s="280"/>
+      <c r="B10" s="299"/>
+      <c r="C10" s="300"/>
+      <c r="D10" s="300"/>
+      <c r="E10" s="300"/>
+      <c r="F10" s="301"/>
+      <c r="G10" s="299"/>
+      <c r="H10" s="300"/>
+      <c r="I10" s="301"/>
+      <c r="J10" s="299"/>
+      <c r="K10" s="306"/>
+      <c r="L10" s="306"/>
+      <c r="M10" s="306"/>
+      <c r="N10" s="306"/>
+      <c r="O10" s="306"/>
+      <c r="P10" s="307"/>
+      <c r="Q10" s="314"/>
+      <c r="R10" s="315"/>
+      <c r="S10" s="319"/>
+      <c r="T10" s="320"/>
+      <c r="U10" s="321"/>
+      <c r="V10" s="299"/>
+      <c r="W10" s="300"/>
+      <c r="X10" s="300"/>
+      <c r="Y10" s="300"/>
+      <c r="Z10" s="300"/>
+      <c r="AA10" s="300"/>
+      <c r="AB10" s="303"/>
+      <c r="AC10" s="309"/>
+      <c r="AD10" s="299"/>
+      <c r="AE10" s="300"/>
+      <c r="AF10" s="300"/>
+      <c r="AG10" s="301"/>
+      <c r="AH10" s="294"/>
+      <c r="AI10" s="295"/>
       <c r="AM10" s="128"/>
       <c r="AN10" s="128"/>
       <c r="AO10" s="128"/>
@@ -12195,40 +12195,40 @@
       <c r="A11" s="127">
         <v>3</v>
       </c>
-      <c r="B11" s="281"/>
-      <c r="C11" s="282"/>
-      <c r="D11" s="282"/>
-      <c r="E11" s="282"/>
-      <c r="F11" s="283"/>
-      <c r="G11" s="305"/>
-      <c r="H11" s="306"/>
-      <c r="I11" s="307"/>
-      <c r="J11" s="281"/>
-      <c r="K11" s="290"/>
-      <c r="L11" s="290"/>
-      <c r="M11" s="290"/>
-      <c r="N11" s="290"/>
-      <c r="O11" s="290"/>
-      <c r="P11" s="291"/>
-      <c r="Q11" s="284"/>
-      <c r="R11" s="285"/>
-      <c r="S11" s="300"/>
-      <c r="T11" s="301"/>
-      <c r="U11" s="302"/>
-      <c r="V11" s="281"/>
-      <c r="W11" s="282"/>
-      <c r="X11" s="282"/>
-      <c r="Y11" s="282"/>
-      <c r="Z11" s="282"/>
-      <c r="AA11" s="282"/>
-      <c r="AB11" s="292"/>
-      <c r="AC11" s="332"/>
-      <c r="AD11" s="289"/>
-      <c r="AE11" s="290"/>
-      <c r="AF11" s="290"/>
-      <c r="AG11" s="291"/>
-      <c r="AH11" s="279"/>
-      <c r="AI11" s="280"/>
+      <c r="B11" s="299"/>
+      <c r="C11" s="300"/>
+      <c r="D11" s="300"/>
+      <c r="E11" s="300"/>
+      <c r="F11" s="301"/>
+      <c r="G11" s="316"/>
+      <c r="H11" s="317"/>
+      <c r="I11" s="318"/>
+      <c r="J11" s="299"/>
+      <c r="K11" s="306"/>
+      <c r="L11" s="306"/>
+      <c r="M11" s="306"/>
+      <c r="N11" s="306"/>
+      <c r="O11" s="306"/>
+      <c r="P11" s="307"/>
+      <c r="Q11" s="314"/>
+      <c r="R11" s="315"/>
+      <c r="S11" s="319"/>
+      <c r="T11" s="320"/>
+      <c r="U11" s="321"/>
+      <c r="V11" s="299"/>
+      <c r="W11" s="300"/>
+      <c r="X11" s="300"/>
+      <c r="Y11" s="300"/>
+      <c r="Z11" s="300"/>
+      <c r="AA11" s="300"/>
+      <c r="AB11" s="303"/>
+      <c r="AC11" s="309"/>
+      <c r="AD11" s="336"/>
+      <c r="AE11" s="306"/>
+      <c r="AF11" s="306"/>
+      <c r="AG11" s="307"/>
+      <c r="AH11" s="294"/>
+      <c r="AI11" s="295"/>
       <c r="AM11" s="81"/>
       <c r="AN11" s="81"/>
       <c r="AO11" s="81"/>
@@ -12239,40 +12239,40 @@
       <c r="A12" s="127">
         <v>4</v>
       </c>
-      <c r="B12" s="281"/>
-      <c r="C12" s="282"/>
-      <c r="D12" s="282"/>
-      <c r="E12" s="282"/>
-      <c r="F12" s="283"/>
-      <c r="G12" s="305"/>
-      <c r="H12" s="306"/>
-      <c r="I12" s="307"/>
-      <c r="J12" s="281"/>
-      <c r="K12" s="290"/>
-      <c r="L12" s="290"/>
-      <c r="M12" s="290"/>
-      <c r="N12" s="290"/>
-      <c r="O12" s="290"/>
-      <c r="P12" s="291"/>
-      <c r="Q12" s="284"/>
-      <c r="R12" s="285"/>
-      <c r="S12" s="300"/>
-      <c r="T12" s="301"/>
-      <c r="U12" s="302"/>
-      <c r="V12" s="281"/>
-      <c r="W12" s="282"/>
-      <c r="X12" s="282"/>
-      <c r="Y12" s="282"/>
-      <c r="Z12" s="282"/>
-      <c r="AA12" s="282"/>
-      <c r="AB12" s="292"/>
-      <c r="AC12" s="332"/>
-      <c r="AD12" s="289"/>
-      <c r="AE12" s="290"/>
-      <c r="AF12" s="290"/>
-      <c r="AG12" s="291"/>
-      <c r="AH12" s="279"/>
-      <c r="AI12" s="280"/>
+      <c r="B12" s="299"/>
+      <c r="C12" s="300"/>
+      <c r="D12" s="300"/>
+      <c r="E12" s="300"/>
+      <c r="F12" s="301"/>
+      <c r="G12" s="316"/>
+      <c r="H12" s="317"/>
+      <c r="I12" s="318"/>
+      <c r="J12" s="299"/>
+      <c r="K12" s="306"/>
+      <c r="L12" s="306"/>
+      <c r="M12" s="306"/>
+      <c r="N12" s="306"/>
+      <c r="O12" s="306"/>
+      <c r="P12" s="307"/>
+      <c r="Q12" s="314"/>
+      <c r="R12" s="315"/>
+      <c r="S12" s="319"/>
+      <c r="T12" s="320"/>
+      <c r="U12" s="321"/>
+      <c r="V12" s="299"/>
+      <c r="W12" s="300"/>
+      <c r="X12" s="300"/>
+      <c r="Y12" s="300"/>
+      <c r="Z12" s="300"/>
+      <c r="AA12" s="300"/>
+      <c r="AB12" s="303"/>
+      <c r="AC12" s="309"/>
+      <c r="AD12" s="336"/>
+      <c r="AE12" s="306"/>
+      <c r="AF12" s="306"/>
+      <c r="AG12" s="307"/>
+      <c r="AH12" s="294"/>
+      <c r="AI12" s="295"/>
       <c r="AM12" s="81"/>
       <c r="AN12" s="81"/>
       <c r="AO12" s="81"/>
@@ -12283,40 +12283,40 @@
       <c r="A13" s="127">
         <v>5</v>
       </c>
-      <c r="B13" s="317"/>
-      <c r="C13" s="318"/>
-      <c r="D13" s="318"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="281"/>
-      <c r="H13" s="282"/>
-      <c r="I13" s="283"/>
-      <c r="J13" s="281"/>
-      <c r="K13" s="282"/>
-      <c r="L13" s="282"/>
-      <c r="M13" s="282"/>
-      <c r="N13" s="282"/>
-      <c r="O13" s="282"/>
-      <c r="P13" s="283"/>
-      <c r="Q13" s="284"/>
-      <c r="R13" s="285"/>
-      <c r="S13" s="281"/>
-      <c r="T13" s="282"/>
-      <c r="U13" s="283"/>
-      <c r="V13" s="281"/>
-      <c r="W13" s="282"/>
-      <c r="X13" s="282"/>
-      <c r="Y13" s="282"/>
-      <c r="Z13" s="282"/>
-      <c r="AA13" s="282"/>
-      <c r="AB13" s="292"/>
-      <c r="AC13" s="332"/>
-      <c r="AD13" s="289"/>
-      <c r="AE13" s="290"/>
-      <c r="AF13" s="290"/>
-      <c r="AG13" s="291"/>
-      <c r="AH13" s="279"/>
-      <c r="AI13" s="280"/>
+      <c r="B13" s="311"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="313"/>
+      <c r="G13" s="299"/>
+      <c r="H13" s="300"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="299"/>
+      <c r="K13" s="300"/>
+      <c r="L13" s="300"/>
+      <c r="M13" s="300"/>
+      <c r="N13" s="300"/>
+      <c r="O13" s="300"/>
+      <c r="P13" s="301"/>
+      <c r="Q13" s="314"/>
+      <c r="R13" s="315"/>
+      <c r="S13" s="299"/>
+      <c r="T13" s="300"/>
+      <c r="U13" s="301"/>
+      <c r="V13" s="299"/>
+      <c r="W13" s="300"/>
+      <c r="X13" s="300"/>
+      <c r="Y13" s="300"/>
+      <c r="Z13" s="300"/>
+      <c r="AA13" s="300"/>
+      <c r="AB13" s="303"/>
+      <c r="AC13" s="309"/>
+      <c r="AD13" s="336"/>
+      <c r="AE13" s="306"/>
+      <c r="AF13" s="306"/>
+      <c r="AG13" s="307"/>
+      <c r="AH13" s="294"/>
+      <c r="AI13" s="295"/>
       <c r="AM13" s="129"/>
       <c r="AN13" s="129"/>
       <c r="AO13" s="129"/>
@@ -12327,165 +12327,165 @@
       <c r="A14" s="127">
         <v>6</v>
       </c>
-      <c r="B14" s="317"/>
-      <c r="C14" s="318"/>
-      <c r="D14" s="318"/>
-      <c r="E14" s="318"/>
-      <c r="F14" s="319"/>
-      <c r="G14" s="281"/>
-      <c r="H14" s="282"/>
-      <c r="I14" s="283"/>
-      <c r="J14" s="281"/>
-      <c r="K14" s="282"/>
-      <c r="L14" s="282"/>
-      <c r="M14" s="282"/>
-      <c r="N14" s="282"/>
-      <c r="O14" s="282"/>
-      <c r="P14" s="283"/>
-      <c r="Q14" s="284"/>
-      <c r="R14" s="285"/>
-      <c r="S14" s="281"/>
-      <c r="T14" s="282"/>
-      <c r="U14" s="283"/>
-      <c r="V14" s="281"/>
-      <c r="W14" s="282"/>
-      <c r="X14" s="282"/>
-      <c r="Y14" s="282"/>
-      <c r="Z14" s="282"/>
-      <c r="AA14" s="282"/>
-      <c r="AB14" s="292"/>
-      <c r="AC14" s="332"/>
-      <c r="AD14" s="289"/>
-      <c r="AE14" s="290"/>
-      <c r="AF14" s="290"/>
-      <c r="AG14" s="291"/>
-      <c r="AH14" s="279"/>
-      <c r="AI14" s="280"/>
+      <c r="B14" s="311"/>
+      <c r="C14" s="312"/>
+      <c r="D14" s="312"/>
+      <c r="E14" s="312"/>
+      <c r="F14" s="313"/>
+      <c r="G14" s="299"/>
+      <c r="H14" s="300"/>
+      <c r="I14" s="301"/>
+      <c r="J14" s="299"/>
+      <c r="K14" s="300"/>
+      <c r="L14" s="300"/>
+      <c r="M14" s="300"/>
+      <c r="N14" s="300"/>
+      <c r="O14" s="300"/>
+      <c r="P14" s="301"/>
+      <c r="Q14" s="314"/>
+      <c r="R14" s="315"/>
+      <c r="S14" s="299"/>
+      <c r="T14" s="300"/>
+      <c r="U14" s="301"/>
+      <c r="V14" s="299"/>
+      <c r="W14" s="300"/>
+      <c r="X14" s="300"/>
+      <c r="Y14" s="300"/>
+      <c r="Z14" s="300"/>
+      <c r="AA14" s="300"/>
+      <c r="AB14" s="303"/>
+      <c r="AC14" s="309"/>
+      <c r="AD14" s="336"/>
+      <c r="AE14" s="306"/>
+      <c r="AF14" s="306"/>
+      <c r="AG14" s="307"/>
+      <c r="AH14" s="294"/>
+      <c r="AI14" s="295"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="130">
         <v>7</v>
       </c>
-      <c r="B15" s="317"/>
-      <c r="C15" s="318"/>
-      <c r="D15" s="318"/>
-      <c r="E15" s="318"/>
-      <c r="F15" s="319"/>
-      <c r="G15" s="281"/>
-      <c r="H15" s="282"/>
-      <c r="I15" s="283"/>
-      <c r="J15" s="281"/>
-      <c r="K15" s="282"/>
-      <c r="L15" s="282"/>
-      <c r="M15" s="282"/>
-      <c r="N15" s="282"/>
-      <c r="O15" s="282"/>
-      <c r="P15" s="283"/>
-      <c r="Q15" s="284"/>
-      <c r="R15" s="285"/>
-      <c r="S15" s="281"/>
-      <c r="T15" s="282"/>
-      <c r="U15" s="283"/>
-      <c r="V15" s="281"/>
-      <c r="W15" s="282"/>
-      <c r="X15" s="282"/>
-      <c r="Y15" s="282"/>
-      <c r="Z15" s="282"/>
-      <c r="AA15" s="282"/>
-      <c r="AB15" s="292"/>
-      <c r="AC15" s="332"/>
-      <c r="AD15" s="289"/>
-      <c r="AE15" s="290"/>
-      <c r="AF15" s="290"/>
-      <c r="AG15" s="291"/>
-      <c r="AH15" s="279"/>
-      <c r="AI15" s="280"/>
+      <c r="B15" s="311"/>
+      <c r="C15" s="312"/>
+      <c r="D15" s="312"/>
+      <c r="E15" s="312"/>
+      <c r="F15" s="313"/>
+      <c r="G15" s="299"/>
+      <c r="H15" s="300"/>
+      <c r="I15" s="301"/>
+      <c r="J15" s="299"/>
+      <c r="K15" s="300"/>
+      <c r="L15" s="300"/>
+      <c r="M15" s="300"/>
+      <c r="N15" s="300"/>
+      <c r="O15" s="300"/>
+      <c r="P15" s="301"/>
+      <c r="Q15" s="314"/>
+      <c r="R15" s="315"/>
+      <c r="S15" s="299"/>
+      <c r="T15" s="300"/>
+      <c r="U15" s="301"/>
+      <c r="V15" s="299"/>
+      <c r="W15" s="300"/>
+      <c r="X15" s="300"/>
+      <c r="Y15" s="300"/>
+      <c r="Z15" s="300"/>
+      <c r="AA15" s="300"/>
+      <c r="AB15" s="303"/>
+      <c r="AC15" s="309"/>
+      <c r="AD15" s="336"/>
+      <c r="AE15" s="306"/>
+      <c r="AF15" s="306"/>
+      <c r="AG15" s="307"/>
+      <c r="AH15" s="294"/>
+      <c r="AI15" s="295"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="130">
         <v>8</v>
       </c>
-      <c r="B16" s="317"/>
-      <c r="C16" s="318"/>
-      <c r="D16" s="318"/>
-      <c r="E16" s="318"/>
-      <c r="F16" s="319"/>
-      <c r="G16" s="281"/>
-      <c r="H16" s="282"/>
-      <c r="I16" s="283"/>
-      <c r="J16" s="281"/>
-      <c r="K16" s="282"/>
-      <c r="L16" s="282"/>
-      <c r="M16" s="282"/>
-      <c r="N16" s="282"/>
-      <c r="O16" s="282"/>
-      <c r="P16" s="283"/>
-      <c r="Q16" s="284"/>
-      <c r="R16" s="285"/>
-      <c r="S16" s="281"/>
-      <c r="T16" s="282"/>
-      <c r="U16" s="283"/>
-      <c r="V16" s="281"/>
-      <c r="W16" s="282"/>
-      <c r="X16" s="282"/>
-      <c r="Y16" s="282"/>
-      <c r="Z16" s="282"/>
-      <c r="AA16" s="282"/>
-      <c r="AB16" s="292"/>
-      <c r="AC16" s="332"/>
-      <c r="AD16" s="289"/>
-      <c r="AE16" s="290"/>
-      <c r="AF16" s="290"/>
-      <c r="AG16" s="291"/>
-      <c r="AH16" s="279"/>
-      <c r="AI16" s="280"/>
+      <c r="B16" s="311"/>
+      <c r="C16" s="312"/>
+      <c r="D16" s="312"/>
+      <c r="E16" s="312"/>
+      <c r="F16" s="313"/>
+      <c r="G16" s="299"/>
+      <c r="H16" s="300"/>
+      <c r="I16" s="301"/>
+      <c r="J16" s="299"/>
+      <c r="K16" s="300"/>
+      <c r="L16" s="300"/>
+      <c r="M16" s="300"/>
+      <c r="N16" s="300"/>
+      <c r="O16" s="300"/>
+      <c r="P16" s="301"/>
+      <c r="Q16" s="314"/>
+      <c r="R16" s="315"/>
+      <c r="S16" s="299"/>
+      <c r="T16" s="300"/>
+      <c r="U16" s="301"/>
+      <c r="V16" s="299"/>
+      <c r="W16" s="300"/>
+      <c r="X16" s="300"/>
+      <c r="Y16" s="300"/>
+      <c r="Z16" s="300"/>
+      <c r="AA16" s="300"/>
+      <c r="AB16" s="303"/>
+      <c r="AC16" s="309"/>
+      <c r="AD16" s="336"/>
+      <c r="AE16" s="306"/>
+      <c r="AF16" s="306"/>
+      <c r="AG16" s="307"/>
+      <c r="AH16" s="294"/>
+      <c r="AI16" s="295"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="131">
         <v>9</v>
       </c>
-      <c r="B17" s="320"/>
-      <c r="C17" s="321"/>
-      <c r="D17" s="321"/>
-      <c r="E17" s="321"/>
-      <c r="F17" s="322"/>
-      <c r="G17" s="309"/>
-      <c r="H17" s="310"/>
-      <c r="I17" s="314"/>
-      <c r="J17" s="309"/>
-      <c r="K17" s="310"/>
-      <c r="L17" s="310"/>
-      <c r="M17" s="310"/>
-      <c r="N17" s="310"/>
-      <c r="O17" s="310"/>
-      <c r="P17" s="314"/>
-      <c r="Q17" s="315"/>
-      <c r="R17" s="316"/>
-      <c r="S17" s="309"/>
-      <c r="T17" s="310"/>
-      <c r="U17" s="314"/>
-      <c r="V17" s="309"/>
-      <c r="W17" s="310"/>
-      <c r="X17" s="310"/>
-      <c r="Y17" s="310"/>
-      <c r="Z17" s="310"/>
-      <c r="AA17" s="310"/>
-      <c r="AB17" s="311"/>
-      <c r="AC17" s="333"/>
-      <c r="AD17" s="323"/>
-      <c r="AE17" s="324"/>
-      <c r="AF17" s="324"/>
-      <c r="AG17" s="325"/>
-      <c r="AH17" s="326"/>
-      <c r="AI17" s="327"/>
+      <c r="B17" s="333"/>
+      <c r="C17" s="334"/>
+      <c r="D17" s="334"/>
+      <c r="E17" s="334"/>
+      <c r="F17" s="335"/>
+      <c r="G17" s="325"/>
+      <c r="H17" s="326"/>
+      <c r="I17" s="330"/>
+      <c r="J17" s="325"/>
+      <c r="K17" s="326"/>
+      <c r="L17" s="326"/>
+      <c r="M17" s="326"/>
+      <c r="N17" s="326"/>
+      <c r="O17" s="326"/>
+      <c r="P17" s="330"/>
+      <c r="Q17" s="331"/>
+      <c r="R17" s="332"/>
+      <c r="S17" s="325"/>
+      <c r="T17" s="326"/>
+      <c r="U17" s="330"/>
+      <c r="V17" s="325"/>
+      <c r="W17" s="326"/>
+      <c r="X17" s="326"/>
+      <c r="Y17" s="326"/>
+      <c r="Z17" s="326"/>
+      <c r="AA17" s="326"/>
+      <c r="AB17" s="327"/>
+      <c r="AC17" s="310"/>
+      <c r="AD17" s="337"/>
+      <c r="AE17" s="338"/>
+      <c r="AF17" s="338"/>
+      <c r="AG17" s="339"/>
+      <c r="AH17" s="340"/>
+      <c r="AI17" s="341"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="312"/>
-      <c r="B18" s="313"/>
-      <c r="C18" s="313"/>
-      <c r="D18" s="313"/>
-      <c r="E18" s="313"/>
-      <c r="F18" s="313"/>
+      <c r="A18" s="328"/>
+      <c r="B18" s="329"/>
+      <c r="C18" s="329"/>
+      <c r="D18" s="329"/>
+      <c r="E18" s="329"/>
+      <c r="F18" s="329"/>
       <c r="G18" s="132"/>
       <c r="H18" s="132"/>
       <c r="I18" s="132"/>
@@ -12509,23 +12509,23 @@
       <c r="AA18" s="132"/>
       <c r="AB18" s="132"/>
       <c r="AC18" s="69"/>
-      <c r="AD18" s="308"/>
-      <c r="AE18" s="308"/>
-      <c r="AF18" s="308"/>
-      <c r="AG18" s="308"/>
-      <c r="AH18" s="308"/>
+      <c r="AD18" s="324"/>
+      <c r="AE18" s="324"/>
+      <c r="AF18" s="324"/>
+      <c r="AG18" s="324"/>
+      <c r="AH18" s="324"/>
       <c r="AI18" s="70"/>
       <c r="AJ18" s="128"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="303" t="s">
+      <c r="A19" s="322" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="304"/>
-      <c r="C19" s="304"/>
-      <c r="D19" s="304"/>
-      <c r="E19" s="304"/>
-      <c r="F19" s="304"/>
+      <c r="B19" s="323"/>
+      <c r="C19" s="323"/>
+      <c r="D19" s="323"/>
+      <c r="E19" s="323"/>
+      <c r="F19" s="323"/>
       <c r="G19" s="133"/>
       <c r="H19" s="132"/>
       <c r="I19" s="132"/>
@@ -13009,23 +13009,68 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="Q11:R11"/>
     <mergeCell ref="AH11:AI11"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="A3:D3"/>
@@ -13050,68 +13095,23 @@
     <mergeCell ref="AH12:AI12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="AC7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -13154,158 +13154,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:121" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="203" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="200" t="str">
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="214" t="s">
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="206" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="216"/>
-      <c r="S1" s="223" t="str">
+      <c r="P1" s="207"/>
+      <c r="Q1" s="207"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="215" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>External Interface Design Document(I／F files)
 N21AA002/Project list in the period</v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="211" t="s">
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="203" t="s">
         <v>133</v>
       </c>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="186" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="352">
+      <c r="AD1" s="187"/>
+      <c r="AE1" s="187"/>
+      <c r="AF1" s="188"/>
+      <c r="AG1" s="364">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="353"/>
-      <c r="AI1" s="354"/>
+      <c r="AH1" s="365"/>
+      <c r="AI1" s="366"/>
     </row>
     <row r="2" spans="1:121" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="200" t="str">
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="219"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="227"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="211" t="s">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="219"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="186" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="352" t="str">
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="364" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="353"/>
-      <c r="AI2" s="354"/>
+      <c r="AH2" s="365"/>
+      <c r="AI2" s="366"/>
     </row>
     <row r="3" spans="1:121" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="203" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="200" t="str">
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="220"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="222"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="230"/>
-      <c r="U3" s="230"/>
-      <c r="V3" s="230"/>
-      <c r="W3" s="230"/>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="231"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="222"/>
+      <c r="U3" s="222"/>
+      <c r="V3" s="222"/>
+      <c r="W3" s="222"/>
+      <c r="X3" s="222"/>
+      <c r="Y3" s="222"/>
+      <c r="Z3" s="223"/>
       <c r="AA3" s="238"/>
       <c r="AB3" s="239"/>
-      <c r="AC3" s="194" t="str">
+      <c r="AC3" s="186" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="352" t="str">
+      <c r="AD3" s="187"/>
+      <c r="AE3" s="187"/>
+      <c r="AF3" s="188"/>
+      <c r="AG3" s="364" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="353"/>
-      <c r="AI3" s="354"/>
+      <c r="AH3" s="365"/>
+      <c r="AI3" s="366"/>
     </row>
     <row r="4" spans="1:121" ht="12" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:121" ht="12" x14ac:dyDescent="0.25">
@@ -13326,69 +13326,69 @@
       <c r="A7" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="349" t="s">
+      <c r="B7" s="356" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="350"/>
-      <c r="D7" s="350"/>
-      <c r="E7" s="350"/>
-      <c r="F7" s="351"/>
-      <c r="G7" s="349" t="s">
+      <c r="C7" s="357"/>
+      <c r="D7" s="357"/>
+      <c r="E7" s="357"/>
+      <c r="F7" s="358"/>
+      <c r="G7" s="356" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="350"/>
-      <c r="I7" s="350"/>
-      <c r="J7" s="350"/>
-      <c r="K7" s="351"/>
-      <c r="L7" s="349" t="s">
+      <c r="H7" s="357"/>
+      <c r="I7" s="357"/>
+      <c r="J7" s="357"/>
+      <c r="K7" s="358"/>
+      <c r="L7" s="356" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="350"/>
-      <c r="N7" s="350"/>
-      <c r="O7" s="350"/>
-      <c r="P7" s="351"/>
+      <c r="M7" s="357"/>
+      <c r="N7" s="357"/>
+      <c r="O7" s="357"/>
+      <c r="P7" s="358"/>
       <c r="Q7" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="R7" s="360" t="s">
+      <c r="R7" s="359" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="360"/>
-      <c r="T7" s="360"/>
-      <c r="U7" s="360"/>
-      <c r="V7" s="355" t="s">
+      <c r="S7" s="359"/>
+      <c r="T7" s="359"/>
+      <c r="U7" s="359"/>
+      <c r="V7" s="367" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="355"/>
-      <c r="X7" s="356" t="s">
+      <c r="W7" s="367"/>
+      <c r="X7" s="368" t="s">
         <v>53</v>
       </c>
-      <c r="Y7" s="357"/>
-      <c r="Z7" s="349" t="s">
+      <c r="Y7" s="369"/>
+      <c r="Z7" s="356" t="s">
         <v>54</v>
       </c>
-      <c r="AA7" s="351"/>
-      <c r="AB7" s="349" t="s">
+      <c r="AA7" s="358"/>
+      <c r="AB7" s="356" t="s">
         <v>55</v>
       </c>
-      <c r="AC7" s="351"/>
-      <c r="AD7" s="349" t="s">
+      <c r="AC7" s="358"/>
+      <c r="AD7" s="356" t="s">
         <v>56</v>
       </c>
-      <c r="AE7" s="351"/>
-      <c r="AF7" s="349" t="s">
+      <c r="AE7" s="358"/>
+      <c r="AF7" s="356" t="s">
         <v>57</v>
       </c>
-      <c r="AG7" s="350"/>
-      <c r="AH7" s="351"/>
-      <c r="AI7" s="349" t="s">
+      <c r="AG7" s="357"/>
+      <c r="AH7" s="358"/>
+      <c r="AI7" s="356" t="s">
         <v>58</v>
       </c>
-      <c r="AJ7" s="350"/>
-      <c r="AK7" s="350"/>
-      <c r="AL7" s="350"/>
-      <c r="AM7" s="350"/>
-      <c r="AN7" s="351"/>
+      <c r="AJ7" s="357"/>
+      <c r="AK7" s="357"/>
+      <c r="AL7" s="357"/>
+      <c r="AM7" s="357"/>
+      <c r="AN7" s="358"/>
       <c r="BN7" s="150"/>
       <c r="BO7" s="150"/>
       <c r="BP7" s="150"/>
@@ -13450,13 +13450,13 @@
       <c r="A8" s="152">
         <v>1</v>
       </c>
-      <c r="B8" s="232" t="s">
+      <c r="B8" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="233"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="233"/>
-      <c r="F8" s="234"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="173"/>
       <c r="G8" s="177" t="s">
         <v>60</v>
       </c>
@@ -13480,14 +13480,14 @@
       <c r="S8" s="178"/>
       <c r="T8" s="178"/>
       <c r="U8" s="179"/>
-      <c r="V8" s="368">
+      <c r="V8" s="349">
         <v>10</v>
       </c>
-      <c r="W8" s="369"/>
-      <c r="X8" s="358" t="s">
+      <c r="W8" s="350"/>
+      <c r="X8" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="Y8" s="359"/>
+      <c r="Y8" s="352"/>
       <c r="Z8" s="177" t="s">
         <v>2</v>
       </c>
@@ -13496,23 +13496,23 @@
         <v>2</v>
       </c>
       <c r="AC8" s="179"/>
-      <c r="AD8" s="358" t="s">
+      <c r="AD8" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="AE8" s="359"/>
+      <c r="AE8" s="352"/>
       <c r="AF8" s="177" t="s">
         <v>2</v>
       </c>
       <c r="AG8" s="178"/>
       <c r="AH8" s="179"/>
-      <c r="AI8" s="232" t="s">
+      <c r="AI8" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="AJ8" s="233"/>
-      <c r="AK8" s="233"/>
-      <c r="AL8" s="233"/>
-      <c r="AM8" s="233"/>
-      <c r="AN8" s="234"/>
+      <c r="AJ8" s="172"/>
+      <c r="AK8" s="172"/>
+      <c r="AL8" s="172"/>
+      <c r="AM8" s="172"/>
+      <c r="AN8" s="173"/>
       <c r="AS8" s="154"/>
       <c r="AT8" s="154"/>
       <c r="AU8" s="155"/>
@@ -13578,13 +13578,13 @@
       <c r="A9" s="152">
         <v>2</v>
       </c>
-      <c r="B9" s="232" t="s">
+      <c r="B9" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="234"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="173"/>
       <c r="G9" s="177" t="s">
         <v>64</v>
       </c>
@@ -13608,15 +13608,15 @@
       <c r="S9" s="178"/>
       <c r="T9" s="178"/>
       <c r="U9" s="179"/>
-      <c r="V9" s="368">
+      <c r="V9" s="349">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W9" s="369"/>
-      <c r="X9" s="358" t="s">
+      <c r="W9" s="350"/>
+      <c r="X9" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="Y9" s="359"/>
+      <c r="Y9" s="352"/>
       <c r="Z9" s="177" t="s">
         <v>2</v>
       </c>
@@ -13625,23 +13625,23 @@
         <v>2</v>
       </c>
       <c r="AC9" s="179"/>
-      <c r="AD9" s="358" t="s">
+      <c r="AD9" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="AE9" s="359"/>
+      <c r="AE9" s="352"/>
       <c r="AF9" s="177" t="s">
         <v>2</v>
       </c>
       <c r="AG9" s="178"/>
       <c r="AH9" s="179"/>
-      <c r="AI9" s="232" t="s">
+      <c r="AI9" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="AJ9" s="233"/>
-      <c r="AK9" s="233"/>
-      <c r="AL9" s="233"/>
-      <c r="AM9" s="233"/>
-      <c r="AN9" s="234"/>
+      <c r="AJ9" s="172"/>
+      <c r="AK9" s="172"/>
+      <c r="AL9" s="172"/>
+      <c r="AM9" s="172"/>
+      <c r="AN9" s="173"/>
       <c r="AS9" s="154"/>
       <c r="AT9" s="154"/>
       <c r="AU9" s="155"/>
@@ -13707,13 +13707,13 @@
       <c r="A10" s="152">
         <v>3</v>
       </c>
-      <c r="B10" s="232" t="s">
+      <c r="B10" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="234"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="173"/>
       <c r="G10" s="177" t="s">
         <v>67</v>
       </c>
@@ -13737,15 +13737,15 @@
       <c r="S10" s="178"/>
       <c r="T10" s="178"/>
       <c r="U10" s="179"/>
-      <c r="V10" s="368">
+      <c r="V10" s="349">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W10" s="369"/>
-      <c r="X10" s="358" t="s">
+      <c r="W10" s="350"/>
+      <c r="X10" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="Y10" s="359"/>
+      <c r="Y10" s="352"/>
       <c r="Z10" s="177" t="s">
         <v>2</v>
       </c>
@@ -13754,23 +13754,23 @@
         <v>2</v>
       </c>
       <c r="AC10" s="179"/>
-      <c r="AD10" s="358" t="s">
+      <c r="AD10" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="AE10" s="359"/>
+      <c r="AE10" s="352"/>
       <c r="AF10" s="177" t="s">
         <v>2</v>
       </c>
       <c r="AG10" s="178"/>
       <c r="AH10" s="179"/>
-      <c r="AI10" s="232" t="s">
+      <c r="AI10" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="AJ10" s="233"/>
-      <c r="AK10" s="233"/>
-      <c r="AL10" s="233"/>
-      <c r="AM10" s="233"/>
-      <c r="AN10" s="234"/>
+      <c r="AJ10" s="172"/>
+      <c r="AK10" s="172"/>
+      <c r="AL10" s="172"/>
+      <c r="AM10" s="172"/>
+      <c r="AN10" s="173"/>
       <c r="AS10" s="154"/>
       <c r="AT10" s="154"/>
       <c r="AU10" s="155"/>
@@ -13836,13 +13836,13 @@
       <c r="A11" s="152">
         <v>4</v>
       </c>
-      <c r="B11" s="232" t="s">
+      <c r="B11" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="234"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="173"/>
       <c r="G11" s="177" t="s">
         <v>69</v>
       </c>
@@ -13866,15 +13866,15 @@
       <c r="S11" s="178"/>
       <c r="T11" s="178"/>
       <c r="U11" s="179"/>
-      <c r="V11" s="368">
+      <c r="V11" s="349">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W11" s="369"/>
-      <c r="X11" s="358" t="s">
+      <c r="W11" s="350"/>
+      <c r="X11" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="Y11" s="359"/>
+      <c r="Y11" s="352"/>
       <c r="Z11" s="177" t="s">
         <v>2</v>
       </c>
@@ -13883,23 +13883,23 @@
         <v>2</v>
       </c>
       <c r="AC11" s="179"/>
-      <c r="AD11" s="358" t="s">
+      <c r="AD11" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="AE11" s="359"/>
+      <c r="AE11" s="352"/>
       <c r="AF11" s="177" t="s">
         <v>2</v>
       </c>
       <c r="AG11" s="178"/>
       <c r="AH11" s="179"/>
-      <c r="AI11" s="232" t="s">
+      <c r="AI11" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="AJ11" s="233"/>
-      <c r="AK11" s="233"/>
-      <c r="AL11" s="233"/>
-      <c r="AM11" s="233"/>
-      <c r="AN11" s="234"/>
+      <c r="AJ11" s="172"/>
+      <c r="AK11" s="172"/>
+      <c r="AL11" s="172"/>
+      <c r="AM11" s="172"/>
+      <c r="AN11" s="173"/>
       <c r="AS11" s="154"/>
       <c r="AT11" s="154"/>
       <c r="AU11" s="155"/>
@@ -13965,13 +13965,13 @@
       <c r="A12" s="152">
         <v>5</v>
       </c>
-      <c r="B12" s="232" t="s">
+      <c r="B12" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="233"/>
-      <c r="D12" s="233"/>
-      <c r="E12" s="233"/>
-      <c r="F12" s="234"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="173"/>
       <c r="G12" s="177" t="s">
         <v>71</v>
       </c>
@@ -13995,14 +13995,14 @@
       <c r="S12" s="178"/>
       <c r="T12" s="178"/>
       <c r="U12" s="179"/>
-      <c r="V12" s="368">
+      <c r="V12" s="349">
         <v>10</v>
       </c>
-      <c r="W12" s="369"/>
-      <c r="X12" s="358" t="s">
+      <c r="W12" s="350"/>
+      <c r="X12" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="Y12" s="359"/>
+      <c r="Y12" s="352"/>
       <c r="Z12" s="177" t="s">
         <v>2</v>
       </c>
@@ -14011,23 +14011,23 @@
         <v>2</v>
       </c>
       <c r="AC12" s="179"/>
-      <c r="AD12" s="358" t="s">
+      <c r="AD12" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="AE12" s="359"/>
+      <c r="AE12" s="352"/>
       <c r="AF12" s="177" t="s">
         <v>74</v>
       </c>
       <c r="AG12" s="178"/>
       <c r="AH12" s="179"/>
-      <c r="AI12" s="232" t="s">
+      <c r="AI12" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="AJ12" s="233"/>
-      <c r="AK12" s="233"/>
-      <c r="AL12" s="233"/>
-      <c r="AM12" s="233"/>
-      <c r="AN12" s="234"/>
+      <c r="AJ12" s="172"/>
+      <c r="AK12" s="172"/>
+      <c r="AL12" s="172"/>
+      <c r="AM12" s="172"/>
+      <c r="AN12" s="173"/>
       <c r="AS12" s="154"/>
       <c r="AT12" s="154"/>
       <c r="AU12" s="155"/>
@@ -14093,13 +14093,13 @@
       <c r="A13" s="152">
         <v>6</v>
       </c>
-      <c r="B13" s="232" t="s">
+      <c r="B13" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="233"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="234"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="173"/>
       <c r="G13" s="177" t="s">
         <v>76</v>
       </c>
@@ -14123,14 +14123,14 @@
       <c r="S13" s="178"/>
       <c r="T13" s="178"/>
       <c r="U13" s="179"/>
-      <c r="V13" s="368">
+      <c r="V13" s="349">
         <v>10</v>
       </c>
-      <c r="W13" s="369"/>
-      <c r="X13" s="358" t="s">
+      <c r="W13" s="350"/>
+      <c r="X13" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="Y13" s="359"/>
+      <c r="Y13" s="352"/>
       <c r="Z13" s="177" t="s">
         <v>2</v>
       </c>
@@ -14139,23 +14139,23 @@
         <v>2</v>
       </c>
       <c r="AC13" s="179"/>
-      <c r="AD13" s="358" t="s">
+      <c r="AD13" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="AE13" s="359"/>
+      <c r="AE13" s="352"/>
       <c r="AF13" s="177" t="s">
         <v>74</v>
       </c>
       <c r="AG13" s="178"/>
       <c r="AH13" s="179"/>
-      <c r="AI13" s="232" t="s">
+      <c r="AI13" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="AJ13" s="233"/>
-      <c r="AK13" s="233"/>
-      <c r="AL13" s="233"/>
-      <c r="AM13" s="233"/>
-      <c r="AN13" s="234"/>
+      <c r="AJ13" s="172"/>
+      <c r="AK13" s="172"/>
+      <c r="AL13" s="172"/>
+      <c r="AM13" s="172"/>
+      <c r="AN13" s="173"/>
       <c r="AS13" s="154"/>
       <c r="AT13" s="154"/>
       <c r="AU13" s="155"/>
@@ -14221,13 +14221,13 @@
       <c r="A14" s="152">
         <v>7</v>
       </c>
-      <c r="B14" s="232" t="s">
+      <c r="B14" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="233"/>
-      <c r="D14" s="233"/>
-      <c r="E14" s="233"/>
-      <c r="F14" s="234"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="173"/>
       <c r="G14" s="177" t="s">
         <v>78</v>
       </c>
@@ -14251,14 +14251,14 @@
       <c r="S14" s="178"/>
       <c r="T14" s="178"/>
       <c r="U14" s="179"/>
-      <c r="V14" s="368">
+      <c r="V14" s="349">
         <v>11</v>
       </c>
-      <c r="W14" s="369"/>
-      <c r="X14" s="358" t="s">
+      <c r="W14" s="350"/>
+      <c r="X14" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="Y14" s="359"/>
+      <c r="Y14" s="352"/>
       <c r="Z14" s="177" t="s">
         <v>2</v>
       </c>
@@ -14267,23 +14267,23 @@
         <v>2</v>
       </c>
       <c r="AC14" s="179"/>
-      <c r="AD14" s="358" t="s">
+      <c r="AD14" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="AE14" s="359"/>
+      <c r="AE14" s="352"/>
       <c r="AF14" s="177" t="s">
         <v>2</v>
       </c>
       <c r="AG14" s="178"/>
       <c r="AH14" s="179"/>
-      <c r="AI14" s="232" t="s">
+      <c r="AI14" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="AJ14" s="233"/>
-      <c r="AK14" s="233"/>
-      <c r="AL14" s="233"/>
-      <c r="AM14" s="233"/>
-      <c r="AN14" s="234"/>
+      <c r="AJ14" s="172"/>
+      <c r="AK14" s="172"/>
+      <c r="AL14" s="172"/>
+      <c r="AM14" s="172"/>
+      <c r="AN14" s="173"/>
       <c r="AS14" s="154"/>
       <c r="AT14" s="154"/>
       <c r="AU14" s="155"/>
@@ -14349,13 +14349,13 @@
       <c r="A15" s="152">
         <v>8</v>
       </c>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="171" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="233"/>
-      <c r="D15" s="233"/>
-      <c r="E15" s="233"/>
-      <c r="F15" s="234"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="173"/>
       <c r="G15" s="177" t="s">
         <v>80</v>
       </c>
@@ -14379,14 +14379,14 @@
       <c r="S15" s="178"/>
       <c r="T15" s="178"/>
       <c r="U15" s="179"/>
-      <c r="V15" s="368">
+      <c r="V15" s="349">
         <v>11</v>
       </c>
-      <c r="W15" s="369"/>
-      <c r="X15" s="358" t="s">
+      <c r="W15" s="350"/>
+      <c r="X15" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="Y15" s="359"/>
+      <c r="Y15" s="352"/>
       <c r="Z15" s="177" t="s">
         <v>2</v>
       </c>
@@ -14395,23 +14395,23 @@
         <v>2</v>
       </c>
       <c r="AC15" s="179"/>
-      <c r="AD15" s="358" t="s">
+      <c r="AD15" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="AE15" s="359"/>
+      <c r="AE15" s="352"/>
       <c r="AF15" s="177" t="s">
         <v>2</v>
       </c>
       <c r="AG15" s="178"/>
       <c r="AH15" s="179"/>
-      <c r="AI15" s="232" t="s">
+      <c r="AI15" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="AJ15" s="233"/>
-      <c r="AK15" s="233"/>
-      <c r="AL15" s="233"/>
-      <c r="AM15" s="233"/>
-      <c r="AN15" s="234"/>
+      <c r="AJ15" s="172"/>
+      <c r="AK15" s="172"/>
+      <c r="AL15" s="172"/>
+      <c r="AM15" s="172"/>
+      <c r="AN15" s="173"/>
       <c r="AS15" s="154"/>
       <c r="AT15" s="154"/>
       <c r="AU15" s="155"/>
@@ -14477,13 +14477,13 @@
       <c r="A16" s="152">
         <v>9</v>
       </c>
-      <c r="B16" s="232" t="s">
+      <c r="B16" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="233"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="234"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="173"/>
       <c r="G16" s="177" t="s">
         <v>82</v>
       </c>
@@ -14507,15 +14507,15 @@
       <c r="S16" s="178"/>
       <c r="T16" s="178"/>
       <c r="U16" s="179"/>
-      <c r="V16" s="368">
+      <c r="V16" s="349">
         <f t="shared" ref="V16:V17" si="0">128*3</f>
         <v>384</v>
       </c>
-      <c r="W16" s="369"/>
-      <c r="X16" s="358" t="s">
+      <c r="W16" s="350"/>
+      <c r="X16" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="Y16" s="359"/>
+      <c r="Y16" s="352"/>
       <c r="Z16" s="177" t="s">
         <v>2</v>
       </c>
@@ -14524,23 +14524,23 @@
         <v>2</v>
       </c>
       <c r="AC16" s="179"/>
-      <c r="AD16" s="358" t="s">
+      <c r="AD16" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="AE16" s="359"/>
+      <c r="AE16" s="352"/>
       <c r="AF16" s="177" t="s">
         <v>2</v>
       </c>
       <c r="AG16" s="178"/>
       <c r="AH16" s="179"/>
-      <c r="AI16" s="232" t="s">
+      <c r="AI16" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="AJ16" s="233"/>
-      <c r="AK16" s="233"/>
-      <c r="AL16" s="233"/>
-      <c r="AM16" s="233"/>
-      <c r="AN16" s="234"/>
+      <c r="AJ16" s="172"/>
+      <c r="AK16" s="172"/>
+      <c r="AL16" s="172"/>
+      <c r="AM16" s="172"/>
+      <c r="AN16" s="173"/>
       <c r="AS16" s="154"/>
       <c r="AT16" s="154"/>
       <c r="AU16" s="155"/>
@@ -14606,13 +14606,13 @@
       <c r="A17" s="152">
         <v>10</v>
       </c>
-      <c r="B17" s="232" t="s">
+      <c r="B17" s="171" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="233"/>
-      <c r="D17" s="233"/>
-      <c r="E17" s="233"/>
-      <c r="F17" s="234"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="173"/>
       <c r="G17" s="177" t="s">
         <v>85</v>
       </c>
@@ -14636,15 +14636,15 @@
       <c r="S17" s="178"/>
       <c r="T17" s="178"/>
       <c r="U17" s="179"/>
-      <c r="V17" s="368">
+      <c r="V17" s="349">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
-      <c r="W17" s="369"/>
-      <c r="X17" s="358" t="s">
+      <c r="W17" s="350"/>
+      <c r="X17" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="Y17" s="359"/>
+      <c r="Y17" s="352"/>
       <c r="Z17" s="177" t="s">
         <v>2</v>
       </c>
@@ -14653,23 +14653,23 @@
         <v>2</v>
       </c>
       <c r="AC17" s="179"/>
-      <c r="AD17" s="358" t="s">
+      <c r="AD17" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="AE17" s="359"/>
+      <c r="AE17" s="352"/>
       <c r="AF17" s="177" t="s">
         <v>2</v>
       </c>
       <c r="AG17" s="178"/>
       <c r="AH17" s="179"/>
-      <c r="AI17" s="232" t="s">
+      <c r="AI17" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="AJ17" s="233"/>
-      <c r="AK17" s="233"/>
-      <c r="AL17" s="233"/>
-      <c r="AM17" s="233"/>
-      <c r="AN17" s="234"/>
+      <c r="AJ17" s="172"/>
+      <c r="AK17" s="172"/>
+      <c r="AL17" s="172"/>
+      <c r="AM17" s="172"/>
+      <c r="AN17" s="173"/>
       <c r="AS17" s="154"/>
       <c r="AT17" s="154"/>
       <c r="AU17" s="155"/>
@@ -14735,13 +14735,13 @@
       <c r="A18" s="152">
         <v>11</v>
       </c>
-      <c r="B18" s="232" t="s">
+      <c r="B18" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="233"/>
-      <c r="D18" s="233"/>
-      <c r="E18" s="233"/>
-      <c r="F18" s="234"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="173"/>
       <c r="G18" s="177" t="s">
         <v>86</v>
       </c>
@@ -14765,15 +14765,15 @@
       <c r="S18" s="178"/>
       <c r="T18" s="178"/>
       <c r="U18" s="179"/>
-      <c r="V18" s="368">
+      <c r="V18" s="349">
         <f>512*3</f>
         <v>1536</v>
       </c>
-      <c r="W18" s="369"/>
-      <c r="X18" s="358" t="s">
+      <c r="W18" s="350"/>
+      <c r="X18" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="Y18" s="359"/>
+      <c r="Y18" s="352"/>
       <c r="Z18" s="177" t="s">
         <v>2</v>
       </c>
@@ -14782,23 +14782,23 @@
         <v>2</v>
       </c>
       <c r="AC18" s="179"/>
-      <c r="AD18" s="358" t="s">
+      <c r="AD18" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="AE18" s="359"/>
+      <c r="AE18" s="352"/>
       <c r="AF18" s="177" t="s">
         <v>2</v>
       </c>
       <c r="AG18" s="178"/>
       <c r="AH18" s="179"/>
-      <c r="AI18" s="232" t="s">
+      <c r="AI18" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="AJ18" s="233"/>
-      <c r="AK18" s="233"/>
-      <c r="AL18" s="233"/>
-      <c r="AM18" s="233"/>
-      <c r="AN18" s="234"/>
+      <c r="AJ18" s="172"/>
+      <c r="AK18" s="172"/>
+      <c r="AL18" s="172"/>
+      <c r="AM18" s="172"/>
+      <c r="AN18" s="173"/>
       <c r="AS18" s="154"/>
       <c r="AT18" s="154"/>
       <c r="AU18" s="155"/>
@@ -14864,13 +14864,13 @@
       <c r="A19" s="152">
         <v>12</v>
       </c>
-      <c r="B19" s="232" t="s">
+      <c r="B19" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="233"/>
-      <c r="D19" s="233"/>
-      <c r="E19" s="233"/>
-      <c r="F19" s="234"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="173"/>
       <c r="G19" s="177" t="s">
         <v>88</v>
       </c>
@@ -14894,14 +14894,14 @@
       <c r="S19" s="178"/>
       <c r="T19" s="178"/>
       <c r="U19" s="179"/>
-      <c r="V19" s="368">
+      <c r="V19" s="349">
         <v>11</v>
       </c>
-      <c r="W19" s="369"/>
-      <c r="X19" s="358" t="s">
+      <c r="W19" s="350"/>
+      <c r="X19" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="Y19" s="359"/>
+      <c r="Y19" s="352"/>
       <c r="Z19" s="177" t="s">
         <v>2</v>
       </c>
@@ -14910,23 +14910,23 @@
         <v>2</v>
       </c>
       <c r="AC19" s="179"/>
-      <c r="AD19" s="358" t="s">
+      <c r="AD19" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="AE19" s="359"/>
+      <c r="AE19" s="352"/>
       <c r="AF19" s="177" t="s">
         <v>2</v>
       </c>
       <c r="AG19" s="178"/>
       <c r="AH19" s="179"/>
-      <c r="AI19" s="232" t="s">
+      <c r="AI19" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="AJ19" s="233"/>
-      <c r="AK19" s="233"/>
-      <c r="AL19" s="233"/>
-      <c r="AM19" s="233"/>
-      <c r="AN19" s="234"/>
+      <c r="AJ19" s="172"/>
+      <c r="AK19" s="172"/>
+      <c r="AL19" s="172"/>
+      <c r="AM19" s="172"/>
+      <c r="AN19" s="173"/>
       <c r="AS19" s="154"/>
       <c r="AT19" s="154"/>
       <c r="AU19" s="155"/>
@@ -14992,13 +14992,13 @@
       <c r="A20" s="152">
         <v>13</v>
       </c>
-      <c r="B20" s="232" t="s">
+      <c r="B20" s="171" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="233"/>
-      <c r="D20" s="233"/>
-      <c r="E20" s="233"/>
-      <c r="F20" s="234"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="173"/>
       <c r="G20" s="177" t="s">
         <v>90</v>
       </c>
@@ -15022,14 +15022,14 @@
       <c r="S20" s="178"/>
       <c r="T20" s="178"/>
       <c r="U20" s="179"/>
-      <c r="V20" s="368">
+      <c r="V20" s="349">
         <v>11</v>
       </c>
-      <c r="W20" s="369"/>
-      <c r="X20" s="358" t="s">
+      <c r="W20" s="350"/>
+      <c r="X20" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="Y20" s="359"/>
+      <c r="Y20" s="352"/>
       <c r="Z20" s="177" t="s">
         <v>2</v>
       </c>
@@ -15038,23 +15038,23 @@
         <v>2</v>
       </c>
       <c r="AC20" s="179"/>
-      <c r="AD20" s="358" t="s">
+      <c r="AD20" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="AE20" s="359"/>
+      <c r="AE20" s="352"/>
       <c r="AF20" s="177" t="s">
         <v>2</v>
       </c>
       <c r="AG20" s="178"/>
       <c r="AH20" s="179"/>
-      <c r="AI20" s="232" t="s">
+      <c r="AI20" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="AJ20" s="233"/>
-      <c r="AK20" s="233"/>
-      <c r="AL20" s="233"/>
-      <c r="AM20" s="233"/>
-      <c r="AN20" s="234"/>
+      <c r="AJ20" s="172"/>
+      <c r="AK20" s="172"/>
+      <c r="AL20" s="172"/>
+      <c r="AM20" s="172"/>
+      <c r="AN20" s="173"/>
       <c r="AS20" s="154"/>
       <c r="AT20" s="154"/>
       <c r="AU20" s="155"/>
@@ -15118,45 +15118,45 @@
     </row>
     <row r="21" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="152"/>
-      <c r="B21" s="232"/>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="234"/>
-      <c r="G21" s="365"/>
-      <c r="H21" s="366"/>
-      <c r="I21" s="366"/>
-      <c r="J21" s="366"/>
-      <c r="K21" s="367"/>
-      <c r="L21" s="232"/>
-      <c r="M21" s="233"/>
-      <c r="N21" s="233"/>
-      <c r="O21" s="233"/>
-      <c r="P21" s="234"/>
+      <c r="B21" s="171"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="353"/>
+      <c r="H21" s="354"/>
+      <c r="I21" s="354"/>
+      <c r="J21" s="354"/>
+      <c r="K21" s="355"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="172"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="172"/>
+      <c r="P21" s="173"/>
       <c r="Q21" s="153"/>
       <c r="R21" s="177"/>
       <c r="S21" s="178"/>
       <c r="T21" s="178"/>
       <c r="U21" s="179"/>
-      <c r="V21" s="368"/>
-      <c r="W21" s="369"/>
-      <c r="X21" s="358"/>
-      <c r="Y21" s="359"/>
+      <c r="V21" s="349"/>
+      <c r="W21" s="350"/>
+      <c r="X21" s="351"/>
+      <c r="Y21" s="352"/>
       <c r="Z21" s="177"/>
       <c r="AA21" s="179"/>
       <c r="AB21" s="177"/>
       <c r="AC21" s="179"/>
-      <c r="AD21" s="358"/>
-      <c r="AE21" s="359"/>
+      <c r="AD21" s="351"/>
+      <c r="AE21" s="352"/>
       <c r="AF21" s="177"/>
       <c r="AG21" s="178"/>
       <c r="AH21" s="179"/>
-      <c r="AI21" s="232"/>
-      <c r="AJ21" s="233"/>
-      <c r="AK21" s="233"/>
-      <c r="AL21" s="233"/>
-      <c r="AM21" s="233"/>
-      <c r="AN21" s="234"/>
+      <c r="AI21" s="171"/>
+      <c r="AJ21" s="172"/>
+      <c r="AK21" s="172"/>
+      <c r="AL21" s="172"/>
+      <c r="AM21" s="172"/>
+      <c r="AN21" s="173"/>
       <c r="AS21" s="154"/>
       <c r="AT21" s="154"/>
       <c r="AU21" s="155"/>
@@ -15220,45 +15220,45 @@
     </row>
     <row r="22" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="152"/>
-      <c r="B22" s="232"/>
-      <c r="C22" s="233"/>
-      <c r="D22" s="233"/>
-      <c r="E22" s="233"/>
-      <c r="F22" s="234"/>
-      <c r="G22" s="365"/>
-      <c r="H22" s="366"/>
-      <c r="I22" s="366"/>
-      <c r="J22" s="366"/>
-      <c r="K22" s="367"/>
-      <c r="L22" s="232"/>
-      <c r="M22" s="233"/>
-      <c r="N22" s="233"/>
-      <c r="O22" s="233"/>
-      <c r="P22" s="234"/>
+      <c r="B22" s="171"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="353"/>
+      <c r="H22" s="354"/>
+      <c r="I22" s="354"/>
+      <c r="J22" s="354"/>
+      <c r="K22" s="355"/>
+      <c r="L22" s="171"/>
+      <c r="M22" s="172"/>
+      <c r="N22" s="172"/>
+      <c r="O22" s="172"/>
+      <c r="P22" s="173"/>
       <c r="Q22" s="153"/>
       <c r="R22" s="177"/>
       <c r="S22" s="178"/>
       <c r="T22" s="178"/>
       <c r="U22" s="179"/>
-      <c r="V22" s="368"/>
-      <c r="W22" s="369"/>
-      <c r="X22" s="358"/>
-      <c r="Y22" s="359"/>
+      <c r="V22" s="349"/>
+      <c r="W22" s="350"/>
+      <c r="X22" s="351"/>
+      <c r="Y22" s="352"/>
       <c r="Z22" s="177"/>
       <c r="AA22" s="179"/>
       <c r="AB22" s="177"/>
       <c r="AC22" s="179"/>
-      <c r="AD22" s="358"/>
-      <c r="AE22" s="359"/>
+      <c r="AD22" s="351"/>
+      <c r="AE22" s="352"/>
       <c r="AF22" s="177"/>
       <c r="AG22" s="178"/>
       <c r="AH22" s="179"/>
-      <c r="AI22" s="232"/>
-      <c r="AJ22" s="233"/>
-      <c r="AK22" s="233"/>
-      <c r="AL22" s="233"/>
-      <c r="AM22" s="233"/>
-      <c r="AN22" s="234"/>
+      <c r="AI22" s="171"/>
+      <c r="AJ22" s="172"/>
+      <c r="AK22" s="172"/>
+      <c r="AL22" s="172"/>
+      <c r="AM22" s="172"/>
+      <c r="AN22" s="173"/>
       <c r="AS22" s="154"/>
       <c r="AT22" s="154"/>
       <c r="AU22" s="155"/>
@@ -15322,45 +15322,45 @@
     </row>
     <row r="23" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="152"/>
-      <c r="B23" s="232"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="234"/>
-      <c r="G23" s="232"/>
-      <c r="H23" s="233"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="233"/>
-      <c r="K23" s="234"/>
-      <c r="L23" s="232"/>
-      <c r="M23" s="233"/>
-      <c r="N23" s="233"/>
-      <c r="O23" s="233"/>
-      <c r="P23" s="234"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="173"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="172"/>
+      <c r="N23" s="172"/>
+      <c r="O23" s="172"/>
+      <c r="P23" s="173"/>
       <c r="Q23" s="153"/>
       <c r="R23" s="177"/>
       <c r="S23" s="178"/>
       <c r="T23" s="178"/>
       <c r="U23" s="179"/>
-      <c r="V23" s="361"/>
-      <c r="W23" s="362"/>
-      <c r="X23" s="363"/>
-      <c r="Y23" s="364"/>
-      <c r="Z23" s="358"/>
-      <c r="AA23" s="359"/>
+      <c r="V23" s="360"/>
+      <c r="W23" s="361"/>
+      <c r="X23" s="362"/>
+      <c r="Y23" s="363"/>
+      <c r="Z23" s="351"/>
+      <c r="AA23" s="352"/>
       <c r="AB23" s="177"/>
       <c r="AC23" s="179"/>
-      <c r="AD23" s="358"/>
-      <c r="AE23" s="359"/>
+      <c r="AD23" s="351"/>
+      <c r="AE23" s="352"/>
       <c r="AF23" s="177"/>
       <c r="AG23" s="178"/>
       <c r="AH23" s="179"/>
-      <c r="AI23" s="232"/>
-      <c r="AJ23" s="233"/>
-      <c r="AK23" s="233"/>
-      <c r="AL23" s="233"/>
-      <c r="AM23" s="233"/>
-      <c r="AN23" s="234"/>
+      <c r="AI23" s="171"/>
+      <c r="AJ23" s="172"/>
+      <c r="AK23" s="172"/>
+      <c r="AL23" s="172"/>
+      <c r="AM23" s="172"/>
+      <c r="AN23" s="173"/>
       <c r="AS23" s="154"/>
       <c r="AT23" s="154"/>
       <c r="AU23" s="155"/>
@@ -15424,117 +15424,75 @@
     </row>
   </sheetData>
   <mergeCells count="204">
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AI8:AN8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="AI9:AN9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AI11:AN11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AI14:AN14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AI15:AN15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AI16:AN16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AI17:AN17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AI7:AN7"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AI23:AN23"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AI22:AN22"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="AI20:AN20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AI21:AN21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
     <mergeCell ref="Z20:AA20"/>
     <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="AD20:AE20"/>
@@ -15559,75 +15517,117 @@
     <mergeCell ref="X18:Y18"/>
     <mergeCell ref="Z18:AA18"/>
     <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="AI20:AN20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AI21:AN21"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AI23:AN23"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AI22:AN22"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AI7:AN7"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AI16:AN16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AI17:AN17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AI15:AN15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AI11:AN11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AI8:AN8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="AI9:AN9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
